--- a/1.0.4/matrix/Validatiematrix v1.2.xlsx
+++ b/1.0.4/matrix/Validatiematrix v1.2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Default.DESKTOP-NDDI22K\Documents\Geonovum\github\xml_validatietestcontent\1.0.4\matrix\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC12BE5A-596E-4449-81BF-82BE87C3B572}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75CE2329-2AC4-4F8C-9E89-F522E34E042B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="348" windowWidth="23256" windowHeight="12720" tabRatio="670" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -5701,7 +5701,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -5729,6 +5729,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5954,7 +5960,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="78">
+  <cellXfs count="79">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -6186,6 +6192,9 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -8678,8 +8687,8 @@
   <dimension ref="A1:O670"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
+      <pane ySplit="1" topLeftCell="A487" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A507" sqref="A507"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -33205,7 +33214,7 @@
       </c>
     </row>
     <row r="510" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A510" s="38" t="s">
+      <c r="A510" s="78" t="s">
         <v>1168</v>
       </c>
       <c r="B510" s="38">

--- a/1.0.4/matrix/Validatiematrix v1.2.xlsx
+++ b/1.0.4/matrix/Validatiematrix v1.2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Default.DESKTOP-NDDI22K\Documents\Geonovum\github\xml_validatietestcontent\1.0.4\matrix\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75CE2329-2AC4-4F8C-9E89-F522E34E042B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99AD19D2-F2AC-4F86-AA28-86207DE890DF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="348" windowWidth="23256" windowHeight="12720" tabRatio="670" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -5701,7 +5701,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -5735,6 +5735,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5960,7 +5966,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="79">
+  <cellXfs count="80">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -6195,6 +6201,9 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -8687,8 +8696,8 @@
   <dimension ref="A1:O670"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A487" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A507" sqref="A507"/>
+      <pane ySplit="1" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -8851,7 +8860,7 @@
       <c r="A4" s="77" t="s">
         <v>1168</v>
       </c>
-      <c r="B4" s="38">
+      <c r="B4" s="79">
         <v>2</v>
       </c>
       <c r="C4" s="18" t="s">
@@ -33214,10 +33223,10 @@
       </c>
     </row>
     <row r="510" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A510" s="78" t="s">
-        <v>1168</v>
-      </c>
-      <c r="B510" s="38">
+      <c r="A510" s="77" t="s">
+        <v>1168</v>
+      </c>
+      <c r="B510" s="78">
         <v>4</v>
       </c>
       <c r="C510" s="18" t="s">
@@ -33310,10 +33319,10 @@
       </c>
     </row>
     <row r="512" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A512" s="38" t="s">
-        <v>1168</v>
-      </c>
-      <c r="B512" s="38">
+      <c r="A512" s="77" t="s">
+        <v>1168</v>
+      </c>
+      <c r="B512" s="78">
         <v>4</v>
       </c>
       <c r="C512" s="18" t="s">

--- a/1.0.4/matrix/Validatiematrix v1.2.xlsx
+++ b/1.0.4/matrix/Validatiematrix v1.2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Default.DESKTOP-NDDI22K\Documents\Geonovum\github\xml_validatietestcontent\1.0.4\matrix\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99AD19D2-F2AC-4F86-AA28-86207DE890DF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BA3513A-365A-4C39-9AAB-58B6987BDAE2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="348" windowWidth="23256" windowHeight="12720" tabRatio="670" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -8696,8 +8696,8 @@
   <dimension ref="A1:O670"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B13" sqref="B13"/>
+      <pane ySplit="1" topLeftCell="A612" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B632" sqref="B632"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -38657,7 +38657,7 @@
         <v>466</v>
       </c>
       <c r="D623" s="18" t="s">
-        <v>269</v>
+        <v>501</v>
       </c>
       <c r="E623" s="18" t="s">
         <v>459</v>
@@ -39127,10 +39127,10 @@
       </c>
     </row>
     <row r="633" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A633" s="38" t="s">
-        <v>1168</v>
-      </c>
-      <c r="B633" s="38">
+      <c r="A633" s="77" t="s">
+        <v>1168</v>
+      </c>
+      <c r="B633" s="78">
         <v>8</v>
       </c>
       <c r="C633" s="18" t="s">

--- a/1.0.4/matrix/Validatiematrix v1.2.xlsx
+++ b/1.0.4/matrix/Validatiematrix v1.2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Default.DESKTOP-NDDI22K\Documents\Geonovum\github\xml_validatietestcontent\1.0.4\matrix\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BA3513A-365A-4C39-9AAB-58B6987BDAE2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F58880B5-E55F-44E9-918A-292BCA2A3E91}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="348" windowWidth="23256" windowHeight="12720" tabRatio="670" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -5701,7 +5701,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -5741,6 +5741,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5966,7 +5972,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="80">
+  <cellXfs count="81">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -6204,6 +6210,9 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -8696,8 +8705,8 @@
   <dimension ref="A1:O670"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A612" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B632" sqref="B632"/>
+      <pane ySplit="1" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -8905,10 +8914,10 @@
       </c>
     </row>
     <row r="5" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="38" t="s">
-        <v>1168</v>
-      </c>
-      <c r="B5" s="38">
+      <c r="A5" s="77" t="s">
+        <v>1168</v>
+      </c>
+      <c r="B5" s="80">
         <v>2</v>
       </c>
       <c r="C5" s="18" t="s">

--- a/1.0.4/matrix/Validatiematrix v1.2.xlsx
+++ b/1.0.4/matrix/Validatiematrix v1.2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Default.DESKTOP-NDDI22K\Documents\Geonovum\github\xml_validatietestcontent\1.0.4\matrix\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F58880B5-E55F-44E9-918A-292BCA2A3E91}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11E0AB6D-26B3-426A-8E3B-68CD0261547C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="348" windowWidth="23256" windowHeight="12720" tabRatio="670" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -8706,7 +8706,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D7" sqref="D7"/>
+      <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -8962,10 +8962,10 @@
       </c>
     </row>
     <row r="6" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="38" t="s">
-        <v>1168</v>
-      </c>
-      <c r="B6" s="38">
+      <c r="A6" s="77" t="s">
+        <v>1168</v>
+      </c>
+      <c r="B6" s="80">
         <v>2</v>
       </c>
       <c r="C6" s="18" t="s">

--- a/1.0.4/matrix/Validatiematrix v1.2.xlsx
+++ b/1.0.4/matrix/Validatiematrix v1.2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Default.DESKTOP-NDDI22K\Documents\Geonovum\github\xml_validatietestcontent\1.0.4\matrix\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11E0AB6D-26B3-426A-8E3B-68CD0261547C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6797F3C2-7BDE-4E2A-8DC0-70D9471EC0FF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="348" windowWidth="23256" windowHeight="12720" tabRatio="670" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -8706,7 +8706,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
+      <selection pane="bottomLeft" activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -9010,10 +9010,10 @@
       </c>
     </row>
     <row r="7" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="38" t="s">
-        <v>1168</v>
-      </c>
-      <c r="B7" s="38">
+      <c r="A7" s="77" t="s">
+        <v>1168</v>
+      </c>
+      <c r="B7" s="80">
         <v>2</v>
       </c>
       <c r="C7" s="18" t="s">

--- a/1.0.4/matrix/Validatiematrix v1.2.xlsx
+++ b/1.0.4/matrix/Validatiematrix v1.2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Default.DESKTOP-NDDI22K\Documents\Geonovum\github\xml_validatietestcontent\1.0.4\matrix\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6797F3C2-7BDE-4E2A-8DC0-70D9471EC0FF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FD858AC-464D-493B-B4D1-595453110C92}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="348" windowWidth="23256" windowHeight="12720" tabRatio="670" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -8706,7 +8706,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A8" sqref="A8"/>
+      <selection pane="bottomLeft" activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -9058,10 +9058,10 @@
       </c>
     </row>
     <row r="8" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="38" t="s">
-        <v>1168</v>
-      </c>
-      <c r="B8" s="38">
+      <c r="A8" s="77" t="s">
+        <v>1168</v>
+      </c>
+      <c r="B8" s="80">
         <v>2</v>
       </c>
       <c r="C8" s="18" t="s">

--- a/1.0.4/matrix/Validatiematrix v1.2.xlsx
+++ b/1.0.4/matrix/Validatiematrix v1.2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Default.DESKTOP-NDDI22K\Documents\Geonovum\github\xml_validatietestcontent\1.0.4\matrix\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FD858AC-464D-493B-B4D1-595453110C92}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{711505EC-C5AB-43DF-A212-BBEBDA110922}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="348" windowWidth="23256" windowHeight="12720" tabRatio="670" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -8706,7 +8706,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B8" sqref="B8"/>
+      <selection pane="bottomLeft" activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -9106,10 +9106,10 @@
       </c>
     </row>
     <row r="9" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="38" t="s">
-        <v>1168</v>
-      </c>
-      <c r="B9" s="38">
+      <c r="A9" s="77" t="s">
+        <v>1168</v>
+      </c>
+      <c r="B9" s="80">
         <v>2</v>
       </c>
       <c r="C9" s="18" t="s">

--- a/1.0.4/matrix/Validatiematrix v1.2.xlsx
+++ b/1.0.4/matrix/Validatiematrix v1.2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Default.DESKTOP-NDDI22K\Documents\Geonovum\github\xml_validatietestcontent\1.0.4\matrix\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{711505EC-C5AB-43DF-A212-BBEBDA110922}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{161DD86C-60CC-4E1B-AA68-A8460B4BC579}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="348" windowWidth="23256" windowHeight="12720" tabRatio="670" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9487" uniqueCount="1755">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9487" uniqueCount="1756">
   <si>
     <t>Is Opdracht.zip een geldige zip</t>
   </si>
@@ -5554,6 +5554,9 @@
   </si>
   <si>
     <t>Alle IDs binnen 1 locatie/geometrie MOETEN afgeleid zijn van dezelfde GUID (gml:id en basisgeo:id van het Geometrie-object en gml:id van het geometrietype zijn gebaseerd op dezelfde GUID, gecorrigeerd voor id- ervoor en -xx erachter)</t>
+  </si>
+  <si>
+    <t>BHKV1009 (geeft onterecht ook fout BHKV1008)</t>
   </si>
 </sst>
 </file>
@@ -9154,14 +9157,14 @@
       </c>
     </row>
     <row r="10" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="38" t="s">
-        <v>1168</v>
-      </c>
-      <c r="B10" s="38">
+      <c r="A10" s="77" t="s">
+        <v>1168</v>
+      </c>
+      <c r="B10" s="79">
         <v>2</v>
       </c>
       <c r="C10" s="18" t="s">
-        <v>1022</v>
+        <v>1755</v>
       </c>
       <c r="D10" s="18" t="s">
         <v>976</v>
@@ -9198,7 +9201,7 @@
       </c>
       <c r="O10" s="69" t="str">
         <f>IF(A10="Verwijderd","Validatie is verwijderd, dus meldingstekst is niet van toepassing",IF(ISNA(VLOOKUP(C10,Sheet1!A$1:B$385,2,0)),"Meldingstekst moet aangevuld worden",VLOOKUP(C10,Sheet1!A$1:B$385,2,0)))</f>
-        <v>In het besluit is de eId[waarde van eId] voor de BeoogdeRegeling niet te vinden. Controleer de referentie naar het besluit.</v>
+        <v>Meldingstekst moet aangevuld worden</v>
       </c>
     </row>
     <row r="11" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -40968,7 +40971,7 @@
     </filterColumn>
   </autoFilter>
   <phoneticPr fontId="5" type="noConversion"/>
-  <conditionalFormatting sqref="F335:F339 C111:C115 F397:F408 F322:F333 F201 F269:F271 F267 F265 F259:F260 F223:F225 F219:F220 F214:F216 F203:F205 F291:G291 E450 H400:N408 G322:N339 E444:N445 M468:N475 B41:C53 B57:C63 B93:C95 B131:C138 M113:N116 G131:G138 M131:N138 B74:C81 M197:N197 G197 M41:N49 M51:N53 M57:N63 M74:N80 M88:N90 M93:N95 G51:G53 G57:G63 G74:G80 G88:G90 G93:G95 M577:N592 B66:C68 G66:G68 M66:N68 B108:C110 G108:G116 M108:N111 B148:C154 B83:C90 G84:G86 M84:N86 C116:D123 B144:C145 M144:N145 G144:G145 H155:N168 M148:N168 G148:G168 G201:N206 M451:N454 G505:G514 M504:N514 F208:N210 F212 F227:F230 G212:N230 G257:N260 F257 G118:G122 M118:N122 C126:D128 F370:F373 F346:G349 H346:N366 G370:G375 G385:G408 M596:N639 H370:N378 H385:N396 G39:G49 G37 A2:A3 A39:B68 B70:C70 A70:B90 M70:N70 G70 B1:O1 A92:B124 A126:B138 A140:B141 A144:B171 A197:B250 A255:B260 A262:B514 G262:N276 F262:F263 M641:N670 A37:B37 A25:A36 A5:C24 M5:N19 G5:G19 A516:B670 A515 M516:N575 G516:G670">
+  <conditionalFormatting sqref="F335:F339 C111:C115 F397:F408 F322:F333 F201 F269:F271 F267 F265 F259:F260 F223:F225 F219:F220 F214:F216 F203:F205 F291:G291 E450 H400:N408 G322:N339 E444:N445 M468:N475 B41:C53 B57:C63 B93:C95 B131:C138 M113:N116 G131:G138 M131:N138 B74:C81 M197:N197 G197 M41:N49 M51:N53 M57:N63 M74:N80 M88:N90 M93:N95 G51:G53 G57:G63 G74:G80 G88:G90 G93:G95 M577:N592 B66:C68 G66:G68 M66:N68 B108:C110 G108:G116 M108:N111 B148:C154 B83:C90 G84:G86 M84:N86 C116:D123 B144:C145 M144:N145 G144:G145 H155:N168 M148:N168 G148:G168 G201:N206 M451:N454 G505:G514 M504:N514 F208:N210 F212 F227:F230 G212:N230 G257:N260 F257 G118:G122 M118:N122 C126:D128 F370:F373 F346:G349 H346:N366 G370:G375 G385:G408 M596:N639 H370:N378 H385:N396 G39:G49 G37 A2:A3 A39:B68 B70:C70 A70:B90 M70:N70 G70 B1:O1 A92:B124 A126:B138 A140:B141 A144:B171 A197:B250 A255:B260 A262:B514 G262:N276 F262:F263 M641:N670 A37:B37 A25:A36 M5:N19 G5:G19 A516:B670 A515 M516:N575 G516:G670 A5:C24">
     <cfRule type="containsText" dxfId="210" priority="366" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",A1)))</formula>
     </cfRule>

--- a/1.0.4/matrix/Validatiematrix v1.2.xlsx
+++ b/1.0.4/matrix/Validatiematrix v1.2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Default.DESKTOP-NDDI22K\Documents\Geonovum\github\xml_validatietestcontent\1.0.4\matrix\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{161DD86C-60CC-4E1B-AA68-A8460B4BC579}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D8F3A51-4E85-4CF1-962A-48A8D7293928}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="348" windowWidth="23256" windowHeight="12720" tabRatio="670" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9487" uniqueCount="1756">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9487" uniqueCount="1758">
   <si>
     <t>Is Opdracht.zip een geldige zip</t>
   </si>
@@ -5557,6 +5557,12 @@
   </si>
   <si>
     <t>BHKV1009 (geeft onterecht ook fout BHKV1008)</t>
+  </si>
+  <si>
+    <t>BHKV1010 (geeft onterecht ook fout BHKV1008)</t>
+  </si>
+  <si>
+    <t>BHKV1003 (geeft onterecht ook fout BHKV1036)</t>
   </si>
 </sst>
 </file>
@@ -6212,11 +6218,11 @@
     <xf numFmtId="0" fontId="8" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="8">
@@ -8709,7 +8715,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C10" sqref="C10"/>
+      <selection pane="bottomLeft" activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -8875,8 +8881,8 @@
       <c r="B4" s="79">
         <v>2</v>
       </c>
-      <c r="C4" s="18" t="s">
-        <v>1016</v>
+      <c r="C4" s="80" t="s">
+        <v>1757</v>
       </c>
       <c r="D4" s="18" t="s">
         <v>974</v>
@@ -8913,14 +8919,14 @@
       </c>
       <c r="O4" s="69" t="str">
         <f>IF(A4="Verwijderd","Validatie is verwijderd, dus meldingstekst is niet van toepassing",IF(ISNA(VLOOKUP(C4,Sheet1!A$1:B$385,2,0)),"Meldingstekst moet aangevuld worden",VLOOKUP(C4,Sheet1!A$1:B$385,2,0)))</f>
-        <v>De eId[waarde van ref] van BeoogdInformatieobject komt niet voor als eId van een ExtIoRef, Controleer de referenties naar de ExtIoRef's /&gt;</v>
+        <v>Meldingstekst moet aangevuld worden</v>
       </c>
     </row>
     <row r="5" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="77" t="s">
         <v>1168</v>
       </c>
-      <c r="B5" s="80">
+      <c r="B5" s="79">
         <v>2</v>
       </c>
       <c r="C5" s="18" t="s">
@@ -8968,7 +8974,7 @@
       <c r="A6" s="77" t="s">
         <v>1168</v>
       </c>
-      <c r="B6" s="80">
+      <c r="B6" s="79">
         <v>2</v>
       </c>
       <c r="C6" s="18" t="s">
@@ -9016,7 +9022,7 @@
       <c r="A7" s="77" t="s">
         <v>1168</v>
       </c>
-      <c r="B7" s="80">
+      <c r="B7" s="79">
         <v>2</v>
       </c>
       <c r="C7" s="18" t="s">
@@ -9064,7 +9070,7 @@
       <c r="A8" s="77" t="s">
         <v>1168</v>
       </c>
-      <c r="B8" s="80">
+      <c r="B8" s="79">
         <v>2</v>
       </c>
       <c r="C8" s="18" t="s">
@@ -9112,7 +9118,7 @@
       <c r="A9" s="77" t="s">
         <v>1168</v>
       </c>
-      <c r="B9" s="80">
+      <c r="B9" s="79">
         <v>2</v>
       </c>
       <c r="C9" s="18" t="s">
@@ -9163,7 +9169,7 @@
       <c r="B10" s="79">
         <v>2</v>
       </c>
-      <c r="C10" s="18" t="s">
+      <c r="C10" s="80" t="s">
         <v>1755</v>
       </c>
       <c r="D10" s="18" t="s">
@@ -9205,14 +9211,14 @@
       </c>
     </row>
     <row r="11" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="38" t="s">
-        <v>1168</v>
-      </c>
-      <c r="B11" s="38">
+      <c r="A11" s="77" t="s">
+        <v>1168</v>
+      </c>
+      <c r="B11" s="79">
         <v>2</v>
       </c>
-      <c r="C11" s="18" t="s">
-        <v>1023</v>
+      <c r="C11" s="80" t="s">
+        <v>1756</v>
       </c>
       <c r="D11" s="18" t="s">
         <v>977</v>
@@ -9249,7 +9255,7 @@
       </c>
       <c r="O11" s="69" t="str">
         <f>IF(A11="Verwijderd","Validatie is verwijderd, dus meldingstekst is niet van toepassing",IF(ISNA(VLOOKUP(C11,Sheet1!A$1:B$385,2,0)),"Meldingstekst moet aangevuld worden",VLOOKUP(C11,Sheet1!A$1:B$385,2,0)))</f>
-        <v>In het besluit is de eId[waarde van eId] voor de tijdstempel niet te vinden. Controleer de referentie naar het besluit.</v>
+        <v>Meldingstekst moet aangevuld worden</v>
       </c>
     </row>
     <row r="12" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">

--- a/1.0.4/matrix/Validatiematrix v1.2.xlsx
+++ b/1.0.4/matrix/Validatiematrix v1.2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Default.DESKTOP-NDDI22K\Documents\Geonovum\github\xml_validatietestcontent\1.0.4\matrix\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D8F3A51-4E85-4CF1-962A-48A8D7293928}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77C19E3C-26A4-4B22-9072-30BA5058EC59}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="348" windowWidth="23256" windowHeight="12720" tabRatio="670" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9487" uniqueCount="1758">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9487" uniqueCount="1759">
   <si>
     <t>Is Opdracht.zip een geldige zip</t>
   </si>
@@ -5563,6 +5563,9 @@
   </si>
   <si>
     <t>BHKV1003 (geeft onterecht ook fout BHKV1036)</t>
+  </si>
+  <si>
+    <t>BHKV1011 (geeft onterecht ook fout BHKV1008)</t>
   </si>
 </sst>
 </file>
@@ -8715,7 +8718,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C4" sqref="C4"/>
+      <selection pane="bottomLeft" activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -9259,14 +9262,14 @@
       </c>
     </row>
     <row r="12" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="38" t="s">
-        <v>1168</v>
-      </c>
-      <c r="B12" s="38">
+      <c r="A12" s="77" t="s">
+        <v>1168</v>
+      </c>
+      <c r="B12" s="79">
         <v>2</v>
       </c>
-      <c r="C12" s="18" t="s">
-        <v>1024</v>
+      <c r="C12" s="80" t="s">
+        <v>1758</v>
       </c>
       <c r="D12" s="18" t="s">
         <v>978</v>
@@ -9303,7 +9306,7 @@
       </c>
       <c r="O12" s="69" t="str">
         <f>IF(A12="Verwijderd","Validatie is verwijderd, dus meldingstekst is niet van toepassing",IF(ISNA(VLOOKUP(C12,Sheet1!A$1:B$385,2,0)),"Meldingstekst moet aangevuld worden",VLOOKUP(C12,Sheet1!A$1:B$385,2,0)))</f>
-        <v>In het besluit is de eId[waarde van eId] voor de data:Intrekking niet te vinden. Controleer de referentie naar het besluit.</v>
+        <v>Meldingstekst moet aangevuld worden</v>
       </c>
     </row>
     <row r="13" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">

--- a/1.0.4/matrix/Validatiematrix v1.2.xlsx
+++ b/1.0.4/matrix/Validatiematrix v1.2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Default.DESKTOP-NDDI22K\Documents\Geonovum\github\xml_validatietestcontent\1.0.4\matrix\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77C19E3C-26A4-4B22-9072-30BA5058EC59}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58A24EDE-468A-4995-BF98-39D1E03BD939}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="348" windowWidth="23256" windowHeight="12720" tabRatio="670" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9487" uniqueCount="1759">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9488" uniqueCount="1761">
   <si>
     <t>Is Opdracht.zip een geldige zip</t>
   </si>
@@ -5566,6 +5566,12 @@
   </si>
   <si>
     <t>BHKV1011 (geeft onterecht ook fout BHKV1008)</t>
+  </si>
+  <si>
+    <t>BHKV1012 (geeft onterecht ook fout BHKV1008)</t>
+  </si>
+  <si>
+    <t>2 (fout situatie wordt niet herkend)</t>
   </si>
 </sst>
 </file>
@@ -5713,7 +5719,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -5759,6 +5765,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5984,7 +5996,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="81">
+  <cellXfs count="82">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -6226,6 +6238,9 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="8">
@@ -8718,7 +8733,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A13" sqref="A13"/>
+      <selection pane="bottomLeft" activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -9310,14 +9325,14 @@
       </c>
     </row>
     <row r="13" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="38" t="s">
-        <v>1168</v>
-      </c>
-      <c r="B13" s="38">
-        <v>2</v>
-      </c>
-      <c r="C13" s="18" t="s">
-        <v>1025</v>
+      <c r="A13" s="77" t="s">
+        <v>1168</v>
+      </c>
+      <c r="B13" s="81" t="s">
+        <v>1760</v>
+      </c>
+      <c r="C13" s="80" t="s">
+        <v>1759</v>
       </c>
       <c r="D13" s="18" t="s">
         <v>979</v>
@@ -9354,7 +9369,7 @@
       </c>
       <c r="O13" s="69" t="str">
         <f>IF(A13="Verwijderd","Validatie is verwijderd, dus meldingstekst is niet van toepassing",IF(ISNA(VLOOKUP(C13,Sheet1!A$1:B$385,2,0)),"Meldingstekst moet aangevuld worden",VLOOKUP(C13,Sheet1!A$1:B$385,2,0)))</f>
-        <v>De versie aanduiding voor de wordt-versie komt niet overeen met de work-identificatie[waarde van id] .</v>
+        <v>Meldingstekst moet aangevuld worden</v>
       </c>
     </row>
     <row r="14" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">

--- a/1.0.4/matrix/Validatiematrix v1.2.xlsx
+++ b/1.0.4/matrix/Validatiematrix v1.2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Default.DESKTOP-NDDI22K\Documents\Geonovum\github\xml_validatietestcontent\1.0.4\matrix\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58A24EDE-468A-4995-BF98-39D1E03BD939}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F982AFA0-128A-41A4-9E1B-A22FD5D62BF5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="348" windowWidth="23256" windowHeight="12720" tabRatio="670" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9488" uniqueCount="1761">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9489" uniqueCount="1762">
   <si>
     <t>Is Opdracht.zip een geldige zip</t>
   </si>
@@ -5572,6 +5572,9 @@
   </si>
   <si>
     <t>2 (fout situatie wordt niet herkend)</t>
+  </si>
+  <si>
+    <t>BHKV1014 (geeft onterecht ook fout BHKV1008)</t>
   </si>
 </sst>
 </file>
@@ -8733,7 +8736,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B13" sqref="B13"/>
+      <selection pane="bottomLeft" activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -9421,14 +9424,14 @@
       </c>
     </row>
     <row r="15" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="38" t="s">
-        <v>1168</v>
-      </c>
-      <c r="B15" s="38">
-        <v>2</v>
+      <c r="A15" s="77" t="s">
+        <v>1168</v>
+      </c>
+      <c r="B15" s="81" t="s">
+        <v>1760</v>
       </c>
       <c r="C15" s="18" t="s">
-        <v>1027</v>
+        <v>1761</v>
       </c>
       <c r="D15" s="18" t="s">
         <v>981</v>
@@ -9465,7 +9468,7 @@
       </c>
       <c r="O15" s="69" t="str">
         <f>IF(A15="Verwijderd","Validatie is verwijderd, dus meldingstekst is niet van toepassing",IF(ISNA(VLOOKUP(C15,Sheet1!A$1:B$385,2,0)),"Meldingstekst moet aangevuld worden",VLOOKUP(C15,Sheet1!A$1:B$385,2,0)))</f>
-        <v>Element data:heeftBestanden van[waarde van Expression-ID] heeft géén of meer dan één bestand. Dit is niet toegestaan, lever slechts één bestand aan.</v>
+        <v>Meldingstekst moet aangevuld worden</v>
       </c>
     </row>
     <row r="16" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">

--- a/1.0.4/matrix/Validatiematrix v1.2.xlsx
+++ b/1.0.4/matrix/Validatiematrix v1.2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Default.DESKTOP-NDDI22K\Documents\Geonovum\github\xml_validatietestcontent\1.0.4\matrix\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F982AFA0-128A-41A4-9E1B-A22FD5D62BF5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C1CB765-069A-457E-B9B4-64D85ED2768B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="348" windowWidth="23256" windowHeight="12720" tabRatio="670" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9489" uniqueCount="1762">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9490" uniqueCount="1764">
   <si>
     <t>Is Opdracht.zip een geldige zip</t>
   </si>
@@ -5575,6 +5575,12 @@
   </si>
   <si>
     <t>BHKV1014 (geeft onterecht ook fout BHKV1008)</t>
+  </si>
+  <si>
+    <t>2  (fout situatie wordt niet herkend)</t>
+  </si>
+  <si>
+    <t>BHKV1015 (geeft onterecht ook fout BHKV1008)</t>
   </si>
 </sst>
 </file>
@@ -8736,7 +8742,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C15" sqref="C15"/>
+      <selection pane="bottomLeft" activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -9430,7 +9436,7 @@
       <c r="B15" s="81" t="s">
         <v>1760</v>
       </c>
-      <c r="C15" s="18" t="s">
+      <c r="C15" s="80" t="s">
         <v>1761</v>
       </c>
       <c r="D15" s="18" t="s">
@@ -9472,14 +9478,14 @@
       </c>
     </row>
     <row r="16" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="38" t="s">
-        <v>1168</v>
-      </c>
-      <c r="B16" s="38">
-        <v>2</v>
-      </c>
-      <c r="C16" s="18" t="s">
-        <v>1028</v>
+      <c r="A16" s="77" t="s">
+        <v>1168</v>
+      </c>
+      <c r="B16" s="81" t="s">
+        <v>1762</v>
+      </c>
+      <c r="C16" s="80" t="s">
+        <v>1763</v>
       </c>
       <c r="D16" s="18" t="s">
         <v>982</v>
@@ -9516,7 +9522,7 @@
       </c>
       <c r="O16" s="69" t="str">
         <f>IF(A16="Verwijderd","Validatie is verwijderd, dus meldingstekst is niet van toepassing",IF(ISNA(VLOOKUP(C16,Sheet1!A$1:B$385,2,0)),"Meldingstekst moet aangevuld worden",VLOOKUP(C16,Sheet1!A$1:B$385,2,0)))</f>
-        <v>heeftGeboorteregeling voor[waarde van id] is niet aanwezig, is verplicht wanneer soortWork=work_010 èn formaatinformatieobject=gio_002. Voeg de AKN-identificatie voor heeftGeboorteregeling toe.</v>
+        <v>Meldingstekst moet aangevuld worden</v>
       </c>
     </row>
     <row r="17" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">

--- a/1.0.4/matrix/Validatiematrix v1.2.xlsx
+++ b/1.0.4/matrix/Validatiematrix v1.2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Default.DESKTOP-NDDI22K\Documents\Geonovum\github\xml_validatietestcontent\1.0.4\matrix\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C1CB765-069A-457E-B9B4-64D85ED2768B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABC23E4B-6E6E-4B59-9472-89F2423BC9F9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="348" windowWidth="23256" windowHeight="12720" tabRatio="670" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9490" uniqueCount="1764">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9491" uniqueCount="1764">
   <si>
     <t>Is Opdracht.zip een geldige zip</t>
   </si>
@@ -5577,10 +5577,10 @@
     <t>BHKV1014 (geeft onterecht ook fout BHKV1008)</t>
   </si>
   <si>
-    <t>2  (fout situatie wordt niet herkend)</t>
-  </si>
-  <si>
     <t>BHKV1015 (geeft onterecht ook fout BHKV1008)</t>
+  </si>
+  <si>
+    <t>BHKV1016 (geeft onterecht ook fout BHKV1008)</t>
   </si>
 </sst>
 </file>
@@ -8742,7 +8742,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C16" sqref="C16"/>
+      <selection pane="bottomLeft" activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -9482,10 +9482,10 @@
         <v>1168</v>
       </c>
       <c r="B16" s="81" t="s">
+        <v>1760</v>
+      </c>
+      <c r="C16" s="80" t="s">
         <v>1762</v>
-      </c>
-      <c r="C16" s="80" t="s">
-        <v>1763</v>
       </c>
       <c r="D16" s="18" t="s">
         <v>982</v>
@@ -9526,14 +9526,14 @@
       </c>
     </row>
     <row r="17" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="38" t="s">
-        <v>1168</v>
-      </c>
-      <c r="B17" s="38">
-        <v>2</v>
-      </c>
-      <c r="C17" s="18" t="s">
-        <v>1029</v>
+      <c r="A17" s="77" t="s">
+        <v>1168</v>
+      </c>
+      <c r="B17" s="81" t="s">
+        <v>1760</v>
+      </c>
+      <c r="C17" s="80" t="s">
+        <v>1763</v>
       </c>
       <c r="D17" s="18" t="s">
         <v>983</v>
@@ -9570,7 +9570,7 @@
       </c>
       <c r="O17" s="69" t="str">
         <f>IF(A17="Verwijderd","Validatie is verwijderd, dus meldingstekst is niet van toepassing",IF(ISNA(VLOOKUP(C17,Sheet1!A$1:B$385,2,0)),"Meldingstekst moet aangevuld worden",VLOOKUP(C17,Sheet1!A$1:B$385,2,0)))</f>
-        <v>Het aangeleverde informatieobject[waarde van id] heeft als soortWork[waarde van work] dit moet '/join/id/stop/work_010' zijn.</v>
+        <v>Meldingstekst moet aangevuld worden</v>
       </c>
     </row>
     <row r="18" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">

--- a/1.0.4/matrix/Validatiematrix v1.2.xlsx
+++ b/1.0.4/matrix/Validatiematrix v1.2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Default.DESKTOP-NDDI22K\Documents\Geonovum\github\xml_validatietestcontent\1.0.4\matrix\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABC23E4B-6E6E-4B59-9472-89F2423BC9F9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93A8011B-D82F-433F-8151-32ABC9520960}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="348" windowWidth="23256" windowHeight="12720" tabRatio="670" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9491" uniqueCount="1764">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9492" uniqueCount="1765">
   <si>
     <t>Is Opdracht.zip een geldige zip</t>
   </si>
@@ -5581,6 +5581,9 @@
   </si>
   <si>
     <t>BHKV1016 (geeft onterecht ook fout BHKV1008)</t>
+  </si>
+  <si>
+    <t>BHKV1017 (geeft onterecht ook fout BHKV1008)</t>
   </si>
 </sst>
 </file>
@@ -8742,7 +8745,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B17" sqref="B17"/>
+      <selection pane="bottomLeft" activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -9574,14 +9577,14 @@
       </c>
     </row>
     <row r="18" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="38" t="s">
-        <v>1168</v>
-      </c>
-      <c r="B18" s="38">
-        <v>2</v>
-      </c>
-      <c r="C18" s="18" t="s">
-        <v>1030</v>
+      <c r="A18" s="77" t="s">
+        <v>1168</v>
+      </c>
+      <c r="B18" s="81" t="s">
+        <v>1760</v>
+      </c>
+      <c r="C18" s="80" t="s">
+        <v>1764</v>
       </c>
       <c r="D18" s="18" t="s">
         <v>984</v>
@@ -9618,7 +9621,7 @@
       </c>
       <c r="O18" s="69" t="str">
         <f>IF(A18="Verwijderd","Validatie is verwijderd, dus meldingstekst is niet van toepassing",IF(ISNA(VLOOKUP(C18,Sheet1!A$1:B$385,2,0)),"Meldingstekst moet aangevuld worden",VLOOKUP(C18,Sheet1!A$1:B$385,2,0)))</f>
-        <v xml:space="preserve">De officiele titel[waarde van titel] komt niet overeen met de identifier FRBRWork[waarde van work] </v>
+        <v>Meldingstekst moet aangevuld worden</v>
       </c>
     </row>
     <row r="19" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">

--- a/1.0.4/matrix/Validatiematrix v1.2.xlsx
+++ b/1.0.4/matrix/Validatiematrix v1.2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Default.DESKTOP-NDDI22K\Documents\Geonovum\github\xml_validatietestcontent\1.0.4\matrix\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8C0F21F-5A97-444A-A5F1-AAE7BA1347B9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E186FCC8-72FB-4C11-9159-1124F3564943}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="348" windowWidth="23256" windowHeight="12720" tabRatio="670" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -8747,8 +8747,8 @@
   <dimension ref="A1:O670"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C39" sqref="C39"/>
+      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B44" sqref="B44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -10828,10 +10828,10 @@
       </c>
     </row>
     <row r="44" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="38" t="s">
-        <v>1166</v>
-      </c>
-      <c r="B44" s="38">
+      <c r="A44" s="77" t="s">
+        <v>1166</v>
+      </c>
+      <c r="B44" s="79">
         <v>1</v>
       </c>
       <c r="C44" s="22" t="s">

--- a/1.0.4/matrix/Validatiematrix v1.2.xlsx
+++ b/1.0.4/matrix/Validatiematrix v1.2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Default.DESKTOP-NDDI22K\Documents\Geonovum\github\xml_validatietestcontent\1.0.4\matrix\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E186FCC8-72FB-4C11-9159-1124F3564943}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F613560-8BBD-491A-AF30-EABF7BE67D4F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="348" windowWidth="23256" windowHeight="12720" tabRatio="670" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -8748,7 +8748,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B44" sqref="B44"/>
+      <selection pane="bottomLeft" activeCell="A49" sqref="A49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -10972,10 +10972,10 @@
       </c>
     </row>
     <row r="47" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="38" t="s">
-        <v>1166</v>
-      </c>
-      <c r="B47" s="38">
+      <c r="A47" s="77" t="s">
+        <v>1166</v>
+      </c>
+      <c r="B47" s="79">
         <v>1</v>
       </c>
       <c r="C47" s="22" t="s">

--- a/1.0.4/matrix/Validatiematrix v1.2.xlsx
+++ b/1.0.4/matrix/Validatiematrix v1.2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Default.DESKTOP-NDDI22K\Documents\Geonovum\github\xml_validatietestcontent\1.0.4\matrix\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F613560-8BBD-491A-AF30-EABF7BE67D4F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8692A911-86E9-49E1-9228-914F2E9D79A1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="348" windowWidth="23256" windowHeight="12720" tabRatio="670" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -8748,7 +8748,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A49" sqref="A49"/>
+      <selection pane="bottomLeft" activeCell="A51" sqref="A51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -11068,10 +11068,10 @@
       </c>
     </row>
     <row r="49" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="38" t="s">
-        <v>1166</v>
-      </c>
-      <c r="B49" s="38">
+      <c r="A49" s="77" t="s">
+        <v>1166</v>
+      </c>
+      <c r="B49" s="79">
         <v>1</v>
       </c>
       <c r="C49" s="22" t="s">

--- a/1.0.4/matrix/Validatiematrix v1.2.xlsx
+++ b/1.0.4/matrix/Validatiematrix v1.2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Default.DESKTOP-NDDI22K\Documents\Geonovum\github\xml_validatietestcontent\1.0.4\matrix\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8692A911-86E9-49E1-9228-914F2E9D79A1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52E736FF-E67C-45F8-B04D-D2576D893557}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="348" windowWidth="23256" windowHeight="12720" tabRatio="670" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -8747,8 +8747,8 @@
   <dimension ref="A1:O670"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A51" sqref="A51"/>
+      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A52" sqref="A52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -11164,10 +11164,10 @@
       </c>
     </row>
     <row r="51" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="38" t="s">
-        <v>1166</v>
-      </c>
-      <c r="B51" s="38">
+      <c r="A51" s="77" t="s">
+        <v>1166</v>
+      </c>
+      <c r="B51" s="79">
         <v>1</v>
       </c>
       <c r="C51" s="22" t="s">

--- a/1.0.4/matrix/Validatiematrix v1.2.xlsx
+++ b/1.0.4/matrix/Validatiematrix v1.2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Default.DESKTOP-NDDI22K\Documents\Geonovum\github\xml_validatietestcontent\1.0.4\matrix\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52E736FF-E67C-45F8-B04D-D2576D893557}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93702660-C89A-402D-92E9-AD3F0B34499D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="348" windowWidth="23256" windowHeight="12720" tabRatio="670" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -8747,8 +8747,8 @@
   <dimension ref="A1:O670"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A52" sqref="A52"/>
+      <pane ySplit="1" topLeftCell="A37" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B44" sqref="B44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -11212,10 +11212,10 @@
       </c>
     </row>
     <row r="52" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="38" t="s">
-        <v>1166</v>
-      </c>
-      <c r="B52" s="38">
+      <c r="A52" s="77" t="s">
+        <v>1166</v>
+      </c>
+      <c r="B52" s="79">
         <v>1</v>
       </c>
       <c r="C52" s="22" t="s">

--- a/1.0.4/matrix/Validatiematrix v1.2.xlsx
+++ b/1.0.4/matrix/Validatiematrix v1.2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Default.DESKTOP-NDDI22K\Documents\Geonovum\github\xml_validatietestcontent\1.0.4\matrix\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93702660-C89A-402D-92E9-AD3F0B34499D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40B144A5-0734-4581-9CD3-57B49BF0D186}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="348" windowWidth="23256" windowHeight="12720" tabRatio="670" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -8748,7 +8748,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A37" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B44" sqref="B44"/>
+      <selection pane="bottomLeft" activeCell="A53" sqref="A53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -11260,10 +11260,10 @@
       </c>
     </row>
     <row r="53" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="38" t="s">
-        <v>1166</v>
-      </c>
-      <c r="B53" s="38">
+      <c r="A53" s="77" t="s">
+        <v>1166</v>
+      </c>
+      <c r="B53" s="79">
         <v>1</v>
       </c>
       <c r="C53" s="22" t="s">

--- a/1.0.4/matrix/Validatiematrix v1.2.xlsx
+++ b/1.0.4/matrix/Validatiematrix v1.2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Default.DESKTOP-NDDI22K\Documents\Geonovum\github\xml_validatietestcontent\1.0.4\matrix\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40B144A5-0734-4581-9CD3-57B49BF0D186}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11EC915E-8096-4740-9AE7-8BBC9ABC5DBC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="348" windowWidth="23256" windowHeight="12720" tabRatio="670" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9494" uniqueCount="1766">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9495" uniqueCount="1768">
   <si>
     <t>Is Opdracht.zip een geldige zip</t>
   </si>
@@ -5587,6 +5587,12 @@
   </si>
   <si>
     <t>GEOMETRY.03.5 (geeft onterecht ook fout BHKV1008)</t>
+  </si>
+  <si>
+    <t>LVBB1012 (geeft onterecht ook fout BHKV1008)</t>
+  </si>
+  <si>
+    <t>1 (fout situatie wordt niet herkend)</t>
   </si>
 </sst>
 </file>
@@ -6011,7 +6017,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="82">
+  <cellXfs count="83">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -6246,6 +6252,9 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -8748,7 +8757,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A37" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A53" sqref="A53"/>
+      <selection pane="bottomLeft" activeCell="B55" sqref="B55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -8911,10 +8920,10 @@
       <c r="A4" s="77" t="s">
         <v>1166</v>
       </c>
-      <c r="B4" s="79">
+      <c r="B4" s="80">
         <v>2</v>
       </c>
-      <c r="C4" s="80" t="s">
+      <c r="C4" s="81" t="s">
         <v>1755</v>
       </c>
       <c r="D4" s="18" t="s">
@@ -8959,7 +8968,7 @@
       <c r="A5" s="77" t="s">
         <v>1166</v>
       </c>
-      <c r="B5" s="79">
+      <c r="B5" s="80">
         <v>2</v>
       </c>
       <c r="C5" s="18" t="s">
@@ -9007,7 +9016,7 @@
       <c r="A6" s="77" t="s">
         <v>1166</v>
       </c>
-      <c r="B6" s="79">
+      <c r="B6" s="80">
         <v>2</v>
       </c>
       <c r="C6" s="18" t="s">
@@ -9055,7 +9064,7 @@
       <c r="A7" s="77" t="s">
         <v>1166</v>
       </c>
-      <c r="B7" s="79">
+      <c r="B7" s="80">
         <v>2</v>
       </c>
       <c r="C7" s="18" t="s">
@@ -9103,7 +9112,7 @@
       <c r="A8" s="77" t="s">
         <v>1166</v>
       </c>
-      <c r="B8" s="79">
+      <c r="B8" s="80">
         <v>2</v>
       </c>
       <c r="C8" s="18" t="s">
@@ -9151,7 +9160,7 @@
       <c r="A9" s="77" t="s">
         <v>1166</v>
       </c>
-      <c r="B9" s="79">
+      <c r="B9" s="80">
         <v>2</v>
       </c>
       <c r="C9" s="18" t="s">
@@ -9199,10 +9208,10 @@
       <c r="A10" s="77" t="s">
         <v>1166</v>
       </c>
-      <c r="B10" s="79">
+      <c r="B10" s="80">
         <v>2</v>
       </c>
-      <c r="C10" s="80" t="s">
+      <c r="C10" s="81" t="s">
         <v>1753</v>
       </c>
       <c r="D10" s="18" t="s">
@@ -9247,10 +9256,10 @@
       <c r="A11" s="77" t="s">
         <v>1166</v>
       </c>
-      <c r="B11" s="79">
+      <c r="B11" s="80">
         <v>2</v>
       </c>
-      <c r="C11" s="80" t="s">
+      <c r="C11" s="81" t="s">
         <v>1754</v>
       </c>
       <c r="D11" s="18" t="s">
@@ -9295,10 +9304,10 @@
       <c r="A12" s="77" t="s">
         <v>1166</v>
       </c>
-      <c r="B12" s="79">
+      <c r="B12" s="80">
         <v>2</v>
       </c>
-      <c r="C12" s="80" t="s">
+      <c r="C12" s="81" t="s">
         <v>1756</v>
       </c>
       <c r="D12" s="18" t="s">
@@ -9343,10 +9352,10 @@
       <c r="A13" s="77" t="s">
         <v>1166</v>
       </c>
-      <c r="B13" s="81" t="s">
+      <c r="B13" s="82" t="s">
         <v>1758</v>
       </c>
-      <c r="C13" s="80" t="s">
+      <c r="C13" s="81" t="s">
         <v>1757</v>
       </c>
       <c r="D13" s="18" t="s">
@@ -9439,10 +9448,10 @@
       <c r="A15" s="77" t="s">
         <v>1166</v>
       </c>
-      <c r="B15" s="81" t="s">
+      <c r="B15" s="82" t="s">
         <v>1758</v>
       </c>
-      <c r="C15" s="80" t="s">
+      <c r="C15" s="81" t="s">
         <v>1759</v>
       </c>
       <c r="D15" s="18" t="s">
@@ -9487,10 +9496,10 @@
       <c r="A16" s="77" t="s">
         <v>1166</v>
       </c>
-      <c r="B16" s="81" t="s">
+      <c r="B16" s="82" t="s">
         <v>1758</v>
       </c>
-      <c r="C16" s="80" t="s">
+      <c r="C16" s="81" t="s">
         <v>1760</v>
       </c>
       <c r="D16" s="18" t="s">
@@ -9535,10 +9544,10 @@
       <c r="A17" s="77" t="s">
         <v>1166</v>
       </c>
-      <c r="B17" s="81" t="s">
+      <c r="B17" s="82" t="s">
         <v>1758</v>
       </c>
-      <c r="C17" s="80" t="s">
+      <c r="C17" s="81" t="s">
         <v>1761</v>
       </c>
       <c r="D17" s="18" t="s">
@@ -9583,10 +9592,10 @@
       <c r="A18" s="77" t="s">
         <v>1166</v>
       </c>
-      <c r="B18" s="81" t="s">
+      <c r="B18" s="82" t="s">
         <v>1758</v>
       </c>
-      <c r="C18" s="80" t="s">
+      <c r="C18" s="81" t="s">
         <v>1762</v>
       </c>
       <c r="D18" s="18" t="s">
@@ -10495,10 +10504,10 @@
       <c r="A37" s="77" t="s">
         <v>1166</v>
       </c>
-      <c r="B37" s="81" t="s">
+      <c r="B37" s="82" t="s">
         <v>1764</v>
       </c>
-      <c r="C37" s="80" t="s">
+      <c r="C37" s="81" t="s">
         <v>1763</v>
       </c>
       <c r="D37" s="18" t="s">
@@ -10591,10 +10600,10 @@
       <c r="A39" s="77" t="s">
         <v>1166</v>
       </c>
-      <c r="B39" s="81" t="s">
+      <c r="B39" s="82" t="s">
         <v>1764</v>
       </c>
-      <c r="C39" s="80" t="s">
+      <c r="C39" s="81" t="s">
         <v>1765</v>
       </c>
       <c r="D39" s="18" t="s">
@@ -10831,7 +10840,7 @@
       <c r="A44" s="77" t="s">
         <v>1166</v>
       </c>
-      <c r="B44" s="79">
+      <c r="B44" s="80">
         <v>1</v>
       </c>
       <c r="C44" s="22" t="s">
@@ -10975,7 +10984,7 @@
       <c r="A47" s="77" t="s">
         <v>1166</v>
       </c>
-      <c r="B47" s="79">
+      <c r="B47" s="80">
         <v>1</v>
       </c>
       <c r="C47" s="22" t="s">
@@ -11071,7 +11080,7 @@
       <c r="A49" s="77" t="s">
         <v>1166</v>
       </c>
-      <c r="B49" s="79">
+      <c r="B49" s="80">
         <v>1</v>
       </c>
       <c r="C49" s="22" t="s">
@@ -11167,7 +11176,7 @@
       <c r="A51" s="77" t="s">
         <v>1166</v>
       </c>
-      <c r="B51" s="79">
+      <c r="B51" s="80">
         <v>1</v>
       </c>
       <c r="C51" s="22" t="s">
@@ -11215,7 +11224,7 @@
       <c r="A52" s="77" t="s">
         <v>1166</v>
       </c>
-      <c r="B52" s="79">
+      <c r="B52" s="80">
         <v>1</v>
       </c>
       <c r="C52" s="22" t="s">
@@ -11263,7 +11272,7 @@
       <c r="A53" s="77" t="s">
         <v>1166</v>
       </c>
-      <c r="B53" s="79">
+      <c r="B53" s="80">
         <v>1</v>
       </c>
       <c r="C53" s="22" t="s">
@@ -11356,14 +11365,14 @@
       </c>
     </row>
     <row r="55" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="38" t="s">
-        <v>1166</v>
-      </c>
-      <c r="B55" s="38">
-        <v>1</v>
-      </c>
-      <c r="C55" s="22" t="s">
-        <v>38</v>
+      <c r="A55" s="77" t="s">
+        <v>1166</v>
+      </c>
+      <c r="B55" s="82" t="s">
+        <v>1767</v>
+      </c>
+      <c r="C55" s="79" t="s">
+        <v>1766</v>
       </c>
       <c r="D55" s="18" t="s">
         <v>7</v>
@@ -11400,7 +11409,7 @@
       </c>
       <c r="O55" s="69" t="str">
         <f>IF(A55="Verwijderd","Validatie is verwijderd, dus meldingstekst is niet van toepassing",IF(ISNA(VLOOKUP(C55,Sheet1!A$1:B$385,2,0)),"Meldingstekst moet aangevuld worden",VLOOKUP(C55,Sheet1!A$1:B$385,2,0)))</f>
-        <v>idLevering is niet uniek</v>
+        <v>Meldingstekst moet aangevuld worden</v>
       </c>
     </row>
     <row r="56" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">

--- a/1.0.4/matrix/Validatiematrix v1.2.xlsx
+++ b/1.0.4/matrix/Validatiematrix v1.2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Default.DESKTOP-NDDI22K\Documents\Geonovum\github\xml_validatietestcontent\1.0.4\matrix\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11EC915E-8096-4740-9AE7-8BBC9ABC5DBC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2410048-953C-4F72-BA38-3CE32E77044D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="348" windowWidth="23256" windowHeight="12720" tabRatio="670" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9495" uniqueCount="1768">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9495" uniqueCount="1769">
   <si>
     <t>Is Opdracht.zip een geldige zip</t>
   </si>
@@ -5593,6 +5593,9 @@
   </si>
   <si>
     <t>1 (fout situatie wordt niet herkend)</t>
+  </si>
+  <si>
+    <t>LVBB1013 (geeft onterecht ook fout BHKV1008)</t>
   </si>
 </sst>
 </file>
@@ -8757,7 +8760,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A37" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B55" sqref="B55"/>
+      <selection pane="bottomLeft" activeCell="A57" sqref="A57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -11413,14 +11416,14 @@
       </c>
     </row>
     <row r="56" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="38" t="s">
-        <v>1166</v>
-      </c>
-      <c r="B56" s="38">
+      <c r="A56" s="77" t="s">
+        <v>1166</v>
+      </c>
+      <c r="B56" s="82">
         <v>1</v>
       </c>
-      <c r="C56" s="22" t="s">
-        <v>39</v>
+      <c r="C56" s="79" t="s">
+        <v>1768</v>
       </c>
       <c r="D56" s="18" t="s">
         <v>81</v>
@@ -11457,7 +11460,7 @@
       </c>
       <c r="O56" s="69" t="str">
         <f>IF(A56="Verwijderd","Validatie is verwijderd, dus meldingstekst is niet van toepassing",IF(ISNA(VLOOKUP(C56,Sheet1!A$1:B$385,2,0)),"Meldingstekst moet aangevuld worden",VLOOKUP(C56,Sheet1!A$1:B$385,2,0)))</f>
-        <v>De opdracht voldoet niet aan de technische eisen: Afbeelding: '&lt;bestandsnaam&gt;' bevat transparantieinformatie wat niet toegestaan is.</v>
+        <v>Meldingstekst moet aangevuld worden</v>
       </c>
     </row>
     <row r="57" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">

--- a/1.0.4/matrix/Validatiematrix v1.2.xlsx
+++ b/1.0.4/matrix/Validatiematrix v1.2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Default.DESKTOP-NDDI22K\Documents\Geonovum\github\xml_validatietestcontent\1.0.4\matrix\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2410048-953C-4F72-BA38-3CE32E77044D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30254A09-DA7E-4165-BE37-C833A6380DB0}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="348" windowWidth="23256" windowHeight="12720" tabRatio="670" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -8760,7 +8760,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A37" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A57" sqref="A57"/>
+      <selection pane="bottomLeft" activeCell="B57" sqref="B57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -11464,10 +11464,10 @@
       </c>
     </row>
     <row r="57" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="38" t="s">
-        <v>1166</v>
-      </c>
-      <c r="B57" s="38">
+      <c r="A57" s="77" t="s">
+        <v>1166</v>
+      </c>
+      <c r="B57" s="80">
         <v>1</v>
       </c>
       <c r="C57" s="22" t="s">

--- a/1.0.4/matrix/Validatiematrix v1.2.xlsx
+++ b/1.0.4/matrix/Validatiematrix v1.2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Default.DESKTOP-NDDI22K\Documents\Geonovum\github\xml_validatietestcontent\1.0.4\matrix\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30254A09-DA7E-4165-BE37-C833A6380DB0}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB9436A0-340A-4AF5-90FF-65D69F561F0D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="348" windowWidth="23256" windowHeight="12720" tabRatio="670" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -8760,7 +8760,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A37" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B57" sqref="B57"/>
+      <selection pane="bottomLeft" activeCell="A58" sqref="A58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -11512,10 +11512,10 @@
       </c>
     </row>
     <row r="58" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="38" t="s">
-        <v>1166</v>
-      </c>
-      <c r="B58" s="38">
+      <c r="A58" s="77" t="s">
+        <v>1166</v>
+      </c>
+      <c r="B58" s="80">
         <v>1</v>
       </c>
       <c r="C58" s="22" t="s">

--- a/1.0.4/matrix/Validatiematrix v1.2.xlsx
+++ b/1.0.4/matrix/Validatiematrix v1.2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Default.DESKTOP-NDDI22K\Documents\Geonovum\github\xml_validatietestcontent\1.0.4\matrix\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB9436A0-340A-4AF5-90FF-65D69F561F0D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B231B15-D0E9-43A8-8D5B-58998BAE94A5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="348" windowWidth="23256" windowHeight="12720" tabRatio="670" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9495" uniqueCount="1769">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9496" uniqueCount="1770">
   <si>
     <t>Is Opdracht.zip een geldige zip</t>
   </si>
@@ -5596,6 +5596,9 @@
   </si>
   <si>
     <t>LVBB1013 (geeft onterecht ook fout BHKV1008)</t>
+  </si>
+  <si>
+    <t>1 (rapporteert als LVBB1019)</t>
   </si>
 </sst>
 </file>
@@ -8759,8 +8762,8 @@
   <dimension ref="A1:O670"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A37" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A58" sqref="A58"/>
+      <pane ySplit="1" topLeftCell="A40" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B59" sqref="B59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -11560,11 +11563,11 @@
       </c>
     </row>
     <row r="59" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="38" t="s">
-        <v>1166</v>
-      </c>
-      <c r="B59" s="38">
-        <v>1</v>
+      <c r="A59" s="77" t="s">
+        <v>1166</v>
+      </c>
+      <c r="B59" s="82" t="s">
+        <v>1769</v>
       </c>
       <c r="C59" s="22" t="s">
         <v>72</v>

--- a/1.0.4/matrix/Validatiematrix v1.2.xlsx
+++ b/1.0.4/matrix/Validatiematrix v1.2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Default.DESKTOP-NDDI22K\Documents\Geonovum\github\xml_validatietestcontent\1.0.4\matrix\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B231B15-D0E9-43A8-8D5B-58998BAE94A5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C9E9DAD-6DD9-45CD-8D44-BDDD830F0A36}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="348" windowWidth="23256" windowHeight="12720" tabRatio="670" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -8762,8 +8762,8 @@
   <dimension ref="A1:O670"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A40" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B59" sqref="B59"/>
+      <pane ySplit="1" topLeftCell="A46" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A61" sqref="A61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -10554,7 +10554,7 @@
         <v>Meldingstekst moet aangevuld worden</v>
       </c>
     </row>
-    <row r="38" spans="1:15" ht="27" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:15" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="38" t="s">
         <v>1168</v>
       </c>
@@ -10890,7 +10890,7 @@
         <v>Het zip bestand kan niet gelezen worden</v>
       </c>
     </row>
-    <row r="45" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="38" t="s">
         <v>1168</v>
       </c>
@@ -10938,7 +10938,7 @@
         <v>Het bestand opdracht.xml ontbreekt in het gecomprimeerde bestand</v>
       </c>
     </row>
-    <row r="46" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="38" t="s">
         <v>1168</v>
       </c>
@@ -11611,10 +11611,10 @@
       </c>
     </row>
     <row r="60" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="38" t="s">
-        <v>1166</v>
-      </c>
-      <c r="B60" s="38">
+      <c r="A60" s="77" t="s">
+        <v>1166</v>
+      </c>
+      <c r="B60" s="80">
         <v>1</v>
       </c>
       <c r="C60" s="22" t="s">
@@ -11898,7 +11898,7 @@
         <v>Validatie is verwijderd, dus meldingstekst is niet van toepassing</v>
       </c>
     </row>
-    <row r="66" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A66" s="38" t="s">
         <v>1166</v>
       </c>
@@ -11946,7 +11946,7 @@
         <v>In het manifest-ow mag maar voor 1 doel aangeleverd worden</v>
       </c>
     </row>
-    <row r="67" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A67" s="38" t="s">
         <v>1166</v>
       </c>
@@ -11994,7 +11994,7 @@
         <v>[Manifest-OW - Controleer bestand] Objecttype Geometrie is niet toegestaan; komt voor bij bestand met naam ',$naam</v>
       </c>
     </row>
-    <row r="68" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A68" s="38" t="s">
         <v>1166</v>
       </c>
@@ -12042,7 +12042,7 @@
         <v>[Manifest-OW - Controleer bestand] Bestand met naam ',$naam,' eindigt op .gml en dat is niet toegestaan</v>
       </c>
     </row>
-    <row r="69" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A69" s="18" t="s">
         <v>1169</v>
       </c>
@@ -12391,7 +12391,7 @@
 Bestand wordt wel gebruikt maar niet aangeleverd door regisseur : %1</v>
       </c>
     </row>
-    <row r="76" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A76" s="38" t="s">
         <v>1168</v>
       </c>
@@ -12871,7 +12871,7 @@
         <v>Datum bekendmaking %1 bij besluit met oin %2 en idlevering %3 is reeds geweest</v>
       </c>
     </row>
-    <row r="86" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A86" s="38" t="s">
         <v>1168</v>
       </c>
@@ -12919,7 +12919,7 @@
         <v>Besluit bij oin %1 en idlevering %2 is in afwachting om wel of niet afgebroken te mogen worden</v>
       </c>
     </row>
-    <row r="87" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A87" s="38" t="s">
         <v>1168</v>
       </c>
@@ -13111,7 +13111,7 @@
         <v>De volgende versie(s) in het besluit met oin %1 en idlevering %2 dienen als was-versie in een ander besluit : %3</v>
       </c>
     </row>
-    <row r="91" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A91" s="38" t="s">
         <v>1169</v>
       </c>
@@ -13450,7 +13450,7 @@
         <v>Validatie is verwijderd, dus meldingstekst is niet van toepassing</v>
       </c>
     </row>
-    <row r="98" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A98" s="38" t="s">
         <v>1168</v>
       </c>
@@ -13546,7 +13546,7 @@
         <v>[Controleer juiste opbouw AKN - (werk/expressie) - tweede string] Waarde van tweede string %1 binnen %2 is niet gelijk aan een waarde binnen %3</v>
       </c>
     </row>
-    <row r="100" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A100" s="38" t="s">
         <v>1168</v>
       </c>
@@ -14366,7 +14366,7 @@
         <v>Bij doel %1 hoort regeling %2 en het doel heeft versies, die bij andere regeling horen : %3</v>
       </c>
     </row>
-    <row r="117" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A117" s="38" t="s">
         <v>1166</v>
       </c>
@@ -14752,7 +14752,7 @@
         <v>Aantal punten is oneven in gml element met gml:id %1</v>
       </c>
     </row>
-    <row r="125" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A125" s="70" t="s">
         <v>1169</v>
       </c>
@@ -15425,7 +15425,7 @@
         <v>Geen metadata op werk-nivo bekend voor nieuw informatie-object %1</v>
       </c>
     </row>
-    <row r="139" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A139" s="70" t="s">
         <v>1169</v>
       </c>
@@ -15569,7 +15569,7 @@
         <v>Validatie is verwijderd, dus meldingstekst is niet van toepassing</v>
       </c>
     </row>
-    <row r="142" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A142" s="70" t="s">
         <v>1169</v>
       </c>
@@ -15617,7 +15617,7 @@
         <v>De aanlevering met OIN %1 en LeveringId Id %2 bevat een Informatie Object met Expressie-id %3, die al aanwezig is</v>
       </c>
     </row>
-    <row r="143" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A143" s="70" t="s">
         <v>1169</v>
       </c>
@@ -16679,7 +16679,7 @@
         <v>Waarde niet gevonden in waardelijst : %1</v>
       </c>
     </row>
-    <row r="165" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A165" s="38" t="s">
         <v>1168</v>
       </c>
@@ -17017,7 +17017,7 @@
         <v>Relatie tussen waarde van element soortWork ',$soort-werk,' en element ',$node-name,' is onjuist</v>
       </c>
     </row>
-    <row r="172" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A172" s="70" t="s">
         <v>1169</v>
       </c>
@@ -17073,7 +17073,7 @@
         <v>De 'datum JWV' (%1) van de wordt-versie is eerder dan de 'datum JWV' (%2) van de was-versie</v>
       </c>
     </row>
-    <row r="173" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A173" s="70" t="s">
         <v>1169</v>
       </c>
@@ -17185,7 +17185,7 @@
         <v>De 'datum JWV' (%1) van de wordt-versie is niet gelijk aan of later dan vandaag (%2)</v>
       </c>
     </row>
-    <row r="175" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A175" s="70" t="s">
         <v>1169</v>
       </c>
@@ -17241,7 +17241,7 @@
         <v>Binnen de regeling bevat regelingversie %1 een 'datum JWV' (%2), die later is dan de 'datum JWV' (%3) van de was-versie</v>
       </c>
     </row>
-    <row r="176" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A176" s="70" t="s">
         <v>1169</v>
       </c>
@@ -17299,7 +17299,7 @@
 De wordt-versie heeft geen 'datum JWV', maar de was-versie heeft wel een 'datum JWV' (%1)</v>
       </c>
     </row>
-    <row r="177" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A177" s="70" t="s">
         <v>1169</v>
       </c>
@@ -17347,7 +17347,7 @@
         <v>De aangeleverde AKN bestaat al : %1, publicatie niet mogelijk</v>
       </c>
     </row>
-    <row r="178" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A178" s="70" t="s">
         <v>1169</v>
       </c>
@@ -17395,7 +17395,7 @@
         <v>Geen besluit met akn-id %1 gevonden bij kennisgeving</v>
       </c>
     </row>
-    <row r="179" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A179" s="70" t="s">
         <v>1169</v>
       </c>
@@ -17443,7 +17443,7 @@
         <v>Datum inzagetermijn kennisgeving %1 mag niet voor datum publicatie van kennisgeving %2 liggen</v>
       </c>
     </row>
-    <row r="180" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A180" s="70" t="s">
         <v>1169</v>
       </c>
@@ -17491,7 +17491,7 @@
         <v>Datum inzagetermijn kennisgeving %1 mag niet voor datum publicatie van gerelateerd besluit %2 liggen</v>
       </c>
     </row>
-    <row r="181" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A181" s="70" t="s">
         <v>1169</v>
       </c>
@@ -17539,7 +17539,7 @@
         <v>[AanleveringKennisgeving - Controleer Inhoud Identificatie] Waarde van type ',$type,' binnen ',$identificatie,' is niet gelijk aan doc</v>
       </c>
     </row>
-    <row r="182" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A182" s="70" t="s">
         <v>1169</v>
       </c>
@@ -17635,7 +17635,7 @@
         <v>%1 voor oin : %2 en id-levering : %3 bevat geen mutaties; dit scenario wordt door de LVBB niet ondersteund</v>
       </c>
     </row>
-    <row r="184" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A184" s="70" t="s">
         <v>1169</v>
       </c>
@@ -17683,7 +17683,7 @@
         <v>[OPERA-KG-IS-GEPUBLICEERD] Kennisgeving bij oin %1 en idlevering %2 is al gepubliceerd</v>
       </c>
     </row>
-    <row r="185" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A185" s="70" t="s">
         <v>1169</v>
       </c>
@@ -17731,7 +17731,7 @@
         <v>[OPERA-KG-DTM-BEKEND-IN-VERLEDEN] Datum bekendmaking %1 bij kennisgeving met oin %2 en idlevering %3 is reeds geweest</v>
       </c>
     </row>
-    <row r="186" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A186" s="70" t="s">
         <v>1169</v>
       </c>
@@ -17779,7 +17779,7 @@
         <v>[OPERA-KG-IN-WACHT] Kennisgeving bij oin %1 en idlevering %2 is in afwachting om wel of niet afgebroken te mogen worden</v>
       </c>
     </row>
-    <row r="187" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A187" s="70" t="s">
         <v>1169</v>
       </c>
@@ -17827,7 +17827,7 @@
         <v>[OPERA-KG-BESLUIT-IN-WACHT] Besluit bij kennisgeving met oin %1 en idlevering %2 is in afwachting om wel of niet afgebroken te mogen worden</v>
       </c>
     </row>
-    <row r="188" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A188" s="70" t="s">
         <v>1169</v>
       </c>
@@ -17875,7 +17875,7 @@
         <v>[OPERA-KG-NIET-MEEST-RECENT] Kennisgeving met oin %1 en idlevering %2 is niet de laatste kennisgeving bij het besluit</v>
       </c>
     </row>
-    <row r="189" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A189" s="70" t="s">
         <v>1169</v>
       </c>
@@ -17923,7 +17923,7 @@
         <v>[OPERA-KG-CONS-PROC-IN-WACHT] Bestand met consolidatie-procedurestappen behorend bij kennisgeving met oin %1 en idlevering %2 is in afwachting om wel of niet afgebroken te mogen worden</v>
       </c>
     </row>
-    <row r="190" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A190" s="70" t="s">
         <v>1169</v>
       </c>
@@ -17971,7 +17971,7 @@
         <v>Waarde niet gevonden in waardelijst : %1</v>
       </c>
     </row>
-    <row r="191" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A191" s="70" t="s">
         <v>1169</v>
       </c>
@@ -18019,7 +18019,7 @@
         <v>Er is al een eerdere consolidatie van procedurestappen aanwezig voor datum bekend-op %1 en datum ontvangenop %2</v>
       </c>
     </row>
-    <row r="192" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A192" s="70" t="s">
         <v>1169</v>
       </c>
@@ -18067,7 +18067,7 @@
         <v>Toe te voegen procedurestap(pen) met id(s) %1 komen reeds voor</v>
       </c>
     </row>
-    <row r="193" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A193" s="70" t="s">
         <v>1169</v>
       </c>
@@ -18115,7 +18115,7 @@
         <v>Soort stap met id %1 is aanwezig in het besluit of de kennisgeving; is niet toegestaan</v>
       </c>
     </row>
-    <row r="194" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A194" s="70" t="s">
         <v>1169</v>
       </c>
@@ -18163,7 +18163,7 @@
         <v>De volgende procedurestappen komen dubbel voor : %1; mag hooguit enkel voorkomen</v>
       </c>
     </row>
-    <row r="195" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A195" s="70" t="s">
         <v>1169</v>
       </c>
@@ -18211,7 +18211,7 @@
         <v>De datum bekend-op van de kennisgeving %1 ligt niet na de datum bekend-op van een eerdere consolidatie %2</v>
       </c>
     </row>
-    <row r="196" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A196" s="70" t="s">
         <v>1169</v>
       </c>
@@ -20855,7 +20855,7 @@
         <v>[Controleer voorkomens Consolidatie] Aantal voorkomens van Consolidatie is niet gelijk aan 1</v>
       </c>
     </row>
-    <row r="251" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A251" s="70" t="s">
         <v>1169</v>
       </c>
@@ -20903,7 +20903,7 @@
         <v>[Controleer soort werk informatie-object] 'Soort werk ',$soort-work-1,' in ConsolidatieIdentificatie is niet gelijk aan /join/id/stop/work_005'</v>
       </c>
     </row>
-    <row r="252" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A252" s="70" t="s">
         <v>1169</v>
       </c>
@@ -20951,7 +20951,7 @@
         <v>[Controleer soort werk geconsolideerde informatie-object] 'Soort werk ',$soort-work-2,' in ConsolidatieIdentificatie is niet gelijk aan /join/id/stop/work_010'</v>
       </c>
     </row>
-    <row r="253" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A253" s="70" t="s">
         <v>1169</v>
       </c>
@@ -20999,7 +20999,7 @@
         <v>[Controleer soort werk informatie-object] 'Soort werk ',$soort-work-3,' in InformatieObjectVersie is niet gelijk aan /join/id/stop/work_010'</v>
       </c>
     </row>
-    <row r="254" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A254" s="70" t="s">
         <v>1169</v>
       </c>
@@ -21335,7 +21335,7 @@
         <v>Meldingstekst moet aangevuld worden</v>
       </c>
     </row>
-    <row r="261" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A261" s="70" t="s">
         <v>1168</v>
       </c>
@@ -23688,7 +23688,7 @@
         <v>Meldingstekst moet aangevuld worden</v>
       </c>
     </row>
-    <row r="310" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A310" s="38" t="s">
         <v>1168</v>
       </c>
@@ -23736,7 +23736,7 @@
         <v>Meldingstekst moet aangevuld worden</v>
       </c>
     </row>
-    <row r="311" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A311" s="38" t="s">
         <v>1168</v>
       </c>
@@ -23880,7 +23880,7 @@
         <v>Meldingstekst moet aangevuld worden</v>
       </c>
     </row>
-    <row r="314" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A314" s="38" t="s">
         <v>1169</v>
       </c>
@@ -24312,7 +24312,7 @@
         <v>Meldingstekst moet aangevuld worden</v>
       </c>
     </row>
-    <row r="323" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A323" s="38" t="s">
         <v>1166</v>
       </c>
@@ -24360,7 +24360,7 @@
         <v>Meldingstekst moet aangevuld worden</v>
       </c>
     </row>
-    <row r="324" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A324" s="38" t="s">
         <v>1166</v>
       </c>
@@ -24552,7 +24552,7 @@
         <v>Meldingstekst moet aangevuld worden</v>
       </c>
     </row>
-    <row r="328" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A328" s="38" t="s">
         <v>1166</v>
       </c>
@@ -25128,7 +25128,7 @@
         <v>Meldingstekst moet aangevuld worden</v>
       </c>
     </row>
-    <row r="340" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A340" s="38" t="s">
         <v>1169</v>
       </c>
@@ -25176,7 +25176,7 @@
         <v>Meldingstekst moet aangevuld worden</v>
       </c>
     </row>
-    <row r="341" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A341" s="38" t="s">
         <v>1169</v>
       </c>
@@ -25272,7 +25272,7 @@
         <v>Meldingstekst moet aangevuld worden</v>
       </c>
     </row>
-    <row r="343" spans="1:15" s="2" customFormat="1" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:15" s="2" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A343" s="38" t="s">
         <v>1169</v>
       </c>
@@ -25320,7 +25320,7 @@
         <v>Meldingstekst moet aangevuld worden</v>
       </c>
     </row>
-    <row r="344" spans="1:15" s="2" customFormat="1" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:15" s="2" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A344" s="38" t="s">
         <v>1168</v>
       </c>
@@ -25368,7 +25368,7 @@
         <v>Meldingstekst moet aangevuld worden</v>
       </c>
     </row>
-    <row r="345" spans="1:15" s="2" customFormat="1" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:15" s="2" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A345" s="38" t="s">
         <v>1168</v>
       </c>
@@ -25464,7 +25464,7 @@
         <v>Meldingstekst moet aangevuld worden</v>
       </c>
     </row>
-    <row r="347" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A347" s="38" t="s">
         <v>1166</v>
       </c>
@@ -25512,7 +25512,7 @@
         <v>Meldingstekst moet aangevuld worden</v>
       </c>
     </row>
-    <row r="348" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A348" s="38" t="s">
         <v>1166</v>
       </c>
@@ -25560,7 +25560,7 @@
         <v>Meldingstekst moet aangevuld worden</v>
       </c>
     </row>
-    <row r="349" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A349" s="38" t="s">
         <v>1166</v>
       </c>
@@ -25608,7 +25608,7 @@
         <v>Meldingstekst moet aangevuld worden</v>
       </c>
     </row>
-    <row r="350" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A350" s="38" t="s">
         <v>1169</v>
       </c>
@@ -25656,7 +25656,7 @@
         <v>Meldingstekst moet aangevuld worden</v>
       </c>
     </row>
-    <row r="351" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A351" s="38" t="s">
         <v>1169</v>
       </c>
@@ -25704,7 +25704,7 @@
         <v>Meldingstekst moet aangevuld worden</v>
       </c>
     </row>
-    <row r="352" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A352" s="38" t="s">
         <v>1169</v>
       </c>
@@ -25752,7 +25752,7 @@
         <v>Meldingstekst moet aangevuld worden</v>
       </c>
     </row>
-    <row r="353" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A353" s="38" t="s">
         <v>1169</v>
       </c>
@@ -25800,7 +25800,7 @@
         <v>Meldingstekst moet aangevuld worden</v>
       </c>
     </row>
-    <row r="354" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A354" s="38" t="s">
         <v>1169</v>
       </c>
@@ -25848,7 +25848,7 @@
         <v>Meldingstekst moet aangevuld worden</v>
       </c>
     </row>
-    <row r="355" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A355" s="38" t="s">
         <v>1169</v>
       </c>
@@ -25896,7 +25896,7 @@
         <v>Meldingstekst moet aangevuld worden</v>
       </c>
     </row>
-    <row r="356" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A356" s="38" t="s">
         <v>1169</v>
       </c>
@@ -25944,7 +25944,7 @@
         <v>Meldingstekst moet aangevuld worden</v>
       </c>
     </row>
-    <row r="357" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A357" s="38" t="s">
         <v>1169</v>
       </c>
@@ -25992,7 +25992,7 @@
         <v>Meldingstekst moet aangevuld worden</v>
       </c>
     </row>
-    <row r="358" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A358" s="38" t="s">
         <v>1169</v>
       </c>
@@ -26040,7 +26040,7 @@
         <v>Meldingstekst moet aangevuld worden</v>
       </c>
     </row>
-    <row r="359" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A359" s="38" t="s">
         <v>1169</v>
       </c>
@@ -26088,7 +26088,7 @@
         <v>Meldingstekst moet aangevuld worden</v>
       </c>
     </row>
-    <row r="360" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A360" s="38" t="s">
         <v>1169</v>
       </c>
@@ -26136,7 +26136,7 @@
         <v>Meldingstekst moet aangevuld worden</v>
       </c>
     </row>
-    <row r="361" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A361" s="38" t="s">
         <v>1169</v>
       </c>
@@ -26184,7 +26184,7 @@
         <v>Meldingstekst moet aangevuld worden</v>
       </c>
     </row>
-    <row r="362" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A362" s="38" t="s">
         <v>1169</v>
       </c>
@@ -26232,7 +26232,7 @@
         <v>Meldingstekst moet aangevuld worden</v>
       </c>
     </row>
-    <row r="363" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A363" s="38" t="s">
         <v>1169</v>
       </c>
@@ -26280,7 +26280,7 @@
         <v>Meldingstekst moet aangevuld worden</v>
       </c>
     </row>
-    <row r="364" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A364" s="38" t="s">
         <v>1169</v>
       </c>
@@ -26328,7 +26328,7 @@
         <v>Meldingstekst moet aangevuld worden</v>
       </c>
     </row>
-    <row r="365" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A365" s="38" t="s">
         <v>1169</v>
       </c>
@@ -26376,7 +26376,7 @@
         <v>Meldingstekst moet aangevuld worden</v>
       </c>
     </row>
-    <row r="366" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="366" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A366" s="38" t="s">
         <v>1169</v>
       </c>
@@ -26424,7 +26424,7 @@
         <v>Meldingstekst moet aangevuld worden</v>
       </c>
     </row>
-    <row r="367" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="367" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A367" s="38" t="s">
         <v>1169</v>
       </c>
@@ -26472,7 +26472,7 @@
         <v>Meldingstekst moet aangevuld worden</v>
       </c>
     </row>
-    <row r="368" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="368" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A368" s="38" t="s">
         <v>1169</v>
       </c>
@@ -26520,7 +26520,7 @@
         <v>Meldingstekst moet aangevuld worden</v>
       </c>
     </row>
-    <row r="369" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="369" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A369" s="38" t="s">
         <v>1169</v>
       </c>
@@ -26856,7 +26856,7 @@
         <v>Meldingstekst moet aangevuld worden</v>
       </c>
     </row>
-    <row r="376" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="376" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A376" s="38" t="s">
         <v>1169</v>
       </c>
@@ -26904,7 +26904,7 @@
         <v>Meldingstekst moet aangevuld worden</v>
       </c>
     </row>
-    <row r="377" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="377" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A377" s="38" t="s">
         <v>1169</v>
       </c>
@@ -26952,7 +26952,7 @@
         <v>Meldingstekst moet aangevuld worden</v>
       </c>
     </row>
-    <row r="378" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="378" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A378" s="38" t="s">
         <v>1169</v>
       </c>
@@ -27000,7 +27000,7 @@
         <v>Meldingstekst moet aangevuld worden</v>
       </c>
     </row>
-    <row r="379" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="379" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A379" s="38" t="s">
         <v>1169</v>
       </c>
@@ -27048,7 +27048,7 @@
         <v>Meldingstekst moet aangevuld worden</v>
       </c>
     </row>
-    <row r="380" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="380" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A380" s="38" t="s">
         <v>1169</v>
       </c>
@@ -27288,7 +27288,7 @@
         <v>Meldingstekst moet aangevuld worden</v>
       </c>
     </row>
-    <row r="385" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="385" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A385" s="38" t="s">
         <v>1166</v>
       </c>
@@ -27576,7 +27576,7 @@
         <v>Meldingstekst moet aangevuld worden</v>
       </c>
     </row>
-    <row r="391" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="391" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A391" s="38" t="s">
         <v>1166</v>
       </c>
@@ -27672,7 +27672,7 @@
         <v>Meldingstekst moet aangevuld worden</v>
       </c>
     </row>
-    <row r="393" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="393" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A393" s="38" t="s">
         <v>1166</v>
       </c>
@@ -27720,7 +27720,7 @@
         <v>Meldingstekst moet aangevuld worden</v>
       </c>
     </row>
-    <row r="394" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="394" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A394" s="38" t="s">
         <v>1166</v>
       </c>
@@ -27768,7 +27768,7 @@
         <v>Meldingstekst moet aangevuld worden</v>
       </c>
     </row>
-    <row r="395" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="395" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A395" s="38" t="s">
         <v>1166</v>
       </c>
@@ -27816,7 +27816,7 @@
         <v>Meldingstekst moet aangevuld worden</v>
       </c>
     </row>
-    <row r="396" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="396" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A396" s="38" t="s">
         <v>1166</v>
       </c>
@@ -27864,7 +27864,7 @@
         <v>Meldingstekst moet aangevuld worden</v>
       </c>
     </row>
-    <row r="397" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="397" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A397" s="38" t="s">
         <v>1166</v>
       </c>
@@ -27912,7 +27912,7 @@
         <v>Meldingstekst moet aangevuld worden</v>
       </c>
     </row>
-    <row r="398" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="398" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A398" s="38" t="s">
         <v>1166</v>
       </c>
@@ -27960,7 +27960,7 @@
         <v>Meldingstekst moet aangevuld worden</v>
       </c>
     </row>
-    <row r="399" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="399" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A399" s="38" t="s">
         <v>1166</v>
       </c>
@@ -28008,7 +28008,7 @@
         <v>Meldingstekst moet aangevuld worden</v>
       </c>
     </row>
-    <row r="400" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="400" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A400" s="38" t="s">
         <v>1166</v>
       </c>
@@ -28056,7 +28056,7 @@
         <v>Meldingstekst moet aangevuld worden</v>
       </c>
     </row>
-    <row r="401" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="401" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A401" s="38" t="s">
         <v>1166</v>
       </c>
@@ -28104,7 +28104,7 @@
         <v>Meldingstekst moet aangevuld worden</v>
       </c>
     </row>
-    <row r="402" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="402" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A402" s="38" t="s">
         <v>1166</v>
       </c>
@@ -28152,7 +28152,7 @@
         <v>Meldingstekst moet aangevuld worden</v>
       </c>
     </row>
-    <row r="403" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="403" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A403" s="38" t="s">
         <v>1166</v>
       </c>
@@ -28200,7 +28200,7 @@
         <v>Meldingstekst moet aangevuld worden</v>
       </c>
     </row>
-    <row r="404" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="404" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A404" s="38" t="s">
         <v>1166</v>
       </c>
@@ -28248,7 +28248,7 @@
         <v>Meldingstekst moet aangevuld worden</v>
       </c>
     </row>
-    <row r="405" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="405" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A405" s="38" t="s">
         <v>1166</v>
       </c>
@@ -28296,7 +28296,7 @@
         <v>Meldingstekst moet aangevuld worden</v>
       </c>
     </row>
-    <row r="406" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="406" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A406" s="38" t="s">
         <v>1166</v>
       </c>
@@ -28344,7 +28344,7 @@
         <v>Meldingstekst moet aangevuld worden</v>
       </c>
     </row>
-    <row r="407" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="407" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A407" s="38" t="s">
         <v>1166</v>
       </c>
@@ -28392,7 +28392,7 @@
         <v>Meldingstekst moet aangevuld worden</v>
       </c>
     </row>
-    <row r="408" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="408" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A408" s="38" t="s">
         <v>1166</v>
       </c>
@@ -28440,7 +28440,7 @@
         <v>Meldingstekst moet aangevuld worden</v>
       </c>
     </row>
-    <row r="409" spans="1:15" s="2" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="409" spans="1:15" s="2" customFormat="1" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A409" s="38" t="s">
         <v>1166</v>
       </c>
@@ -28488,7 +28488,7 @@
         <v>Meldingstekst moet aangevuld worden</v>
       </c>
     </row>
-    <row r="410" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="410" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A410" s="38" t="s">
         <v>1166</v>
       </c>
@@ -28536,7 +28536,7 @@
         <v>Meldingstekst moet aangevuld worden</v>
       </c>
     </row>
-    <row r="411" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="411" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A411" s="38" t="s">
         <v>1166</v>
       </c>
@@ -35064,7 +35064,7 @@
         <v>De ExternalGraphic:Format van (Polygon)symbolizer:Name[waarde van ID] heeft een ongeldig Format[waarde van ID2] . Wijzig deze in image/png</v>
       </c>
     </row>
-    <row r="547" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="547" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A547" s="38" t="s">
         <v>1166</v>
       </c>
@@ -35112,7 +35112,7 @@
         <v>Meldingstekst moet aangevuld worden</v>
       </c>
     </row>
-    <row r="548" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="548" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A548" s="38" t="s">
         <v>1166</v>
       </c>
@@ -35160,7 +35160,7 @@
         <v>Meldingstekst moet aangevuld worden</v>
       </c>
     </row>
-    <row r="549" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="549" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A549" s="38" t="s">
         <v>1166</v>
       </c>
@@ -35208,7 +35208,7 @@
         <v>Meldingstekst moet aangevuld worden</v>
       </c>
     </row>
-    <row r="550" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="550" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A550" s="38" t="s">
         <v>1166</v>
       </c>
@@ -35256,7 +35256,7 @@
         <v>Meldingstekst moet aangevuld worden</v>
       </c>
     </row>
-    <row r="551" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="551" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A551" s="38" t="s">
         <v>1166</v>
       </c>
@@ -35304,7 +35304,7 @@
         <v>Meldingstekst moet aangevuld worden</v>
       </c>
     </row>
-    <row r="552" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="552" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A552" s="38" t="s">
         <v>1166</v>
       </c>
@@ -35352,7 +35352,7 @@
         <v>Meldingstekst moet aangevuld worden</v>
       </c>
     </row>
-    <row r="553" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="553" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A553" s="38" t="s">
         <v>1166</v>
       </c>
@@ -35400,7 +35400,7 @@
         <v>Meldingstekst moet aangevuld worden</v>
       </c>
     </row>
-    <row r="554" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="554" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A554" s="38" t="s">
         <v>1166</v>
       </c>
@@ -35448,7 +35448,7 @@
         <v>Meldingstekst moet aangevuld worden</v>
       </c>
     </row>
-    <row r="555" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="555" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A555" s="38" t="s">
         <v>1166</v>
       </c>
@@ -35496,7 +35496,7 @@
         <v>Meldingstekst moet aangevuld worden</v>
       </c>
     </row>
-    <row r="556" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="556" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A556" s="38" t="s">
         <v>1166</v>
       </c>
@@ -35544,7 +35544,7 @@
         <v>Meldingstekst moet aangevuld worden</v>
       </c>
     </row>
-    <row r="557" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="557" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A557" s="38" t="s">
         <v>1166</v>
       </c>
@@ -35592,7 +35592,7 @@
         <v>Meldingstekst moet aangevuld worden</v>
       </c>
     </row>
-    <row r="558" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="558" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A558" s="38" t="s">
         <v>1166</v>
       </c>
@@ -35640,7 +35640,7 @@
         <v>Meldingstekst moet aangevuld worden</v>
       </c>
     </row>
-    <row r="559" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="559" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A559" s="38" t="s">
         <v>1166</v>
       </c>
@@ -35688,7 +35688,7 @@
         <v>Meldingstekst moet aangevuld worden</v>
       </c>
     </row>
-    <row r="560" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="560" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A560" s="38" t="s">
         <v>1166</v>
       </c>
@@ -35736,7 +35736,7 @@
         <v>Meldingstekst moet aangevuld worden</v>
       </c>
     </row>
-    <row r="561" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="561" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A561" s="38" t="s">
         <v>1166</v>
       </c>
@@ -35784,7 +35784,7 @@
         <v>Meldingstekst moet aangevuld worden</v>
       </c>
     </row>
-    <row r="562" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="562" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A562" s="38" t="s">
         <v>1166</v>
       </c>
@@ -35832,7 +35832,7 @@
         <v>Meldingstekst moet aangevuld worden</v>
       </c>
     </row>
-    <row r="563" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="563" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A563" s="38" t="s">
         <v>1166</v>
       </c>
@@ -35880,7 +35880,7 @@
         <v>Meldingstekst moet aangevuld worden</v>
       </c>
     </row>
-    <row r="564" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="564" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A564" s="38" t="s">
         <v>1166</v>
       </c>
@@ -35928,7 +35928,7 @@
         <v>Meldingstekst moet aangevuld worden</v>
       </c>
     </row>
-    <row r="565" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="565" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A565" s="38" t="s">
         <v>1166</v>
       </c>
@@ -35976,7 +35976,7 @@
         <v>Meldingstekst moet aangevuld worden</v>
       </c>
     </row>
-    <row r="566" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="566" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A566" s="38" t="s">
         <v>1166</v>
       </c>
@@ -36024,7 +36024,7 @@
         <v>Meldingstekst moet aangevuld worden</v>
       </c>
     </row>
-    <row r="567" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="567" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A567" s="38" t="s">
         <v>1166</v>
       </c>
@@ -36072,7 +36072,7 @@
         <v>Meldingstekst moet aangevuld worden</v>
       </c>
     </row>
-    <row r="568" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="568" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A568" s="38" t="s">
         <v>1166</v>
       </c>
@@ -36120,7 +36120,7 @@
         <v>Meldingstekst moet aangevuld worden</v>
       </c>
     </row>
-    <row r="569" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="569" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A569" s="38" t="s">
         <v>1166</v>
       </c>
@@ -36168,7 +36168,7 @@
         <v>Meldingstekst moet aangevuld worden</v>
       </c>
     </row>
-    <row r="570" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="570" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A570" s="38" t="s">
         <v>1166</v>
       </c>
@@ -36216,7 +36216,7 @@
         <v>Meldingstekst moet aangevuld worden</v>
       </c>
     </row>
-    <row r="571" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="571" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A571" s="38" t="s">
         <v>1166</v>
       </c>
@@ -36264,7 +36264,7 @@
         <v>Meldingstekst moet aangevuld worden</v>
       </c>
     </row>
-    <row r="572" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="572" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A572" s="38" t="s">
         <v>1166</v>
       </c>
@@ -36312,7 +36312,7 @@
         <v>Meldingstekst moet aangevuld worden</v>
       </c>
     </row>
-    <row r="573" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="573" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A573" s="38" t="s">
         <v>1166</v>
       </c>
@@ -36360,7 +36360,7 @@
         <v>Meldingstekst moet aangevuld worden</v>
       </c>
     </row>
-    <row r="574" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="574" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A574" s="38" t="s">
         <v>1166</v>
       </c>
@@ -36408,7 +36408,7 @@
         <v>Meldingstekst moet aangevuld worden</v>
       </c>
     </row>
-    <row r="575" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="575" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A575" s="38" t="s">
         <v>1166</v>
       </c>
@@ -36456,7 +36456,7 @@
         <v>Meldingstekst moet aangevuld worden</v>
       </c>
     </row>
-    <row r="576" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="576" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A576" s="38" t="s">
         <v>1166</v>
       </c>
@@ -36504,7 +36504,7 @@
         <v>Meldingstekst moet aangevuld worden</v>
       </c>
     </row>
-    <row r="577" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="577" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A577" s="38" t="s">
         <v>1166</v>
       </c>
@@ -36552,7 +36552,7 @@
         <v>Meldingstekst moet aangevuld worden</v>
       </c>
     </row>
-    <row r="578" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="578" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A578" s="38" t="s">
         <v>1166</v>
       </c>
@@ -36600,7 +36600,7 @@
         <v>Meldingstekst moet aangevuld worden</v>
       </c>
     </row>
-    <row r="579" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="579" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A579" s="38" t="s">
         <v>1166</v>
       </c>
@@ -36648,7 +36648,7 @@
         <v>Meldingstekst moet aangevuld worden</v>
       </c>
     </row>
-    <row r="580" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="580" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A580" s="38" t="s">
         <v>1166</v>
       </c>
@@ -36696,7 +36696,7 @@
         <v>Meldingstekst moet aangevuld worden</v>
       </c>
     </row>
-    <row r="581" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="581" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A581" s="38" t="s">
         <v>1166</v>
       </c>
@@ -36744,7 +36744,7 @@
         <v>Meldingstekst moet aangevuld worden</v>
       </c>
     </row>
-    <row r="582" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="582" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A582" s="38" t="s">
         <v>1166</v>
       </c>
@@ -36792,7 +36792,7 @@
         <v>Meldingstekst moet aangevuld worden</v>
       </c>
     </row>
-    <row r="583" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="583" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A583" s="38" t="s">
         <v>1166</v>
       </c>
@@ -36840,7 +36840,7 @@
         <v>Meldingstekst moet aangevuld worden</v>
       </c>
     </row>
-    <row r="584" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="584" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A584" s="38" t="s">
         <v>1166</v>
       </c>
@@ -36888,7 +36888,7 @@
         <v>Meldingstekst moet aangevuld worden</v>
       </c>
     </row>
-    <row r="585" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="585" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A585" s="38" t="s">
         <v>1166</v>
       </c>
@@ -36936,7 +36936,7 @@
         <v>Meldingstekst moet aangevuld worden</v>
       </c>
     </row>
-    <row r="586" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="586" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A586" s="38" t="s">
         <v>1166</v>
       </c>
@@ -36984,7 +36984,7 @@
         <v>Meldingstekst moet aangevuld worden</v>
       </c>
     </row>
-    <row r="587" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="587" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A587" s="38" t="s">
         <v>1166</v>
       </c>
@@ -37032,7 +37032,7 @@
         <v>Meldingstekst moet aangevuld worden</v>
       </c>
     </row>
-    <row r="588" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="588" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A588" s="38" t="s">
         <v>1166</v>
       </c>
@@ -37080,7 +37080,7 @@
         <v>Meldingstekst moet aangevuld worden</v>
       </c>
     </row>
-    <row r="589" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="589" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A589" s="38" t="s">
         <v>1166</v>
       </c>
@@ -37128,7 +37128,7 @@
         <v>Meldingstekst moet aangevuld worden</v>
       </c>
     </row>
-    <row r="590" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="590" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A590" s="38" t="s">
         <v>1166</v>
       </c>
@@ -37176,7 +37176,7 @@
         <v>Meldingstekst moet aangevuld worden</v>
       </c>
     </row>
-    <row r="591" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="591" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A591" s="38" t="s">
         <v>1166</v>
       </c>
@@ -37224,7 +37224,7 @@
         <v>Meldingstekst moet aangevuld worden</v>
       </c>
     </row>
-    <row r="592" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="592" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A592" s="38" t="s">
         <v>1166</v>
       </c>
@@ -37272,7 +37272,7 @@
         <v>Meldingstekst moet aangevuld worden</v>
       </c>
     </row>
-    <row r="593" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="593" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A593" s="38" t="s">
         <v>1166</v>
       </c>
@@ -37320,7 +37320,7 @@
         <v>Meldingstekst moet aangevuld worden</v>
       </c>
     </row>
-    <row r="594" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="594" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A594" s="38" t="s">
         <v>1166</v>
       </c>
@@ -37368,7 +37368,7 @@
         <v>Meldingstekst moet aangevuld worden</v>
       </c>
     </row>
-    <row r="595" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="595" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A595" s="38" t="s">
         <v>1166</v>
       </c>
@@ -37416,7 +37416,7 @@
         <v>Meldingstekst moet aangevuld worden</v>
       </c>
     </row>
-    <row r="596" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="596" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A596" s="38" t="s">
         <v>1166</v>
       </c>
@@ -37464,7 +37464,7 @@
         <v>Meldingstekst moet aangevuld worden</v>
       </c>
     </row>
-    <row r="597" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="597" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A597" s="38" t="s">
         <v>1166</v>
       </c>
@@ -37512,7 +37512,7 @@
         <v>Meldingstekst moet aangevuld worden</v>
       </c>
     </row>
-    <row r="598" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="598" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A598" s="38" t="s">
         <v>1166</v>
       </c>
@@ -37560,7 +37560,7 @@
         <v>Meldingstekst moet aangevuld worden</v>
       </c>
     </row>
-    <row r="599" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="599" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A599" s="38" t="s">
         <v>1166</v>
       </c>
@@ -37608,7 +37608,7 @@
         <v>Meldingstekst moet aangevuld worden</v>
       </c>
     </row>
-    <row r="600" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="600" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A600" s="38" t="s">
         <v>1166</v>
       </c>
@@ -37656,7 +37656,7 @@
         <v>Meldingstekst moet aangevuld worden</v>
       </c>
     </row>
-    <row r="601" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="601" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A601" s="38" t="s">
         <v>1166</v>
       </c>
@@ -37704,7 +37704,7 @@
         <v>Meldingstekst moet aangevuld worden</v>
       </c>
     </row>
-    <row r="602" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="602" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A602" s="38" t="s">
         <v>1166</v>
       </c>
@@ -37752,7 +37752,7 @@
         <v>Meldingstekst moet aangevuld worden</v>
       </c>
     </row>
-    <row r="603" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="603" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A603" s="38" t="s">
         <v>1166</v>
       </c>
@@ -37800,7 +37800,7 @@
         <v>Meldingstekst moet aangevuld worden</v>
       </c>
     </row>
-    <row r="604" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="604" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A604" s="38" t="s">
         <v>1166</v>
       </c>
@@ -37848,7 +37848,7 @@
         <v>Meldingstekst moet aangevuld worden</v>
       </c>
     </row>
-    <row r="605" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="605" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A605" s="38" t="s">
         <v>1166</v>
       </c>
@@ -37896,7 +37896,7 @@
         <v>Meldingstekst moet aangevuld worden</v>
       </c>
     </row>
-    <row r="606" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="606" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A606" s="38" t="s">
         <v>1166</v>
       </c>
@@ -37944,7 +37944,7 @@
         <v>Meldingstekst moet aangevuld worden</v>
       </c>
     </row>
-    <row r="607" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="607" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A607" s="38" t="s">
         <v>1166</v>
       </c>
@@ -37992,7 +37992,7 @@
         <v>Meldingstekst moet aangevuld worden</v>
       </c>
     </row>
-    <row r="608" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="608" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A608" s="38" t="s">
         <v>1166</v>
       </c>
@@ -38040,7 +38040,7 @@
         <v>Meldingstekst moet aangevuld worden</v>
       </c>
     </row>
-    <row r="609" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="609" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A609" s="38" t="s">
         <v>1166</v>
       </c>
@@ -38088,7 +38088,7 @@
         <v>Meldingstekst moet aangevuld worden</v>
       </c>
     </row>
-    <row r="610" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="610" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A610" s="38" t="s">
         <v>1166</v>
       </c>
@@ -38136,7 +38136,7 @@
         <v>Meldingstekst moet aangevuld worden</v>
       </c>
     </row>
-    <row r="611" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="611" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A611" s="38" t="s">
         <v>1166</v>
       </c>
@@ -38184,7 +38184,7 @@
         <v>Meldingstekst moet aangevuld worden</v>
       </c>
     </row>
-    <row r="612" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="612" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A612" s="38" t="s">
         <v>1166</v>
       </c>
@@ -38232,7 +38232,7 @@
         <v>Meldingstekst moet aangevuld worden</v>
       </c>
     </row>
-    <row r="613" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="613" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A613" s="38" t="s">
         <v>1166</v>
       </c>
@@ -38280,7 +38280,7 @@
         <v>Meldingstekst moet aangevuld worden</v>
       </c>
     </row>
-    <row r="614" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="614" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A614" s="38" t="s">
         <v>1166</v>
       </c>
@@ -38328,7 +38328,7 @@
         <v>Meldingstekst moet aangevuld worden</v>
       </c>
     </row>
-    <row r="615" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="615" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A615" s="38" t="s">
         <v>1166</v>
       </c>
@@ -38376,7 +38376,7 @@
         <v>Meldingstekst moet aangevuld worden</v>
       </c>
     </row>
-    <row r="616" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="616" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A616" s="38" t="s">
         <v>1166</v>
       </c>
@@ -38424,7 +38424,7 @@
         <v>Meldingstekst moet aangevuld worden</v>
       </c>
     </row>
-    <row r="617" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="617" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A617" s="38" t="s">
         <v>1166</v>
       </c>
@@ -38472,7 +38472,7 @@
         <v>Meldingstekst moet aangevuld worden</v>
       </c>
     </row>
-    <row r="618" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="618" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A618" s="38" t="s">
         <v>1166</v>
       </c>
@@ -38520,7 +38520,7 @@
         <v>Meldingstekst moet aangevuld worden</v>
       </c>
     </row>
-    <row r="619" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="619" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A619" s="38" t="s">
         <v>1166</v>
       </c>
@@ -38568,7 +38568,7 @@
         <v>Meldingstekst moet aangevuld worden</v>
       </c>
     </row>
-    <row r="620" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="620" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A620" s="38" t="s">
         <v>1166</v>
       </c>
@@ -38616,7 +38616,7 @@
         <v>Meldingstekst moet aangevuld worden</v>
       </c>
     </row>
-    <row r="621" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="621" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A621" s="38" t="s">
         <v>1166</v>
       </c>
@@ -38664,7 +38664,7 @@
         <v>Meldingstekst moet aangevuld worden</v>
       </c>
     </row>
-    <row r="622" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="622" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A622" s="38" t="s">
         <v>1166</v>
       </c>
@@ -38808,7 +38808,7 @@
         <v>wId &lt;wId&gt; van Divisie in OW verwijst niet naar een bestaande wId van een Divisie in OP in de regelingversie bepaald door doel &lt;doel&gt; en regeling &lt;regeling-id&gt;</v>
       </c>
     </row>
-    <row r="625" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="625" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A625" s="38" t="s">
         <v>1166</v>
       </c>
@@ -38904,7 +38904,7 @@
         <v>wId &lt;wId&gt; van de Regeltekst in OW verwijst naar een Artikel in OP met minimaal 1 Lid in de regelingversie bepaald door doel &lt;doel&gt; en regeling &lt;regeling-id&gt;</v>
       </c>
     </row>
-    <row r="627" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="627" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A627" s="38" t="s">
         <v>1166</v>
       </c>
@@ -38952,7 +38952,7 @@
         <v>Meldingstekst moet aangevuld worden</v>
       </c>
     </row>
-    <row r="628" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="628" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A628" s="38" t="s">
         <v>1166</v>
       </c>
@@ -39000,7 +39000,7 @@
         <v>Meldingstekst moet aangevuld worden</v>
       </c>
     </row>
-    <row r="629" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="629" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A629" s="38" t="s">
         <v>1166</v>
       </c>
@@ -39048,7 +39048,7 @@
         <v>Meldingstekst moet aangevuld worden</v>
       </c>
     </row>
-    <row r="630" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="630" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A630" s="38" t="s">
         <v>1166</v>
       </c>
@@ -39096,7 +39096,7 @@
         <v>Meldingstekst moet aangevuld worden</v>
       </c>
     </row>
-    <row r="631" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="631" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A631" s="38" t="s">
         <v>1166</v>
       </c>
@@ -39144,7 +39144,7 @@
         <v>Meldingstekst moet aangevuld worden</v>
       </c>
     </row>
-    <row r="632" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="632" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A632" s="38" t="s">
         <v>1166</v>
       </c>
@@ -39288,7 +39288,7 @@
         <v>DoelID &lt;DoelID&gt; in het manifest-ow verwijst niet naar een bestaand doel in de Toestand in OP</v>
       </c>
     </row>
-    <row r="635" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="635" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A635" s="38" t="s">
         <v>1166</v>
       </c>
@@ -39336,7 +39336,7 @@
         <v>Meldingstekst moet aangevuld worden</v>
       </c>
     </row>
-    <row r="636" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="636" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A636" s="38" t="s">
         <v>1166</v>
       </c>
@@ -39384,7 +39384,7 @@
         <v>Meldingstekst moet aangevuld worden</v>
       </c>
     </row>
-    <row r="637" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="637" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A637" s="38" t="s">
         <v>1166</v>
       </c>
@@ -39432,7 +39432,7 @@
         <v>Meldingstekst moet aangevuld worden</v>
       </c>
     </row>
-    <row r="638" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="638" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A638" s="38" t="s">
         <v>1166</v>
       </c>
@@ -39480,7 +39480,7 @@
         <v>Meldingstekst moet aangevuld worden</v>
       </c>
     </row>
-    <row r="639" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="639" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A639" s="38" t="s">
         <v>1166</v>
       </c>
@@ -39576,7 +39576,7 @@
         <v>De combinatie van DoelID &lt;DoelID&gt; en WorkIDRegeling &lt;WorkIDRegeling&gt; in het manifest-ow OW verwijst niet naar een bestaande combinatie in OP</v>
       </c>
     </row>
-    <row r="641" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="641" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A641" s="38" t="s">
         <v>1166</v>
       </c>
@@ -39624,7 +39624,7 @@
         <v>Meldingstekst moet aangevuld worden</v>
       </c>
     </row>
-    <row r="642" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="642" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A642" s="38" t="s">
         <v>1166</v>
       </c>
@@ -39672,7 +39672,7 @@
         <v>Meldingstekst moet aangevuld worden</v>
       </c>
     </row>
-    <row r="643" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="643" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A643" s="38" t="s">
         <v>1166</v>
       </c>
@@ -39720,7 +39720,7 @@
         <v>Meldingstekst moet aangevuld worden</v>
       </c>
     </row>
-    <row r="644" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="644" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A644" s="38" t="s">
         <v>1166</v>
       </c>
@@ -39768,7 +39768,7 @@
         <v>Meldingstekst moet aangevuld worden</v>
       </c>
     </row>
-    <row r="645" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="645" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A645" s="38" t="s">
         <v>1166</v>
       </c>
@@ -39816,7 +39816,7 @@
         <v>Meldingstekst moet aangevuld worden</v>
       </c>
     </row>
-    <row r="646" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="646" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A646" s="38" t="s">
         <v>1166</v>
       </c>
@@ -39864,7 +39864,7 @@
         <v>Meldingstekst moet aangevuld worden</v>
       </c>
     </row>
-    <row r="647" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="647" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A647" s="38" t="s">
         <v>1166</v>
       </c>
@@ -39912,7 +39912,7 @@
         <v>Meldingstekst moet aangevuld worden</v>
       </c>
     </row>
-    <row r="648" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="648" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A648" s="38" t="s">
         <v>1166</v>
       </c>
@@ -39960,7 +39960,7 @@
         <v>Meldingstekst moet aangevuld worden</v>
       </c>
     </row>
-    <row r="649" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="649" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A649" s="38" t="s">
         <v>1166</v>
       </c>
@@ -40008,7 +40008,7 @@
         <v>Meldingstekst moet aangevuld worden</v>
       </c>
     </row>
-    <row r="650" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="650" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A650" s="38" t="s">
         <v>1166</v>
       </c>
@@ -40056,7 +40056,7 @@
         <v>Meldingstekst moet aangevuld worden</v>
       </c>
     </row>
-    <row r="651" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="651" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A651" s="38" t="s">
         <v>1166</v>
       </c>
@@ -40104,7 +40104,7 @@
         <v>Meldingstekst moet aangevuld worden</v>
       </c>
     </row>
-    <row r="652" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="652" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A652" s="38" t="s">
         <v>1166</v>
       </c>
@@ -40152,7 +40152,7 @@
         <v>Meldingstekst moet aangevuld worden</v>
       </c>
     </row>
-    <row r="653" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="653" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A653" s="38" t="s">
         <v>1166</v>
       </c>
@@ -40200,7 +40200,7 @@
         <v>Meldingstekst moet aangevuld worden</v>
       </c>
     </row>
-    <row r="654" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="654" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A654" s="38" t="s">
         <v>1166</v>
       </c>
@@ -40248,7 +40248,7 @@
         <v>Meldingstekst moet aangevuld worden</v>
       </c>
     </row>
-    <row r="655" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="655" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A655" s="38" t="s">
         <v>1166</v>
       </c>
@@ -40296,7 +40296,7 @@
         <v>Meldingstekst moet aangevuld worden</v>
       </c>
     </row>
-    <row r="656" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="656" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A656" s="38" t="s">
         <v>1166</v>
       </c>
@@ -40392,7 +40392,7 @@
         <v>Meldingstekst moet aangevuld worden</v>
       </c>
     </row>
-    <row r="658" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="658" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A658" s="38" t="s">
         <v>1166</v>
       </c>
@@ -40440,7 +40440,7 @@
         <v>Meldingstekst moet aangevuld worden</v>
       </c>
     </row>
-    <row r="659" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="659" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A659" s="38" t="s">
         <v>1166</v>
       </c>
@@ -40488,7 +40488,7 @@
         <v>Meldingstekst moet aangevuld worden</v>
       </c>
     </row>
-    <row r="660" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="660" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A660" s="38" t="s">
         <v>1166</v>
       </c>
@@ -40536,7 +40536,7 @@
         <v>Meldingstekst moet aangevuld worden</v>
       </c>
     </row>
-    <row r="661" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="661" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A661" s="38" t="s">
         <v>1166</v>
       </c>
@@ -40584,7 +40584,7 @@
         <v>Meldingstekst moet aangevuld worden</v>
       </c>
     </row>
-    <row r="662" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="662" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A662" s="38" t="s">
         <v>1166</v>
       </c>
@@ -40632,7 +40632,7 @@
         <v>Meldingstekst moet aangevuld worden</v>
       </c>
     </row>
-    <row r="663" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="663" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A663" s="38" t="s">
         <v>1166</v>
       </c>
@@ -40680,7 +40680,7 @@
         <v>Meldingstekst moet aangevuld worden</v>
       </c>
     </row>
-    <row r="664" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="664" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A664" s="38" t="s">
         <v>1166</v>
       </c>
@@ -40728,7 +40728,7 @@
         <v>Meldingstekst moet aangevuld worden</v>
       </c>
     </row>
-    <row r="665" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="665" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A665" s="38" t="s">
         <v>1166</v>
       </c>
@@ -40776,7 +40776,7 @@
         <v>Meldingstekst moet aangevuld worden</v>
       </c>
     </row>
-    <row r="666" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="666" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A666" s="38" t="s">
         <v>1166</v>
       </c>
@@ -40824,7 +40824,7 @@
         <v>Meldingstekst moet aangevuld worden</v>
       </c>
     </row>
-    <row r="667" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="667" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A667" s="38" t="s">
         <v>1166</v>
       </c>
@@ -40872,7 +40872,7 @@
         <v>Meldingstekst moet aangevuld worden</v>
       </c>
     </row>
-    <row r="668" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="668" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A668" s="38" t="s">
         <v>1166</v>
       </c>
@@ -40920,7 +40920,7 @@
         <v>Meldingstekst moet aangevuld worden</v>
       </c>
     </row>
-    <row r="669" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="669" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A669" s="38" t="s">
         <v>1166</v>
       </c>
@@ -40968,7 +40968,7 @@
         <v>Meldingstekst moet aangevuld worden</v>
       </c>
     </row>
-    <row r="670" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="670" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A670" s="38" t="s">
         <v>1166</v>
       </c>
@@ -41020,7 +41020,14 @@
   <autoFilter ref="A1:O670" xr:uid="{7496DEDB-8FBA-48D6-A790-36A5258F7B6F}">
     <filterColumn colId="0">
       <filters>
+        <filter val="Gewijzigd"/>
         <filter val="Niet gewijzigd"/>
+        <filter val="Nieuw"/>
+      </filters>
+    </filterColumn>
+    <filterColumn colId="6">
+      <filters>
+        <filter val="Ja"/>
       </filters>
     </filterColumn>
   </autoFilter>

--- a/1.0.4/matrix/Validatiematrix v1.2.xlsx
+++ b/1.0.4/matrix/Validatiematrix v1.2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Default.DESKTOP-NDDI22K\Documents\Geonovum\github\xml_validatietestcontent\1.0.4\matrix\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C9E9DAD-6DD9-45CD-8D44-BDDD830F0A36}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CAB53A5-75B0-4FF4-8935-9C6B2A2703B4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="348" windowWidth="23256" windowHeight="12720" tabRatio="670" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -8762,7 +8762,7 @@
   <dimension ref="A1:O670"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A46" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A49" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A61" sqref="A61"/>
     </sheetView>
   </sheetViews>
@@ -11659,10 +11659,10 @@
       </c>
     </row>
     <row r="61" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="38" t="s">
-        <v>1166</v>
-      </c>
-      <c r="B61" s="38">
+      <c r="A61" s="77" t="s">
+        <v>1166</v>
+      </c>
+      <c r="B61" s="80">
         <v>1</v>
       </c>
       <c r="C61" s="22" t="s">

--- a/1.0.4/matrix/Validatiematrix v1.2.xlsx
+++ b/1.0.4/matrix/Validatiematrix v1.2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Default.DESKTOP-NDDI22K\Documents\Geonovum\github\xml_validatietestcontent\1.0.4\matrix\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CAB53A5-75B0-4FF4-8935-9C6B2A2703B4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE4BE080-C5E5-4787-A757-D7654B9E729C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="348" windowWidth="23256" windowHeight="12720" tabRatio="670" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9496" uniqueCount="1770">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9497" uniqueCount="1770">
   <si>
     <t>Is Opdracht.zip een geldige zip</t>
   </si>
@@ -8763,7 +8763,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A49" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A61" sqref="A61"/>
+      <selection pane="bottomLeft" activeCell="A63" sqref="A63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -11707,11 +11707,11 @@
       </c>
     </row>
     <row r="62" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="38" t="s">
-        <v>1166</v>
-      </c>
-      <c r="B62" s="38">
-        <v>1</v>
+      <c r="A62" s="77" t="s">
+        <v>1166</v>
+      </c>
+      <c r="B62" s="82" t="s">
+        <v>1769</v>
       </c>
       <c r="C62" s="22" t="s">
         <v>77</v>
@@ -41032,7 +41032,7 @@
     </filterColumn>
   </autoFilter>
   <phoneticPr fontId="5" type="noConversion"/>
-  <conditionalFormatting sqref="F335:F339 C111:C115 F397:F408 F322:F333 F201 F269:F271 F267 F265 F259:F260 F223:F225 F219:F220 F214:F216 F203:F205 F291:G291 E450 H400:N408 G322:N339 E444:N445 M468:N475 B41:C53 B57:C63 B93:C95 B131:C138 M113:N116 G131:G138 M131:N138 B74:C81 M197:N197 G197 M41:N49 M51:N53 M57:N63 M74:N80 M88:N90 M93:N95 G51:G53 G57:G63 G74:G80 G88:G90 G93:G95 M577:N592 B66:C68 G66:G68 M66:N68 B108:C110 G108:G116 M108:N111 B148:C154 B83:C90 G84:G86 M84:N86 C116:D123 B144:C145 M144:N145 G144:G145 H155:N168 M148:N168 G148:G168 G201:N206 M451:N454 G505:G514 M504:N514 F208:N210 F212 F227:F230 G212:N230 G257:N260 F257 G118:G122 M118:N122 C126:D128 F370:F373 F346:G349 H346:N366 G370:G375 G385:G408 M596:N639 H370:N378 H385:N396 G39:G49 G37 A2:A3 A39:B68 B70:C70 A70:B90 M70:N70 G70 B1:O1 A92:B124 A126:B138 A140:B141 A144:B171 A197:B250 A255:B260 A262:B514 G262:N276 F262:F263 M641:N670 A37:B37 A25:A36 M5:N19 G5:G19 A516:B670 A515 M516:N575 G516:G670 A5:C24">
+  <conditionalFormatting sqref="F335:F339 C111:C115 F397:F408 F322:F333 F201 F269:F271 F267 F265 F259:F260 F223:F225 F219:F220 F214:F216 F203:F205 F291:G291 E450 H400:N408 G322:N339 E444:N445 M468:N475 B41:C53 B57:C63 B93:C95 B131:C138 M113:N116 G131:G138 M131:N138 B74:C81 M197:N197 G197 M41:N49 M51:N53 M57:N63 M74:N80 M88:N90 M93:N95 G51:G53 G57:G63 G74:G80 G88:G90 G93:G95 M577:N592 B66:C68 G66:G68 M66:N68 B108:C110 G108:G116 M108:N111 B148:C154 B83:C90 G84:G86 M84:N86 C116:D123 B144:C145 M144:N145 G144:G145 H155:N168 M148:N168 G148:G168 G201:N206 M451:N454 G505:G514 M504:N514 F208:N210 F212 F227:F230 G212:N230 G257:N260 F257 G118:G122 M118:N122 C126:D128 F370:F373 F346:G349 H346:N366 G370:G375 G385:G408 M596:N639 H370:N378 H385:N396 G39:G49 G37 A2:A3 B70:C70 A70:B90 M70:N70 G70 B1:O1 A92:B124 A126:B138 A140:B141 A144:B171 A197:B250 A255:B260 A262:B514 G262:N276 F262:F263 M641:N670 A37:B37 A25:A36 M5:N19 G5:G19 A516:B670 A515 M516:N575 G516:G670 A5:C24 A39:B68">
     <cfRule type="containsText" dxfId="210" priority="366" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",A1)))</formula>
     </cfRule>

--- a/1.0.4/matrix/Validatiematrix v1.2.xlsx
+++ b/1.0.4/matrix/Validatiematrix v1.2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Default.DESKTOP-NDDI22K\Documents\Geonovum\github\xml_validatietestcontent\1.0.4\matrix\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE4BE080-C5E5-4787-A757-D7654B9E729C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56C4A567-D305-4D3F-BFAF-90473A21D886}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="348" windowWidth="23256" windowHeight="12720" tabRatio="670" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9497" uniqueCount="1770">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9498" uniqueCount="1771">
   <si>
     <t>Is Opdracht.zip een geldige zip</t>
   </si>
@@ -5599,6 +5599,9 @@
   </si>
   <si>
     <t>1 (rapporteert als LVBB1019)</t>
+  </si>
+  <si>
+    <t>LVBB1021 (geeft onterecht ook fout BHKV1008)</t>
   </si>
 </sst>
 </file>
@@ -6283,7 +6286,27 @@
     <cellStyle name="Standaard 3 2" xfId="3" xr:uid="{A1634239-92B9-4583-AB04-DEBDF9A9A44B}"/>
     <cellStyle name="Standaard 3 3" xfId="5" xr:uid="{C77AD319-D6C6-4ABD-AE5A-A2C0A40B68E7}"/>
   </cellStyles>
-  <dxfs count="211">
+  <dxfs count="213">
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FFFF0000"/>
@@ -8763,7 +8786,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A49" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A63" sqref="A63"/>
+      <selection pane="bottomLeft" activeCell="C69" sqref="C69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -11755,14 +11778,14 @@
       </c>
     </row>
     <row r="63" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="38" t="s">
-        <v>1166</v>
-      </c>
-      <c r="B63" s="38">
-        <v>1</v>
-      </c>
-      <c r="C63" s="22" t="s">
-        <v>79</v>
+      <c r="A63" s="77" t="s">
+        <v>1166</v>
+      </c>
+      <c r="B63" s="82" t="s">
+        <v>1767</v>
+      </c>
+      <c r="C63" s="79" t="s">
+        <v>1770</v>
       </c>
       <c r="D63" s="18" t="s">
         <v>80</v>
@@ -11799,7 +11822,7 @@
       </c>
       <c r="O63" s="69" t="str">
         <f>IF(A63="Verwijderd","Validatie is verwijderd, dus meldingstekst is niet van toepassing",IF(ISNA(VLOOKUP(C63,Sheet1!A$1:B$385,2,0)),"Meldingstekst moet aangevuld worden",VLOOKUP(C63,Sheet1!A$1:B$385,2,0)))</f>
-        <v>De opdracht voldoet niet aan de technische eisen: Content type van bestand: '&lt;bestandsnaam&gt;'  komt niet overeen metHet werkelijke formaat: &lt;mime-type&gt;</v>
+        <v>Meldingstekst moet aangevuld worden</v>
       </c>
     </row>
     <row r="64" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -41032,1044 +41055,1049 @@
     </filterColumn>
   </autoFilter>
   <phoneticPr fontId="5" type="noConversion"/>
-  <conditionalFormatting sqref="F335:F339 C111:C115 F397:F408 F322:F333 F201 F269:F271 F267 F265 F259:F260 F223:F225 F219:F220 F214:F216 F203:F205 F291:G291 E450 H400:N408 G322:N339 E444:N445 M468:N475 B41:C53 B57:C63 B93:C95 B131:C138 M113:N116 G131:G138 M131:N138 B74:C81 M197:N197 G197 M41:N49 M51:N53 M57:N63 M74:N80 M88:N90 M93:N95 G51:G53 G57:G63 G74:G80 G88:G90 G93:G95 M577:N592 B66:C68 G66:G68 M66:N68 B108:C110 G108:G116 M108:N111 B148:C154 B83:C90 G84:G86 M84:N86 C116:D123 B144:C145 M144:N145 G144:G145 H155:N168 M148:N168 G148:G168 G201:N206 M451:N454 G505:G514 M504:N514 F208:N210 F212 F227:F230 G212:N230 G257:N260 F257 G118:G122 M118:N122 C126:D128 F370:F373 F346:G349 H346:N366 G370:G375 G385:G408 M596:N639 H370:N378 H385:N396 G39:G49 G37 A2:A3 B70:C70 A70:B90 M70:N70 G70 B1:O1 A92:B124 A126:B138 A140:B141 A144:B171 A197:B250 A255:B260 A262:B514 G262:N276 F262:F263 M641:N670 A37:B37 A25:A36 M5:N19 G5:G19 A516:B670 A515 M516:N575 G516:G670 A5:C24 A39:B68">
-    <cfRule type="containsText" dxfId="210" priority="366" operator="containsText" text="&lt;?&gt;">
+  <conditionalFormatting sqref="F335:F339 C111:C115 F397:F408 F322:F333 F201 F269:F271 F267 F265 F259:F260 F223:F225 F219:F220 F214:F216 F203:F205 F291:G291 E450 H400:N408 G322:N339 E444:N445 M468:N475 B41:C53 B57:C62 B93:C95 B131:C138 M113:N116 G131:G138 M131:N138 B74:C81 M197:N197 G197 M41:N49 M51:N53 M57:N63 M74:N80 M88:N90 M93:N95 G51:G53 G57:G63 G74:G80 G88:G90 G93:G95 M577:N592 B66:C68 G66:G68 M66:N68 B108:C110 G108:G116 M108:N111 B148:C154 B83:C90 G84:G86 M84:N86 C116:D123 B144:C145 M144:N145 G144:G145 H155:N168 M148:N168 G148:G168 G201:N206 M451:N454 G505:G514 M504:N514 F208:N210 F212 F227:F230 G212:N230 G257:N260 F257 G118:G122 M118:N122 C126:D128 F370:F373 F346:G349 H346:N366 G370:G375 G385:G408 M596:N639 H370:N378 H385:N396 G39:G49 G37 A2:A3 B70:C70 A70:B90 M70:N70 G70 B1:O1 A92:B124 A126:B138 A140:B141 A144:B171 A197:B250 A255:B260 A262:B514 G262:N276 F262:F263 M641:N670 A37:B37 A25:A36 M5:N19 G5:G19 A516:B670 A515 M516:N575 G516:G670 A5:C24 A39:B62 A64:B68">
+    <cfRule type="containsText" dxfId="212" priority="367" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",A1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B297:B305 B201:B206 B208:B250">
-    <cfRule type="containsText" dxfId="209" priority="461" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="211" priority="462" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B201)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F394:F396">
-    <cfRule type="containsText" dxfId="208" priority="451" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="210" priority="452" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",F394)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H290:N290">
-    <cfRule type="containsText" dxfId="207" priority="459" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="209" priority="460" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",H290)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M444:N445">
-    <cfRule type="containsText" dxfId="206" priority="450" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="208" priority="451" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",M444)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H445:L445">
-    <cfRule type="containsText" dxfId="205" priority="449" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="207" priority="450" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",H445)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G445:L445">
-    <cfRule type="containsText" dxfId="204" priority="448" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="206" priority="449" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G445)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M445:N445">
-    <cfRule type="containsText" dxfId="203" priority="446" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="205" priority="447" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",M445)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H444:L444">
-    <cfRule type="containsText" dxfId="202" priority="445" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="204" priority="446" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",H444)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G444:L444">
-    <cfRule type="containsText" dxfId="201" priority="444" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="203" priority="445" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G444)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M444:N444">
-    <cfRule type="containsText" dxfId="200" priority="442" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="202" priority="443" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",M444)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F334">
-    <cfRule type="containsText" dxfId="199" priority="441" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="201" priority="442" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",F334)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F374:F378 F385:F393">
-    <cfRule type="containsText" dxfId="198" priority="440" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="200" priority="441" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",F374)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H397:N398">
-    <cfRule type="containsText" dxfId="197" priority="439" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="199" priority="440" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",H397)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M455">
-    <cfRule type="containsText" dxfId="196" priority="408" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="198" priority="409" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",M455)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H450:N450">
-    <cfRule type="containsText" dxfId="195" priority="434" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="197" priority="435" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",H450)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N467">
-    <cfRule type="containsText" dxfId="194" priority="394" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="196" priority="395" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",N467)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H399:N399">
-    <cfRule type="containsText" dxfId="193" priority="377" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="195" priority="378" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",H399)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B466">
-    <cfRule type="containsText" dxfId="192" priority="425" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="194" priority="426" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B466)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M467">
-    <cfRule type="containsText" dxfId="191" priority="396" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="193" priority="397" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",M467)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G456">
-    <cfRule type="containsText" dxfId="190" priority="411" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="192" priority="412" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G456)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M466">
-    <cfRule type="containsText" dxfId="189" priority="400" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="191" priority="401" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",M466)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N455">
-    <cfRule type="containsText" dxfId="188" priority="406" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="190" priority="407" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",N455)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B455:B465">
-    <cfRule type="containsText" dxfId="187" priority="424" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="189" priority="425" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B455)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N466">
-    <cfRule type="containsText" dxfId="186" priority="398" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="188" priority="399" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",N466)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M456">
-    <cfRule type="containsText" dxfId="185" priority="404" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="187" priority="405" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",M456)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N456">
-    <cfRule type="containsText" dxfId="184" priority="402" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="186" priority="403" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",N456)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P342:X345">
-    <cfRule type="containsText" dxfId="183" priority="365" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="185" priority="366" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",P342)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E342:F342 E344:F345">
-    <cfRule type="containsText" dxfId="182" priority="364" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="184" priority="365" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",E342)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H344:H345">
-    <cfRule type="containsText" dxfId="181" priority="363" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="183" priority="364" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",H344)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I342 I344:I345">
-    <cfRule type="containsText" dxfId="180" priority="362" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="182" priority="363" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",I342)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J342 J344:J345">
-    <cfRule type="containsText" dxfId="179" priority="361" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="181" priority="362" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",J342)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K342 K344:K345">
-    <cfRule type="containsText" dxfId="178" priority="360" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="180" priority="361" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",K342)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L342 L344:L345">
-    <cfRule type="containsText" dxfId="177" priority="359" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="179" priority="360" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",L342)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M342 M344:M345">
-    <cfRule type="containsText" dxfId="176" priority="358" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="178" priority="359" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",M342)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N342 N344:N345">
-    <cfRule type="containsText" dxfId="175" priority="357" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="177" priority="358" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",N342)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P409:X409">
-    <cfRule type="containsText" dxfId="174" priority="356" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="176" priority="357" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",P409)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F409">
-    <cfRule type="containsText" dxfId="173" priority="355" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="175" priority="356" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",F409)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I409">
-    <cfRule type="containsText" dxfId="172" priority="353" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="174" priority="354" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",I409)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J409">
-    <cfRule type="containsText" dxfId="171" priority="352" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="173" priority="353" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",J409)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K409">
-    <cfRule type="containsText" dxfId="170" priority="351" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="172" priority="352" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",K409)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L409">
-    <cfRule type="containsText" dxfId="169" priority="350" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="171" priority="351" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",L409)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M409">
-    <cfRule type="containsText" dxfId="168" priority="349" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="170" priority="350" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",M409)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N409">
-    <cfRule type="containsText" dxfId="167" priority="348" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="169" priority="349" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",N409)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B505:B513">
-    <cfRule type="containsText" dxfId="166" priority="346" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="168" priority="347" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B505)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B514">
-    <cfRule type="containsText" dxfId="165" priority="325" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="167" priority="326" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B514)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B111:B114">
-    <cfRule type="containsText" dxfId="164" priority="313" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="166" priority="314" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B111)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B306 B296">
-    <cfRule type="containsText" dxfId="163" priority="314" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="165" priority="315" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B296)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B467:B475">
-    <cfRule type="containsText" dxfId="162" priority="311" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="164" priority="312" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B467)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B307:B321">
-    <cfRule type="containsText" dxfId="161" priority="312" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="163" priority="313" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B307)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B516">
-    <cfRule type="containsText" dxfId="160" priority="310" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="162" priority="311" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B516)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B450">
-    <cfRule type="containsText" dxfId="159" priority="308" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="161" priority="309" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B450)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B449">
-    <cfRule type="containsText" dxfId="158" priority="307" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="160" priority="308" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B449)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B322:B448">
-    <cfRule type="containsText" dxfId="157" priority="306" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="159" priority="307" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B322)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G504">
-    <cfRule type="containsText" dxfId="156" priority="286" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="158" priority="287" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G504)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C37 C39:C40">
-    <cfRule type="containsText" dxfId="155" priority="281" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="157" priority="282" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",C37)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E409">
-    <cfRule type="containsText" dxfId="154" priority="279" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="156" priority="280" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",E409)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M112:N112">
-    <cfRule type="containsText" dxfId="153" priority="272" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="155" priority="273" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",M112)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C71:D71">
-    <cfRule type="containsText" dxfId="152" priority="267" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="154" priority="268" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",C71)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C92:D92">
-    <cfRule type="containsText" dxfId="151" priority="265" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="153" priority="266" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",C92)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C129:D130">
-    <cfRule type="containsText" dxfId="150" priority="240" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="152" priority="241" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",C129)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G126:G130 M126:N130">
-    <cfRule type="containsText" dxfId="149" priority="239" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="151" priority="240" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G126)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B169:B171">
-    <cfRule type="containsText" dxfId="148" priority="238" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="150" priority="239" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B169)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G169:G170">
-    <cfRule type="containsText" dxfId="147" priority="237" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="149" priority="238" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G169)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H169:N170">
-    <cfRule type="containsText" dxfId="146" priority="236" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="148" priority="237" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",H169)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M446:N449 M438:N443 M420:N427 M92:N92 M87:N87 M71:N71 M54:N56 M50:N50 M37:N37 M39:N40">
-    <cfRule type="containsText" dxfId="145" priority="234" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="147" priority="235" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",M37)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M65:N65 G65">
-    <cfRule type="containsText" dxfId="144" priority="229" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="146" priority="230" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G65)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B64:B65">
-    <cfRule type="containsText" dxfId="143" priority="231" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="145" priority="232" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B64)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M64:N64 G64">
-    <cfRule type="containsText" dxfId="142" priority="230" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="144" priority="231" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G64)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B72:B73">
-    <cfRule type="containsText" dxfId="141" priority="225" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="143" priority="226" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B72)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M72:N72">
-    <cfRule type="containsText" dxfId="140" priority="227" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="142" priority="228" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",M72)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M73:N73">
-    <cfRule type="containsText" dxfId="139" priority="226" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="141" priority="227" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",M73)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B96:D107">
-    <cfRule type="containsText" dxfId="138" priority="222" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="140" priority="223" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B96)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M96:N107 G96:G107">
-    <cfRule type="containsText" dxfId="137" priority="223" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="139" priority="224" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G96)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M83:N83 G83">
-    <cfRule type="containsText" dxfId="136" priority="208" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="138" priority="209" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G83)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M82:N82 G82">
-    <cfRule type="containsText" dxfId="135" priority="207" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="137" priority="208" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G82)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G207:N207">
-    <cfRule type="containsText" dxfId="134" priority="215" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="136" priority="216" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G207)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B146:B147">
-    <cfRule type="containsText" dxfId="133" priority="217" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="135" priority="218" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B146)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G146:G147 M146:N147">
-    <cfRule type="containsText" dxfId="132" priority="216" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="134" priority="217" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G146)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B82">
-    <cfRule type="containsText" dxfId="131" priority="209" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="133" priority="210" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B82)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G123 M123:N123">
-    <cfRule type="containsText" dxfId="130" priority="206" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="132" priority="207" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G123)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B140:B141">
-    <cfRule type="containsText" dxfId="129" priority="203" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="131" priority="204" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B140)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G140:G141 M140:N141">
-    <cfRule type="containsText" dxfId="128" priority="202" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="130" priority="203" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G140)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B198:B200">
-    <cfRule type="containsText" dxfId="127" priority="153" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="129" priority="154" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B198)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M198:N200 G198:G200">
-    <cfRule type="containsText" dxfId="126" priority="152" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="128" priority="153" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G198)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B255:B258">
-    <cfRule type="containsText" dxfId="125" priority="142" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="127" priority="143" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B255)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B517:B546">
-    <cfRule type="containsText" dxfId="124" priority="139" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="126" priority="140" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B517)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G81">
-    <cfRule type="containsText" dxfId="123" priority="137" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="125" priority="138" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G81)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H171:N171">
-    <cfRule type="containsText" dxfId="122" priority="133" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="124" priority="134" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",H171)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F211:N211">
-    <cfRule type="containsText" dxfId="121" priority="131" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="123" priority="132" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",F211)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G171">
-    <cfRule type="containsText" dxfId="120" priority="134" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="122" priority="135" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G171)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F231:N249 F255:N256">
-    <cfRule type="containsText" dxfId="119" priority="128" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="121" priority="129" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",F231)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M117:N117 G117">
-    <cfRule type="containsText" dxfId="118" priority="127" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="120" priority="128" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G117)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B124:D124">
-    <cfRule type="containsText" dxfId="117" priority="126" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="119" priority="127" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B124)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G124 M124:N124">
-    <cfRule type="containsText" dxfId="116" priority="125" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="118" priority="126" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G124)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F250:N250">
-    <cfRule type="containsText" dxfId="115" priority="124" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="117" priority="125" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",F250)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1">
-    <cfRule type="containsText" dxfId="114" priority="123" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="116" priority="124" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",A1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G342">
-    <cfRule type="containsText" dxfId="113" priority="121" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="115" priority="122" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G342)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H342">
-    <cfRule type="containsText" dxfId="112" priority="120" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="114" priority="121" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",H342)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F340">
-    <cfRule type="containsText" dxfId="111" priority="119" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="113" priority="120" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",F340)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F350:F366">
-    <cfRule type="containsText" dxfId="110" priority="118" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="112" priority="119" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",F350)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I340">
-    <cfRule type="containsText" dxfId="109" priority="117" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="111" priority="118" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",I340)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J340">
-    <cfRule type="containsText" dxfId="108" priority="116" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="110" priority="117" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",J340)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K340">
-    <cfRule type="containsText" dxfId="107" priority="115" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="109" priority="116" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",K340)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L340">
-    <cfRule type="containsText" dxfId="106" priority="114" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="108" priority="115" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",L340)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M340">
-    <cfRule type="containsText" dxfId="105" priority="113" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="107" priority="114" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",M340)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N340">
-    <cfRule type="containsText" dxfId="104" priority="112" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="106" priority="113" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",N340)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H340">
-    <cfRule type="containsText" dxfId="103" priority="111" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="105" priority="112" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",H340)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G20:G24 M20:N24">
-    <cfRule type="containsText" dxfId="102" priority="107" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="104" priority="108" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G20)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G457:G465">
-    <cfRule type="containsText" dxfId="101" priority="106" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="103" priority="107" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G457)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M457:M465">
-    <cfRule type="containsText" dxfId="100" priority="105" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="102" priority="106" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",M457)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N457:N465">
-    <cfRule type="containsText" dxfId="99" priority="104" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="101" priority="105" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",N457)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M593:N593">
-    <cfRule type="containsText" dxfId="98" priority="103" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="100" priority="104" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",M593)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M594:N594">
-    <cfRule type="containsText" dxfId="97" priority="102" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="99" priority="103" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",M594)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F341">
-    <cfRule type="containsText" dxfId="96" priority="101" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="98" priority="102" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",F341)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I341">
-    <cfRule type="containsText" dxfId="95" priority="100" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="97" priority="101" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",I341)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J341">
-    <cfRule type="containsText" dxfId="94" priority="99" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="96" priority="100" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",J341)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K341">
-    <cfRule type="containsText" dxfId="93" priority="98" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="95" priority="99" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",K341)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L341">
-    <cfRule type="containsText" dxfId="92" priority="97" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="94" priority="98" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",L341)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M341">
-    <cfRule type="containsText" dxfId="91" priority="96" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="93" priority="97" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",M341)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N341">
-    <cfRule type="containsText" dxfId="90" priority="95" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="92" priority="96" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",N341)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H341">
-    <cfRule type="containsText" dxfId="89" priority="94" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="91" priority="95" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",H341)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E343:F343">
-    <cfRule type="containsText" dxfId="88" priority="93" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="90" priority="94" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",E343)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I343">
-    <cfRule type="containsText" dxfId="87" priority="92" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="89" priority="93" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",I343)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J343">
-    <cfRule type="containsText" dxfId="86" priority="91" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="88" priority="92" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",J343)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K343">
-    <cfRule type="containsText" dxfId="85" priority="90" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="87" priority="91" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",K343)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L343">
-    <cfRule type="containsText" dxfId="84" priority="89" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="86" priority="90" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",L343)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M343">
-    <cfRule type="containsText" dxfId="83" priority="88" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="85" priority="89" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",M343)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N343">
-    <cfRule type="containsText" dxfId="82" priority="87" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="84" priority="88" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",N343)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G343">
-    <cfRule type="containsText" dxfId="81" priority="86" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="83" priority="87" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G343)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H343">
-    <cfRule type="containsText" dxfId="80" priority="85" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="82" priority="86" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",H343)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H367:N367">
-    <cfRule type="containsText" dxfId="79" priority="84" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="81" priority="85" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",H367)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F367">
-    <cfRule type="containsText" dxfId="78" priority="83" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="80" priority="84" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",F367)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H368:N368">
-    <cfRule type="containsText" dxfId="77" priority="82" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="79" priority="83" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",H368)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F368">
-    <cfRule type="containsText" dxfId="76" priority="81" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="78" priority="82" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",F368)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H369:N369">
-    <cfRule type="containsText" dxfId="75" priority="80" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="77" priority="81" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",H369)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F369">
-    <cfRule type="containsText" dxfId="74" priority="79" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="76" priority="80" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",F369)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H379:N379">
-    <cfRule type="containsText" dxfId="73" priority="77" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="75" priority="78" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",H379)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F379">
-    <cfRule type="containsText" dxfId="72" priority="78" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="74" priority="79" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",F379)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H380:N384">
-    <cfRule type="containsText" dxfId="71" priority="75" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="73" priority="76" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",H380)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F380:F384">
-    <cfRule type="containsText" dxfId="70" priority="76" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="72" priority="77" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",F380)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M38:N38 G38 A38:C38">
-    <cfRule type="containsText" dxfId="69" priority="74" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="71" priority="75" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",A38)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A139:N139">
-    <cfRule type="containsText" dxfId="68" priority="69" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="70" priority="70" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",A139)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A125:N125">
-    <cfRule type="containsText" dxfId="67" priority="70" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="69" priority="71" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",A125)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A142:N143">
-    <cfRule type="containsText" dxfId="66" priority="68" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="68" priority="69" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",A142)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A172:A176 C172:N176">
-    <cfRule type="containsText" dxfId="65" priority="67" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="67" priority="68" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",A172)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A177:A196 C177:N196">
-    <cfRule type="containsText" dxfId="64" priority="66" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="66" priority="67" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",A177)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A251:N254">
-    <cfRule type="containsText" dxfId="63" priority="65" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="65" priority="66" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",A251)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M640:N640">
-    <cfRule type="containsText" dxfId="62" priority="16" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="64" priority="17" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",M640)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A261 H261:N261 C261:F261">
-    <cfRule type="containsText" dxfId="61" priority="63" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="63" priority="64" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",A261)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G447">
-    <cfRule type="containsText" dxfId="60" priority="61" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="62" priority="62" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G447)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G447">
-    <cfRule type="containsText" dxfId="59" priority="62" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="61" priority="63" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G447)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G448">
-    <cfRule type="containsText" dxfId="58" priority="59" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="60" priority="60" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G448)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G448">
-    <cfRule type="containsText" dxfId="57" priority="60" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="59" priority="61" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G448)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G449">
-    <cfRule type="containsText" dxfId="56" priority="57" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="58" priority="58" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G449)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G449">
-    <cfRule type="containsText" dxfId="55" priority="58" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="57" priority="59" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G449)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G450">
-    <cfRule type="containsText" dxfId="54" priority="55" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="56" priority="56" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G450)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G450">
-    <cfRule type="containsText" dxfId="53" priority="56" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="55" priority="57" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G450)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G451">
-    <cfRule type="containsText" dxfId="52" priority="53" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="54" priority="54" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G451)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G451">
-    <cfRule type="containsText" dxfId="51" priority="54" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="53" priority="55" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G451)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G452">
-    <cfRule type="containsText" dxfId="50" priority="51" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="52" priority="52" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G452)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G452">
-    <cfRule type="containsText" dxfId="49" priority="52" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="51" priority="53" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G452)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G453">
-    <cfRule type="containsText" dxfId="48" priority="49" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="50" priority="50" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G453)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G453">
-    <cfRule type="containsText" dxfId="47" priority="50" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="49" priority="51" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G453)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G454">
-    <cfRule type="containsText" dxfId="46" priority="47" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="48" priority="48" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G454)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G454">
-    <cfRule type="containsText" dxfId="45" priority="48" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="47" priority="49" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G454)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G455">
-    <cfRule type="containsText" dxfId="44" priority="45" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="46" priority="46" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G455)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G455">
-    <cfRule type="containsText" dxfId="43" priority="46" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="45" priority="47" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G455)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G466">
-    <cfRule type="containsText" dxfId="42" priority="43" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="44" priority="44" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G466)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G466">
-    <cfRule type="containsText" dxfId="41" priority="44" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="43" priority="45" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G466)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G467">
-    <cfRule type="containsText" dxfId="40" priority="41" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="42" priority="42" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G467)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G467">
-    <cfRule type="containsText" dxfId="39" priority="42" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="41" priority="43" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G467)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G468">
-    <cfRule type="containsText" dxfId="38" priority="39" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="40" priority="40" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G468)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G468">
-    <cfRule type="containsText" dxfId="37" priority="40" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="39" priority="41" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G468)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G469">
-    <cfRule type="containsText" dxfId="36" priority="37" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="38" priority="38" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G469)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G469">
-    <cfRule type="containsText" dxfId="35" priority="38" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="37" priority="39" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G469)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G470">
-    <cfRule type="containsText" dxfId="34" priority="35" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="36" priority="36" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G470)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G470">
-    <cfRule type="containsText" dxfId="33" priority="36" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="35" priority="37" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G470)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G471">
-    <cfRule type="containsText" dxfId="32" priority="33" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="34" priority="34" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G471)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G471">
-    <cfRule type="containsText" dxfId="31" priority="34" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="33" priority="35" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G471)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G472">
-    <cfRule type="containsText" dxfId="30" priority="31" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="32" priority="32" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G472)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G472">
-    <cfRule type="containsText" dxfId="29" priority="32" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="31" priority="33" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G472)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G473">
-    <cfRule type="containsText" dxfId="28" priority="29" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="30" priority="30" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G473)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G473">
-    <cfRule type="containsText" dxfId="27" priority="30" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="29" priority="31" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G473)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G474">
-    <cfRule type="containsText" dxfId="26" priority="27" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="28" priority="28" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G474)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G474">
-    <cfRule type="containsText" dxfId="25" priority="28" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="27" priority="29" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G474)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G475">
-    <cfRule type="containsText" dxfId="24" priority="25" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="26" priority="26" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G475)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G475">
-    <cfRule type="containsText" dxfId="23" priority="26" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="25" priority="27" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G475)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G476">
-    <cfRule type="containsText" dxfId="22" priority="23" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="24" priority="24" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G476)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G476">
-    <cfRule type="containsText" dxfId="21" priority="24" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="23" priority="25" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G476)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G477">
-    <cfRule type="containsText" dxfId="20" priority="21" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="22" priority="22" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G477)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G477">
-    <cfRule type="containsText" dxfId="19" priority="22" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="21" priority="23" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G477)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G478">
-    <cfRule type="containsText" dxfId="18" priority="19" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="20" priority="20" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G478)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G478">
-    <cfRule type="containsText" dxfId="17" priority="20" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="19" priority="21" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G478)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G479">
-    <cfRule type="containsText" dxfId="16" priority="17" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="18" priority="18" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G479)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G479">
-    <cfRule type="containsText" dxfId="15" priority="18" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="17" priority="19" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G479)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G31:G36 G25:G28 B25:C36 M25:N36">
-    <cfRule type="containsText" dxfId="14" priority="14" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="16" priority="15" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B25)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G29:G30">
-    <cfRule type="containsText" dxfId="13" priority="15" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="15" priority="16" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G29)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G4 M4:N4 A4:C4">
-    <cfRule type="containsText" dxfId="12" priority="11" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="14" priority="12" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",A4)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O2:O90 O92:O670">
-    <cfRule type="containsText" dxfId="11" priority="9" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="13" priority="10" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",O2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2:G3 B2:C3 M2:N3">
-    <cfRule type="containsText" dxfId="10" priority="10" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="12" priority="11" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G261">
-    <cfRule type="containsText" dxfId="9" priority="8" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="11" priority="9" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G261)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A91:G91 O91">
-    <cfRule type="containsText" dxfId="8" priority="7" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="10" priority="8" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",A91)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B261">
-    <cfRule type="containsText" dxfId="7" priority="6" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="9" priority="7" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B261)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B515">
-    <cfRule type="containsText" dxfId="6" priority="5" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="8" priority="6" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B515)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M515:N515 G515">
-    <cfRule type="containsText" dxfId="5" priority="4" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="7" priority="5" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G515)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B172:B196">
-    <cfRule type="containsText" dxfId="4" priority="1" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="6" priority="2" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B172)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B172:B196">
-    <cfRule type="containsText" dxfId="3" priority="2" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="5" priority="3" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B172)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A63:B63">
+    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="&lt;?&gt;">
+      <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",A63)))</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -45170,7 +45198,7 @@
   </sheetData>
   <autoFilter ref="A1:B1" xr:uid="{AF62FD2E-052D-40DF-8032-68688A8C1623}"/>
   <conditionalFormatting sqref="A2:B479">
-    <cfRule type="containsText" dxfId="2" priority="2" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="4" priority="2" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",A2)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -45500,12 +45528,12 @@
     <mergeCell ref="A1:B1"/>
   </mergeCells>
   <conditionalFormatting sqref="A1 C1 A2:C37 A39:C1048576">
-    <cfRule type="containsText" dxfId="1" priority="31" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="3" priority="31" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",A1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A38:C38">
-    <cfRule type="containsText" dxfId="0" priority="6" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="2" priority="6" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",A38)))</formula>
     </cfRule>
   </conditionalFormatting>

--- a/1.0.4/matrix/Validatiematrix v1.2.xlsx
+++ b/1.0.4/matrix/Validatiematrix v1.2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Default.DESKTOP-NDDI22K\Documents\Geonovum\github\xml_validatietestcontent\1.0.4\matrix\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56C4A567-D305-4D3F-BFAF-90473A21D886}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2AF2E9F-ED4D-4621-920E-B095D0692B03}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="348" windowWidth="23256" windowHeight="12720" tabRatio="670" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -6026,7 +6026,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="83">
+  <cellXfs count="84">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -6248,9 +6248,6 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="1" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -6273,6 +6270,12 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -8785,8 +8788,8 @@
   <dimension ref="A1:O670"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A49" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C69" sqref="C69"/>
+      <pane ySplit="1" topLeftCell="A55" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A70" sqref="A70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -8946,13 +8949,13 @@
       </c>
     </row>
     <row r="4" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="77" t="s">
-        <v>1166</v>
-      </c>
-      <c r="B4" s="80">
+      <c r="A4" s="76" t="s">
+        <v>1166</v>
+      </c>
+      <c r="B4" s="79">
         <v>2</v>
       </c>
-      <c r="C4" s="81" t="s">
+      <c r="C4" s="80" t="s">
         <v>1755</v>
       </c>
       <c r="D4" s="18" t="s">
@@ -8994,10 +8997,10 @@
       </c>
     </row>
     <row r="5" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="77" t="s">
-        <v>1166</v>
-      </c>
-      <c r="B5" s="80">
+      <c r="A5" s="76" t="s">
+        <v>1166</v>
+      </c>
+      <c r="B5" s="79">
         <v>2</v>
       </c>
       <c r="C5" s="18" t="s">
@@ -9042,10 +9045,10 @@
       </c>
     </row>
     <row r="6" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="77" t="s">
-        <v>1166</v>
-      </c>
-      <c r="B6" s="80">
+      <c r="A6" s="76" t="s">
+        <v>1166</v>
+      </c>
+      <c r="B6" s="79">
         <v>2</v>
       </c>
       <c r="C6" s="18" t="s">
@@ -9090,10 +9093,10 @@
       </c>
     </row>
     <row r="7" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="77" t="s">
-        <v>1166</v>
-      </c>
-      <c r="B7" s="80">
+      <c r="A7" s="76" t="s">
+        <v>1166</v>
+      </c>
+      <c r="B7" s="79">
         <v>2</v>
       </c>
       <c r="C7" s="18" t="s">
@@ -9138,10 +9141,10 @@
       </c>
     </row>
     <row r="8" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="77" t="s">
-        <v>1166</v>
-      </c>
-      <c r="B8" s="80">
+      <c r="A8" s="76" t="s">
+        <v>1166</v>
+      </c>
+      <c r="B8" s="79">
         <v>2</v>
       </c>
       <c r="C8" s="18" t="s">
@@ -9186,10 +9189,10 @@
       </c>
     </row>
     <row r="9" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="77" t="s">
-        <v>1166</v>
-      </c>
-      <c r="B9" s="80">
+      <c r="A9" s="76" t="s">
+        <v>1166</v>
+      </c>
+      <c r="B9" s="79">
         <v>2</v>
       </c>
       <c r="C9" s="18" t="s">
@@ -9234,13 +9237,13 @@
       </c>
     </row>
     <row r="10" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="77" t="s">
-        <v>1166</v>
-      </c>
-      <c r="B10" s="80">
+      <c r="A10" s="76" t="s">
+        <v>1166</v>
+      </c>
+      <c r="B10" s="79">
         <v>2</v>
       </c>
-      <c r="C10" s="81" t="s">
+      <c r="C10" s="80" t="s">
         <v>1753</v>
       </c>
       <c r="D10" s="18" t="s">
@@ -9282,13 +9285,13 @@
       </c>
     </row>
     <row r="11" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="77" t="s">
-        <v>1166</v>
-      </c>
-      <c r="B11" s="80">
+      <c r="A11" s="76" t="s">
+        <v>1166</v>
+      </c>
+      <c r="B11" s="79">
         <v>2</v>
       </c>
-      <c r="C11" s="81" t="s">
+      <c r="C11" s="80" t="s">
         <v>1754</v>
       </c>
       <c r="D11" s="18" t="s">
@@ -9330,13 +9333,13 @@
       </c>
     </row>
     <row r="12" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="77" t="s">
-        <v>1166</v>
-      </c>
-      <c r="B12" s="80">
+      <c r="A12" s="76" t="s">
+        <v>1166</v>
+      </c>
+      <c r="B12" s="79">
         <v>2</v>
       </c>
-      <c r="C12" s="81" t="s">
+      <c r="C12" s="80" t="s">
         <v>1756</v>
       </c>
       <c r="D12" s="18" t="s">
@@ -9378,13 +9381,13 @@
       </c>
     </row>
     <row r="13" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="77" t="s">
-        <v>1166</v>
-      </c>
-      <c r="B13" s="82" t="s">
+      <c r="A13" s="76" t="s">
+        <v>1166</v>
+      </c>
+      <c r="B13" s="81" t="s">
         <v>1758</v>
       </c>
-      <c r="C13" s="81" t="s">
+      <c r="C13" s="80" t="s">
         <v>1757</v>
       </c>
       <c r="D13" s="18" t="s">
@@ -9474,13 +9477,13 @@
       </c>
     </row>
     <row r="15" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="77" t="s">
-        <v>1166</v>
-      </c>
-      <c r="B15" s="82" t="s">
+      <c r="A15" s="76" t="s">
+        <v>1166</v>
+      </c>
+      <c r="B15" s="81" t="s">
         <v>1758</v>
       </c>
-      <c r="C15" s="81" t="s">
+      <c r="C15" s="80" t="s">
         <v>1759</v>
       </c>
       <c r="D15" s="18" t="s">
@@ -9522,13 +9525,13 @@
       </c>
     </row>
     <row r="16" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="77" t="s">
-        <v>1166</v>
-      </c>
-      <c r="B16" s="82" t="s">
+      <c r="A16" s="76" t="s">
+        <v>1166</v>
+      </c>
+      <c r="B16" s="81" t="s">
         <v>1758</v>
       </c>
-      <c r="C16" s="81" t="s">
+      <c r="C16" s="80" t="s">
         <v>1760</v>
       </c>
       <c r="D16" s="18" t="s">
@@ -9570,13 +9573,13 @@
       </c>
     </row>
     <row r="17" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="77" t="s">
-        <v>1166</v>
-      </c>
-      <c r="B17" s="82" t="s">
+      <c r="A17" s="76" t="s">
+        <v>1166</v>
+      </c>
+      <c r="B17" s="81" t="s">
         <v>1758</v>
       </c>
-      <c r="C17" s="81" t="s">
+      <c r="C17" s="80" t="s">
         <v>1761</v>
       </c>
       <c r="D17" s="18" t="s">
@@ -9618,13 +9621,13 @@
       </c>
     </row>
     <row r="18" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="77" t="s">
-        <v>1166</v>
-      </c>
-      <c r="B18" s="82" t="s">
+      <c r="A18" s="76" t="s">
+        <v>1166</v>
+      </c>
+      <c r="B18" s="81" t="s">
         <v>1758</v>
       </c>
-      <c r="C18" s="81" t="s">
+      <c r="C18" s="80" t="s">
         <v>1762</v>
       </c>
       <c r="D18" s="18" t="s">
@@ -10530,13 +10533,13 @@
       </c>
     </row>
     <row r="37" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="77" t="s">
-        <v>1166</v>
-      </c>
-      <c r="B37" s="82" t="s">
+      <c r="A37" s="76" t="s">
+        <v>1166</v>
+      </c>
+      <c r="B37" s="81" t="s">
         <v>1764</v>
       </c>
-      <c r="C37" s="81" t="s">
+      <c r="C37" s="80" t="s">
         <v>1763</v>
       </c>
       <c r="D37" s="18" t="s">
@@ -10626,13 +10629,13 @@
       </c>
     </row>
     <row r="39" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="77" t="s">
-        <v>1166</v>
-      </c>
-      <c r="B39" s="82" t="s">
+      <c r="A39" s="76" t="s">
+        <v>1166</v>
+      </c>
+      <c r="B39" s="81" t="s">
         <v>1764</v>
       </c>
-      <c r="C39" s="81" t="s">
+      <c r="C39" s="80" t="s">
         <v>1765</v>
       </c>
       <c r="D39" s="18" t="s">
@@ -10866,10 +10869,10 @@
       </c>
     </row>
     <row r="44" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="77" t="s">
-        <v>1166</v>
-      </c>
-      <c r="B44" s="80">
+      <c r="A44" s="76" t="s">
+        <v>1166</v>
+      </c>
+      <c r="B44" s="79">
         <v>1</v>
       </c>
       <c r="C44" s="22" t="s">
@@ -11010,10 +11013,10 @@
       </c>
     </row>
     <row r="47" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="77" t="s">
-        <v>1166</v>
-      </c>
-      <c r="B47" s="80">
+      <c r="A47" s="76" t="s">
+        <v>1166</v>
+      </c>
+      <c r="B47" s="79">
         <v>1</v>
       </c>
       <c r="C47" s="22" t="s">
@@ -11106,10 +11109,10 @@
       </c>
     </row>
     <row r="49" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="77" t="s">
-        <v>1166</v>
-      </c>
-      <c r="B49" s="80">
+      <c r="A49" s="76" t="s">
+        <v>1166</v>
+      </c>
+      <c r="B49" s="79">
         <v>1</v>
       </c>
       <c r="C49" s="22" t="s">
@@ -11202,10 +11205,10 @@
       </c>
     </row>
     <row r="51" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="77" t="s">
-        <v>1166</v>
-      </c>
-      <c r="B51" s="80">
+      <c r="A51" s="76" t="s">
+        <v>1166</v>
+      </c>
+      <c r="B51" s="79">
         <v>1</v>
       </c>
       <c r="C51" s="22" t="s">
@@ -11250,10 +11253,10 @@
       </c>
     </row>
     <row r="52" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="77" t="s">
-        <v>1166</v>
-      </c>
-      <c r="B52" s="80">
+      <c r="A52" s="76" t="s">
+        <v>1166</v>
+      </c>
+      <c r="B52" s="79">
         <v>1</v>
       </c>
       <c r="C52" s="22" t="s">
@@ -11298,10 +11301,10 @@
       </c>
     </row>
     <row r="53" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="77" t="s">
-        <v>1166</v>
-      </c>
-      <c r="B53" s="80">
+      <c r="A53" s="76" t="s">
+        <v>1166</v>
+      </c>
+      <c r="B53" s="79">
         <v>1</v>
       </c>
       <c r="C53" s="22" t="s">
@@ -11394,13 +11397,13 @@
       </c>
     </row>
     <row r="55" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="77" t="s">
-        <v>1166</v>
-      </c>
-      <c r="B55" s="82" t="s">
+      <c r="A55" s="76" t="s">
+        <v>1166</v>
+      </c>
+      <c r="B55" s="81" t="s">
         <v>1767</v>
       </c>
-      <c r="C55" s="79" t="s">
+      <c r="C55" s="78" t="s">
         <v>1766</v>
       </c>
       <c r="D55" s="18" t="s">
@@ -11442,13 +11445,13 @@
       </c>
     </row>
     <row r="56" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="77" t="s">
-        <v>1166</v>
-      </c>
-      <c r="B56" s="82">
+      <c r="A56" s="76" t="s">
+        <v>1166</v>
+      </c>
+      <c r="B56" s="81">
         <v>1</v>
       </c>
-      <c r="C56" s="79" t="s">
+      <c r="C56" s="78" t="s">
         <v>1768</v>
       </c>
       <c r="D56" s="18" t="s">
@@ -11490,10 +11493,10 @@
       </c>
     </row>
     <row r="57" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="77" t="s">
-        <v>1166</v>
-      </c>
-      <c r="B57" s="80">
+      <c r="A57" s="76" t="s">
+        <v>1166</v>
+      </c>
+      <c r="B57" s="79">
         <v>1</v>
       </c>
       <c r="C57" s="22" t="s">
@@ -11538,10 +11541,10 @@
       </c>
     </row>
     <row r="58" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="77" t="s">
-        <v>1166</v>
-      </c>
-      <c r="B58" s="80">
+      <c r="A58" s="76" t="s">
+        <v>1166</v>
+      </c>
+      <c r="B58" s="79">
         <v>1</v>
       </c>
       <c r="C58" s="22" t="s">
@@ -11586,10 +11589,10 @@
       </c>
     </row>
     <row r="59" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="77" t="s">
-        <v>1166</v>
-      </c>
-      <c r="B59" s="82" t="s">
+      <c r="A59" s="76" t="s">
+        <v>1166</v>
+      </c>
+      <c r="B59" s="81" t="s">
         <v>1769</v>
       </c>
       <c r="C59" s="22" t="s">
@@ -11634,10 +11637,10 @@
       </c>
     </row>
     <row r="60" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="77" t="s">
-        <v>1166</v>
-      </c>
-      <c r="B60" s="80">
+      <c r="A60" s="76" t="s">
+        <v>1166</v>
+      </c>
+      <c r="B60" s="79">
         <v>1</v>
       </c>
       <c r="C60" s="22" t="s">
@@ -11682,10 +11685,10 @@
       </c>
     </row>
     <row r="61" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="77" t="s">
-        <v>1166</v>
-      </c>
-      <c r="B61" s="80">
+      <c r="A61" s="76" t="s">
+        <v>1166</v>
+      </c>
+      <c r="B61" s="79">
         <v>1</v>
       </c>
       <c r="C61" s="22" t="s">
@@ -11730,10 +11733,10 @@
       </c>
     </row>
     <row r="62" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="77" t="s">
-        <v>1166</v>
-      </c>
-      <c r="B62" s="82" t="s">
+      <c r="A62" s="76" t="s">
+        <v>1166</v>
+      </c>
+      <c r="B62" s="81" t="s">
         <v>1769</v>
       </c>
       <c r="C62" s="22" t="s">
@@ -11778,13 +11781,13 @@
       </c>
     </row>
     <row r="63" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="77" t="s">
-        <v>1166</v>
-      </c>
-      <c r="B63" s="82" t="s">
+      <c r="A63" s="76" t="s">
+        <v>1166</v>
+      </c>
+      <c r="B63" s="81" t="s">
         <v>1767</v>
       </c>
-      <c r="C63" s="79" t="s">
+      <c r="C63" s="78" t="s">
         <v>1770</v>
       </c>
       <c r="D63" s="18" t="s">
@@ -12066,10 +12069,10 @@
       </c>
     </row>
     <row r="69" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A69" s="18" t="s">
+      <c r="A69" s="82" t="s">
         <v>1169</v>
       </c>
-      <c r="B69" s="74">
+      <c r="B69" s="83">
         <v>2</v>
       </c>
       <c r="C69" s="18" t="s">
@@ -14779,7 +14782,7 @@
       <c r="A125" s="70" t="s">
         <v>1169</v>
       </c>
-      <c r="B125" s="75">
+      <c r="B125" s="74">
         <v>2</v>
       </c>
       <c r="C125" s="40" t="s">
@@ -14924,7 +14927,7 @@
       <c r="A128" s="38" t="s">
         <v>1417</v>
       </c>
-      <c r="B128" s="75">
+      <c r="B128" s="74">
         <v>2</v>
       </c>
       <c r="C128" s="18" t="s">
@@ -15500,7 +15503,7 @@
       <c r="A140" s="38" t="s">
         <v>1417</v>
       </c>
-      <c r="B140" s="75">
+      <c r="B140" s="74">
         <v>2</v>
       </c>
       <c r="C140" s="18" t="s">
@@ -15548,7 +15551,7 @@
       <c r="A141" s="38" t="s">
         <v>1417</v>
       </c>
-      <c r="B141" s="75">
+      <c r="B141" s="74">
         <v>2</v>
       </c>
       <c r="C141" s="18" t="s">
@@ -15790,7 +15793,7 @@
       <c r="A146" s="38" t="s">
         <v>1417</v>
       </c>
-      <c r="B146" s="75">
+      <c r="B146" s="74">
         <v>2</v>
       </c>
       <c r="C146" s="18" t="s">
@@ -16078,7 +16081,7 @@
       <c r="A152" s="38" t="s">
         <v>1417</v>
       </c>
-      <c r="B152" s="75">
+      <c r="B152" s="74">
         <v>5</v>
       </c>
       <c r="C152" s="22" t="s">
@@ -33312,10 +33315,10 @@
       </c>
     </row>
     <row r="510" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A510" s="77" t="s">
-        <v>1166</v>
-      </c>
-      <c r="B510" s="78">
+      <c r="A510" s="76" t="s">
+        <v>1166</v>
+      </c>
+      <c r="B510" s="77">
         <v>4</v>
       </c>
       <c r="C510" s="18" t="s">
@@ -33408,10 +33411,10 @@
       </c>
     </row>
     <row r="512" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A512" s="77" t="s">
-        <v>1166</v>
-      </c>
-      <c r="B512" s="78">
+      <c r="A512" s="76" t="s">
+        <v>1166</v>
+      </c>
+      <c r="B512" s="77">
         <v>4</v>
       </c>
       <c r="C512" s="18" t="s">
@@ -39216,10 +39219,10 @@
       </c>
     </row>
     <row r="633" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A633" s="77" t="s">
-        <v>1166</v>
-      </c>
-      <c r="B633" s="78">
+      <c r="A633" s="76" t="s">
+        <v>1166</v>
+      </c>
+      <c r="B633" s="77">
         <v>8</v>
       </c>
       <c r="C633" s="18" t="s">
@@ -45240,10 +45243,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" s="6" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="76" t="s">
+      <c r="A1" s="75" t="s">
         <v>62</v>
       </c>
-      <c r="B1" s="76"/>
+      <c r="B1" s="75"/>
       <c r="C1" s="6" t="s">
         <v>58</v>
       </c>

--- a/1.0.4/matrix/Validatiematrix v1.2.xlsx
+++ b/1.0.4/matrix/Validatiematrix v1.2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Default.DESKTOP-NDDI22K\Documents\Geonovum\github\xml_validatietestcontent\1.0.4\matrix\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2AF2E9F-ED4D-4621-920E-B095D0692B03}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A03C7D5-3B5A-45DC-823F-D0350FDA75B7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="348" windowWidth="23256" windowHeight="12720" tabRatio="670" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9498" uniqueCount="1771">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9499" uniqueCount="1772">
   <si>
     <t>Is Opdracht.zip een geldige zip</t>
   </si>
@@ -5602,6 +5602,9 @@
   </si>
   <si>
     <t>LVBB1021 (geeft onterecht ook fout BHKV1008)</t>
+  </si>
+  <si>
+    <t>1 (1 rapporteert als LVBB1006)</t>
   </si>
 </sst>
 </file>
@@ -8789,7 +8792,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A55" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A70" sqref="A70"/>
+      <selection pane="bottomLeft" activeCell="B71" sqref="B71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -12124,11 +12127,11 @@
       </c>
     </row>
     <row r="70" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A70" s="38" t="s">
-        <v>1166</v>
-      </c>
-      <c r="B70" s="38">
-        <v>2</v>
+      <c r="A70" s="76" t="s">
+        <v>1166</v>
+      </c>
+      <c r="B70" s="81" t="s">
+        <v>1771</v>
       </c>
       <c r="C70" s="22" t="s">
         <v>149</v>
@@ -41058,1048 +41061,1048 @@
     </filterColumn>
   </autoFilter>
   <phoneticPr fontId="5" type="noConversion"/>
-  <conditionalFormatting sqref="F335:F339 C111:C115 F397:F408 F322:F333 F201 F269:F271 F267 F265 F259:F260 F223:F225 F219:F220 F214:F216 F203:F205 F291:G291 E450 H400:N408 G322:N339 E444:N445 M468:N475 B41:C53 B57:C62 B93:C95 B131:C138 M113:N116 G131:G138 M131:N138 B74:C81 M197:N197 G197 M41:N49 M51:N53 M57:N63 M74:N80 M88:N90 M93:N95 G51:G53 G57:G63 G74:G80 G88:G90 G93:G95 M577:N592 B66:C68 G66:G68 M66:N68 B108:C110 G108:G116 M108:N111 B148:C154 B83:C90 G84:G86 M84:N86 C116:D123 B144:C145 M144:N145 G144:G145 H155:N168 M148:N168 G148:G168 G201:N206 M451:N454 G505:G514 M504:N514 F208:N210 F212 F227:F230 G212:N230 G257:N260 F257 G118:G122 M118:N122 C126:D128 F370:F373 F346:G349 H346:N366 G370:G375 G385:G408 M596:N639 H370:N378 H385:N396 G39:G49 G37 A2:A3 B70:C70 A70:B90 M70:N70 G70 B1:O1 A92:B124 A126:B138 A140:B141 A144:B171 A197:B250 A255:B260 A262:B514 G262:N276 F262:F263 M641:N670 A37:B37 A25:A36 M5:N19 G5:G19 A516:B670 A515 M516:N575 G516:G670 A5:C24 A39:B62 A64:B68">
-    <cfRule type="containsText" dxfId="212" priority="367" operator="containsText" text="&lt;?&gt;">
+  <conditionalFormatting sqref="F335:F339 C111:C115 F397:F408 F322:F333 F201 F269:F271 F267 F265 F259:F260 F223:F225 F219:F220 F214:F216 F203:F205 F291:G291 E450 H400:N408 G322:N339 E444:N445 M468:N475 B41:C53 B57:C62 B93:C95 B131:C138 M113:N116 G131:G138 M131:N138 B74:C81 M197:N197 G197 M41:N49 M51:N53 M57:N63 M74:N80 M88:N90 M93:N95 G51:G53 G57:G63 G74:G80 G88:G90 G93:G95 M577:N592 B66:C68 G66:G68 M66:N68 B108:C110 G108:G116 M108:N111 B148:C154 B83:C90 G84:G86 M84:N86 C116:D123 B144:C145 M144:N145 G144:G145 H155:N168 M148:N168 G148:G168 G201:N206 M451:N454 G505:G514 M504:N514 F208:N210 F212 F227:F230 G212:N230 G257:N260 F257 G118:G122 M118:N122 C126:D128 F370:F373 F346:G349 H346:N366 G370:G375 G385:G408 M596:N639 H370:N378 H385:N396 G39:G49 G37 A2:A3 B70:C70 M70:N70 G70 B1:O1 A92:B124 A126:B138 A140:B141 A144:B171 A197:B250 A255:B260 A262:B514 G262:N276 F262:F263 M641:N670 A37:B37 A25:A36 M5:N19 G5:G19 A516:B670 A515 M516:N575 G516:G670 A5:C24 A39:B62 A64:B68 A70:B90">
+    <cfRule type="containsText" dxfId="0" priority="367" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",A1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B297:B305 B201:B206 B208:B250">
-    <cfRule type="containsText" dxfId="211" priority="462" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="212" priority="462" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B201)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F394:F396">
-    <cfRule type="containsText" dxfId="210" priority="452" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="211" priority="452" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",F394)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H290:N290">
-    <cfRule type="containsText" dxfId="209" priority="460" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="210" priority="460" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",H290)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M444:N445">
-    <cfRule type="containsText" dxfId="208" priority="451" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="209" priority="451" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",M444)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H445:L445">
-    <cfRule type="containsText" dxfId="207" priority="450" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="208" priority="450" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",H445)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G445:L445">
-    <cfRule type="containsText" dxfId="206" priority="449" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="207" priority="449" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G445)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M445:N445">
-    <cfRule type="containsText" dxfId="205" priority="447" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="206" priority="447" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",M445)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H444:L444">
-    <cfRule type="containsText" dxfId="204" priority="446" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="205" priority="446" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",H444)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G444:L444">
-    <cfRule type="containsText" dxfId="203" priority="445" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="204" priority="445" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G444)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M444:N444">
-    <cfRule type="containsText" dxfId="202" priority="443" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="203" priority="443" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",M444)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F334">
-    <cfRule type="containsText" dxfId="201" priority="442" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="202" priority="442" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",F334)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F374:F378 F385:F393">
-    <cfRule type="containsText" dxfId="200" priority="441" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="201" priority="441" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",F374)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H397:N398">
-    <cfRule type="containsText" dxfId="199" priority="440" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="200" priority="440" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",H397)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M455">
-    <cfRule type="containsText" dxfId="198" priority="409" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="199" priority="409" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",M455)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H450:N450">
-    <cfRule type="containsText" dxfId="197" priority="435" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="198" priority="435" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",H450)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N467">
-    <cfRule type="containsText" dxfId="196" priority="395" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="197" priority="395" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",N467)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H399:N399">
-    <cfRule type="containsText" dxfId="195" priority="378" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="196" priority="378" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",H399)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B466">
-    <cfRule type="containsText" dxfId="194" priority="426" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="195" priority="426" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B466)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M467">
-    <cfRule type="containsText" dxfId="193" priority="397" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="194" priority="397" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",M467)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G456">
-    <cfRule type="containsText" dxfId="192" priority="412" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="193" priority="412" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G456)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M466">
-    <cfRule type="containsText" dxfId="191" priority="401" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="192" priority="401" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",M466)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N455">
-    <cfRule type="containsText" dxfId="190" priority="407" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="191" priority="407" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",N455)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B455:B465">
-    <cfRule type="containsText" dxfId="189" priority="425" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="190" priority="425" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B455)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N466">
-    <cfRule type="containsText" dxfId="188" priority="399" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="189" priority="399" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",N466)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M456">
-    <cfRule type="containsText" dxfId="187" priority="405" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="188" priority="405" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",M456)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N456">
-    <cfRule type="containsText" dxfId="186" priority="403" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="187" priority="403" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",N456)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P342:X345">
-    <cfRule type="containsText" dxfId="185" priority="366" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="186" priority="366" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",P342)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E342:F342 E344:F345">
-    <cfRule type="containsText" dxfId="184" priority="365" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="185" priority="365" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",E342)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H344:H345">
-    <cfRule type="containsText" dxfId="183" priority="364" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="184" priority="364" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",H344)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I342 I344:I345">
-    <cfRule type="containsText" dxfId="182" priority="363" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="183" priority="363" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",I342)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J342 J344:J345">
-    <cfRule type="containsText" dxfId="181" priority="362" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="182" priority="362" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",J342)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K342 K344:K345">
-    <cfRule type="containsText" dxfId="180" priority="361" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="181" priority="361" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",K342)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L342 L344:L345">
-    <cfRule type="containsText" dxfId="179" priority="360" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="180" priority="360" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",L342)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M342 M344:M345">
-    <cfRule type="containsText" dxfId="178" priority="359" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="179" priority="359" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",M342)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N342 N344:N345">
-    <cfRule type="containsText" dxfId="177" priority="358" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="178" priority="358" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",N342)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P409:X409">
-    <cfRule type="containsText" dxfId="176" priority="357" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="177" priority="357" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",P409)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F409">
-    <cfRule type="containsText" dxfId="175" priority="356" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="176" priority="356" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",F409)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I409">
-    <cfRule type="containsText" dxfId="174" priority="354" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="175" priority="354" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",I409)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J409">
-    <cfRule type="containsText" dxfId="173" priority="353" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="174" priority="353" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",J409)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K409">
-    <cfRule type="containsText" dxfId="172" priority="352" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="173" priority="352" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",K409)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L409">
-    <cfRule type="containsText" dxfId="171" priority="351" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="172" priority="351" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",L409)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M409">
-    <cfRule type="containsText" dxfId="170" priority="350" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="171" priority="350" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",M409)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N409">
-    <cfRule type="containsText" dxfId="169" priority="349" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="170" priority="349" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",N409)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B505:B513">
-    <cfRule type="containsText" dxfId="168" priority="347" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="169" priority="347" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B505)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B514">
-    <cfRule type="containsText" dxfId="167" priority="326" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="168" priority="326" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B514)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B111:B114">
-    <cfRule type="containsText" dxfId="166" priority="314" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="167" priority="314" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B111)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B306 B296">
-    <cfRule type="containsText" dxfId="165" priority="315" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="166" priority="315" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B296)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B467:B475">
-    <cfRule type="containsText" dxfId="164" priority="312" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="165" priority="312" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B467)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B307:B321">
-    <cfRule type="containsText" dxfId="163" priority="313" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="164" priority="313" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B307)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B516">
-    <cfRule type="containsText" dxfId="162" priority="311" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="163" priority="311" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B516)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B450">
-    <cfRule type="containsText" dxfId="161" priority="309" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="162" priority="309" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B450)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B449">
-    <cfRule type="containsText" dxfId="160" priority="308" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="161" priority="308" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B449)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B322:B448">
-    <cfRule type="containsText" dxfId="159" priority="307" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="160" priority="307" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B322)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G504">
-    <cfRule type="containsText" dxfId="158" priority="287" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="159" priority="287" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G504)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C37 C39:C40">
-    <cfRule type="containsText" dxfId="157" priority="282" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="158" priority="282" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",C37)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E409">
-    <cfRule type="containsText" dxfId="156" priority="280" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="157" priority="280" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",E409)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M112:N112">
-    <cfRule type="containsText" dxfId="155" priority="273" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="156" priority="273" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",M112)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C71:D71">
-    <cfRule type="containsText" dxfId="154" priority="268" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="155" priority="268" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",C71)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C92:D92">
-    <cfRule type="containsText" dxfId="153" priority="266" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="154" priority="266" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",C92)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C129:D130">
-    <cfRule type="containsText" dxfId="152" priority="241" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="153" priority="241" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",C129)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G126:G130 M126:N130">
-    <cfRule type="containsText" dxfId="151" priority="240" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="152" priority="240" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G126)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B169:B171">
-    <cfRule type="containsText" dxfId="150" priority="239" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="151" priority="239" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B169)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G169:G170">
-    <cfRule type="containsText" dxfId="149" priority="238" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="150" priority="238" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G169)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H169:N170">
-    <cfRule type="containsText" dxfId="148" priority="237" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="149" priority="237" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",H169)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M446:N449 M438:N443 M420:N427 M92:N92 M87:N87 M71:N71 M54:N56 M50:N50 M37:N37 M39:N40">
-    <cfRule type="containsText" dxfId="147" priority="235" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="148" priority="235" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",M37)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M65:N65 G65">
-    <cfRule type="containsText" dxfId="146" priority="230" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="147" priority="230" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G65)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B64:B65">
-    <cfRule type="containsText" dxfId="145" priority="232" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="146" priority="232" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B64)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M64:N64 G64">
-    <cfRule type="containsText" dxfId="144" priority="231" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="145" priority="231" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G64)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B72:B73">
-    <cfRule type="containsText" dxfId="143" priority="226" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="144" priority="226" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B72)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M72:N72">
-    <cfRule type="containsText" dxfId="142" priority="228" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="143" priority="228" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",M72)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M73:N73">
-    <cfRule type="containsText" dxfId="141" priority="227" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="142" priority="227" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",M73)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B96:D107">
-    <cfRule type="containsText" dxfId="140" priority="223" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="141" priority="223" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B96)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M96:N107 G96:G107">
-    <cfRule type="containsText" dxfId="139" priority="224" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="140" priority="224" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G96)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M83:N83 G83">
-    <cfRule type="containsText" dxfId="138" priority="209" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="139" priority="209" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G83)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M82:N82 G82">
-    <cfRule type="containsText" dxfId="137" priority="208" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="138" priority="208" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G82)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G207:N207">
-    <cfRule type="containsText" dxfId="136" priority="216" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="137" priority="216" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G207)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B146:B147">
-    <cfRule type="containsText" dxfId="135" priority="218" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="136" priority="218" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B146)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G146:G147 M146:N147">
-    <cfRule type="containsText" dxfId="134" priority="217" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="135" priority="217" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G146)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B82">
-    <cfRule type="containsText" dxfId="133" priority="210" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="134" priority="210" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B82)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G123 M123:N123">
-    <cfRule type="containsText" dxfId="132" priority="207" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="133" priority="207" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G123)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B140:B141">
-    <cfRule type="containsText" dxfId="131" priority="204" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="132" priority="204" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B140)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G140:G141 M140:N141">
-    <cfRule type="containsText" dxfId="130" priority="203" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="131" priority="203" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G140)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B198:B200">
-    <cfRule type="containsText" dxfId="129" priority="154" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="130" priority="154" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B198)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M198:N200 G198:G200">
-    <cfRule type="containsText" dxfId="128" priority="153" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="129" priority="153" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G198)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B255:B258">
-    <cfRule type="containsText" dxfId="127" priority="143" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="128" priority="143" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B255)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B517:B546">
-    <cfRule type="containsText" dxfId="126" priority="140" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="127" priority="140" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B517)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G81">
-    <cfRule type="containsText" dxfId="125" priority="138" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="126" priority="138" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G81)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H171:N171">
-    <cfRule type="containsText" dxfId="124" priority="134" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="125" priority="134" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",H171)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F211:N211">
-    <cfRule type="containsText" dxfId="123" priority="132" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="124" priority="132" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",F211)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G171">
-    <cfRule type="containsText" dxfId="122" priority="135" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="123" priority="135" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G171)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F231:N249 F255:N256">
-    <cfRule type="containsText" dxfId="121" priority="129" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="122" priority="129" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",F231)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M117:N117 G117">
-    <cfRule type="containsText" dxfId="120" priority="128" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="121" priority="128" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G117)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B124:D124">
-    <cfRule type="containsText" dxfId="119" priority="127" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="120" priority="127" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B124)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G124 M124:N124">
-    <cfRule type="containsText" dxfId="118" priority="126" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="119" priority="126" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G124)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F250:N250">
-    <cfRule type="containsText" dxfId="117" priority="125" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="118" priority="125" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",F250)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1">
-    <cfRule type="containsText" dxfId="116" priority="124" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="117" priority="124" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",A1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G342">
-    <cfRule type="containsText" dxfId="115" priority="122" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="116" priority="122" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G342)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H342">
-    <cfRule type="containsText" dxfId="114" priority="121" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="115" priority="121" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",H342)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F340">
-    <cfRule type="containsText" dxfId="113" priority="120" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="114" priority="120" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",F340)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F350:F366">
-    <cfRule type="containsText" dxfId="112" priority="119" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="113" priority="119" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",F350)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I340">
-    <cfRule type="containsText" dxfId="111" priority="118" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="112" priority="118" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",I340)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J340">
-    <cfRule type="containsText" dxfId="110" priority="117" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="111" priority="117" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",J340)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K340">
-    <cfRule type="containsText" dxfId="109" priority="116" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="110" priority="116" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",K340)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L340">
-    <cfRule type="containsText" dxfId="108" priority="115" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="109" priority="115" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",L340)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M340">
-    <cfRule type="containsText" dxfId="107" priority="114" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="108" priority="114" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",M340)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N340">
-    <cfRule type="containsText" dxfId="106" priority="113" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="107" priority="113" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",N340)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H340">
-    <cfRule type="containsText" dxfId="105" priority="112" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="106" priority="112" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",H340)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G20:G24 M20:N24">
-    <cfRule type="containsText" dxfId="104" priority="108" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="105" priority="108" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G20)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G457:G465">
-    <cfRule type="containsText" dxfId="103" priority="107" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="104" priority="107" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G457)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M457:M465">
-    <cfRule type="containsText" dxfId="102" priority="106" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="103" priority="106" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",M457)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N457:N465">
-    <cfRule type="containsText" dxfId="101" priority="105" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="102" priority="105" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",N457)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M593:N593">
-    <cfRule type="containsText" dxfId="100" priority="104" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="101" priority="104" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",M593)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M594:N594">
-    <cfRule type="containsText" dxfId="99" priority="103" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="100" priority="103" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",M594)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F341">
-    <cfRule type="containsText" dxfId="98" priority="102" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="99" priority="102" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",F341)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I341">
-    <cfRule type="containsText" dxfId="97" priority="101" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="98" priority="101" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",I341)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J341">
-    <cfRule type="containsText" dxfId="96" priority="100" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="97" priority="100" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",J341)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K341">
-    <cfRule type="containsText" dxfId="95" priority="99" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="96" priority="99" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",K341)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L341">
-    <cfRule type="containsText" dxfId="94" priority="98" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="95" priority="98" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",L341)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M341">
-    <cfRule type="containsText" dxfId="93" priority="97" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="94" priority="97" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",M341)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N341">
-    <cfRule type="containsText" dxfId="92" priority="96" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="93" priority="96" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",N341)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H341">
-    <cfRule type="containsText" dxfId="91" priority="95" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="92" priority="95" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",H341)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E343:F343">
-    <cfRule type="containsText" dxfId="90" priority="94" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="91" priority="94" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",E343)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I343">
-    <cfRule type="containsText" dxfId="89" priority="93" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="90" priority="93" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",I343)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J343">
-    <cfRule type="containsText" dxfId="88" priority="92" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="89" priority="92" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",J343)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K343">
-    <cfRule type="containsText" dxfId="87" priority="91" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="88" priority="91" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",K343)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L343">
-    <cfRule type="containsText" dxfId="86" priority="90" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="87" priority="90" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",L343)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M343">
-    <cfRule type="containsText" dxfId="85" priority="89" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="86" priority="89" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",M343)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N343">
-    <cfRule type="containsText" dxfId="84" priority="88" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="85" priority="88" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",N343)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G343">
-    <cfRule type="containsText" dxfId="83" priority="87" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="84" priority="87" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G343)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H343">
-    <cfRule type="containsText" dxfId="82" priority="86" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="83" priority="86" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",H343)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H367:N367">
-    <cfRule type="containsText" dxfId="81" priority="85" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="82" priority="85" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",H367)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F367">
-    <cfRule type="containsText" dxfId="80" priority="84" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="81" priority="84" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",F367)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H368:N368">
-    <cfRule type="containsText" dxfId="79" priority="83" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="80" priority="83" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",H368)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F368">
-    <cfRule type="containsText" dxfId="78" priority="82" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="79" priority="82" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",F368)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H369:N369">
-    <cfRule type="containsText" dxfId="77" priority="81" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="78" priority="81" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",H369)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F369">
-    <cfRule type="containsText" dxfId="76" priority="80" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="77" priority="80" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",F369)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H379:N379">
-    <cfRule type="containsText" dxfId="75" priority="78" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="76" priority="78" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",H379)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F379">
-    <cfRule type="containsText" dxfId="74" priority="79" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="75" priority="79" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",F379)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H380:N384">
-    <cfRule type="containsText" dxfId="73" priority="76" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="74" priority="76" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",H380)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F380:F384">
-    <cfRule type="containsText" dxfId="72" priority="77" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="73" priority="77" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",F380)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M38:N38 G38 A38:C38">
-    <cfRule type="containsText" dxfId="71" priority="75" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="72" priority="75" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",A38)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A139:N139">
-    <cfRule type="containsText" dxfId="70" priority="70" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="71" priority="70" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",A139)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A125:N125">
-    <cfRule type="containsText" dxfId="69" priority="71" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="70" priority="71" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",A125)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A142:N143">
-    <cfRule type="containsText" dxfId="68" priority="69" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="69" priority="69" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",A142)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A172:A176 C172:N176">
-    <cfRule type="containsText" dxfId="67" priority="68" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="68" priority="68" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",A172)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A177:A196 C177:N196">
-    <cfRule type="containsText" dxfId="66" priority="67" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="67" priority="67" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",A177)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A251:N254">
-    <cfRule type="containsText" dxfId="65" priority="66" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="66" priority="66" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",A251)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M640:N640">
-    <cfRule type="containsText" dxfId="64" priority="17" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="65" priority="17" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",M640)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A261 H261:N261 C261:F261">
-    <cfRule type="containsText" dxfId="63" priority="64" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="64" priority="64" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",A261)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G447">
-    <cfRule type="containsText" dxfId="62" priority="62" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="63" priority="62" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G447)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G447">
-    <cfRule type="containsText" dxfId="61" priority="63" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="62" priority="63" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G447)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G448">
-    <cfRule type="containsText" dxfId="60" priority="60" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="61" priority="60" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G448)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G448">
-    <cfRule type="containsText" dxfId="59" priority="61" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="60" priority="61" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G448)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G449">
-    <cfRule type="containsText" dxfId="58" priority="58" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="59" priority="58" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G449)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G449">
-    <cfRule type="containsText" dxfId="57" priority="59" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="58" priority="59" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G449)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G450">
-    <cfRule type="containsText" dxfId="56" priority="56" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="57" priority="56" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G450)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G450">
-    <cfRule type="containsText" dxfId="55" priority="57" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="56" priority="57" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G450)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G451">
-    <cfRule type="containsText" dxfId="54" priority="54" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="55" priority="54" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G451)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G451">
-    <cfRule type="containsText" dxfId="53" priority="55" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="54" priority="55" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G451)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G452">
-    <cfRule type="containsText" dxfId="52" priority="52" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="53" priority="52" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G452)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G452">
-    <cfRule type="containsText" dxfId="51" priority="53" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="52" priority="53" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G452)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G453">
-    <cfRule type="containsText" dxfId="50" priority="50" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="51" priority="50" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G453)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G453">
-    <cfRule type="containsText" dxfId="49" priority="51" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="50" priority="51" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G453)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G454">
-    <cfRule type="containsText" dxfId="48" priority="48" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="49" priority="48" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G454)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G454">
-    <cfRule type="containsText" dxfId="47" priority="49" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="48" priority="49" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G454)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G455">
-    <cfRule type="containsText" dxfId="46" priority="46" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="47" priority="46" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G455)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G455">
-    <cfRule type="containsText" dxfId="45" priority="47" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="46" priority="47" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G455)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G466">
-    <cfRule type="containsText" dxfId="44" priority="44" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="45" priority="44" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G466)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G466">
-    <cfRule type="containsText" dxfId="43" priority="45" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="44" priority="45" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G466)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G467">
-    <cfRule type="containsText" dxfId="42" priority="42" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="43" priority="42" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G467)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G467">
-    <cfRule type="containsText" dxfId="41" priority="43" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="42" priority="43" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G467)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G468">
-    <cfRule type="containsText" dxfId="40" priority="40" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="41" priority="40" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G468)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G468">
-    <cfRule type="containsText" dxfId="39" priority="41" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="40" priority="41" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G468)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G469">
-    <cfRule type="containsText" dxfId="38" priority="38" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="39" priority="38" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G469)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G469">
-    <cfRule type="containsText" dxfId="37" priority="39" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="38" priority="39" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G469)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G470">
-    <cfRule type="containsText" dxfId="36" priority="36" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="37" priority="36" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G470)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G470">
-    <cfRule type="containsText" dxfId="35" priority="37" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="36" priority="37" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G470)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G471">
-    <cfRule type="containsText" dxfId="34" priority="34" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="35" priority="34" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G471)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G471">
-    <cfRule type="containsText" dxfId="33" priority="35" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="34" priority="35" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G471)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G472">
-    <cfRule type="containsText" dxfId="32" priority="32" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="33" priority="32" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G472)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G472">
-    <cfRule type="containsText" dxfId="31" priority="33" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="32" priority="33" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G472)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G473">
-    <cfRule type="containsText" dxfId="30" priority="30" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="31" priority="30" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G473)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G473">
-    <cfRule type="containsText" dxfId="29" priority="31" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="30" priority="31" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G473)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G474">
-    <cfRule type="containsText" dxfId="28" priority="28" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="29" priority="28" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G474)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G474">
-    <cfRule type="containsText" dxfId="27" priority="29" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="28" priority="29" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G474)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G475">
-    <cfRule type="containsText" dxfId="26" priority="26" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="27" priority="26" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G475)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G475">
-    <cfRule type="containsText" dxfId="25" priority="27" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="26" priority="27" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G475)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G476">
-    <cfRule type="containsText" dxfId="24" priority="24" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="25" priority="24" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G476)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G476">
-    <cfRule type="containsText" dxfId="23" priority="25" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="24" priority="25" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G476)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G477">
-    <cfRule type="containsText" dxfId="22" priority="22" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="23" priority="22" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G477)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G477">
-    <cfRule type="containsText" dxfId="21" priority="23" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="22" priority="23" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G477)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G478">
-    <cfRule type="containsText" dxfId="20" priority="20" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="21" priority="20" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G478)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G478">
-    <cfRule type="containsText" dxfId="19" priority="21" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="20" priority="21" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G478)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G479">
-    <cfRule type="containsText" dxfId="18" priority="18" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="19" priority="18" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G479)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G479">
-    <cfRule type="containsText" dxfId="17" priority="19" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="18" priority="19" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G479)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G31:G36 G25:G28 B25:C36 M25:N36">
-    <cfRule type="containsText" dxfId="16" priority="15" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="17" priority="15" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B25)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G29:G30">
-    <cfRule type="containsText" dxfId="15" priority="16" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="16" priority="16" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G29)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G4 M4:N4 A4:C4">
-    <cfRule type="containsText" dxfId="14" priority="12" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="15" priority="12" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",A4)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O2:O90 O92:O670">
-    <cfRule type="containsText" dxfId="13" priority="10" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="14" priority="10" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",O2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2:G3 B2:C3 M2:N3">
-    <cfRule type="containsText" dxfId="12" priority="11" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="13" priority="11" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G261">
-    <cfRule type="containsText" dxfId="11" priority="9" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="12" priority="9" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G261)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A91:G91 O91">
-    <cfRule type="containsText" dxfId="10" priority="8" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="11" priority="8" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",A91)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B261">
-    <cfRule type="containsText" dxfId="9" priority="7" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="10" priority="7" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B261)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B515">
-    <cfRule type="containsText" dxfId="8" priority="6" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="9" priority="6" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B515)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M515:N515 G515">
-    <cfRule type="containsText" dxfId="7" priority="5" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="8" priority="5" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G515)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B172:B196">
-    <cfRule type="containsText" dxfId="6" priority="2" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="7" priority="2" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B172)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B172:B196">
-    <cfRule type="containsText" dxfId="5" priority="3" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="6" priority="3" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B172)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A63:B63">
-    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="1" priority="1" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",A63)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -45201,7 +45204,7 @@
   </sheetData>
   <autoFilter ref="A1:B1" xr:uid="{AF62FD2E-052D-40DF-8032-68688A8C1623}"/>
   <conditionalFormatting sqref="A2:B479">
-    <cfRule type="containsText" dxfId="4" priority="2" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="5" priority="2" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",A2)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -45531,12 +45534,12 @@
     <mergeCell ref="A1:B1"/>
   </mergeCells>
   <conditionalFormatting sqref="A1 C1 A2:C37 A39:C1048576">
-    <cfRule type="containsText" dxfId="3" priority="31" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="4" priority="31" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",A1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A38:C38">
-    <cfRule type="containsText" dxfId="2" priority="6" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="3" priority="6" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",A38)))</formula>
     </cfRule>
   </conditionalFormatting>

--- a/1.0.4/matrix/Validatiematrix v1.2.xlsx
+++ b/1.0.4/matrix/Validatiematrix v1.2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Default.DESKTOP-NDDI22K\Documents\Geonovum\github\xml_validatietestcontent\1.0.4\matrix\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A03C7D5-3B5A-45DC-823F-D0350FDA75B7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4FF9CA4-364C-43DB-B3E0-AD0F913AB025}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="348" windowWidth="23256" windowHeight="12720" tabRatio="670" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9499" uniqueCount="1772">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9500" uniqueCount="1773">
   <si>
     <t>Is Opdracht.zip een geldige zip</t>
   </si>
@@ -5604,7 +5604,10 @@
     <t>LVBB1021 (geeft onterecht ook fout BHKV1008)</t>
   </si>
   <si>
-    <t>1 (1 rapporteert als LVBB1006)</t>
+    <t>1 (- 1 rapporteert als LVBB1006, 2 valideert goed)</t>
+  </si>
+  <si>
+    <t>2 (rapporteert als LVBB1006)</t>
   </si>
 </sst>
 </file>
@@ -8791,8 +8794,8 @@
   <dimension ref="A1:O670"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A55" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B71" sqref="B71"/>
+      <pane ySplit="1" topLeftCell="A52" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B74" sqref="B74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -12275,11 +12278,11 @@
       </c>
     </row>
     <row r="73" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A73" s="38" t="s">
-        <v>1166</v>
-      </c>
-      <c r="B73" s="38">
-        <v>2</v>
+      <c r="A73" s="76" t="s">
+        <v>1166</v>
+      </c>
+      <c r="B73" s="81" t="s">
+        <v>1772</v>
       </c>
       <c r="C73" s="18" t="s">
         <v>1069</v>

--- a/1.0.4/matrix/Validatiematrix v1.2.xlsx
+++ b/1.0.4/matrix/Validatiematrix v1.2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Default.DESKTOP-NDDI22K\Documents\Geonovum\github\xml_validatietestcontent\1.0.4\matrix\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4FF9CA4-364C-43DB-B3E0-AD0F913AB025}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7527D753-7A15-4F5A-8111-5905AE3C61B1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="348" windowWidth="23256" windowHeight="12720" tabRatio="670" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -12326,10 +12326,10 @@
       </c>
     </row>
     <row r="74" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A74" s="38" t="s">
-        <v>1166</v>
-      </c>
-      <c r="B74" s="38">
+      <c r="A74" s="76" t="s">
+        <v>1166</v>
+      </c>
+      <c r="B74" s="79">
         <v>2</v>
       </c>
       <c r="C74" s="22" t="s">

--- a/1.0.4/matrix/Validatiematrix v1.2.xlsx
+++ b/1.0.4/matrix/Validatiematrix v1.2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Default.DESKTOP-NDDI22K\Documents\Geonovum\github\xml_validatietestcontent\1.0.4\matrix\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7527D753-7A15-4F5A-8111-5905AE3C61B1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{053905FD-F285-4DBA-9AA3-F11B6249A44D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="348" windowWidth="23256" windowHeight="12720" tabRatio="670" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9500" uniqueCount="1773">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9501" uniqueCount="1773">
   <si>
     <t>Is Opdracht.zip een geldige zip</t>
   </si>
@@ -8795,7 +8795,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A52" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B74" sqref="B74"/>
+      <selection pane="bottomLeft" activeCell="B79" sqref="B79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -12520,11 +12520,11 @@
       </c>
     </row>
     <row r="78" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A78" s="38" t="s">
-        <v>1166</v>
-      </c>
-      <c r="B78" s="38">
-        <v>2</v>
+      <c r="A78" s="76" t="s">
+        <v>1166</v>
+      </c>
+      <c r="B78" s="81" t="s">
+        <v>1772</v>
       </c>
       <c r="C78" s="22" t="s">
         <v>695</v>

--- a/1.0.4/matrix/Validatiematrix v1.2.xlsx
+++ b/1.0.4/matrix/Validatiematrix v1.2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Default.DESKTOP-NDDI22K\Documents\Geonovum\github\xml_validatietestcontent\1.0.4\matrix\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{053905FD-F285-4DBA-9AA3-F11B6249A44D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB62EA3E-C0D6-49AD-A77E-329CA11553BD}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="348" windowWidth="23256" windowHeight="12720" tabRatio="670" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9501" uniqueCount="1773">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9502" uniqueCount="1773">
   <si>
     <t>Is Opdracht.zip een geldige zip</t>
   </si>
@@ -8794,8 +8794,8 @@
   <dimension ref="A1:O670"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A52" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B79" sqref="B79"/>
+      <pane ySplit="1" topLeftCell="A55" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A80" sqref="A80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -12568,11 +12568,11 @@
       </c>
     </row>
     <row r="79" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A79" s="38" t="s">
-        <v>1166</v>
-      </c>
-      <c r="B79" s="38">
-        <v>2</v>
+      <c r="A79" s="76" t="s">
+        <v>1166</v>
+      </c>
+      <c r="B79" s="81" t="s">
+        <v>1772</v>
       </c>
       <c r="C79" s="22" t="s">
         <v>697</v>

--- a/1.0.4/matrix/Validatiematrix v1.2.xlsx
+++ b/1.0.4/matrix/Validatiematrix v1.2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Default.DESKTOP-NDDI22K\Documents\Geonovum\github\xml_validatietestcontent\1.0.4\matrix\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB62EA3E-C0D6-49AD-A77E-329CA11553BD}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{605B7823-8248-4739-9EC5-17E0CF476DA4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="348" windowWidth="23256" windowHeight="12720" tabRatio="670" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9502" uniqueCount="1773">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9503" uniqueCount="1774">
   <si>
     <t>Is Opdracht.zip een geldige zip</t>
   </si>
@@ -5608,6 +5608,9 @@
   </si>
   <si>
     <t>2 (rapporteert als LVBB1006)</t>
+  </si>
+  <si>
+    <t>2 (rapporteert als LVBB1009)</t>
   </si>
 </sst>
 </file>
@@ -8794,8 +8797,8 @@
   <dimension ref="A1:O670"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A55" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A80" sqref="A80"/>
+      <pane ySplit="1" topLeftCell="A69" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B82" sqref="B82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -12712,11 +12715,11 @@
       </c>
     </row>
     <row r="82" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A82" s="38" t="s">
-        <v>1166</v>
-      </c>
-      <c r="B82" s="38">
-        <v>2</v>
+      <c r="A82" s="76" t="s">
+        <v>1166</v>
+      </c>
+      <c r="B82" s="81" t="s">
+        <v>1773</v>
       </c>
       <c r="C82" s="18" t="s">
         <v>1071</v>

--- a/1.0.4/matrix/Validatiematrix v1.2.xlsx
+++ b/1.0.4/matrix/Validatiematrix v1.2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Default.DESKTOP-NDDI22K\Documents\Geonovum\github\xml_validatietestcontent\1.0.4\matrix\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{605B7823-8248-4739-9EC5-17E0CF476DA4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F40E6441-01A9-4E37-9A60-52154E5DA5B2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="348" windowWidth="23256" windowHeight="12720" tabRatio="670" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -5610,7 +5610,7 @@
     <t>2 (rapporteert als LVBB1006)</t>
   </si>
   <si>
-    <t>2 (rapporteert als LVBB1009)</t>
+    <t>LVBB1514 (geeft onterecht ook fout BHKV1008)</t>
   </si>
 </sst>
 </file>
@@ -8797,8 +8797,8 @@
   <dimension ref="A1:O670"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A69" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B82" sqref="B82"/>
+      <pane ySplit="1" topLeftCell="A57" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C82" sqref="C82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -12719,10 +12719,10 @@
         <v>1166</v>
       </c>
       <c r="B82" s="81" t="s">
+        <v>1758</v>
+      </c>
+      <c r="C82" s="18" t="s">
         <v>1773</v>
-      </c>
-      <c r="C82" s="18" t="s">
-        <v>1071</v>
       </c>
       <c r="D82" s="18" t="s">
         <v>518</v>
@@ -12759,7 +12759,7 @@
       </c>
       <c r="O82" s="69" t="str">
         <f>IF(A82="Verwijderd","Validatie is verwijderd, dus meldingstekst is niet van toepassing",IF(ISNA(VLOOKUP(C82,Sheet1!A$1:B$385,2,0)),"Meldingstekst moet aangevuld worden",VLOOKUP(C82,Sheet1!A$1:B$385,2,0)))</f>
-        <v>Meldingstekst moet nog aangevuld worden</v>
+        <v>Meldingstekst moet aangevuld worden</v>
       </c>
     </row>
     <row r="83" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">

--- a/1.0.4/matrix/Validatiematrix v1.2.xlsx
+++ b/1.0.4/matrix/Validatiematrix v1.2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Default.DESKTOP-NDDI22K\Documents\Geonovum\github\xml_validatietestcontent\1.0.4\matrix\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F40E6441-01A9-4E37-9A60-52154E5DA5B2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A8A3146-E7D0-4D6A-9AC2-F22439CFE6EC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="348" windowWidth="23256" windowHeight="12720" tabRatio="670" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -8797,8 +8797,8 @@
   <dimension ref="A1:O670"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A57" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C82" sqref="C82"/>
+      <pane ySplit="1" topLeftCell="A63" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B94" sqref="B94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -13294,10 +13294,10 @@
       </c>
     </row>
     <row r="94" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A94" s="38" t="s">
-        <v>1166</v>
-      </c>
-      <c r="B94" s="38">
+      <c r="A94" s="76" t="s">
+        <v>1166</v>
+      </c>
+      <c r="B94" s="79">
         <v>2</v>
       </c>
       <c r="C94" s="22" t="s">
@@ -41067,7 +41067,7 @@
     </filterColumn>
   </autoFilter>
   <phoneticPr fontId="5" type="noConversion"/>
-  <conditionalFormatting sqref="F335:F339 C111:C115 F397:F408 F322:F333 F201 F269:F271 F267 F265 F259:F260 F223:F225 F219:F220 F214:F216 F203:F205 F291:G291 E450 H400:N408 G322:N339 E444:N445 M468:N475 B41:C53 B57:C62 B93:C95 B131:C138 M113:N116 G131:G138 M131:N138 B74:C81 M197:N197 G197 M41:N49 M51:N53 M57:N63 M74:N80 M88:N90 M93:N95 G51:G53 G57:G63 G74:G80 G88:G90 G93:G95 M577:N592 B66:C68 G66:G68 M66:N68 B108:C110 G108:G116 M108:N111 B148:C154 B83:C90 G84:G86 M84:N86 C116:D123 B144:C145 M144:N145 G144:G145 H155:N168 M148:N168 G148:G168 G201:N206 M451:N454 G505:G514 M504:N514 F208:N210 F212 F227:F230 G212:N230 G257:N260 F257 G118:G122 M118:N122 C126:D128 F370:F373 F346:G349 H346:N366 G370:G375 G385:G408 M596:N639 H370:N378 H385:N396 G39:G49 G37 A2:A3 B70:C70 M70:N70 G70 B1:O1 A92:B124 A126:B138 A140:B141 A144:B171 A197:B250 A255:B260 A262:B514 G262:N276 F262:F263 M641:N670 A37:B37 A25:A36 M5:N19 G5:G19 A516:B670 A515 M516:N575 G516:G670 A5:C24 A39:B62 A64:B68 A70:B90">
+  <conditionalFormatting sqref="F335:F339 C111:C115 F397:F408 F322:F333 F201 F269:F271 F267 F265 F259:F260 F223:F225 F219:F220 F214:F216 F203:F205 F291:G291 E450 H400:N408 G322:N339 E444:N445 M468:N475 B41:C53 B57:C62 B93:C95 B131:C138 M113:N116 G131:G138 M131:N138 B74:C81 M197:N197 G197 M41:N49 M51:N53 M57:N63 M74:N80 M88:N90 M93:N95 G51:G53 G57:G63 G74:G80 G88:G90 G93:G95 M577:N592 B66:C68 G66:G68 M66:N68 B108:C110 G108:G116 M108:N111 B148:C154 B83:C90 G84:G86 M84:N86 C116:D123 B144:C145 M144:N145 G144:G145 H155:N168 M148:N168 G148:G168 G201:N206 M451:N454 G505:G514 M504:N514 F208:N210 F212 F227:F230 G212:N230 G257:N260 F257 G118:G122 M118:N122 C126:D128 F370:F373 F346:G349 H346:N366 G370:G375 G385:G408 M596:N639 H370:N378 H385:N396 G39:G49 G37 A2:A3 B70:C70 M70:N70 G70 B1:O1 A126:B138 A140:B141 A144:B171 A197:B250 A255:B260 A262:B514 G262:N276 F262:F263 M641:N670 A37:B37 A25:A36 M5:N19 G5:G19 A516:B670 A515 M516:N575 G516:G670 A5:C24 A39:B62 A64:B68 A70:B90 A92:B124">
     <cfRule type="containsText" dxfId="0" priority="367" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",A1)))</formula>
     </cfRule>

--- a/1.0.4/matrix/Validatiematrix v1.2.xlsx
+++ b/1.0.4/matrix/Validatiematrix v1.2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Default.DESKTOP-NDDI22K\Documents\Geonovum\github\xml_validatietestcontent\1.0.4\matrix\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A8A3146-E7D0-4D6A-9AC2-F22439CFE6EC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68AF73D2-2258-4914-AAC5-8D90CAE652D8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="348" windowWidth="23256" windowHeight="12720" tabRatio="670" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9503" uniqueCount="1774">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9504" uniqueCount="1775">
   <si>
     <t>Is Opdracht.zip een geldige zip</t>
   </si>
@@ -5611,6 +5611,9 @@
   </si>
   <si>
     <t>LVBB1514 (geeft onterecht ook fout BHKV1008)</t>
+  </si>
+  <si>
+    <t>2 (meldt fout STOP1014 en BHKV1008)</t>
   </si>
 </sst>
 </file>
@@ -8797,8 +8800,8 @@
   <dimension ref="A1:O670"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A63" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B94" sqref="B94"/>
+      <pane ySplit="1" topLeftCell="A79" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B99" sqref="B99"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -13486,11 +13489,11 @@
       </c>
     </row>
     <row r="98" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A98" s="38" t="s">
+      <c r="A98" s="76" t="s">
         <v>1168</v>
       </c>
-      <c r="B98" s="38">
-        <v>2</v>
+      <c r="B98" s="81" t="s">
+        <v>1774</v>
       </c>
       <c r="C98" s="22" t="s">
         <v>1076</v>

--- a/1.0.4/matrix/Validatiematrix v1.2.xlsx
+++ b/1.0.4/matrix/Validatiematrix v1.2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Default.DESKTOP-NDDI22K\Documents\Geonovum\github\xml_validatietestcontent\1.0.4\matrix\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68AF73D2-2258-4914-AAC5-8D90CAE652D8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D2A1620-BCF7-427E-9BE4-84B9EE219114}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="348" windowWidth="23256" windowHeight="12720" tabRatio="670" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9504" uniqueCount="1775">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9505" uniqueCount="1776">
   <si>
     <t>Is Opdracht.zip een geldige zip</t>
   </si>
@@ -5614,6 +5614,9 @@
   </si>
   <si>
     <t>2 (meldt fout STOP1014 en BHKV1008)</t>
+  </si>
+  <si>
+    <t>2 (meldt STOP1001 en STOP1002)</t>
   </si>
 </sst>
 </file>
@@ -8801,7 +8804,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A79" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B99" sqref="B99"/>
+      <selection pane="bottomLeft" activeCell="B100" sqref="B100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -13537,11 +13540,11 @@
       </c>
     </row>
     <row r="99" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A99" s="38" t="s">
-        <v>1166</v>
-      </c>
-      <c r="B99" s="38">
-        <v>2</v>
+      <c r="A99" s="76" t="s">
+        <v>1166</v>
+      </c>
+      <c r="B99" s="81" t="s">
+        <v>1775</v>
       </c>
       <c r="C99" s="22" t="s">
         <v>1077</v>

--- a/1.0.4/matrix/Validatiematrix v1.2.xlsx
+++ b/1.0.4/matrix/Validatiematrix v1.2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Default.DESKTOP-NDDI22K\Documents\Geonovum\github\xml_validatietestcontent\1.0.4\matrix\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D2A1620-BCF7-427E-9BE4-84B9EE219114}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAD000D5-6F7B-498C-AD55-0A6C2BDF5DFB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="348" windowWidth="23256" windowHeight="12720" tabRatio="670" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -5616,7 +5616,7 @@
     <t>2 (meldt fout STOP1014 en BHKV1008)</t>
   </si>
   <si>
-    <t>2 (meldt STOP1001 en STOP1002)</t>
+    <t>2 (meldt STOP1001 en STOP1002 en BHKV1008)</t>
   </si>
 </sst>
 </file>

--- a/1.0.4/matrix/Validatiematrix v1.2.xlsx
+++ b/1.0.4/matrix/Validatiematrix v1.2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Default.DESKTOP-NDDI22K\Documents\Geonovum\github\xml_validatietestcontent\1.0.4\matrix\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAD000D5-6F7B-498C-AD55-0A6C2BDF5DFB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0563DD7E-C378-4F24-B405-0ACFFFFDCDA4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="348" windowWidth="23256" windowHeight="12720" tabRatio="670" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9505" uniqueCount="1776">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9507" uniqueCount="1778">
   <si>
     <t>Is Opdracht.zip een geldige zip</t>
   </si>
@@ -5617,6 +5617,12 @@
   </si>
   <si>
     <t>2 (meldt STOP1001 en STOP1002 en BHKV1008)</t>
+  </si>
+  <si>
+    <t>2 (meldt fout STOP1013, LVBB1502 en BHKV1008)</t>
+  </si>
+  <si>
+    <t>2 (meldt fout BHKV1005 en BHKV1008)</t>
   </si>
 </sst>
 </file>
@@ -8804,7 +8810,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A79" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B100" sqref="B100"/>
+      <selection pane="bottomLeft" activeCell="B101" sqref="B101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -13588,11 +13594,11 @@
       </c>
     </row>
     <row r="100" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A100" s="38" t="s">
+      <c r="A100" s="76" t="s">
         <v>1168</v>
       </c>
-      <c r="B100" s="38">
-        <v>2</v>
+      <c r="B100" s="81" t="s">
+        <v>1776</v>
       </c>
       <c r="C100" s="22" t="s">
         <v>1079</v>
@@ -13636,11 +13642,11 @@
       </c>
     </row>
     <row r="101" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A101" s="38" t="s">
-        <v>1166</v>
-      </c>
-      <c r="B101" s="38">
-        <v>2</v>
+      <c r="A101" s="76" t="s">
+        <v>1166</v>
+      </c>
+      <c r="B101" s="81" t="s">
+        <v>1777</v>
       </c>
       <c r="C101" s="22" t="s">
         <v>1080</v>

--- a/1.0.4/matrix/Validatiematrix v1.2.xlsx
+++ b/1.0.4/matrix/Validatiematrix v1.2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Default.DESKTOP-NDDI22K\Documents\Geonovum\github\xml_validatietestcontent\1.0.4\matrix\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0563DD7E-C378-4F24-B405-0ACFFFFDCDA4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F877323-58B7-4DFA-817A-99754A87C9FD}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="348" windowWidth="23256" windowHeight="12720" tabRatio="670" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9507" uniqueCount="1778">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9509" uniqueCount="1779">
   <si>
     <t>Is Opdracht.zip een geldige zip</t>
   </si>
@@ -5623,6 +5623,9 @@
   </si>
   <si>
     <t>2 (meldt fout BHKV1005 en BHKV1008)</t>
+  </si>
+  <si>
+    <t>2 (meldt fout STOP1001, STOP1006 en BHKV1008)</t>
   </si>
 </sst>
 </file>
@@ -8810,7 +8813,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A79" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B101" sqref="B101"/>
+      <selection pane="bottomLeft" activeCell="B103" sqref="B103"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -13690,11 +13693,11 @@
       </c>
     </row>
     <row r="102" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A102" s="38" t="s">
-        <v>1166</v>
-      </c>
-      <c r="B102" s="38">
-        <v>2</v>
+      <c r="A102" s="76" t="s">
+        <v>1166</v>
+      </c>
+      <c r="B102" s="81" t="s">
+        <v>1777</v>
       </c>
       <c r="C102" s="22" t="s">
         <v>1082</v>
@@ -13738,11 +13741,11 @@
       </c>
     </row>
     <row r="103" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A103" s="38" t="s">
-        <v>1166</v>
-      </c>
-      <c r="B103" s="38">
-        <v>2</v>
+      <c r="A103" s="76" t="s">
+        <v>1166</v>
+      </c>
+      <c r="B103" s="81" t="s">
+        <v>1778</v>
       </c>
       <c r="C103" s="22" t="s">
         <v>1084</v>

--- a/1.0.4/matrix/Validatiematrix v1.2.xlsx
+++ b/1.0.4/matrix/Validatiematrix v1.2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Default.DESKTOP-NDDI22K\Documents\Geonovum\github\xml_validatietestcontent\1.0.4\matrix\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F877323-58B7-4DFA-817A-99754A87C9FD}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78A43689-8B6B-43DB-A224-2B9855D2937B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="348" windowWidth="23256" windowHeight="12720" tabRatio="670" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9509" uniqueCount="1779">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9510" uniqueCount="1780">
   <si>
     <t>Is Opdracht.zip een geldige zip</t>
   </si>
@@ -5626,6 +5626,9 @@
   </si>
   <si>
     <t>2 (meldt fout STOP1001, STOP1006 en BHKV1008)</t>
+  </si>
+  <si>
+    <t>2 (meldt fout BHKV1008)</t>
   </si>
 </sst>
 </file>
@@ -8812,8 +8815,8 @@
   <dimension ref="A1:O670"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A79" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B103" sqref="B103"/>
+      <pane ySplit="1" topLeftCell="A85" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B104" sqref="B104"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -13793,11 +13796,11 @@
       </c>
     </row>
     <row r="104" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A104" s="38" t="s">
-        <v>1166</v>
-      </c>
-      <c r="B104" s="38">
-        <v>2</v>
+      <c r="A104" s="76" t="s">
+        <v>1166</v>
+      </c>
+      <c r="B104" s="81" t="s">
+        <v>1779</v>
       </c>
       <c r="C104" s="22" t="s">
         <v>1085</v>

--- a/1.0.4/matrix/Validatiematrix v1.2.xlsx
+++ b/1.0.4/matrix/Validatiematrix v1.2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Default.DESKTOP-NDDI22K\Documents\Geonovum\github\xml_validatietestcontent\1.0.4\matrix\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78A43689-8B6B-43DB-A224-2B9855D2937B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C3B5FB0-7F19-445F-9242-4997C30C9C69}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="348" windowWidth="23256" windowHeight="12720" tabRatio="670" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9510" uniqueCount="1780">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9510" uniqueCount="1781">
   <si>
     <t>Is Opdracht.zip een geldige zip</t>
   </si>
@@ -5629,6 +5629,9 @@
   </si>
   <si>
     <t>2 (meldt fout BHKV1008)</t>
+  </si>
+  <si>
+    <t>LVBB2016 (Geeft ook BHKV1008 als fout aan)</t>
   </si>
 </sst>
 </file>
@@ -8816,7 +8819,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A85" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B104" sqref="B104"/>
+      <selection pane="bottomLeft" activeCell="C106" sqref="C106"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -13844,14 +13847,14 @@
       </c>
     </row>
     <row r="105" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A105" s="38" t="s">
-        <v>1166</v>
-      </c>
-      <c r="B105" s="38">
+      <c r="A105" s="76" t="s">
+        <v>1166</v>
+      </c>
+      <c r="B105" s="79">
         <v>2</v>
       </c>
-      <c r="C105" s="22" t="s">
-        <v>1087</v>
+      <c r="C105" s="78" t="s">
+        <v>1780</v>
       </c>
       <c r="D105" s="22" t="s">
         <v>110</v>
@@ -13888,7 +13891,7 @@
       </c>
       <c r="O105" s="69" t="str">
         <f>IF(A105="Verwijderd","Validatie is verwijderd, dus meldingstekst is niet van toepassing",IF(ISNA(VLOOKUP(C105,Sheet1!A$1:B$385,2,0)),"Meldingstekst moet aangevuld worden",VLOOKUP(C105,Sheet1!A$1:B$385,2,0)))</f>
-        <v>[Controleer juiste opbouw %1 - expressie - taal] Waarde van taal %2 binnen van %3 is niet gelijk aan een waarde binnen %4</v>
+        <v>Meldingstekst moet aangevuld worden</v>
       </c>
     </row>
     <row r="106" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">

--- a/1.0.4/matrix/Validatiematrix v1.2.xlsx
+++ b/1.0.4/matrix/Validatiematrix v1.2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Default.DESKTOP-NDDI22K\Documents\Geonovum\github\xml_validatietestcontent\1.0.4\matrix\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C3B5FB0-7F19-445F-9242-4997C30C9C69}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DA4FC10-A071-4366-94B0-8D8585C6B4F0}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="348" windowWidth="23256" windowHeight="12720" tabRatio="670" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9510" uniqueCount="1781">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9511" uniqueCount="1782">
   <si>
     <t>Is Opdracht.zip een geldige zip</t>
   </si>
@@ -5632,6 +5632,9 @@
   </si>
   <si>
     <t>LVBB2016 (Geeft ook BHKV1008 als fout aan)</t>
+  </si>
+  <si>
+    <t>2 (meldt fout LVBB2020, STOP1000 en BHKV1008)</t>
   </si>
 </sst>
 </file>
@@ -8819,7 +8822,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A85" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C106" sqref="C106"/>
+      <selection pane="bottomLeft" activeCell="B106" sqref="B106"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -13895,11 +13898,11 @@
       </c>
     </row>
     <row r="106" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A106" s="38" t="s">
-        <v>1166</v>
-      </c>
-      <c r="B106" s="38">
-        <v>2</v>
+      <c r="A106" s="76" t="s">
+        <v>1166</v>
+      </c>
+      <c r="B106" s="81" t="s">
+        <v>1781</v>
       </c>
       <c r="C106" s="22" t="s">
         <v>1088</v>

--- a/1.0.4/matrix/Validatiematrix v1.2.xlsx
+++ b/1.0.4/matrix/Validatiematrix v1.2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Default.DESKTOP-NDDI22K\Documents\Geonovum\github\xml_validatietestcontent\1.0.4\matrix\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DA4FC10-A071-4366-94B0-8D8585C6B4F0}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA84F383-6E43-44CD-87CE-10128A9AB88E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="348" windowWidth="23256" windowHeight="12720" tabRatio="670" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9511" uniqueCount="1782">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9511" uniqueCount="1783">
   <si>
     <t>Is Opdracht.zip een geldige zip</t>
   </si>
@@ -5635,6 +5635,9 @@
   </si>
   <si>
     <t>2 (meldt fout LVBB2020, STOP1000 en BHKV1008)</t>
+  </si>
+  <si>
+    <t>LVBB2019 (Geeft ook LVBB2020, STOP1006, STOP1009, STOP1010 en BHKV1008 als fout aan)</t>
   </si>
 </sst>
 </file>
@@ -6322,7 +6325,27 @@
     <cellStyle name="Standaard 3 2" xfId="3" xr:uid="{A1634239-92B9-4583-AB04-DEBDF9A9A44B}"/>
     <cellStyle name="Standaard 3 3" xfId="5" xr:uid="{C77AD319-D6C6-4ABD-AE5A-A2C0A40B68E7}"/>
   </cellStyles>
-  <dxfs count="213">
+  <dxfs count="215">
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FFFF0000"/>
@@ -8822,7 +8845,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A85" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B106" sqref="B106"/>
+      <selection pane="bottomLeft" activeCell="C108" sqref="C108"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -13994,14 +14017,14 @@
       </c>
     </row>
     <row r="108" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A108" s="38" t="s">
-        <v>1166</v>
-      </c>
-      <c r="B108" s="38">
+      <c r="A108" s="76" t="s">
+        <v>1166</v>
+      </c>
+      <c r="B108" s="79">
         <v>2</v>
       </c>
-      <c r="C108" s="18" t="s">
-        <v>702</v>
+      <c r="C108" s="78" t="s">
+        <v>1782</v>
       </c>
       <c r="D108" s="18" t="s">
         <v>703</v>
@@ -14038,7 +14061,7 @@
       </c>
       <c r="O108" s="69" t="str">
         <f>IF(A108="Verwijderd","Validatie is verwijderd, dus meldingstekst is niet van toepassing",IF(ISNA(VLOOKUP(C108,Sheet1!A$1:B$385,2,0)),"Meldingstekst moet aangevuld worden",VLOOKUP(C108,Sheet1!A$1:B$385,2,0)))</f>
-        <v>%1 Expressie %2 bevat geen 7 delen vooraf gegaan door een '/' gevolgd door een deel dat vooraf gaat met '@'</v>
+        <v>Meldingstekst moet aangevuld worden</v>
       </c>
     </row>
     <row r="109" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -41091,1049 +41114,1059 @@
     </filterColumn>
   </autoFilter>
   <phoneticPr fontId="5" type="noConversion"/>
-  <conditionalFormatting sqref="F335:F339 C111:C115 F397:F408 F322:F333 F201 F269:F271 F267 F265 F259:F260 F223:F225 F219:F220 F214:F216 F203:F205 F291:G291 E450 H400:N408 G322:N339 E444:N445 M468:N475 B41:C53 B57:C62 B93:C95 B131:C138 M113:N116 G131:G138 M131:N138 B74:C81 M197:N197 G197 M41:N49 M51:N53 M57:N63 M74:N80 M88:N90 M93:N95 G51:G53 G57:G63 G74:G80 G88:G90 G93:G95 M577:N592 B66:C68 G66:G68 M66:N68 B108:C110 G108:G116 M108:N111 B148:C154 B83:C90 G84:G86 M84:N86 C116:D123 B144:C145 M144:N145 G144:G145 H155:N168 M148:N168 G148:G168 G201:N206 M451:N454 G505:G514 M504:N514 F208:N210 F212 F227:F230 G212:N230 G257:N260 F257 G118:G122 M118:N122 C126:D128 F370:F373 F346:G349 H346:N366 G370:G375 G385:G408 M596:N639 H370:N378 H385:N396 G39:G49 G37 A2:A3 B70:C70 M70:N70 G70 B1:O1 A126:B138 A140:B141 A144:B171 A197:B250 A255:B260 A262:B514 G262:N276 F262:F263 M641:N670 A37:B37 A25:A36 M5:N19 G5:G19 A516:B670 A515 M516:N575 G516:G670 A5:C24 A39:B62 A64:B68 A70:B90 A92:B124">
-    <cfRule type="containsText" dxfId="0" priority="367" operator="containsText" text="&lt;?&gt;">
+  <conditionalFormatting sqref="F335:F339 C111:C115 F397:F408 F322:F333 F201 F269:F271 F267 F265 F259:F260 F223:F225 F219:F220 F214:F216 F203:F205 F291:G291 E450 H400:N408 G322:N339 E444:N445 M468:N475 B41:C53 B57:C62 B93:C95 B131:C138 M113:N116 G131:G138 M131:N138 B74:C81 M197:N197 G197 M41:N49 M51:N53 M57:N63 M74:N80 M88:N90 M93:N95 G51:G53 G57:G63 G74:G80 G88:G90 G93:G95 M577:N592 B66:C68 G66:G68 M66:N68 B109:C110 G108:G116 M108:N111 B148:C154 B83:C90 G84:G86 M84:N86 C116:D123 B144:C145 M144:N145 G144:G145 H155:N168 M148:N168 G148:G168 G201:N206 M451:N454 G505:G514 M504:N514 F208:N210 F212 F227:F230 G212:N230 G257:N260 F257 G118:G122 M118:N122 C126:D128 F370:F373 F346:G349 H346:N366 G370:G375 G385:G408 M596:N639 H370:N378 H385:N396 G39:G49 G37 A2:A3 B70:C70 M70:N70 G70 B1:O1 A126:B138 A140:B141 A144:B171 A197:B250 A255:B260 A262:B514 G262:N276 F262:F263 M641:N670 A37:B37 A25:A36 M5:N19 G5:G19 A516:B670 A515 M516:N575 G516:G670 A5:C24 A39:B62 A64:B68 A70:B90 A92:B107 A109:B124">
+    <cfRule type="containsText" dxfId="2" priority="369" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",A1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B297:B305 B201:B206 B208:B250">
-    <cfRule type="containsText" dxfId="212" priority="462" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="214" priority="464" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B201)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F394:F396">
-    <cfRule type="containsText" dxfId="211" priority="452" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="213" priority="454" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",F394)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H290:N290">
-    <cfRule type="containsText" dxfId="210" priority="460" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="212" priority="462" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",H290)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M444:N445">
-    <cfRule type="containsText" dxfId="209" priority="451" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="211" priority="453" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",M444)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H445:L445">
-    <cfRule type="containsText" dxfId="208" priority="450" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="210" priority="452" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",H445)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G445:L445">
-    <cfRule type="containsText" dxfId="207" priority="449" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="209" priority="451" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G445)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M445:N445">
-    <cfRule type="containsText" dxfId="206" priority="447" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="208" priority="449" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",M445)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H444:L444">
-    <cfRule type="containsText" dxfId="205" priority="446" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="207" priority="448" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",H444)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G444:L444">
-    <cfRule type="containsText" dxfId="204" priority="445" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="206" priority="447" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G444)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M444:N444">
-    <cfRule type="containsText" dxfId="203" priority="443" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="205" priority="445" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",M444)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F334">
-    <cfRule type="containsText" dxfId="202" priority="442" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="204" priority="444" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",F334)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F374:F378 F385:F393">
-    <cfRule type="containsText" dxfId="201" priority="441" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="203" priority="443" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",F374)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H397:N398">
-    <cfRule type="containsText" dxfId="200" priority="440" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="202" priority="442" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",H397)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M455">
-    <cfRule type="containsText" dxfId="199" priority="409" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="201" priority="411" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",M455)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H450:N450">
-    <cfRule type="containsText" dxfId="198" priority="435" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="200" priority="437" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",H450)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N467">
-    <cfRule type="containsText" dxfId="197" priority="395" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="199" priority="397" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",N467)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H399:N399">
-    <cfRule type="containsText" dxfId="196" priority="378" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="198" priority="380" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",H399)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B466">
-    <cfRule type="containsText" dxfId="195" priority="426" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="197" priority="428" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B466)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M467">
-    <cfRule type="containsText" dxfId="194" priority="397" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="196" priority="399" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",M467)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G456">
-    <cfRule type="containsText" dxfId="193" priority="412" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="195" priority="414" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G456)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M466">
-    <cfRule type="containsText" dxfId="192" priority="401" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="194" priority="403" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",M466)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N455">
-    <cfRule type="containsText" dxfId="191" priority="407" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="193" priority="409" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",N455)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B455:B465">
-    <cfRule type="containsText" dxfId="190" priority="425" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="192" priority="427" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B455)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N466">
-    <cfRule type="containsText" dxfId="189" priority="399" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="191" priority="401" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",N466)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M456">
-    <cfRule type="containsText" dxfId="188" priority="405" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="190" priority="407" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",M456)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N456">
-    <cfRule type="containsText" dxfId="187" priority="403" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="189" priority="405" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",N456)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P342:X345">
-    <cfRule type="containsText" dxfId="186" priority="366" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="188" priority="368" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",P342)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E342:F342 E344:F345">
-    <cfRule type="containsText" dxfId="185" priority="365" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="187" priority="367" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",E342)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H344:H345">
-    <cfRule type="containsText" dxfId="184" priority="364" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="186" priority="366" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",H344)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I342 I344:I345">
-    <cfRule type="containsText" dxfId="183" priority="363" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="185" priority="365" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",I342)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J342 J344:J345">
-    <cfRule type="containsText" dxfId="182" priority="362" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="184" priority="364" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",J342)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K342 K344:K345">
-    <cfRule type="containsText" dxfId="181" priority="361" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="183" priority="363" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",K342)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L342 L344:L345">
-    <cfRule type="containsText" dxfId="180" priority="360" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="182" priority="362" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",L342)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M342 M344:M345">
-    <cfRule type="containsText" dxfId="179" priority="359" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="181" priority="361" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",M342)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N342 N344:N345">
-    <cfRule type="containsText" dxfId="178" priority="358" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="180" priority="360" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",N342)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P409:X409">
-    <cfRule type="containsText" dxfId="177" priority="357" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="179" priority="359" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",P409)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F409">
-    <cfRule type="containsText" dxfId="176" priority="356" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="178" priority="358" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",F409)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I409">
-    <cfRule type="containsText" dxfId="175" priority="354" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="177" priority="356" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",I409)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J409">
-    <cfRule type="containsText" dxfId="174" priority="353" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="176" priority="355" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",J409)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K409">
-    <cfRule type="containsText" dxfId="173" priority="352" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="175" priority="354" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",K409)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L409">
-    <cfRule type="containsText" dxfId="172" priority="351" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="174" priority="353" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",L409)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M409">
-    <cfRule type="containsText" dxfId="171" priority="350" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="173" priority="352" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",M409)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N409">
-    <cfRule type="containsText" dxfId="170" priority="349" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="172" priority="351" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",N409)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B505:B513">
-    <cfRule type="containsText" dxfId="169" priority="347" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="171" priority="349" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B505)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B514">
-    <cfRule type="containsText" dxfId="168" priority="326" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="170" priority="328" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B514)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B111:B114">
-    <cfRule type="containsText" dxfId="167" priority="314" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="169" priority="316" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B111)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B306 B296">
-    <cfRule type="containsText" dxfId="166" priority="315" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="168" priority="317" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B296)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B467:B475">
-    <cfRule type="containsText" dxfId="165" priority="312" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="167" priority="314" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B467)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B307:B321">
-    <cfRule type="containsText" dxfId="164" priority="313" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="166" priority="315" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B307)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B516">
-    <cfRule type="containsText" dxfId="163" priority="311" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="165" priority="313" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B516)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B450">
-    <cfRule type="containsText" dxfId="162" priority="309" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="164" priority="311" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B450)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B449">
-    <cfRule type="containsText" dxfId="161" priority="308" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="163" priority="310" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B449)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B322:B448">
-    <cfRule type="containsText" dxfId="160" priority="307" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="162" priority="309" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B322)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G504">
-    <cfRule type="containsText" dxfId="159" priority="287" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="161" priority="289" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G504)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C37 C39:C40">
-    <cfRule type="containsText" dxfId="158" priority="282" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="160" priority="284" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",C37)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E409">
-    <cfRule type="containsText" dxfId="157" priority="280" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="159" priority="282" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",E409)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M112:N112">
-    <cfRule type="containsText" dxfId="156" priority="273" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="158" priority="275" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",M112)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C71:D71">
-    <cfRule type="containsText" dxfId="155" priority="268" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="157" priority="270" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",C71)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C92:D92">
-    <cfRule type="containsText" dxfId="154" priority="266" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="156" priority="268" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",C92)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C129:D130">
-    <cfRule type="containsText" dxfId="153" priority="241" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="155" priority="243" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",C129)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G126:G130 M126:N130">
-    <cfRule type="containsText" dxfId="152" priority="240" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="154" priority="242" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G126)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B169:B171">
-    <cfRule type="containsText" dxfId="151" priority="239" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="153" priority="241" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B169)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G169:G170">
-    <cfRule type="containsText" dxfId="150" priority="238" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="152" priority="240" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G169)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H169:N170">
-    <cfRule type="containsText" dxfId="149" priority="237" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="151" priority="239" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",H169)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M446:N449 M438:N443 M420:N427 M92:N92 M87:N87 M71:N71 M54:N56 M50:N50 M37:N37 M39:N40">
-    <cfRule type="containsText" dxfId="148" priority="235" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="150" priority="237" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",M37)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M65:N65 G65">
-    <cfRule type="containsText" dxfId="147" priority="230" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="149" priority="232" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G65)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B64:B65">
-    <cfRule type="containsText" dxfId="146" priority="232" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="148" priority="234" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B64)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M64:N64 G64">
-    <cfRule type="containsText" dxfId="145" priority="231" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="147" priority="233" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G64)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B72:B73">
-    <cfRule type="containsText" dxfId="144" priority="226" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="146" priority="228" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B72)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M72:N72">
-    <cfRule type="containsText" dxfId="143" priority="228" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="145" priority="230" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",M72)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M73:N73">
-    <cfRule type="containsText" dxfId="142" priority="227" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="144" priority="229" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",M73)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B96:D107">
-    <cfRule type="containsText" dxfId="141" priority="223" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="143" priority="225" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B96)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M96:N107 G96:G107">
-    <cfRule type="containsText" dxfId="140" priority="224" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="142" priority="226" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G96)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M83:N83 G83">
-    <cfRule type="containsText" dxfId="139" priority="209" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="141" priority="211" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G83)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M82:N82 G82">
-    <cfRule type="containsText" dxfId="138" priority="208" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="140" priority="210" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G82)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G207:N207">
-    <cfRule type="containsText" dxfId="137" priority="216" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="139" priority="218" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G207)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B146:B147">
-    <cfRule type="containsText" dxfId="136" priority="218" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="138" priority="220" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B146)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G146:G147 M146:N147">
-    <cfRule type="containsText" dxfId="135" priority="217" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="137" priority="219" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G146)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B82">
-    <cfRule type="containsText" dxfId="134" priority="210" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="136" priority="212" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B82)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G123 M123:N123">
-    <cfRule type="containsText" dxfId="133" priority="207" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="135" priority="209" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G123)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B140:B141">
-    <cfRule type="containsText" dxfId="132" priority="204" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="134" priority="206" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B140)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G140:G141 M140:N141">
-    <cfRule type="containsText" dxfId="131" priority="203" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="133" priority="205" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G140)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B198:B200">
-    <cfRule type="containsText" dxfId="130" priority="154" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="132" priority="156" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B198)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M198:N200 G198:G200">
-    <cfRule type="containsText" dxfId="129" priority="153" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="131" priority="155" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G198)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B255:B258">
-    <cfRule type="containsText" dxfId="128" priority="143" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="130" priority="145" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B255)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B517:B546">
-    <cfRule type="containsText" dxfId="127" priority="140" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="129" priority="142" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B517)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G81">
-    <cfRule type="containsText" dxfId="126" priority="138" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="128" priority="140" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G81)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H171:N171">
-    <cfRule type="containsText" dxfId="125" priority="134" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="127" priority="136" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",H171)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F211:N211">
-    <cfRule type="containsText" dxfId="124" priority="132" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="126" priority="134" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",F211)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G171">
-    <cfRule type="containsText" dxfId="123" priority="135" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="125" priority="137" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G171)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F231:N249 F255:N256">
-    <cfRule type="containsText" dxfId="122" priority="129" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="124" priority="131" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",F231)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M117:N117 G117">
-    <cfRule type="containsText" dxfId="121" priority="128" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="123" priority="130" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G117)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B124:D124">
-    <cfRule type="containsText" dxfId="120" priority="127" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="122" priority="129" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B124)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G124 M124:N124">
-    <cfRule type="containsText" dxfId="119" priority="126" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="121" priority="128" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G124)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F250:N250">
-    <cfRule type="containsText" dxfId="118" priority="125" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="120" priority="127" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",F250)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1">
-    <cfRule type="containsText" dxfId="117" priority="124" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="119" priority="126" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",A1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G342">
-    <cfRule type="containsText" dxfId="116" priority="122" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="118" priority="124" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G342)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H342">
-    <cfRule type="containsText" dxfId="115" priority="121" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="117" priority="123" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",H342)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F340">
-    <cfRule type="containsText" dxfId="114" priority="120" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="116" priority="122" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",F340)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F350:F366">
-    <cfRule type="containsText" dxfId="113" priority="119" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="115" priority="121" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",F350)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I340">
-    <cfRule type="containsText" dxfId="112" priority="118" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="114" priority="120" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",I340)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J340">
-    <cfRule type="containsText" dxfId="111" priority="117" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="113" priority="119" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",J340)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K340">
-    <cfRule type="containsText" dxfId="110" priority="116" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="112" priority="118" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",K340)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L340">
-    <cfRule type="containsText" dxfId="109" priority="115" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="111" priority="117" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",L340)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M340">
-    <cfRule type="containsText" dxfId="108" priority="114" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="110" priority="116" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",M340)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N340">
-    <cfRule type="containsText" dxfId="107" priority="113" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="109" priority="115" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",N340)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H340">
-    <cfRule type="containsText" dxfId="106" priority="112" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="108" priority="114" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",H340)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G20:G24 M20:N24">
-    <cfRule type="containsText" dxfId="105" priority="108" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="107" priority="110" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G20)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G457:G465">
-    <cfRule type="containsText" dxfId="104" priority="107" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="106" priority="109" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G457)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M457:M465">
-    <cfRule type="containsText" dxfId="103" priority="106" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="105" priority="108" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",M457)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N457:N465">
-    <cfRule type="containsText" dxfId="102" priority="105" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="104" priority="107" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",N457)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M593:N593">
-    <cfRule type="containsText" dxfId="101" priority="104" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="103" priority="106" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",M593)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M594:N594">
-    <cfRule type="containsText" dxfId="100" priority="103" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="102" priority="105" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",M594)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F341">
-    <cfRule type="containsText" dxfId="99" priority="102" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="101" priority="104" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",F341)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I341">
-    <cfRule type="containsText" dxfId="98" priority="101" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="100" priority="103" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",I341)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J341">
-    <cfRule type="containsText" dxfId="97" priority="100" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="99" priority="102" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",J341)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K341">
-    <cfRule type="containsText" dxfId="96" priority="99" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="98" priority="101" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",K341)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L341">
-    <cfRule type="containsText" dxfId="95" priority="98" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="97" priority="100" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",L341)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M341">
-    <cfRule type="containsText" dxfId="94" priority="97" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="96" priority="99" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",M341)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N341">
-    <cfRule type="containsText" dxfId="93" priority="96" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="95" priority="98" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",N341)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H341">
-    <cfRule type="containsText" dxfId="92" priority="95" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="94" priority="97" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",H341)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E343:F343">
-    <cfRule type="containsText" dxfId="91" priority="94" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="93" priority="96" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",E343)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I343">
-    <cfRule type="containsText" dxfId="90" priority="93" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="92" priority="95" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",I343)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J343">
-    <cfRule type="containsText" dxfId="89" priority="92" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="91" priority="94" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",J343)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K343">
-    <cfRule type="containsText" dxfId="88" priority="91" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="90" priority="93" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",K343)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L343">
-    <cfRule type="containsText" dxfId="87" priority="90" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="89" priority="92" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",L343)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M343">
-    <cfRule type="containsText" dxfId="86" priority="89" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="88" priority="91" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",M343)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N343">
-    <cfRule type="containsText" dxfId="85" priority="88" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="87" priority="90" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",N343)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G343">
-    <cfRule type="containsText" dxfId="84" priority="87" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="86" priority="89" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G343)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H343">
-    <cfRule type="containsText" dxfId="83" priority="86" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="85" priority="88" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",H343)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H367:N367">
-    <cfRule type="containsText" dxfId="82" priority="85" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="84" priority="87" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",H367)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F367">
-    <cfRule type="containsText" dxfId="81" priority="84" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="83" priority="86" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",F367)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H368:N368">
-    <cfRule type="containsText" dxfId="80" priority="83" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="82" priority="85" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",H368)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F368">
-    <cfRule type="containsText" dxfId="79" priority="82" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="81" priority="84" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",F368)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H369:N369">
-    <cfRule type="containsText" dxfId="78" priority="81" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="80" priority="83" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",H369)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F369">
-    <cfRule type="containsText" dxfId="77" priority="80" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="79" priority="82" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",F369)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H379:N379">
-    <cfRule type="containsText" dxfId="76" priority="78" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="78" priority="80" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",H379)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F379">
-    <cfRule type="containsText" dxfId="75" priority="79" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="77" priority="81" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",F379)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H380:N384">
-    <cfRule type="containsText" dxfId="74" priority="76" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="76" priority="78" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",H380)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F380:F384">
-    <cfRule type="containsText" dxfId="73" priority="77" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="75" priority="79" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",F380)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M38:N38 G38 A38:C38">
-    <cfRule type="containsText" dxfId="72" priority="75" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="74" priority="77" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",A38)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A139:N139">
-    <cfRule type="containsText" dxfId="71" priority="70" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="73" priority="72" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",A139)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A125:N125">
-    <cfRule type="containsText" dxfId="70" priority="71" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="72" priority="73" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",A125)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A142:N143">
-    <cfRule type="containsText" dxfId="69" priority="69" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="71" priority="71" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",A142)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A172:A176 C172:N176">
-    <cfRule type="containsText" dxfId="68" priority="68" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="70" priority="70" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",A172)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A177:A196 C177:N196">
-    <cfRule type="containsText" dxfId="67" priority="67" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="69" priority="69" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",A177)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A251:N254">
-    <cfRule type="containsText" dxfId="66" priority="66" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="68" priority="68" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",A251)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M640:N640">
-    <cfRule type="containsText" dxfId="65" priority="17" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="67" priority="19" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",M640)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A261 H261:N261 C261:F261">
-    <cfRule type="containsText" dxfId="64" priority="64" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="66" priority="66" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",A261)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G447">
-    <cfRule type="containsText" dxfId="63" priority="62" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="65" priority="64" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G447)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G447">
-    <cfRule type="containsText" dxfId="62" priority="63" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="64" priority="65" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G447)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G448">
-    <cfRule type="containsText" dxfId="61" priority="60" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="63" priority="62" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G448)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G448">
-    <cfRule type="containsText" dxfId="60" priority="61" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="62" priority="63" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G448)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G449">
-    <cfRule type="containsText" dxfId="59" priority="58" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="61" priority="60" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G449)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G449">
-    <cfRule type="containsText" dxfId="58" priority="59" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="60" priority="61" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G449)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G450">
-    <cfRule type="containsText" dxfId="57" priority="56" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="59" priority="58" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G450)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G450">
-    <cfRule type="containsText" dxfId="56" priority="57" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="58" priority="59" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G450)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G451">
-    <cfRule type="containsText" dxfId="55" priority="54" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="57" priority="56" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G451)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G451">
-    <cfRule type="containsText" dxfId="54" priority="55" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="56" priority="57" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G451)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G452">
-    <cfRule type="containsText" dxfId="53" priority="52" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="55" priority="54" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G452)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G452">
-    <cfRule type="containsText" dxfId="52" priority="53" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="54" priority="55" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G452)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G453">
-    <cfRule type="containsText" dxfId="51" priority="50" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="53" priority="52" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G453)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G453">
-    <cfRule type="containsText" dxfId="50" priority="51" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="52" priority="53" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G453)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G454">
-    <cfRule type="containsText" dxfId="49" priority="48" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="51" priority="50" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G454)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G454">
-    <cfRule type="containsText" dxfId="48" priority="49" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="50" priority="51" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G454)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G455">
-    <cfRule type="containsText" dxfId="47" priority="46" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="49" priority="48" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G455)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G455">
-    <cfRule type="containsText" dxfId="46" priority="47" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="48" priority="49" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G455)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G466">
-    <cfRule type="containsText" dxfId="45" priority="44" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="47" priority="46" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G466)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G466">
-    <cfRule type="containsText" dxfId="44" priority="45" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="46" priority="47" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G466)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G467">
-    <cfRule type="containsText" dxfId="43" priority="42" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="45" priority="44" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G467)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G467">
-    <cfRule type="containsText" dxfId="42" priority="43" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="44" priority="45" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G467)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G468">
-    <cfRule type="containsText" dxfId="41" priority="40" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="43" priority="42" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G468)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G468">
-    <cfRule type="containsText" dxfId="40" priority="41" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="42" priority="43" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G468)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G469">
-    <cfRule type="containsText" dxfId="39" priority="38" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="41" priority="40" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G469)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G469">
-    <cfRule type="containsText" dxfId="38" priority="39" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="40" priority="41" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G469)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G470">
-    <cfRule type="containsText" dxfId="37" priority="36" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="39" priority="38" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G470)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G470">
-    <cfRule type="containsText" dxfId="36" priority="37" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="38" priority="39" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G470)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G471">
-    <cfRule type="containsText" dxfId="35" priority="34" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="37" priority="36" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G471)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G471">
-    <cfRule type="containsText" dxfId="34" priority="35" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="36" priority="37" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G471)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G472">
-    <cfRule type="containsText" dxfId="33" priority="32" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="35" priority="34" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G472)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G472">
-    <cfRule type="containsText" dxfId="32" priority="33" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="34" priority="35" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G472)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G473">
-    <cfRule type="containsText" dxfId="31" priority="30" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="33" priority="32" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G473)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G473">
-    <cfRule type="containsText" dxfId="30" priority="31" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="32" priority="33" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G473)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G474">
-    <cfRule type="containsText" dxfId="29" priority="28" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="31" priority="30" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G474)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G474">
-    <cfRule type="containsText" dxfId="28" priority="29" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="30" priority="31" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G474)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G475">
-    <cfRule type="containsText" dxfId="27" priority="26" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="29" priority="28" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G475)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G475">
-    <cfRule type="containsText" dxfId="26" priority="27" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="28" priority="29" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G475)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G476">
-    <cfRule type="containsText" dxfId="25" priority="24" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="27" priority="26" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G476)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G476">
-    <cfRule type="containsText" dxfId="24" priority="25" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="26" priority="27" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G476)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G477">
-    <cfRule type="containsText" dxfId="23" priority="22" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="25" priority="24" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G477)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G477">
-    <cfRule type="containsText" dxfId="22" priority="23" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="24" priority="25" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G477)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G478">
-    <cfRule type="containsText" dxfId="21" priority="20" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="23" priority="22" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G478)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G478">
-    <cfRule type="containsText" dxfId="20" priority="21" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="22" priority="23" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G478)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G479">
-    <cfRule type="containsText" dxfId="19" priority="18" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="21" priority="20" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G479)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G479">
-    <cfRule type="containsText" dxfId="18" priority="19" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="20" priority="21" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G479)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G31:G36 G25:G28 B25:C36 M25:N36">
-    <cfRule type="containsText" dxfId="17" priority="15" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="19" priority="17" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B25)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G29:G30">
-    <cfRule type="containsText" dxfId="16" priority="16" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="18" priority="18" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G29)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G4 M4:N4 A4:C4">
-    <cfRule type="containsText" dxfId="15" priority="12" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="17" priority="14" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",A4)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O2:O90 O92:O670">
-    <cfRule type="containsText" dxfId="14" priority="10" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="16" priority="12" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",O2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2:G3 B2:C3 M2:N3">
-    <cfRule type="containsText" dxfId="13" priority="11" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="15" priority="13" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G261">
-    <cfRule type="containsText" dxfId="12" priority="9" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="14" priority="11" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G261)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A91:G91 O91">
-    <cfRule type="containsText" dxfId="11" priority="8" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="13" priority="10" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",A91)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B261">
-    <cfRule type="containsText" dxfId="10" priority="7" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="12" priority="9" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B261)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B515">
-    <cfRule type="containsText" dxfId="9" priority="6" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="11" priority="8" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B515)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M515:N515 G515">
-    <cfRule type="containsText" dxfId="8" priority="5" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="10" priority="7" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G515)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B172:B196">
-    <cfRule type="containsText" dxfId="7" priority="2" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="9" priority="4" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B172)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B172:B196">
-    <cfRule type="containsText" dxfId="6" priority="3" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="8" priority="5" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B172)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A63:B63">
-    <cfRule type="containsText" dxfId="1" priority="1" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="3" priority="3" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",A63)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A108:B108">
+    <cfRule type="containsText" dxfId="1" priority="2" operator="containsText" text="&lt;?&gt;">
+      <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",A108)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B108:C108">
+    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="&lt;?&gt;">
+      <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B108)))</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -45234,7 +45267,7 @@
   </sheetData>
   <autoFilter ref="A1:B1" xr:uid="{AF62FD2E-052D-40DF-8032-68688A8C1623}"/>
   <conditionalFormatting sqref="A2:B479">
-    <cfRule type="containsText" dxfId="5" priority="2" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="7" priority="2" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",A2)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -45564,12 +45597,12 @@
     <mergeCell ref="A1:B1"/>
   </mergeCells>
   <conditionalFormatting sqref="A1 C1 A2:C37 A39:C1048576">
-    <cfRule type="containsText" dxfId="4" priority="31" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="6" priority="31" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",A1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A38:C38">
-    <cfRule type="containsText" dxfId="3" priority="6" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="5" priority="6" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",A38)))</formula>
     </cfRule>
   </conditionalFormatting>

--- a/1.0.4/matrix/Validatiematrix v1.2.xlsx
+++ b/1.0.4/matrix/Validatiematrix v1.2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Default.DESKTOP-NDDI22K\Documents\Geonovum\github\xml_validatietestcontent\1.0.4\matrix\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA84F383-6E43-44CD-87CE-10128A9AB88E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A684065E-A4EE-42EF-A2CD-3ED578F74665}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="348" windowWidth="23256" windowHeight="12720" tabRatio="670" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9511" uniqueCount="1783">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9512" uniqueCount="1784">
   <si>
     <t>Is Opdracht.zip een geldige zip</t>
   </si>
@@ -5638,6 +5638,9 @@
   </si>
   <si>
     <t>LVBB2019 (Geeft ook LVBB2020, STOP1006, STOP1009, STOP1010 en BHKV1008 als fout aan)</t>
+  </si>
+  <si>
+    <t>2 (meldt fout STOP1010 en BHKV1008)</t>
   </si>
 </sst>
 </file>
@@ -6325,7 +6328,17 @@
     <cellStyle name="Standaard 3 2" xfId="3" xr:uid="{A1634239-92B9-4583-AB04-DEBDF9A9A44B}"/>
     <cellStyle name="Standaard 3 3" xfId="5" xr:uid="{C77AD319-D6C6-4ABD-AE5A-A2C0A40B68E7}"/>
   </cellStyles>
-  <dxfs count="215">
+  <dxfs count="216">
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FFFF0000"/>
@@ -8845,7 +8858,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A85" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C108" sqref="C108"/>
+      <selection pane="bottomLeft" activeCell="B109" sqref="B109"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -14065,11 +14078,11 @@
       </c>
     </row>
     <row r="109" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A109" s="38" t="s">
-        <v>1166</v>
-      </c>
-      <c r="B109" s="38">
-        <v>2</v>
+      <c r="A109" s="76" t="s">
+        <v>1166</v>
+      </c>
+      <c r="B109" s="81" t="s">
+        <v>1783</v>
       </c>
       <c r="C109" s="18" t="s">
         <v>704</v>
@@ -41115,1058 +41128,1063 @@
   </autoFilter>
   <phoneticPr fontId="5" type="noConversion"/>
   <conditionalFormatting sqref="F335:F339 C111:C115 F397:F408 F322:F333 F201 F269:F271 F267 F265 F259:F260 F223:F225 F219:F220 F214:F216 F203:F205 F291:G291 E450 H400:N408 G322:N339 E444:N445 M468:N475 B41:C53 B57:C62 B93:C95 B131:C138 M113:N116 G131:G138 M131:N138 B74:C81 M197:N197 G197 M41:N49 M51:N53 M57:N63 M74:N80 M88:N90 M93:N95 G51:G53 G57:G63 G74:G80 G88:G90 G93:G95 M577:N592 B66:C68 G66:G68 M66:N68 B109:C110 G108:G116 M108:N111 B148:C154 B83:C90 G84:G86 M84:N86 C116:D123 B144:C145 M144:N145 G144:G145 H155:N168 M148:N168 G148:G168 G201:N206 M451:N454 G505:G514 M504:N514 F208:N210 F212 F227:F230 G212:N230 G257:N260 F257 G118:G122 M118:N122 C126:D128 F370:F373 F346:G349 H346:N366 G370:G375 G385:G408 M596:N639 H370:N378 H385:N396 G39:G49 G37 A2:A3 B70:C70 M70:N70 G70 B1:O1 A126:B138 A140:B141 A144:B171 A197:B250 A255:B260 A262:B514 G262:N276 F262:F263 M641:N670 A37:B37 A25:A36 M5:N19 G5:G19 A516:B670 A515 M516:N575 G516:G670 A5:C24 A39:B62 A64:B68 A70:B90 A92:B107 A109:B124">
-    <cfRule type="containsText" dxfId="2" priority="369" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="3" priority="370" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",A1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B297:B305 B201:B206 B208:B250">
-    <cfRule type="containsText" dxfId="214" priority="464" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="215" priority="465" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B201)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F394:F396">
-    <cfRule type="containsText" dxfId="213" priority="454" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="214" priority="455" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",F394)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H290:N290">
-    <cfRule type="containsText" dxfId="212" priority="462" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="213" priority="463" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",H290)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M444:N445">
-    <cfRule type="containsText" dxfId="211" priority="453" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="212" priority="454" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",M444)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H445:L445">
-    <cfRule type="containsText" dxfId="210" priority="452" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="211" priority="453" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",H445)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G445:L445">
-    <cfRule type="containsText" dxfId="209" priority="451" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="210" priority="452" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G445)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M445:N445">
-    <cfRule type="containsText" dxfId="208" priority="449" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="209" priority="450" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",M445)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H444:L444">
-    <cfRule type="containsText" dxfId="207" priority="448" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="208" priority="449" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",H444)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G444:L444">
-    <cfRule type="containsText" dxfId="206" priority="447" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="207" priority="448" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G444)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M444:N444">
-    <cfRule type="containsText" dxfId="205" priority="445" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="206" priority="446" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",M444)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F334">
-    <cfRule type="containsText" dxfId="204" priority="444" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="205" priority="445" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",F334)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F374:F378 F385:F393">
-    <cfRule type="containsText" dxfId="203" priority="443" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="204" priority="444" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",F374)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H397:N398">
-    <cfRule type="containsText" dxfId="202" priority="442" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="203" priority="443" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",H397)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M455">
-    <cfRule type="containsText" dxfId="201" priority="411" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="202" priority="412" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",M455)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H450:N450">
-    <cfRule type="containsText" dxfId="200" priority="437" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="201" priority="438" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",H450)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N467">
-    <cfRule type="containsText" dxfId="199" priority="397" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="200" priority="398" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",N467)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H399:N399">
-    <cfRule type="containsText" dxfId="198" priority="380" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="199" priority="381" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",H399)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B466">
-    <cfRule type="containsText" dxfId="197" priority="428" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="198" priority="429" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B466)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M467">
-    <cfRule type="containsText" dxfId="196" priority="399" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="197" priority="400" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",M467)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G456">
-    <cfRule type="containsText" dxfId="195" priority="414" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="196" priority="415" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G456)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M466">
-    <cfRule type="containsText" dxfId="194" priority="403" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="195" priority="404" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",M466)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N455">
-    <cfRule type="containsText" dxfId="193" priority="409" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="194" priority="410" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",N455)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B455:B465">
-    <cfRule type="containsText" dxfId="192" priority="427" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="193" priority="428" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B455)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N466">
-    <cfRule type="containsText" dxfId="191" priority="401" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="192" priority="402" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",N466)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M456">
-    <cfRule type="containsText" dxfId="190" priority="407" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="191" priority="408" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",M456)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N456">
-    <cfRule type="containsText" dxfId="189" priority="405" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="190" priority="406" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",N456)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P342:X345">
-    <cfRule type="containsText" dxfId="188" priority="368" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="189" priority="369" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",P342)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E342:F342 E344:F345">
-    <cfRule type="containsText" dxfId="187" priority="367" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="188" priority="368" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",E342)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H344:H345">
-    <cfRule type="containsText" dxfId="186" priority="366" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="187" priority="367" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",H344)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I342 I344:I345">
-    <cfRule type="containsText" dxfId="185" priority="365" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="186" priority="366" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",I342)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J342 J344:J345">
-    <cfRule type="containsText" dxfId="184" priority="364" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="185" priority="365" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",J342)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K342 K344:K345">
-    <cfRule type="containsText" dxfId="183" priority="363" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="184" priority="364" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",K342)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L342 L344:L345">
-    <cfRule type="containsText" dxfId="182" priority="362" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="183" priority="363" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",L342)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M342 M344:M345">
-    <cfRule type="containsText" dxfId="181" priority="361" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="182" priority="362" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",M342)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N342 N344:N345">
-    <cfRule type="containsText" dxfId="180" priority="360" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="181" priority="361" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",N342)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P409:X409">
-    <cfRule type="containsText" dxfId="179" priority="359" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="180" priority="360" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",P409)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F409">
-    <cfRule type="containsText" dxfId="178" priority="358" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="179" priority="359" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",F409)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I409">
-    <cfRule type="containsText" dxfId="177" priority="356" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="178" priority="357" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",I409)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J409">
-    <cfRule type="containsText" dxfId="176" priority="355" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="177" priority="356" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",J409)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K409">
-    <cfRule type="containsText" dxfId="175" priority="354" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="176" priority="355" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",K409)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L409">
-    <cfRule type="containsText" dxfId="174" priority="353" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="175" priority="354" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",L409)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M409">
-    <cfRule type="containsText" dxfId="173" priority="352" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="174" priority="353" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",M409)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N409">
-    <cfRule type="containsText" dxfId="172" priority="351" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="173" priority="352" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",N409)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B505:B513">
-    <cfRule type="containsText" dxfId="171" priority="349" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="172" priority="350" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B505)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B514">
-    <cfRule type="containsText" dxfId="170" priority="328" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="171" priority="329" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B514)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B111:B114">
-    <cfRule type="containsText" dxfId="169" priority="316" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="170" priority="317" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B111)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B306 B296">
-    <cfRule type="containsText" dxfId="168" priority="317" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="169" priority="318" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B296)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B467:B475">
-    <cfRule type="containsText" dxfId="167" priority="314" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="168" priority="315" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B467)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B307:B321">
-    <cfRule type="containsText" dxfId="166" priority="315" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="167" priority="316" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B307)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B516">
-    <cfRule type="containsText" dxfId="165" priority="313" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="166" priority="314" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B516)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B450">
-    <cfRule type="containsText" dxfId="164" priority="311" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="165" priority="312" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B450)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B449">
-    <cfRule type="containsText" dxfId="163" priority="310" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="164" priority="311" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B449)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B322:B448">
-    <cfRule type="containsText" dxfId="162" priority="309" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="163" priority="310" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B322)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G504">
-    <cfRule type="containsText" dxfId="161" priority="289" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="162" priority="290" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G504)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C37 C39:C40">
-    <cfRule type="containsText" dxfId="160" priority="284" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="161" priority="285" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",C37)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E409">
-    <cfRule type="containsText" dxfId="159" priority="282" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="160" priority="283" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",E409)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M112:N112">
-    <cfRule type="containsText" dxfId="158" priority="275" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="159" priority="276" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",M112)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C71:D71">
-    <cfRule type="containsText" dxfId="157" priority="270" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="158" priority="271" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",C71)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C92:D92">
-    <cfRule type="containsText" dxfId="156" priority="268" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="157" priority="269" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",C92)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C129:D130">
-    <cfRule type="containsText" dxfId="155" priority="243" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="156" priority="244" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",C129)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G126:G130 M126:N130">
-    <cfRule type="containsText" dxfId="154" priority="242" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="155" priority="243" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G126)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B169:B171">
-    <cfRule type="containsText" dxfId="153" priority="241" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="154" priority="242" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B169)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G169:G170">
-    <cfRule type="containsText" dxfId="152" priority="240" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="153" priority="241" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G169)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H169:N170">
-    <cfRule type="containsText" dxfId="151" priority="239" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="152" priority="240" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",H169)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M446:N449 M438:N443 M420:N427 M92:N92 M87:N87 M71:N71 M54:N56 M50:N50 M37:N37 M39:N40">
-    <cfRule type="containsText" dxfId="150" priority="237" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="151" priority="238" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",M37)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M65:N65 G65">
-    <cfRule type="containsText" dxfId="149" priority="232" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="150" priority="233" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G65)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B64:B65">
-    <cfRule type="containsText" dxfId="148" priority="234" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="149" priority="235" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B64)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M64:N64 G64">
-    <cfRule type="containsText" dxfId="147" priority="233" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="148" priority="234" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G64)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B72:B73">
-    <cfRule type="containsText" dxfId="146" priority="228" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="147" priority="229" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B72)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M72:N72">
-    <cfRule type="containsText" dxfId="145" priority="230" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="146" priority="231" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",M72)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M73:N73">
-    <cfRule type="containsText" dxfId="144" priority="229" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="145" priority="230" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",M73)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B96:D107">
-    <cfRule type="containsText" dxfId="143" priority="225" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="144" priority="226" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B96)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M96:N107 G96:G107">
-    <cfRule type="containsText" dxfId="142" priority="226" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="143" priority="227" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G96)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M83:N83 G83">
-    <cfRule type="containsText" dxfId="141" priority="211" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="142" priority="212" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G83)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M82:N82 G82">
-    <cfRule type="containsText" dxfId="140" priority="210" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="141" priority="211" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G82)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G207:N207">
-    <cfRule type="containsText" dxfId="139" priority="218" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="140" priority="219" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G207)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B146:B147">
-    <cfRule type="containsText" dxfId="138" priority="220" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="139" priority="221" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B146)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G146:G147 M146:N147">
-    <cfRule type="containsText" dxfId="137" priority="219" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="138" priority="220" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G146)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B82">
-    <cfRule type="containsText" dxfId="136" priority="212" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="137" priority="213" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B82)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G123 M123:N123">
-    <cfRule type="containsText" dxfId="135" priority="209" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="136" priority="210" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G123)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B140:B141">
-    <cfRule type="containsText" dxfId="134" priority="206" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="135" priority="207" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B140)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G140:G141 M140:N141">
-    <cfRule type="containsText" dxfId="133" priority="205" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="134" priority="206" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G140)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B198:B200">
-    <cfRule type="containsText" dxfId="132" priority="156" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="133" priority="157" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B198)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M198:N200 G198:G200">
-    <cfRule type="containsText" dxfId="131" priority="155" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="132" priority="156" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G198)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B255:B258">
-    <cfRule type="containsText" dxfId="130" priority="145" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="131" priority="146" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B255)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B517:B546">
-    <cfRule type="containsText" dxfId="129" priority="142" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="130" priority="143" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B517)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G81">
-    <cfRule type="containsText" dxfId="128" priority="140" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="129" priority="141" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G81)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H171:N171">
-    <cfRule type="containsText" dxfId="127" priority="136" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="128" priority="137" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",H171)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F211:N211">
-    <cfRule type="containsText" dxfId="126" priority="134" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="127" priority="135" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",F211)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G171">
-    <cfRule type="containsText" dxfId="125" priority="137" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="126" priority="138" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G171)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F231:N249 F255:N256">
-    <cfRule type="containsText" dxfId="124" priority="131" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="125" priority="132" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",F231)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M117:N117 G117">
-    <cfRule type="containsText" dxfId="123" priority="130" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="124" priority="131" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G117)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B124:D124">
-    <cfRule type="containsText" dxfId="122" priority="129" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="123" priority="130" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B124)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G124 M124:N124">
-    <cfRule type="containsText" dxfId="121" priority="128" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="122" priority="129" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G124)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F250:N250">
-    <cfRule type="containsText" dxfId="120" priority="127" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="121" priority="128" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",F250)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1">
-    <cfRule type="containsText" dxfId="119" priority="126" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="120" priority="127" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",A1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G342">
-    <cfRule type="containsText" dxfId="118" priority="124" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="119" priority="125" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G342)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H342">
-    <cfRule type="containsText" dxfId="117" priority="123" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="118" priority="124" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",H342)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F340">
-    <cfRule type="containsText" dxfId="116" priority="122" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="117" priority="123" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",F340)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F350:F366">
-    <cfRule type="containsText" dxfId="115" priority="121" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="116" priority="122" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",F350)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I340">
-    <cfRule type="containsText" dxfId="114" priority="120" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="115" priority="121" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",I340)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J340">
-    <cfRule type="containsText" dxfId="113" priority="119" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="114" priority="120" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",J340)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K340">
-    <cfRule type="containsText" dxfId="112" priority="118" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="113" priority="119" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",K340)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L340">
-    <cfRule type="containsText" dxfId="111" priority="117" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="112" priority="118" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",L340)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M340">
-    <cfRule type="containsText" dxfId="110" priority="116" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="111" priority="117" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",M340)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N340">
-    <cfRule type="containsText" dxfId="109" priority="115" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="110" priority="116" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",N340)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H340">
-    <cfRule type="containsText" dxfId="108" priority="114" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="109" priority="115" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",H340)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G20:G24 M20:N24">
-    <cfRule type="containsText" dxfId="107" priority="110" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="108" priority="111" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G20)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G457:G465">
-    <cfRule type="containsText" dxfId="106" priority="109" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="107" priority="110" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G457)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M457:M465">
-    <cfRule type="containsText" dxfId="105" priority="108" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="106" priority="109" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",M457)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N457:N465">
-    <cfRule type="containsText" dxfId="104" priority="107" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="105" priority="108" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",N457)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M593:N593">
-    <cfRule type="containsText" dxfId="103" priority="106" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="104" priority="107" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",M593)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M594:N594">
-    <cfRule type="containsText" dxfId="102" priority="105" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="103" priority="106" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",M594)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F341">
-    <cfRule type="containsText" dxfId="101" priority="104" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="102" priority="105" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",F341)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I341">
-    <cfRule type="containsText" dxfId="100" priority="103" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="101" priority="104" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",I341)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J341">
-    <cfRule type="containsText" dxfId="99" priority="102" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="100" priority="103" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",J341)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K341">
-    <cfRule type="containsText" dxfId="98" priority="101" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="99" priority="102" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",K341)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L341">
-    <cfRule type="containsText" dxfId="97" priority="100" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="98" priority="101" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",L341)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M341">
-    <cfRule type="containsText" dxfId="96" priority="99" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="97" priority="100" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",M341)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N341">
-    <cfRule type="containsText" dxfId="95" priority="98" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="96" priority="99" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",N341)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H341">
-    <cfRule type="containsText" dxfId="94" priority="97" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="95" priority="98" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",H341)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E343:F343">
-    <cfRule type="containsText" dxfId="93" priority="96" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="94" priority="97" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",E343)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I343">
-    <cfRule type="containsText" dxfId="92" priority="95" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="93" priority="96" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",I343)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J343">
-    <cfRule type="containsText" dxfId="91" priority="94" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="92" priority="95" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",J343)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K343">
-    <cfRule type="containsText" dxfId="90" priority="93" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="91" priority="94" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",K343)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L343">
-    <cfRule type="containsText" dxfId="89" priority="92" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="90" priority="93" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",L343)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M343">
-    <cfRule type="containsText" dxfId="88" priority="91" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="89" priority="92" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",M343)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N343">
-    <cfRule type="containsText" dxfId="87" priority="90" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="88" priority="91" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",N343)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G343">
-    <cfRule type="containsText" dxfId="86" priority="89" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="87" priority="90" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G343)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H343">
-    <cfRule type="containsText" dxfId="85" priority="88" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="86" priority="89" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",H343)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H367:N367">
-    <cfRule type="containsText" dxfId="84" priority="87" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="85" priority="88" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",H367)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F367">
-    <cfRule type="containsText" dxfId="83" priority="86" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="84" priority="87" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",F367)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H368:N368">
-    <cfRule type="containsText" dxfId="82" priority="85" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="83" priority="86" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",H368)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F368">
-    <cfRule type="containsText" dxfId="81" priority="84" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="82" priority="85" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",F368)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H369:N369">
-    <cfRule type="containsText" dxfId="80" priority="83" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="81" priority="84" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",H369)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F369">
-    <cfRule type="containsText" dxfId="79" priority="82" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="80" priority="83" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",F369)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H379:N379">
-    <cfRule type="containsText" dxfId="78" priority="80" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="79" priority="81" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",H379)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F379">
-    <cfRule type="containsText" dxfId="77" priority="81" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="78" priority="82" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",F379)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H380:N384">
-    <cfRule type="containsText" dxfId="76" priority="78" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="77" priority="79" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",H380)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F380:F384">
-    <cfRule type="containsText" dxfId="75" priority="79" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="76" priority="80" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",F380)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M38:N38 G38 A38:C38">
-    <cfRule type="containsText" dxfId="74" priority="77" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="75" priority="78" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",A38)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A139:N139">
-    <cfRule type="containsText" dxfId="73" priority="72" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="74" priority="73" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",A139)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A125:N125">
-    <cfRule type="containsText" dxfId="72" priority="73" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="73" priority="74" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",A125)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A142:N143">
-    <cfRule type="containsText" dxfId="71" priority="71" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="72" priority="72" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",A142)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A172:A176 C172:N176">
-    <cfRule type="containsText" dxfId="70" priority="70" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="71" priority="71" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",A172)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A177:A196 C177:N196">
-    <cfRule type="containsText" dxfId="69" priority="69" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="70" priority="70" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",A177)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A251:N254">
-    <cfRule type="containsText" dxfId="68" priority="68" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="69" priority="69" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",A251)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M640:N640">
-    <cfRule type="containsText" dxfId="67" priority="19" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="68" priority="20" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",M640)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A261 H261:N261 C261:F261">
-    <cfRule type="containsText" dxfId="66" priority="66" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="67" priority="67" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",A261)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G447">
-    <cfRule type="containsText" dxfId="65" priority="64" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="66" priority="65" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G447)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G447">
-    <cfRule type="containsText" dxfId="64" priority="65" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="65" priority="66" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G447)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G448">
-    <cfRule type="containsText" dxfId="63" priority="62" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="64" priority="63" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G448)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G448">
-    <cfRule type="containsText" dxfId="62" priority="63" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="63" priority="64" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G448)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G449">
-    <cfRule type="containsText" dxfId="61" priority="60" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="62" priority="61" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G449)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G449">
-    <cfRule type="containsText" dxfId="60" priority="61" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="61" priority="62" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G449)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G450">
-    <cfRule type="containsText" dxfId="59" priority="58" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="60" priority="59" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G450)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G450">
-    <cfRule type="containsText" dxfId="58" priority="59" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="59" priority="60" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G450)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G451">
-    <cfRule type="containsText" dxfId="57" priority="56" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="58" priority="57" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G451)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G451">
-    <cfRule type="containsText" dxfId="56" priority="57" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="57" priority="58" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G451)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G452">
-    <cfRule type="containsText" dxfId="55" priority="54" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="56" priority="55" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G452)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G452">
-    <cfRule type="containsText" dxfId="54" priority="55" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="55" priority="56" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G452)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G453">
-    <cfRule type="containsText" dxfId="53" priority="52" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="54" priority="53" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G453)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G453">
-    <cfRule type="containsText" dxfId="52" priority="53" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="53" priority="54" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G453)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G454">
-    <cfRule type="containsText" dxfId="51" priority="50" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="52" priority="51" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G454)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G454">
-    <cfRule type="containsText" dxfId="50" priority="51" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="51" priority="52" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G454)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G455">
-    <cfRule type="containsText" dxfId="49" priority="48" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="50" priority="49" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G455)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G455">
-    <cfRule type="containsText" dxfId="48" priority="49" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="49" priority="50" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G455)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G466">
-    <cfRule type="containsText" dxfId="47" priority="46" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="48" priority="47" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G466)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G466">
-    <cfRule type="containsText" dxfId="46" priority="47" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="47" priority="48" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G466)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G467">
-    <cfRule type="containsText" dxfId="45" priority="44" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="46" priority="45" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G467)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G467">
-    <cfRule type="containsText" dxfId="44" priority="45" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="45" priority="46" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G467)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G468">
-    <cfRule type="containsText" dxfId="43" priority="42" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="44" priority="43" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G468)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G468">
-    <cfRule type="containsText" dxfId="42" priority="43" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="43" priority="44" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G468)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G469">
-    <cfRule type="containsText" dxfId="41" priority="40" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="42" priority="41" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G469)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G469">
-    <cfRule type="containsText" dxfId="40" priority="41" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="41" priority="42" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G469)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G470">
-    <cfRule type="containsText" dxfId="39" priority="38" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="40" priority="39" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G470)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G470">
-    <cfRule type="containsText" dxfId="38" priority="39" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="39" priority="40" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G470)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G471">
-    <cfRule type="containsText" dxfId="37" priority="36" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="38" priority="37" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G471)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G471">
-    <cfRule type="containsText" dxfId="36" priority="37" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="37" priority="38" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G471)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G472">
-    <cfRule type="containsText" dxfId="35" priority="34" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="36" priority="35" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G472)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G472">
-    <cfRule type="containsText" dxfId="34" priority="35" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="35" priority="36" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G472)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G473">
-    <cfRule type="containsText" dxfId="33" priority="32" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="34" priority="33" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G473)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G473">
-    <cfRule type="containsText" dxfId="32" priority="33" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="33" priority="34" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G473)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G474">
-    <cfRule type="containsText" dxfId="31" priority="30" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="32" priority="31" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G474)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G474">
-    <cfRule type="containsText" dxfId="30" priority="31" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="31" priority="32" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G474)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G475">
-    <cfRule type="containsText" dxfId="29" priority="28" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="30" priority="29" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G475)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G475">
-    <cfRule type="containsText" dxfId="28" priority="29" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="29" priority="30" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G475)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G476">
-    <cfRule type="containsText" dxfId="27" priority="26" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="28" priority="27" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G476)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G476">
-    <cfRule type="containsText" dxfId="26" priority="27" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="27" priority="28" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G476)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G477">
-    <cfRule type="containsText" dxfId="25" priority="24" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="26" priority="25" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G477)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G477">
-    <cfRule type="containsText" dxfId="24" priority="25" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="25" priority="26" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G477)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G478">
-    <cfRule type="containsText" dxfId="23" priority="22" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="24" priority="23" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G478)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G478">
-    <cfRule type="containsText" dxfId="22" priority="23" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="23" priority="24" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G478)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G479">
-    <cfRule type="containsText" dxfId="21" priority="20" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="22" priority="21" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G479)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G479">
-    <cfRule type="containsText" dxfId="20" priority="21" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="21" priority="22" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G479)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G31:G36 G25:G28 B25:C36 M25:N36">
-    <cfRule type="containsText" dxfId="19" priority="17" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="20" priority="18" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B25)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G29:G30">
-    <cfRule type="containsText" dxfId="18" priority="18" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="19" priority="19" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G29)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G4 M4:N4 A4:C4">
-    <cfRule type="containsText" dxfId="17" priority="14" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="18" priority="15" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",A4)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O2:O90 O92:O670">
-    <cfRule type="containsText" dxfId="16" priority="12" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="17" priority="13" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",O2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2:G3 B2:C3 M2:N3">
-    <cfRule type="containsText" dxfId="15" priority="13" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="16" priority="14" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G261">
-    <cfRule type="containsText" dxfId="14" priority="11" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="15" priority="12" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G261)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A91:G91 O91">
-    <cfRule type="containsText" dxfId="13" priority="10" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="14" priority="11" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",A91)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B261">
-    <cfRule type="containsText" dxfId="12" priority="9" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="13" priority="10" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B261)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B515">
-    <cfRule type="containsText" dxfId="11" priority="8" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="12" priority="9" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B515)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M515:N515 G515">
-    <cfRule type="containsText" dxfId="10" priority="7" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="11" priority="8" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G515)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B172:B196">
-    <cfRule type="containsText" dxfId="9" priority="4" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="10" priority="5" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B172)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B172:B196">
-    <cfRule type="containsText" dxfId="8" priority="5" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="9" priority="6" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B172)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A63:B63">
-    <cfRule type="containsText" dxfId="3" priority="3" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="4" priority="4" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",A63)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A108:B108">
-    <cfRule type="containsText" dxfId="1" priority="2" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="2" priority="3" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",A108)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B108:C108">
+    <cfRule type="containsText" dxfId="1" priority="2" operator="containsText" text="&lt;?&gt;">
+      <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B108)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B109">
     <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="&lt;?&gt;">
-      <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B108)))</formula>
+      <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B109)))</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -45267,7 +45285,7 @@
   </sheetData>
   <autoFilter ref="A1:B1" xr:uid="{AF62FD2E-052D-40DF-8032-68688A8C1623}"/>
   <conditionalFormatting sqref="A2:B479">
-    <cfRule type="containsText" dxfId="7" priority="2" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="8" priority="2" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",A2)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -45597,12 +45615,12 @@
     <mergeCell ref="A1:B1"/>
   </mergeCells>
   <conditionalFormatting sqref="A1 C1 A2:C37 A39:C1048576">
-    <cfRule type="containsText" dxfId="6" priority="31" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="7" priority="31" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",A1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A38:C38">
-    <cfRule type="containsText" dxfId="5" priority="6" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="6" priority="6" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",A38)))</formula>
     </cfRule>
   </conditionalFormatting>

--- a/1.0.4/matrix/Validatiematrix v1.2.xlsx
+++ b/1.0.4/matrix/Validatiematrix v1.2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Default.DESKTOP-NDDI22K\Documents\Geonovum\github\xml_validatietestcontent\1.0.4\matrix\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A684065E-A4EE-42EF-A2CD-3ED578F74665}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC2596C2-CEE0-4EC9-A30C-23A093B2EF83}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="348" windowWidth="23256" windowHeight="12720" tabRatio="670" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9512" uniqueCount="1784">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9513" uniqueCount="1784">
   <si>
     <t>Is Opdracht.zip een geldige zip</t>
   </si>
@@ -6328,7 +6328,17 @@
     <cellStyle name="Standaard 3 2" xfId="3" xr:uid="{A1634239-92B9-4583-AB04-DEBDF9A9A44B}"/>
     <cellStyle name="Standaard 3 3" xfId="5" xr:uid="{C77AD319-D6C6-4ABD-AE5A-A2C0A40B68E7}"/>
   </cellStyles>
-  <dxfs count="216">
+  <dxfs count="217">
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FFFF0000"/>
@@ -8858,7 +8868,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A85" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B109" sqref="B109"/>
+      <selection pane="bottomLeft" activeCell="B112" sqref="B112"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -14126,11 +14136,11 @@
       </c>
     </row>
     <row r="110" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A110" s="38" t="s">
-        <v>1166</v>
-      </c>
-      <c r="B110" s="38">
-        <v>2</v>
+      <c r="A110" s="76" t="s">
+        <v>1166</v>
+      </c>
+      <c r="B110" s="81" t="s">
+        <v>1779</v>
       </c>
       <c r="C110" s="18" t="s">
         <v>706</v>
@@ -41128,1063 +41138,1068 @@
   </autoFilter>
   <phoneticPr fontId="5" type="noConversion"/>
   <conditionalFormatting sqref="F335:F339 C111:C115 F397:F408 F322:F333 F201 F269:F271 F267 F265 F259:F260 F223:F225 F219:F220 F214:F216 F203:F205 F291:G291 E450 H400:N408 G322:N339 E444:N445 M468:N475 B41:C53 B57:C62 B93:C95 B131:C138 M113:N116 G131:G138 M131:N138 B74:C81 M197:N197 G197 M41:N49 M51:N53 M57:N63 M74:N80 M88:N90 M93:N95 G51:G53 G57:G63 G74:G80 G88:G90 G93:G95 M577:N592 B66:C68 G66:G68 M66:N68 B109:C110 G108:G116 M108:N111 B148:C154 B83:C90 G84:G86 M84:N86 C116:D123 B144:C145 M144:N145 G144:G145 H155:N168 M148:N168 G148:G168 G201:N206 M451:N454 G505:G514 M504:N514 F208:N210 F212 F227:F230 G212:N230 G257:N260 F257 G118:G122 M118:N122 C126:D128 F370:F373 F346:G349 H346:N366 G370:G375 G385:G408 M596:N639 H370:N378 H385:N396 G39:G49 G37 A2:A3 B70:C70 M70:N70 G70 B1:O1 A126:B138 A140:B141 A144:B171 A197:B250 A255:B260 A262:B514 G262:N276 F262:F263 M641:N670 A37:B37 A25:A36 M5:N19 G5:G19 A516:B670 A515 M516:N575 G516:G670 A5:C24 A39:B62 A64:B68 A70:B90 A92:B107 A109:B124">
-    <cfRule type="containsText" dxfId="3" priority="370" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="4" priority="371" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",A1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B297:B305 B201:B206 B208:B250">
-    <cfRule type="containsText" dxfId="215" priority="465" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="216" priority="466" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B201)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F394:F396">
-    <cfRule type="containsText" dxfId="214" priority="455" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="215" priority="456" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",F394)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H290:N290">
-    <cfRule type="containsText" dxfId="213" priority="463" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="214" priority="464" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",H290)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M444:N445">
-    <cfRule type="containsText" dxfId="212" priority="454" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="213" priority="455" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",M444)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H445:L445">
-    <cfRule type="containsText" dxfId="211" priority="453" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="212" priority="454" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",H445)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G445:L445">
-    <cfRule type="containsText" dxfId="210" priority="452" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="211" priority="453" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G445)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M445:N445">
-    <cfRule type="containsText" dxfId="209" priority="450" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="210" priority="451" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",M445)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H444:L444">
-    <cfRule type="containsText" dxfId="208" priority="449" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="209" priority="450" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",H444)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G444:L444">
-    <cfRule type="containsText" dxfId="207" priority="448" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="208" priority="449" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G444)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M444:N444">
-    <cfRule type="containsText" dxfId="206" priority="446" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="207" priority="447" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",M444)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F334">
-    <cfRule type="containsText" dxfId="205" priority="445" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="206" priority="446" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",F334)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F374:F378 F385:F393">
-    <cfRule type="containsText" dxfId="204" priority="444" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="205" priority="445" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",F374)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H397:N398">
-    <cfRule type="containsText" dxfId="203" priority="443" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="204" priority="444" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",H397)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M455">
-    <cfRule type="containsText" dxfId="202" priority="412" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="203" priority="413" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",M455)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H450:N450">
-    <cfRule type="containsText" dxfId="201" priority="438" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="202" priority="439" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",H450)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N467">
-    <cfRule type="containsText" dxfId="200" priority="398" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="201" priority="399" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",N467)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H399:N399">
-    <cfRule type="containsText" dxfId="199" priority="381" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="200" priority="382" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",H399)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B466">
-    <cfRule type="containsText" dxfId="198" priority="429" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="199" priority="430" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B466)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M467">
-    <cfRule type="containsText" dxfId="197" priority="400" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="198" priority="401" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",M467)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G456">
-    <cfRule type="containsText" dxfId="196" priority="415" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="197" priority="416" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G456)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M466">
-    <cfRule type="containsText" dxfId="195" priority="404" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="196" priority="405" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",M466)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N455">
-    <cfRule type="containsText" dxfId="194" priority="410" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="195" priority="411" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",N455)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B455:B465">
-    <cfRule type="containsText" dxfId="193" priority="428" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="194" priority="429" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B455)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N466">
-    <cfRule type="containsText" dxfId="192" priority="402" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="193" priority="403" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",N466)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M456">
-    <cfRule type="containsText" dxfId="191" priority="408" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="192" priority="409" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",M456)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N456">
-    <cfRule type="containsText" dxfId="190" priority="406" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="191" priority="407" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",N456)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P342:X345">
-    <cfRule type="containsText" dxfId="189" priority="369" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="190" priority="370" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",P342)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E342:F342 E344:F345">
-    <cfRule type="containsText" dxfId="188" priority="368" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="189" priority="369" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",E342)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H344:H345">
-    <cfRule type="containsText" dxfId="187" priority="367" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="188" priority="368" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",H344)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I342 I344:I345">
-    <cfRule type="containsText" dxfId="186" priority="366" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="187" priority="367" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",I342)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J342 J344:J345">
-    <cfRule type="containsText" dxfId="185" priority="365" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="186" priority="366" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",J342)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K342 K344:K345">
-    <cfRule type="containsText" dxfId="184" priority="364" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="185" priority="365" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",K342)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L342 L344:L345">
-    <cfRule type="containsText" dxfId="183" priority="363" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="184" priority="364" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",L342)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M342 M344:M345">
-    <cfRule type="containsText" dxfId="182" priority="362" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="183" priority="363" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",M342)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N342 N344:N345">
-    <cfRule type="containsText" dxfId="181" priority="361" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="182" priority="362" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",N342)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P409:X409">
-    <cfRule type="containsText" dxfId="180" priority="360" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="181" priority="361" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",P409)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F409">
-    <cfRule type="containsText" dxfId="179" priority="359" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="180" priority="360" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",F409)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I409">
-    <cfRule type="containsText" dxfId="178" priority="357" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="179" priority="358" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",I409)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J409">
-    <cfRule type="containsText" dxfId="177" priority="356" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="178" priority="357" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",J409)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K409">
-    <cfRule type="containsText" dxfId="176" priority="355" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="177" priority="356" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",K409)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L409">
-    <cfRule type="containsText" dxfId="175" priority="354" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="176" priority="355" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",L409)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M409">
-    <cfRule type="containsText" dxfId="174" priority="353" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="175" priority="354" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",M409)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N409">
-    <cfRule type="containsText" dxfId="173" priority="352" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="174" priority="353" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",N409)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B505:B513">
-    <cfRule type="containsText" dxfId="172" priority="350" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="173" priority="351" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B505)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B514">
-    <cfRule type="containsText" dxfId="171" priority="329" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="172" priority="330" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B514)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B111:B114">
-    <cfRule type="containsText" dxfId="170" priority="317" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="171" priority="318" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B111)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B306 B296">
-    <cfRule type="containsText" dxfId="169" priority="318" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="170" priority="319" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B296)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B467:B475">
-    <cfRule type="containsText" dxfId="168" priority="315" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="169" priority="316" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B467)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B307:B321">
-    <cfRule type="containsText" dxfId="167" priority="316" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="168" priority="317" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B307)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B516">
-    <cfRule type="containsText" dxfId="166" priority="314" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="167" priority="315" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B516)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B450">
-    <cfRule type="containsText" dxfId="165" priority="312" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="166" priority="313" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B450)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B449">
-    <cfRule type="containsText" dxfId="164" priority="311" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="165" priority="312" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B449)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B322:B448">
-    <cfRule type="containsText" dxfId="163" priority="310" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="164" priority="311" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B322)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G504">
-    <cfRule type="containsText" dxfId="162" priority="290" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="163" priority="291" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G504)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C37 C39:C40">
-    <cfRule type="containsText" dxfId="161" priority="285" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="162" priority="286" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",C37)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E409">
-    <cfRule type="containsText" dxfId="160" priority="283" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="161" priority="284" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",E409)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M112:N112">
-    <cfRule type="containsText" dxfId="159" priority="276" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="160" priority="277" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",M112)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C71:D71">
-    <cfRule type="containsText" dxfId="158" priority="271" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="159" priority="272" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",C71)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C92:D92">
-    <cfRule type="containsText" dxfId="157" priority="269" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="158" priority="270" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",C92)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C129:D130">
-    <cfRule type="containsText" dxfId="156" priority="244" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="157" priority="245" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",C129)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G126:G130 M126:N130">
-    <cfRule type="containsText" dxfId="155" priority="243" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="156" priority="244" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G126)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B169:B171">
-    <cfRule type="containsText" dxfId="154" priority="242" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="155" priority="243" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B169)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G169:G170">
-    <cfRule type="containsText" dxfId="153" priority="241" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="154" priority="242" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G169)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H169:N170">
-    <cfRule type="containsText" dxfId="152" priority="240" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="153" priority="241" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",H169)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M446:N449 M438:N443 M420:N427 M92:N92 M87:N87 M71:N71 M54:N56 M50:N50 M37:N37 M39:N40">
-    <cfRule type="containsText" dxfId="151" priority="238" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="152" priority="239" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",M37)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M65:N65 G65">
-    <cfRule type="containsText" dxfId="150" priority="233" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="151" priority="234" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G65)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B64:B65">
-    <cfRule type="containsText" dxfId="149" priority="235" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="150" priority="236" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B64)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M64:N64 G64">
-    <cfRule type="containsText" dxfId="148" priority="234" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="149" priority="235" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G64)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B72:B73">
-    <cfRule type="containsText" dxfId="147" priority="229" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="148" priority="230" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B72)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M72:N72">
-    <cfRule type="containsText" dxfId="146" priority="231" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="147" priority="232" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",M72)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M73:N73">
-    <cfRule type="containsText" dxfId="145" priority="230" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="146" priority="231" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",M73)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B96:D107">
-    <cfRule type="containsText" dxfId="144" priority="226" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="145" priority="227" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B96)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M96:N107 G96:G107">
-    <cfRule type="containsText" dxfId="143" priority="227" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="144" priority="228" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G96)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M83:N83 G83">
-    <cfRule type="containsText" dxfId="142" priority="212" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="143" priority="213" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G83)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M82:N82 G82">
-    <cfRule type="containsText" dxfId="141" priority="211" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="142" priority="212" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G82)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G207:N207">
-    <cfRule type="containsText" dxfId="140" priority="219" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="141" priority="220" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G207)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B146:B147">
-    <cfRule type="containsText" dxfId="139" priority="221" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="140" priority="222" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B146)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G146:G147 M146:N147">
-    <cfRule type="containsText" dxfId="138" priority="220" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="139" priority="221" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G146)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B82">
-    <cfRule type="containsText" dxfId="137" priority="213" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="138" priority="214" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B82)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G123 M123:N123">
-    <cfRule type="containsText" dxfId="136" priority="210" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="137" priority="211" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G123)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B140:B141">
-    <cfRule type="containsText" dxfId="135" priority="207" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="136" priority="208" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B140)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G140:G141 M140:N141">
-    <cfRule type="containsText" dxfId="134" priority="206" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="135" priority="207" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G140)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B198:B200">
-    <cfRule type="containsText" dxfId="133" priority="157" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="134" priority="158" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B198)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M198:N200 G198:G200">
-    <cfRule type="containsText" dxfId="132" priority="156" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="133" priority="157" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G198)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B255:B258">
-    <cfRule type="containsText" dxfId="131" priority="146" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="132" priority="147" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B255)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B517:B546">
-    <cfRule type="containsText" dxfId="130" priority="143" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="131" priority="144" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B517)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G81">
-    <cfRule type="containsText" dxfId="129" priority="141" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="130" priority="142" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G81)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H171:N171">
-    <cfRule type="containsText" dxfId="128" priority="137" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="129" priority="138" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",H171)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F211:N211">
-    <cfRule type="containsText" dxfId="127" priority="135" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="128" priority="136" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",F211)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G171">
-    <cfRule type="containsText" dxfId="126" priority="138" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="127" priority="139" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G171)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F231:N249 F255:N256">
-    <cfRule type="containsText" dxfId="125" priority="132" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="126" priority="133" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",F231)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M117:N117 G117">
-    <cfRule type="containsText" dxfId="124" priority="131" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="125" priority="132" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G117)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B124:D124">
-    <cfRule type="containsText" dxfId="123" priority="130" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="124" priority="131" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B124)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G124 M124:N124">
-    <cfRule type="containsText" dxfId="122" priority="129" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="123" priority="130" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G124)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F250:N250">
-    <cfRule type="containsText" dxfId="121" priority="128" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="122" priority="129" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",F250)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1">
-    <cfRule type="containsText" dxfId="120" priority="127" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="121" priority="128" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",A1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G342">
-    <cfRule type="containsText" dxfId="119" priority="125" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="120" priority="126" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G342)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H342">
-    <cfRule type="containsText" dxfId="118" priority="124" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="119" priority="125" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",H342)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F340">
-    <cfRule type="containsText" dxfId="117" priority="123" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="118" priority="124" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",F340)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F350:F366">
-    <cfRule type="containsText" dxfId="116" priority="122" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="117" priority="123" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",F350)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I340">
-    <cfRule type="containsText" dxfId="115" priority="121" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="116" priority="122" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",I340)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J340">
-    <cfRule type="containsText" dxfId="114" priority="120" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="115" priority="121" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",J340)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K340">
-    <cfRule type="containsText" dxfId="113" priority="119" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="114" priority="120" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",K340)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L340">
-    <cfRule type="containsText" dxfId="112" priority="118" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="113" priority="119" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",L340)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M340">
-    <cfRule type="containsText" dxfId="111" priority="117" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="112" priority="118" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",M340)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N340">
-    <cfRule type="containsText" dxfId="110" priority="116" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="111" priority="117" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",N340)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H340">
-    <cfRule type="containsText" dxfId="109" priority="115" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="110" priority="116" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",H340)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G20:G24 M20:N24">
-    <cfRule type="containsText" dxfId="108" priority="111" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="109" priority="112" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G20)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G457:G465">
-    <cfRule type="containsText" dxfId="107" priority="110" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="108" priority="111" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G457)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M457:M465">
-    <cfRule type="containsText" dxfId="106" priority="109" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="107" priority="110" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",M457)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N457:N465">
-    <cfRule type="containsText" dxfId="105" priority="108" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="106" priority="109" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",N457)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M593:N593">
-    <cfRule type="containsText" dxfId="104" priority="107" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="105" priority="108" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",M593)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M594:N594">
-    <cfRule type="containsText" dxfId="103" priority="106" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="104" priority="107" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",M594)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F341">
-    <cfRule type="containsText" dxfId="102" priority="105" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="103" priority="106" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",F341)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I341">
-    <cfRule type="containsText" dxfId="101" priority="104" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="102" priority="105" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",I341)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J341">
-    <cfRule type="containsText" dxfId="100" priority="103" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="101" priority="104" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",J341)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K341">
-    <cfRule type="containsText" dxfId="99" priority="102" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="100" priority="103" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",K341)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L341">
-    <cfRule type="containsText" dxfId="98" priority="101" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="99" priority="102" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",L341)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M341">
-    <cfRule type="containsText" dxfId="97" priority="100" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="98" priority="101" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",M341)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N341">
-    <cfRule type="containsText" dxfId="96" priority="99" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="97" priority="100" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",N341)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H341">
-    <cfRule type="containsText" dxfId="95" priority="98" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="96" priority="99" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",H341)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E343:F343">
-    <cfRule type="containsText" dxfId="94" priority="97" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="95" priority="98" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",E343)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I343">
-    <cfRule type="containsText" dxfId="93" priority="96" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="94" priority="97" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",I343)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J343">
-    <cfRule type="containsText" dxfId="92" priority="95" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="93" priority="96" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",J343)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K343">
-    <cfRule type="containsText" dxfId="91" priority="94" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="92" priority="95" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",K343)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L343">
-    <cfRule type="containsText" dxfId="90" priority="93" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="91" priority="94" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",L343)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M343">
-    <cfRule type="containsText" dxfId="89" priority="92" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="90" priority="93" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",M343)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N343">
-    <cfRule type="containsText" dxfId="88" priority="91" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="89" priority="92" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",N343)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G343">
-    <cfRule type="containsText" dxfId="87" priority="90" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="88" priority="91" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G343)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H343">
-    <cfRule type="containsText" dxfId="86" priority="89" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="87" priority="90" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",H343)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H367:N367">
-    <cfRule type="containsText" dxfId="85" priority="88" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="86" priority="89" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",H367)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F367">
-    <cfRule type="containsText" dxfId="84" priority="87" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="85" priority="88" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",F367)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H368:N368">
-    <cfRule type="containsText" dxfId="83" priority="86" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="84" priority="87" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",H368)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F368">
-    <cfRule type="containsText" dxfId="82" priority="85" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="83" priority="86" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",F368)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H369:N369">
-    <cfRule type="containsText" dxfId="81" priority="84" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="82" priority="85" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",H369)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F369">
-    <cfRule type="containsText" dxfId="80" priority="83" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="81" priority="84" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",F369)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H379:N379">
-    <cfRule type="containsText" dxfId="79" priority="81" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="80" priority="82" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",H379)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F379">
-    <cfRule type="containsText" dxfId="78" priority="82" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="79" priority="83" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",F379)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H380:N384">
-    <cfRule type="containsText" dxfId="77" priority="79" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="78" priority="80" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",H380)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F380:F384">
-    <cfRule type="containsText" dxfId="76" priority="80" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="77" priority="81" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",F380)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M38:N38 G38 A38:C38">
-    <cfRule type="containsText" dxfId="75" priority="78" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="76" priority="79" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",A38)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A139:N139">
-    <cfRule type="containsText" dxfId="74" priority="73" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="75" priority="74" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",A139)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A125:N125">
-    <cfRule type="containsText" dxfId="73" priority="74" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="74" priority="75" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",A125)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A142:N143">
-    <cfRule type="containsText" dxfId="72" priority="72" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="73" priority="73" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",A142)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A172:A176 C172:N176">
-    <cfRule type="containsText" dxfId="71" priority="71" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="72" priority="72" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",A172)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A177:A196 C177:N196">
-    <cfRule type="containsText" dxfId="70" priority="70" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="71" priority="71" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",A177)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A251:N254">
-    <cfRule type="containsText" dxfId="69" priority="69" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="70" priority="70" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",A251)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M640:N640">
-    <cfRule type="containsText" dxfId="68" priority="20" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="69" priority="21" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",M640)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A261 H261:N261 C261:F261">
-    <cfRule type="containsText" dxfId="67" priority="67" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="68" priority="68" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",A261)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G447">
-    <cfRule type="containsText" dxfId="66" priority="65" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="67" priority="66" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G447)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G447">
-    <cfRule type="containsText" dxfId="65" priority="66" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="66" priority="67" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G447)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G448">
-    <cfRule type="containsText" dxfId="64" priority="63" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="65" priority="64" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G448)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G448">
-    <cfRule type="containsText" dxfId="63" priority="64" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="64" priority="65" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G448)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G449">
-    <cfRule type="containsText" dxfId="62" priority="61" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="63" priority="62" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G449)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G449">
-    <cfRule type="containsText" dxfId="61" priority="62" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="62" priority="63" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G449)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G450">
-    <cfRule type="containsText" dxfId="60" priority="59" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="61" priority="60" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G450)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G450">
-    <cfRule type="containsText" dxfId="59" priority="60" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="60" priority="61" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G450)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G451">
-    <cfRule type="containsText" dxfId="58" priority="57" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="59" priority="58" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G451)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G451">
-    <cfRule type="containsText" dxfId="57" priority="58" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="58" priority="59" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G451)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G452">
-    <cfRule type="containsText" dxfId="56" priority="55" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="57" priority="56" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G452)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G452">
-    <cfRule type="containsText" dxfId="55" priority="56" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="56" priority="57" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G452)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G453">
-    <cfRule type="containsText" dxfId="54" priority="53" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="55" priority="54" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G453)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G453">
-    <cfRule type="containsText" dxfId="53" priority="54" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="54" priority="55" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G453)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G454">
-    <cfRule type="containsText" dxfId="52" priority="51" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="53" priority="52" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G454)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G454">
-    <cfRule type="containsText" dxfId="51" priority="52" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="52" priority="53" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G454)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G455">
-    <cfRule type="containsText" dxfId="50" priority="49" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="51" priority="50" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G455)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G455">
-    <cfRule type="containsText" dxfId="49" priority="50" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="50" priority="51" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G455)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G466">
-    <cfRule type="containsText" dxfId="48" priority="47" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="49" priority="48" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G466)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G466">
-    <cfRule type="containsText" dxfId="47" priority="48" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="48" priority="49" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G466)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G467">
-    <cfRule type="containsText" dxfId="46" priority="45" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="47" priority="46" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G467)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G467">
-    <cfRule type="containsText" dxfId="45" priority="46" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="46" priority="47" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G467)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G468">
-    <cfRule type="containsText" dxfId="44" priority="43" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="45" priority="44" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G468)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G468">
-    <cfRule type="containsText" dxfId="43" priority="44" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="44" priority="45" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G468)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G469">
-    <cfRule type="containsText" dxfId="42" priority="41" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="43" priority="42" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G469)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G469">
-    <cfRule type="containsText" dxfId="41" priority="42" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="42" priority="43" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G469)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G470">
-    <cfRule type="containsText" dxfId="40" priority="39" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="41" priority="40" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G470)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G470">
-    <cfRule type="containsText" dxfId="39" priority="40" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="40" priority="41" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G470)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G471">
-    <cfRule type="containsText" dxfId="38" priority="37" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="39" priority="38" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G471)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G471">
-    <cfRule type="containsText" dxfId="37" priority="38" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="38" priority="39" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G471)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G472">
-    <cfRule type="containsText" dxfId="36" priority="35" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="37" priority="36" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G472)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G472">
-    <cfRule type="containsText" dxfId="35" priority="36" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="36" priority="37" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G472)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G473">
-    <cfRule type="containsText" dxfId="34" priority="33" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="35" priority="34" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G473)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G473">
-    <cfRule type="containsText" dxfId="33" priority="34" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="34" priority="35" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G473)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G474">
-    <cfRule type="containsText" dxfId="32" priority="31" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="33" priority="32" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G474)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G474">
-    <cfRule type="containsText" dxfId="31" priority="32" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="32" priority="33" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G474)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G475">
-    <cfRule type="containsText" dxfId="30" priority="29" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="31" priority="30" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G475)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G475">
-    <cfRule type="containsText" dxfId="29" priority="30" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="30" priority="31" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G475)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G476">
-    <cfRule type="containsText" dxfId="28" priority="27" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="29" priority="28" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G476)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G476">
-    <cfRule type="containsText" dxfId="27" priority="28" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="28" priority="29" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G476)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G477">
-    <cfRule type="containsText" dxfId="26" priority="25" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="27" priority="26" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G477)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G477">
-    <cfRule type="containsText" dxfId="25" priority="26" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="26" priority="27" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G477)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G478">
-    <cfRule type="containsText" dxfId="24" priority="23" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="25" priority="24" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G478)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G478">
-    <cfRule type="containsText" dxfId="23" priority="24" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="24" priority="25" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G478)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G479">
-    <cfRule type="containsText" dxfId="22" priority="21" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="23" priority="22" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G479)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G479">
-    <cfRule type="containsText" dxfId="21" priority="22" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="22" priority="23" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G479)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G31:G36 G25:G28 B25:C36 M25:N36">
-    <cfRule type="containsText" dxfId="20" priority="18" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="21" priority="19" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B25)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G29:G30">
-    <cfRule type="containsText" dxfId="19" priority="19" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="20" priority="20" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G29)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G4 M4:N4 A4:C4">
-    <cfRule type="containsText" dxfId="18" priority="15" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="19" priority="16" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",A4)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O2:O90 O92:O670">
-    <cfRule type="containsText" dxfId="17" priority="13" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="18" priority="14" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",O2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2:G3 B2:C3 M2:N3">
-    <cfRule type="containsText" dxfId="16" priority="14" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="17" priority="15" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G261">
-    <cfRule type="containsText" dxfId="15" priority="12" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="16" priority="13" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G261)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A91:G91 O91">
-    <cfRule type="containsText" dxfId="14" priority="11" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="15" priority="12" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",A91)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B261">
-    <cfRule type="containsText" dxfId="13" priority="10" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="14" priority="11" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B261)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B515">
-    <cfRule type="containsText" dxfId="12" priority="9" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="13" priority="10" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B515)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M515:N515 G515">
-    <cfRule type="containsText" dxfId="11" priority="8" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="12" priority="9" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G515)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B172:B196">
-    <cfRule type="containsText" dxfId="10" priority="5" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="11" priority="6" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B172)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B172:B196">
-    <cfRule type="containsText" dxfId="9" priority="6" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="10" priority="7" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B172)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A63:B63">
-    <cfRule type="containsText" dxfId="4" priority="4" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="5" priority="5" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",A63)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A108:B108">
-    <cfRule type="containsText" dxfId="2" priority="3" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="3" priority="4" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",A108)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B108:C108">
-    <cfRule type="containsText" dxfId="1" priority="2" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="2" priority="3" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B108)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B109">
+    <cfRule type="containsText" dxfId="1" priority="2" operator="containsText" text="&lt;?&gt;">
+      <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B109)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B110">
     <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="&lt;?&gt;">
-      <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B109)))</formula>
+      <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B110)))</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -45285,7 +45300,7 @@
   </sheetData>
   <autoFilter ref="A1:B1" xr:uid="{AF62FD2E-052D-40DF-8032-68688A8C1623}"/>
   <conditionalFormatting sqref="A2:B479">
-    <cfRule type="containsText" dxfId="8" priority="2" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="9" priority="2" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",A2)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -45615,12 +45630,12 @@
     <mergeCell ref="A1:B1"/>
   </mergeCells>
   <conditionalFormatting sqref="A1 C1 A2:C37 A39:C1048576">
-    <cfRule type="containsText" dxfId="7" priority="31" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="8" priority="31" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",A1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A38:C38">
-    <cfRule type="containsText" dxfId="6" priority="6" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="7" priority="6" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",A38)))</formula>
     </cfRule>
   </conditionalFormatting>

--- a/1.0.4/matrix/Validatiematrix v1.2.xlsx
+++ b/1.0.4/matrix/Validatiematrix v1.2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Default.DESKTOP-NDDI22K\Documents\Geonovum\github\xml_validatietestcontent\1.0.4\matrix\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC2596C2-CEE0-4EC9-A30C-23A093B2EF83}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58281FD3-01A0-400D-8C9D-0AE2D3156B93}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="348" windowWidth="23256" windowHeight="12720" tabRatio="670" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9513" uniqueCount="1784">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9514" uniqueCount="1785">
   <si>
     <t>Is Opdracht.zip een geldige zip</t>
   </si>
@@ -5641,6 +5641,9 @@
   </si>
   <si>
     <t>2 (meldt fout STOP1010 en BHKV1008)</t>
+  </si>
+  <si>
+    <t>2 (meldt fout LVBB1027)</t>
   </si>
 </sst>
 </file>
@@ -6328,7 +6331,17 @@
     <cellStyle name="Standaard 3 2" xfId="3" xr:uid="{A1634239-92B9-4583-AB04-DEBDF9A9A44B}"/>
     <cellStyle name="Standaard 3 3" xfId="5" xr:uid="{C77AD319-D6C6-4ABD-AE5A-A2C0A40B68E7}"/>
   </cellStyles>
-  <dxfs count="217">
+  <dxfs count="218">
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FFFF0000"/>
@@ -8867,7 +8880,7 @@
   <dimension ref="A1:O670"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A85" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A94" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="B112" sqref="B112"/>
     </sheetView>
   </sheetViews>
@@ -14232,11 +14245,11 @@
       </c>
     </row>
     <row r="112" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A112" s="38" t="s">
-        <v>1166</v>
-      </c>
-      <c r="B112" s="38">
-        <v>2</v>
+      <c r="A112" s="76" t="s">
+        <v>1166</v>
+      </c>
+      <c r="B112" s="81" t="s">
+        <v>1784</v>
       </c>
       <c r="C112" s="22" t="s">
         <v>522</v>
@@ -41138,1068 +41151,1073 @@
   </autoFilter>
   <phoneticPr fontId="5" type="noConversion"/>
   <conditionalFormatting sqref="F335:F339 C111:C115 F397:F408 F322:F333 F201 F269:F271 F267 F265 F259:F260 F223:F225 F219:F220 F214:F216 F203:F205 F291:G291 E450 H400:N408 G322:N339 E444:N445 M468:N475 B41:C53 B57:C62 B93:C95 B131:C138 M113:N116 G131:G138 M131:N138 B74:C81 M197:N197 G197 M41:N49 M51:N53 M57:N63 M74:N80 M88:N90 M93:N95 G51:G53 G57:G63 G74:G80 G88:G90 G93:G95 M577:N592 B66:C68 G66:G68 M66:N68 B109:C110 G108:G116 M108:N111 B148:C154 B83:C90 G84:G86 M84:N86 C116:D123 B144:C145 M144:N145 G144:G145 H155:N168 M148:N168 G148:G168 G201:N206 M451:N454 G505:G514 M504:N514 F208:N210 F212 F227:F230 G212:N230 G257:N260 F257 G118:G122 M118:N122 C126:D128 F370:F373 F346:G349 H346:N366 G370:G375 G385:G408 M596:N639 H370:N378 H385:N396 G39:G49 G37 A2:A3 B70:C70 M70:N70 G70 B1:O1 A126:B138 A140:B141 A144:B171 A197:B250 A255:B260 A262:B514 G262:N276 F262:F263 M641:N670 A37:B37 A25:A36 M5:N19 G5:G19 A516:B670 A515 M516:N575 G516:G670 A5:C24 A39:B62 A64:B68 A70:B90 A92:B107 A109:B124">
-    <cfRule type="containsText" dxfId="4" priority="371" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="5" priority="372" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",A1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B297:B305 B201:B206 B208:B250">
-    <cfRule type="containsText" dxfId="216" priority="466" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="217" priority="467" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B201)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F394:F396">
-    <cfRule type="containsText" dxfId="215" priority="456" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="216" priority="457" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",F394)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H290:N290">
-    <cfRule type="containsText" dxfId="214" priority="464" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="215" priority="465" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",H290)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M444:N445">
-    <cfRule type="containsText" dxfId="213" priority="455" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="214" priority="456" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",M444)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H445:L445">
-    <cfRule type="containsText" dxfId="212" priority="454" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="213" priority="455" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",H445)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G445:L445">
-    <cfRule type="containsText" dxfId="211" priority="453" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="212" priority="454" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G445)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M445:N445">
-    <cfRule type="containsText" dxfId="210" priority="451" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="211" priority="452" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",M445)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H444:L444">
-    <cfRule type="containsText" dxfId="209" priority="450" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="210" priority="451" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",H444)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G444:L444">
-    <cfRule type="containsText" dxfId="208" priority="449" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="209" priority="450" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G444)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M444:N444">
-    <cfRule type="containsText" dxfId="207" priority="447" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="208" priority="448" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",M444)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F334">
-    <cfRule type="containsText" dxfId="206" priority="446" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="207" priority="447" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",F334)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F374:F378 F385:F393">
-    <cfRule type="containsText" dxfId="205" priority="445" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="206" priority="446" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",F374)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H397:N398">
-    <cfRule type="containsText" dxfId="204" priority="444" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="205" priority="445" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",H397)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M455">
-    <cfRule type="containsText" dxfId="203" priority="413" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="204" priority="414" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",M455)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H450:N450">
-    <cfRule type="containsText" dxfId="202" priority="439" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="203" priority="440" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",H450)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N467">
-    <cfRule type="containsText" dxfId="201" priority="399" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="202" priority="400" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",N467)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H399:N399">
-    <cfRule type="containsText" dxfId="200" priority="382" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="201" priority="383" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",H399)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B466">
-    <cfRule type="containsText" dxfId="199" priority="430" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="200" priority="431" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B466)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M467">
-    <cfRule type="containsText" dxfId="198" priority="401" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="199" priority="402" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",M467)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G456">
-    <cfRule type="containsText" dxfId="197" priority="416" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="198" priority="417" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G456)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M466">
-    <cfRule type="containsText" dxfId="196" priority="405" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="197" priority="406" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",M466)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N455">
-    <cfRule type="containsText" dxfId="195" priority="411" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="196" priority="412" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",N455)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B455:B465">
-    <cfRule type="containsText" dxfId="194" priority="429" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="195" priority="430" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B455)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N466">
-    <cfRule type="containsText" dxfId="193" priority="403" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="194" priority="404" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",N466)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M456">
-    <cfRule type="containsText" dxfId="192" priority="409" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="193" priority="410" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",M456)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N456">
-    <cfRule type="containsText" dxfId="191" priority="407" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="192" priority="408" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",N456)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P342:X345">
-    <cfRule type="containsText" dxfId="190" priority="370" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="191" priority="371" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",P342)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E342:F342 E344:F345">
-    <cfRule type="containsText" dxfId="189" priority="369" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="190" priority="370" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",E342)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H344:H345">
-    <cfRule type="containsText" dxfId="188" priority="368" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="189" priority="369" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",H344)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I342 I344:I345">
-    <cfRule type="containsText" dxfId="187" priority="367" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="188" priority="368" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",I342)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J342 J344:J345">
-    <cfRule type="containsText" dxfId="186" priority="366" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="187" priority="367" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",J342)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K342 K344:K345">
-    <cfRule type="containsText" dxfId="185" priority="365" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="186" priority="366" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",K342)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L342 L344:L345">
-    <cfRule type="containsText" dxfId="184" priority="364" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="185" priority="365" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",L342)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M342 M344:M345">
-    <cfRule type="containsText" dxfId="183" priority="363" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="184" priority="364" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",M342)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N342 N344:N345">
-    <cfRule type="containsText" dxfId="182" priority="362" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="183" priority="363" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",N342)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P409:X409">
-    <cfRule type="containsText" dxfId="181" priority="361" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="182" priority="362" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",P409)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F409">
-    <cfRule type="containsText" dxfId="180" priority="360" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="181" priority="361" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",F409)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I409">
-    <cfRule type="containsText" dxfId="179" priority="358" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="180" priority="359" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",I409)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J409">
-    <cfRule type="containsText" dxfId="178" priority="357" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="179" priority="358" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",J409)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K409">
-    <cfRule type="containsText" dxfId="177" priority="356" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="178" priority="357" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",K409)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L409">
-    <cfRule type="containsText" dxfId="176" priority="355" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="177" priority="356" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",L409)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M409">
-    <cfRule type="containsText" dxfId="175" priority="354" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="176" priority="355" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",M409)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N409">
-    <cfRule type="containsText" dxfId="174" priority="353" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="175" priority="354" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",N409)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B505:B513">
-    <cfRule type="containsText" dxfId="173" priority="351" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="174" priority="352" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B505)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B514">
-    <cfRule type="containsText" dxfId="172" priority="330" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="173" priority="331" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B514)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B111:B114">
-    <cfRule type="containsText" dxfId="171" priority="318" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="172" priority="319" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B111)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B306 B296">
-    <cfRule type="containsText" dxfId="170" priority="319" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="171" priority="320" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B296)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B467:B475">
-    <cfRule type="containsText" dxfId="169" priority="316" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="170" priority="317" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B467)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B307:B321">
-    <cfRule type="containsText" dxfId="168" priority="317" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="169" priority="318" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B307)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B516">
-    <cfRule type="containsText" dxfId="167" priority="315" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="168" priority="316" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B516)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B450">
-    <cfRule type="containsText" dxfId="166" priority="313" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="167" priority="314" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B450)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B449">
-    <cfRule type="containsText" dxfId="165" priority="312" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="166" priority="313" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B449)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B322:B448">
-    <cfRule type="containsText" dxfId="164" priority="311" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="165" priority="312" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B322)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G504">
-    <cfRule type="containsText" dxfId="163" priority="291" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="164" priority="292" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G504)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C37 C39:C40">
-    <cfRule type="containsText" dxfId="162" priority="286" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="163" priority="287" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",C37)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E409">
-    <cfRule type="containsText" dxfId="161" priority="284" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="162" priority="285" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",E409)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M112:N112">
-    <cfRule type="containsText" dxfId="160" priority="277" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="161" priority="278" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",M112)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C71:D71">
-    <cfRule type="containsText" dxfId="159" priority="272" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="160" priority="273" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",C71)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C92:D92">
-    <cfRule type="containsText" dxfId="158" priority="270" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="159" priority="271" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",C92)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C129:D130">
-    <cfRule type="containsText" dxfId="157" priority="245" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="158" priority="246" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",C129)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G126:G130 M126:N130">
-    <cfRule type="containsText" dxfId="156" priority="244" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="157" priority="245" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G126)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B169:B171">
-    <cfRule type="containsText" dxfId="155" priority="243" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="156" priority="244" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B169)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G169:G170">
-    <cfRule type="containsText" dxfId="154" priority="242" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="155" priority="243" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G169)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H169:N170">
-    <cfRule type="containsText" dxfId="153" priority="241" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="154" priority="242" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",H169)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M446:N449 M438:N443 M420:N427 M92:N92 M87:N87 M71:N71 M54:N56 M50:N50 M37:N37 M39:N40">
-    <cfRule type="containsText" dxfId="152" priority="239" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="153" priority="240" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",M37)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M65:N65 G65">
-    <cfRule type="containsText" dxfId="151" priority="234" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="152" priority="235" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G65)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B64:B65">
-    <cfRule type="containsText" dxfId="150" priority="236" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="151" priority="237" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B64)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M64:N64 G64">
-    <cfRule type="containsText" dxfId="149" priority="235" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="150" priority="236" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G64)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B72:B73">
-    <cfRule type="containsText" dxfId="148" priority="230" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="149" priority="231" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B72)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M72:N72">
-    <cfRule type="containsText" dxfId="147" priority="232" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="148" priority="233" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",M72)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M73:N73">
-    <cfRule type="containsText" dxfId="146" priority="231" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="147" priority="232" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",M73)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B96:D107">
-    <cfRule type="containsText" dxfId="145" priority="227" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="146" priority="228" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B96)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M96:N107 G96:G107">
-    <cfRule type="containsText" dxfId="144" priority="228" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="145" priority="229" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G96)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M83:N83 G83">
-    <cfRule type="containsText" dxfId="143" priority="213" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="144" priority="214" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G83)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M82:N82 G82">
-    <cfRule type="containsText" dxfId="142" priority="212" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="143" priority="213" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G82)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G207:N207">
-    <cfRule type="containsText" dxfId="141" priority="220" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="142" priority="221" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G207)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B146:B147">
-    <cfRule type="containsText" dxfId="140" priority="222" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="141" priority="223" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B146)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G146:G147 M146:N147">
-    <cfRule type="containsText" dxfId="139" priority="221" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="140" priority="222" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G146)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B82">
-    <cfRule type="containsText" dxfId="138" priority="214" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="139" priority="215" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B82)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G123 M123:N123">
-    <cfRule type="containsText" dxfId="137" priority="211" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="138" priority="212" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G123)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B140:B141">
-    <cfRule type="containsText" dxfId="136" priority="208" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="137" priority="209" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B140)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G140:G141 M140:N141">
-    <cfRule type="containsText" dxfId="135" priority="207" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="136" priority="208" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G140)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B198:B200">
-    <cfRule type="containsText" dxfId="134" priority="158" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="135" priority="159" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B198)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M198:N200 G198:G200">
-    <cfRule type="containsText" dxfId="133" priority="157" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="134" priority="158" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G198)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B255:B258">
-    <cfRule type="containsText" dxfId="132" priority="147" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="133" priority="148" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B255)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B517:B546">
-    <cfRule type="containsText" dxfId="131" priority="144" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="132" priority="145" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B517)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G81">
-    <cfRule type="containsText" dxfId="130" priority="142" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="131" priority="143" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G81)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H171:N171">
-    <cfRule type="containsText" dxfId="129" priority="138" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="130" priority="139" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",H171)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F211:N211">
-    <cfRule type="containsText" dxfId="128" priority="136" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="129" priority="137" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",F211)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G171">
-    <cfRule type="containsText" dxfId="127" priority="139" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="128" priority="140" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G171)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F231:N249 F255:N256">
-    <cfRule type="containsText" dxfId="126" priority="133" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="127" priority="134" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",F231)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M117:N117 G117">
-    <cfRule type="containsText" dxfId="125" priority="132" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="126" priority="133" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G117)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B124:D124">
-    <cfRule type="containsText" dxfId="124" priority="131" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="125" priority="132" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B124)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G124 M124:N124">
-    <cfRule type="containsText" dxfId="123" priority="130" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="124" priority="131" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G124)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F250:N250">
-    <cfRule type="containsText" dxfId="122" priority="129" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="123" priority="130" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",F250)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1">
-    <cfRule type="containsText" dxfId="121" priority="128" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="122" priority="129" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",A1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G342">
-    <cfRule type="containsText" dxfId="120" priority="126" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="121" priority="127" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G342)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H342">
-    <cfRule type="containsText" dxfId="119" priority="125" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="120" priority="126" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",H342)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F340">
-    <cfRule type="containsText" dxfId="118" priority="124" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="119" priority="125" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",F340)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F350:F366">
-    <cfRule type="containsText" dxfId="117" priority="123" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="118" priority="124" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",F350)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I340">
-    <cfRule type="containsText" dxfId="116" priority="122" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="117" priority="123" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",I340)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J340">
-    <cfRule type="containsText" dxfId="115" priority="121" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="116" priority="122" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",J340)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K340">
-    <cfRule type="containsText" dxfId="114" priority="120" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="115" priority="121" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",K340)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L340">
-    <cfRule type="containsText" dxfId="113" priority="119" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="114" priority="120" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",L340)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M340">
-    <cfRule type="containsText" dxfId="112" priority="118" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="113" priority="119" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",M340)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N340">
-    <cfRule type="containsText" dxfId="111" priority="117" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="112" priority="118" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",N340)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H340">
-    <cfRule type="containsText" dxfId="110" priority="116" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="111" priority="117" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",H340)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G20:G24 M20:N24">
-    <cfRule type="containsText" dxfId="109" priority="112" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="110" priority="113" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G20)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G457:G465">
-    <cfRule type="containsText" dxfId="108" priority="111" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="109" priority="112" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G457)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M457:M465">
-    <cfRule type="containsText" dxfId="107" priority="110" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="108" priority="111" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",M457)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N457:N465">
-    <cfRule type="containsText" dxfId="106" priority="109" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="107" priority="110" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",N457)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M593:N593">
-    <cfRule type="containsText" dxfId="105" priority="108" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="106" priority="109" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",M593)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M594:N594">
-    <cfRule type="containsText" dxfId="104" priority="107" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="105" priority="108" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",M594)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F341">
-    <cfRule type="containsText" dxfId="103" priority="106" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="104" priority="107" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",F341)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I341">
-    <cfRule type="containsText" dxfId="102" priority="105" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="103" priority="106" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",I341)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J341">
-    <cfRule type="containsText" dxfId="101" priority="104" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="102" priority="105" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",J341)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K341">
-    <cfRule type="containsText" dxfId="100" priority="103" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="101" priority="104" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",K341)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L341">
-    <cfRule type="containsText" dxfId="99" priority="102" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="100" priority="103" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",L341)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M341">
-    <cfRule type="containsText" dxfId="98" priority="101" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="99" priority="102" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",M341)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N341">
-    <cfRule type="containsText" dxfId="97" priority="100" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="98" priority="101" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",N341)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H341">
-    <cfRule type="containsText" dxfId="96" priority="99" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="97" priority="100" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",H341)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E343:F343">
-    <cfRule type="containsText" dxfId="95" priority="98" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="96" priority="99" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",E343)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I343">
-    <cfRule type="containsText" dxfId="94" priority="97" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="95" priority="98" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",I343)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J343">
-    <cfRule type="containsText" dxfId="93" priority="96" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="94" priority="97" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",J343)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K343">
-    <cfRule type="containsText" dxfId="92" priority="95" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="93" priority="96" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",K343)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L343">
-    <cfRule type="containsText" dxfId="91" priority="94" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="92" priority="95" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",L343)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M343">
-    <cfRule type="containsText" dxfId="90" priority="93" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="91" priority="94" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",M343)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N343">
-    <cfRule type="containsText" dxfId="89" priority="92" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="90" priority="93" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",N343)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G343">
-    <cfRule type="containsText" dxfId="88" priority="91" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="89" priority="92" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G343)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H343">
-    <cfRule type="containsText" dxfId="87" priority="90" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="88" priority="91" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",H343)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H367:N367">
-    <cfRule type="containsText" dxfId="86" priority="89" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="87" priority="90" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",H367)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F367">
-    <cfRule type="containsText" dxfId="85" priority="88" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="86" priority="89" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",F367)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H368:N368">
-    <cfRule type="containsText" dxfId="84" priority="87" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="85" priority="88" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",H368)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F368">
-    <cfRule type="containsText" dxfId="83" priority="86" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="84" priority="87" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",F368)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H369:N369">
-    <cfRule type="containsText" dxfId="82" priority="85" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="83" priority="86" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",H369)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F369">
-    <cfRule type="containsText" dxfId="81" priority="84" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="82" priority="85" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",F369)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H379:N379">
-    <cfRule type="containsText" dxfId="80" priority="82" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="81" priority="83" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",H379)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F379">
-    <cfRule type="containsText" dxfId="79" priority="83" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="80" priority="84" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",F379)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H380:N384">
-    <cfRule type="containsText" dxfId="78" priority="80" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="79" priority="81" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",H380)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F380:F384">
-    <cfRule type="containsText" dxfId="77" priority="81" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="78" priority="82" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",F380)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M38:N38 G38 A38:C38">
-    <cfRule type="containsText" dxfId="76" priority="79" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="77" priority="80" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",A38)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A139:N139">
-    <cfRule type="containsText" dxfId="75" priority="74" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="76" priority="75" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",A139)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A125:N125">
-    <cfRule type="containsText" dxfId="74" priority="75" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="75" priority="76" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",A125)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A142:N143">
-    <cfRule type="containsText" dxfId="73" priority="73" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="74" priority="74" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",A142)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A172:A176 C172:N176">
-    <cfRule type="containsText" dxfId="72" priority="72" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="73" priority="73" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",A172)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A177:A196 C177:N196">
-    <cfRule type="containsText" dxfId="71" priority="71" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="72" priority="72" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",A177)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A251:N254">
-    <cfRule type="containsText" dxfId="70" priority="70" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="71" priority="71" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",A251)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M640:N640">
-    <cfRule type="containsText" dxfId="69" priority="21" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="70" priority="22" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",M640)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A261 H261:N261 C261:F261">
-    <cfRule type="containsText" dxfId="68" priority="68" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="69" priority="69" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",A261)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G447">
-    <cfRule type="containsText" dxfId="67" priority="66" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="68" priority="67" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G447)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G447">
-    <cfRule type="containsText" dxfId="66" priority="67" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="67" priority="68" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G447)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G448">
-    <cfRule type="containsText" dxfId="65" priority="64" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="66" priority="65" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G448)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G448">
-    <cfRule type="containsText" dxfId="64" priority="65" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="65" priority="66" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G448)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G449">
-    <cfRule type="containsText" dxfId="63" priority="62" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="64" priority="63" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G449)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G449">
-    <cfRule type="containsText" dxfId="62" priority="63" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="63" priority="64" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G449)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G450">
-    <cfRule type="containsText" dxfId="61" priority="60" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="62" priority="61" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G450)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G450">
-    <cfRule type="containsText" dxfId="60" priority="61" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="61" priority="62" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G450)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G451">
-    <cfRule type="containsText" dxfId="59" priority="58" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="60" priority="59" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G451)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G451">
-    <cfRule type="containsText" dxfId="58" priority="59" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="59" priority="60" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G451)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G452">
-    <cfRule type="containsText" dxfId="57" priority="56" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="58" priority="57" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G452)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G452">
-    <cfRule type="containsText" dxfId="56" priority="57" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="57" priority="58" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G452)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G453">
-    <cfRule type="containsText" dxfId="55" priority="54" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="56" priority="55" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G453)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G453">
-    <cfRule type="containsText" dxfId="54" priority="55" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="55" priority="56" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G453)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G454">
-    <cfRule type="containsText" dxfId="53" priority="52" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="54" priority="53" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G454)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G454">
-    <cfRule type="containsText" dxfId="52" priority="53" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="53" priority="54" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G454)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G455">
-    <cfRule type="containsText" dxfId="51" priority="50" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="52" priority="51" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G455)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G455">
-    <cfRule type="containsText" dxfId="50" priority="51" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="51" priority="52" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G455)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G466">
-    <cfRule type="containsText" dxfId="49" priority="48" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="50" priority="49" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G466)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G466">
-    <cfRule type="containsText" dxfId="48" priority="49" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="49" priority="50" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G466)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G467">
-    <cfRule type="containsText" dxfId="47" priority="46" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="48" priority="47" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G467)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G467">
-    <cfRule type="containsText" dxfId="46" priority="47" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="47" priority="48" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G467)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G468">
-    <cfRule type="containsText" dxfId="45" priority="44" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="46" priority="45" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G468)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G468">
-    <cfRule type="containsText" dxfId="44" priority="45" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="45" priority="46" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G468)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G469">
-    <cfRule type="containsText" dxfId="43" priority="42" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="44" priority="43" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G469)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G469">
-    <cfRule type="containsText" dxfId="42" priority="43" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="43" priority="44" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G469)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G470">
-    <cfRule type="containsText" dxfId="41" priority="40" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="42" priority="41" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G470)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G470">
-    <cfRule type="containsText" dxfId="40" priority="41" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="41" priority="42" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G470)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G471">
-    <cfRule type="containsText" dxfId="39" priority="38" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="40" priority="39" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G471)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G471">
-    <cfRule type="containsText" dxfId="38" priority="39" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="39" priority="40" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G471)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G472">
-    <cfRule type="containsText" dxfId="37" priority="36" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="38" priority="37" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G472)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G472">
-    <cfRule type="containsText" dxfId="36" priority="37" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="37" priority="38" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G472)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G473">
-    <cfRule type="containsText" dxfId="35" priority="34" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="36" priority="35" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G473)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G473">
-    <cfRule type="containsText" dxfId="34" priority="35" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="35" priority="36" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G473)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G474">
-    <cfRule type="containsText" dxfId="33" priority="32" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="34" priority="33" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G474)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G474">
-    <cfRule type="containsText" dxfId="32" priority="33" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="33" priority="34" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G474)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G475">
-    <cfRule type="containsText" dxfId="31" priority="30" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="32" priority="31" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G475)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G475">
-    <cfRule type="containsText" dxfId="30" priority="31" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="31" priority="32" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G475)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G476">
-    <cfRule type="containsText" dxfId="29" priority="28" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="30" priority="29" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G476)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G476">
-    <cfRule type="containsText" dxfId="28" priority="29" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="29" priority="30" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G476)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G477">
-    <cfRule type="containsText" dxfId="27" priority="26" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="28" priority="27" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G477)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G477">
-    <cfRule type="containsText" dxfId="26" priority="27" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="27" priority="28" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G477)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G478">
-    <cfRule type="containsText" dxfId="25" priority="24" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="26" priority="25" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G478)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G478">
-    <cfRule type="containsText" dxfId="24" priority="25" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="25" priority="26" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G478)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G479">
-    <cfRule type="containsText" dxfId="23" priority="22" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="24" priority="23" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G479)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G479">
-    <cfRule type="containsText" dxfId="22" priority="23" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="23" priority="24" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G479)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G31:G36 G25:G28 B25:C36 M25:N36">
-    <cfRule type="containsText" dxfId="21" priority="19" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="22" priority="20" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B25)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G29:G30">
-    <cfRule type="containsText" dxfId="20" priority="20" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="21" priority="21" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G29)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G4 M4:N4 A4:C4">
-    <cfRule type="containsText" dxfId="19" priority="16" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="20" priority="17" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",A4)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O2:O90 O92:O670">
-    <cfRule type="containsText" dxfId="18" priority="14" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="19" priority="15" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",O2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2:G3 B2:C3 M2:N3">
-    <cfRule type="containsText" dxfId="17" priority="15" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="18" priority="16" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G261">
-    <cfRule type="containsText" dxfId="16" priority="13" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="17" priority="14" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G261)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A91:G91 O91">
-    <cfRule type="containsText" dxfId="15" priority="12" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="16" priority="13" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",A91)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B261">
-    <cfRule type="containsText" dxfId="14" priority="11" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="15" priority="12" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B261)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B515">
-    <cfRule type="containsText" dxfId="13" priority="10" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="14" priority="11" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B515)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M515:N515 G515">
-    <cfRule type="containsText" dxfId="12" priority="9" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="13" priority="10" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G515)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B172:B196">
-    <cfRule type="containsText" dxfId="11" priority="6" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="12" priority="7" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B172)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B172:B196">
-    <cfRule type="containsText" dxfId="10" priority="7" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="11" priority="8" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B172)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A63:B63">
-    <cfRule type="containsText" dxfId="5" priority="5" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="6" priority="6" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",A63)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A108:B108">
-    <cfRule type="containsText" dxfId="3" priority="4" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="4" priority="5" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",A108)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B108:C108">
-    <cfRule type="containsText" dxfId="2" priority="3" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="3" priority="4" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B108)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B109">
-    <cfRule type="containsText" dxfId="1" priority="2" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="2" priority="3" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B109)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B110">
+    <cfRule type="containsText" dxfId="1" priority="2" operator="containsText" text="&lt;?&gt;">
+      <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B110)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B112">
     <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="&lt;?&gt;">
-      <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B110)))</formula>
+      <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B112)))</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -45300,7 +45318,7 @@
   </sheetData>
   <autoFilter ref="A1:B1" xr:uid="{AF62FD2E-052D-40DF-8032-68688A8C1623}"/>
   <conditionalFormatting sqref="A2:B479">
-    <cfRule type="containsText" dxfId="9" priority="2" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="10" priority="2" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",A2)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -45630,12 +45648,12 @@
     <mergeCell ref="A1:B1"/>
   </mergeCells>
   <conditionalFormatting sqref="A1 C1 A2:C37 A39:C1048576">
-    <cfRule type="containsText" dxfId="8" priority="31" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="9" priority="31" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",A1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A38:C38">
-    <cfRule type="containsText" dxfId="7" priority="6" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="8" priority="6" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",A38)))</formula>
     </cfRule>
   </conditionalFormatting>

--- a/1.0.4/matrix/Validatiematrix v1.2.xlsx
+++ b/1.0.4/matrix/Validatiematrix v1.2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Default.DESKTOP-NDDI22K\Documents\Geonovum\github\xml_validatietestcontent\1.0.4\matrix\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58281FD3-01A0-400D-8C9D-0AE2D3156B93}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{735CBD6A-C033-46F0-A15E-A7923464429B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="348" windowWidth="23256" windowHeight="12720" tabRatio="670" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9514" uniqueCount="1785">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9515" uniqueCount="1786">
   <si>
     <t>Is Opdracht.zip een geldige zip</t>
   </si>
@@ -5644,6 +5644,9 @@
   </si>
   <si>
     <t>2 (meldt fout LVBB1027)</t>
+  </si>
+  <si>
+    <t>2 (meldt fout LVBB1015)</t>
   </si>
 </sst>
 </file>
@@ -6331,7 +6334,17 @@
     <cellStyle name="Standaard 3 2" xfId="3" xr:uid="{A1634239-92B9-4583-AB04-DEBDF9A9A44B}"/>
     <cellStyle name="Standaard 3 3" xfId="5" xr:uid="{C77AD319-D6C6-4ABD-AE5A-A2C0A40B68E7}"/>
   </cellStyles>
-  <dxfs count="218">
+  <dxfs count="219">
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FFFF0000"/>
@@ -8881,7 +8894,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A94" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B112" sqref="B112"/>
+      <selection pane="bottomLeft" activeCell="B113" sqref="B113"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -14293,11 +14306,11 @@
       </c>
     </row>
     <row r="113" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A113" s="38" t="s">
-        <v>1166</v>
-      </c>
-      <c r="B113" s="38">
-        <v>2</v>
+      <c r="A113" s="76" t="s">
+        <v>1166</v>
+      </c>
+      <c r="B113" s="81" t="s">
+        <v>1785</v>
       </c>
       <c r="C113" s="22" t="s">
         <v>524</v>
@@ -41151,1073 +41164,1078 @@
   </autoFilter>
   <phoneticPr fontId="5" type="noConversion"/>
   <conditionalFormatting sqref="F335:F339 C111:C115 F397:F408 F322:F333 F201 F269:F271 F267 F265 F259:F260 F223:F225 F219:F220 F214:F216 F203:F205 F291:G291 E450 H400:N408 G322:N339 E444:N445 M468:N475 B41:C53 B57:C62 B93:C95 B131:C138 M113:N116 G131:G138 M131:N138 B74:C81 M197:N197 G197 M41:N49 M51:N53 M57:N63 M74:N80 M88:N90 M93:N95 G51:G53 G57:G63 G74:G80 G88:G90 G93:G95 M577:N592 B66:C68 G66:G68 M66:N68 B109:C110 G108:G116 M108:N111 B148:C154 B83:C90 G84:G86 M84:N86 C116:D123 B144:C145 M144:N145 G144:G145 H155:N168 M148:N168 G148:G168 G201:N206 M451:N454 G505:G514 M504:N514 F208:N210 F212 F227:F230 G212:N230 G257:N260 F257 G118:G122 M118:N122 C126:D128 F370:F373 F346:G349 H346:N366 G370:G375 G385:G408 M596:N639 H370:N378 H385:N396 G39:G49 G37 A2:A3 B70:C70 M70:N70 G70 B1:O1 A126:B138 A140:B141 A144:B171 A197:B250 A255:B260 A262:B514 G262:N276 F262:F263 M641:N670 A37:B37 A25:A36 M5:N19 G5:G19 A516:B670 A515 M516:N575 G516:G670 A5:C24 A39:B62 A64:B68 A70:B90 A92:B107 A109:B124">
-    <cfRule type="containsText" dxfId="5" priority="372" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="6" priority="373" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",A1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B297:B305 B201:B206 B208:B250">
-    <cfRule type="containsText" dxfId="217" priority="467" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="218" priority="468" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B201)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F394:F396">
-    <cfRule type="containsText" dxfId="216" priority="457" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="217" priority="458" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",F394)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H290:N290">
-    <cfRule type="containsText" dxfId="215" priority="465" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="216" priority="466" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",H290)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M444:N445">
-    <cfRule type="containsText" dxfId="214" priority="456" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="215" priority="457" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",M444)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H445:L445">
-    <cfRule type="containsText" dxfId="213" priority="455" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="214" priority="456" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",H445)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G445:L445">
-    <cfRule type="containsText" dxfId="212" priority="454" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="213" priority="455" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G445)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M445:N445">
-    <cfRule type="containsText" dxfId="211" priority="452" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="212" priority="453" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",M445)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H444:L444">
-    <cfRule type="containsText" dxfId="210" priority="451" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="211" priority="452" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",H444)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G444:L444">
-    <cfRule type="containsText" dxfId="209" priority="450" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="210" priority="451" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G444)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M444:N444">
-    <cfRule type="containsText" dxfId="208" priority="448" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="209" priority="449" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",M444)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F334">
-    <cfRule type="containsText" dxfId="207" priority="447" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="208" priority="448" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",F334)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F374:F378 F385:F393">
-    <cfRule type="containsText" dxfId="206" priority="446" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="207" priority="447" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",F374)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H397:N398">
-    <cfRule type="containsText" dxfId="205" priority="445" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="206" priority="446" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",H397)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M455">
-    <cfRule type="containsText" dxfId="204" priority="414" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="205" priority="415" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",M455)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H450:N450">
-    <cfRule type="containsText" dxfId="203" priority="440" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="204" priority="441" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",H450)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N467">
-    <cfRule type="containsText" dxfId="202" priority="400" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="203" priority="401" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",N467)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H399:N399">
-    <cfRule type="containsText" dxfId="201" priority="383" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="202" priority="384" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",H399)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B466">
-    <cfRule type="containsText" dxfId="200" priority="431" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="201" priority="432" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B466)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M467">
-    <cfRule type="containsText" dxfId="199" priority="402" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="200" priority="403" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",M467)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G456">
-    <cfRule type="containsText" dxfId="198" priority="417" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="199" priority="418" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G456)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M466">
-    <cfRule type="containsText" dxfId="197" priority="406" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="198" priority="407" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",M466)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N455">
-    <cfRule type="containsText" dxfId="196" priority="412" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="197" priority="413" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",N455)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B455:B465">
-    <cfRule type="containsText" dxfId="195" priority="430" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="196" priority="431" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B455)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N466">
-    <cfRule type="containsText" dxfId="194" priority="404" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="195" priority="405" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",N466)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M456">
-    <cfRule type="containsText" dxfId="193" priority="410" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="194" priority="411" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",M456)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N456">
-    <cfRule type="containsText" dxfId="192" priority="408" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="193" priority="409" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",N456)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P342:X345">
-    <cfRule type="containsText" dxfId="191" priority="371" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="192" priority="372" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",P342)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E342:F342 E344:F345">
-    <cfRule type="containsText" dxfId="190" priority="370" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="191" priority="371" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",E342)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H344:H345">
-    <cfRule type="containsText" dxfId="189" priority="369" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="190" priority="370" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",H344)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I342 I344:I345">
-    <cfRule type="containsText" dxfId="188" priority="368" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="189" priority="369" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",I342)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J342 J344:J345">
-    <cfRule type="containsText" dxfId="187" priority="367" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="188" priority="368" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",J342)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K342 K344:K345">
-    <cfRule type="containsText" dxfId="186" priority="366" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="187" priority="367" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",K342)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L342 L344:L345">
-    <cfRule type="containsText" dxfId="185" priority="365" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="186" priority="366" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",L342)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M342 M344:M345">
-    <cfRule type="containsText" dxfId="184" priority="364" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="185" priority="365" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",M342)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N342 N344:N345">
-    <cfRule type="containsText" dxfId="183" priority="363" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="184" priority="364" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",N342)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P409:X409">
-    <cfRule type="containsText" dxfId="182" priority="362" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="183" priority="363" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",P409)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F409">
-    <cfRule type="containsText" dxfId="181" priority="361" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="182" priority="362" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",F409)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I409">
-    <cfRule type="containsText" dxfId="180" priority="359" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="181" priority="360" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",I409)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J409">
-    <cfRule type="containsText" dxfId="179" priority="358" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="180" priority="359" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",J409)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K409">
-    <cfRule type="containsText" dxfId="178" priority="357" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="179" priority="358" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",K409)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L409">
-    <cfRule type="containsText" dxfId="177" priority="356" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="178" priority="357" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",L409)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M409">
-    <cfRule type="containsText" dxfId="176" priority="355" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="177" priority="356" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",M409)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N409">
-    <cfRule type="containsText" dxfId="175" priority="354" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="176" priority="355" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",N409)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B505:B513">
-    <cfRule type="containsText" dxfId="174" priority="352" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="175" priority="353" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B505)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B514">
-    <cfRule type="containsText" dxfId="173" priority="331" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="174" priority="332" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B514)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B111:B114">
-    <cfRule type="containsText" dxfId="172" priority="319" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="173" priority="320" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B111)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B306 B296">
-    <cfRule type="containsText" dxfId="171" priority="320" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="172" priority="321" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B296)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B467:B475">
-    <cfRule type="containsText" dxfId="170" priority="317" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="171" priority="318" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B467)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B307:B321">
-    <cfRule type="containsText" dxfId="169" priority="318" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="170" priority="319" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B307)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B516">
-    <cfRule type="containsText" dxfId="168" priority="316" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="169" priority="317" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B516)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B450">
-    <cfRule type="containsText" dxfId="167" priority="314" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="168" priority="315" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B450)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B449">
-    <cfRule type="containsText" dxfId="166" priority="313" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="167" priority="314" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B449)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B322:B448">
-    <cfRule type="containsText" dxfId="165" priority="312" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="166" priority="313" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B322)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G504">
-    <cfRule type="containsText" dxfId="164" priority="292" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="165" priority="293" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G504)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C37 C39:C40">
-    <cfRule type="containsText" dxfId="163" priority="287" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="164" priority="288" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",C37)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E409">
-    <cfRule type="containsText" dxfId="162" priority="285" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="163" priority="286" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",E409)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M112:N112">
-    <cfRule type="containsText" dxfId="161" priority="278" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="162" priority="279" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",M112)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C71:D71">
-    <cfRule type="containsText" dxfId="160" priority="273" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="161" priority="274" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",C71)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C92:D92">
-    <cfRule type="containsText" dxfId="159" priority="271" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="160" priority="272" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",C92)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C129:D130">
-    <cfRule type="containsText" dxfId="158" priority="246" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="159" priority="247" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",C129)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G126:G130 M126:N130">
-    <cfRule type="containsText" dxfId="157" priority="245" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="158" priority="246" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G126)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B169:B171">
-    <cfRule type="containsText" dxfId="156" priority="244" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="157" priority="245" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B169)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G169:G170">
-    <cfRule type="containsText" dxfId="155" priority="243" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="156" priority="244" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G169)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H169:N170">
-    <cfRule type="containsText" dxfId="154" priority="242" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="155" priority="243" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",H169)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M446:N449 M438:N443 M420:N427 M92:N92 M87:N87 M71:N71 M54:N56 M50:N50 M37:N37 M39:N40">
-    <cfRule type="containsText" dxfId="153" priority="240" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="154" priority="241" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",M37)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M65:N65 G65">
-    <cfRule type="containsText" dxfId="152" priority="235" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="153" priority="236" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G65)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B64:B65">
-    <cfRule type="containsText" dxfId="151" priority="237" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="152" priority="238" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B64)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M64:N64 G64">
-    <cfRule type="containsText" dxfId="150" priority="236" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="151" priority="237" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G64)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B72:B73">
-    <cfRule type="containsText" dxfId="149" priority="231" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="150" priority="232" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B72)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M72:N72">
-    <cfRule type="containsText" dxfId="148" priority="233" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="149" priority="234" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",M72)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M73:N73">
-    <cfRule type="containsText" dxfId="147" priority="232" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="148" priority="233" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",M73)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B96:D107">
-    <cfRule type="containsText" dxfId="146" priority="228" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="147" priority="229" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B96)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M96:N107 G96:G107">
-    <cfRule type="containsText" dxfId="145" priority="229" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="146" priority="230" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G96)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M83:N83 G83">
-    <cfRule type="containsText" dxfId="144" priority="214" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="145" priority="215" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G83)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M82:N82 G82">
-    <cfRule type="containsText" dxfId="143" priority="213" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="144" priority="214" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G82)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G207:N207">
-    <cfRule type="containsText" dxfId="142" priority="221" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="143" priority="222" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G207)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B146:B147">
-    <cfRule type="containsText" dxfId="141" priority="223" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="142" priority="224" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B146)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G146:G147 M146:N147">
-    <cfRule type="containsText" dxfId="140" priority="222" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="141" priority="223" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G146)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B82">
-    <cfRule type="containsText" dxfId="139" priority="215" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="140" priority="216" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B82)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G123 M123:N123">
-    <cfRule type="containsText" dxfId="138" priority="212" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="139" priority="213" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G123)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B140:B141">
-    <cfRule type="containsText" dxfId="137" priority="209" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="138" priority="210" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B140)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G140:G141 M140:N141">
-    <cfRule type="containsText" dxfId="136" priority="208" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="137" priority="209" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G140)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B198:B200">
-    <cfRule type="containsText" dxfId="135" priority="159" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="136" priority="160" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B198)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M198:N200 G198:G200">
-    <cfRule type="containsText" dxfId="134" priority="158" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="135" priority="159" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G198)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B255:B258">
-    <cfRule type="containsText" dxfId="133" priority="148" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="134" priority="149" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B255)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B517:B546">
-    <cfRule type="containsText" dxfId="132" priority="145" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="133" priority="146" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B517)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G81">
-    <cfRule type="containsText" dxfId="131" priority="143" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="132" priority="144" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G81)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H171:N171">
-    <cfRule type="containsText" dxfId="130" priority="139" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="131" priority="140" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",H171)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F211:N211">
-    <cfRule type="containsText" dxfId="129" priority="137" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="130" priority="138" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",F211)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G171">
-    <cfRule type="containsText" dxfId="128" priority="140" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="129" priority="141" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G171)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F231:N249 F255:N256">
-    <cfRule type="containsText" dxfId="127" priority="134" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="128" priority="135" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",F231)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M117:N117 G117">
-    <cfRule type="containsText" dxfId="126" priority="133" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="127" priority="134" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G117)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B124:D124">
-    <cfRule type="containsText" dxfId="125" priority="132" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="126" priority="133" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B124)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G124 M124:N124">
-    <cfRule type="containsText" dxfId="124" priority="131" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="125" priority="132" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G124)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F250:N250">
-    <cfRule type="containsText" dxfId="123" priority="130" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="124" priority="131" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",F250)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1">
-    <cfRule type="containsText" dxfId="122" priority="129" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="123" priority="130" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",A1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G342">
-    <cfRule type="containsText" dxfId="121" priority="127" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="122" priority="128" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G342)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H342">
-    <cfRule type="containsText" dxfId="120" priority="126" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="121" priority="127" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",H342)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F340">
-    <cfRule type="containsText" dxfId="119" priority="125" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="120" priority="126" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",F340)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F350:F366">
-    <cfRule type="containsText" dxfId="118" priority="124" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="119" priority="125" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",F350)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I340">
-    <cfRule type="containsText" dxfId="117" priority="123" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="118" priority="124" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",I340)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J340">
-    <cfRule type="containsText" dxfId="116" priority="122" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="117" priority="123" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",J340)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K340">
-    <cfRule type="containsText" dxfId="115" priority="121" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="116" priority="122" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",K340)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L340">
-    <cfRule type="containsText" dxfId="114" priority="120" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="115" priority="121" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",L340)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M340">
-    <cfRule type="containsText" dxfId="113" priority="119" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="114" priority="120" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",M340)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N340">
-    <cfRule type="containsText" dxfId="112" priority="118" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="113" priority="119" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",N340)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H340">
-    <cfRule type="containsText" dxfId="111" priority="117" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="112" priority="118" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",H340)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G20:G24 M20:N24">
-    <cfRule type="containsText" dxfId="110" priority="113" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="111" priority="114" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G20)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G457:G465">
-    <cfRule type="containsText" dxfId="109" priority="112" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="110" priority="113" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G457)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M457:M465">
-    <cfRule type="containsText" dxfId="108" priority="111" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="109" priority="112" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",M457)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N457:N465">
-    <cfRule type="containsText" dxfId="107" priority="110" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="108" priority="111" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",N457)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M593:N593">
-    <cfRule type="containsText" dxfId="106" priority="109" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="107" priority="110" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",M593)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M594:N594">
-    <cfRule type="containsText" dxfId="105" priority="108" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="106" priority="109" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",M594)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F341">
-    <cfRule type="containsText" dxfId="104" priority="107" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="105" priority="108" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",F341)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I341">
-    <cfRule type="containsText" dxfId="103" priority="106" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="104" priority="107" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",I341)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J341">
-    <cfRule type="containsText" dxfId="102" priority="105" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="103" priority="106" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",J341)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K341">
-    <cfRule type="containsText" dxfId="101" priority="104" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="102" priority="105" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",K341)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L341">
-    <cfRule type="containsText" dxfId="100" priority="103" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="101" priority="104" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",L341)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M341">
-    <cfRule type="containsText" dxfId="99" priority="102" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="100" priority="103" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",M341)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N341">
-    <cfRule type="containsText" dxfId="98" priority="101" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="99" priority="102" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",N341)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H341">
-    <cfRule type="containsText" dxfId="97" priority="100" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="98" priority="101" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",H341)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E343:F343">
-    <cfRule type="containsText" dxfId="96" priority="99" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="97" priority="100" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",E343)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I343">
-    <cfRule type="containsText" dxfId="95" priority="98" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="96" priority="99" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",I343)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J343">
-    <cfRule type="containsText" dxfId="94" priority="97" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="95" priority="98" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",J343)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K343">
-    <cfRule type="containsText" dxfId="93" priority="96" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="94" priority="97" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",K343)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L343">
-    <cfRule type="containsText" dxfId="92" priority="95" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="93" priority="96" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",L343)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M343">
-    <cfRule type="containsText" dxfId="91" priority="94" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="92" priority="95" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",M343)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N343">
-    <cfRule type="containsText" dxfId="90" priority="93" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="91" priority="94" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",N343)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G343">
-    <cfRule type="containsText" dxfId="89" priority="92" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="90" priority="93" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G343)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H343">
-    <cfRule type="containsText" dxfId="88" priority="91" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="89" priority="92" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",H343)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H367:N367">
-    <cfRule type="containsText" dxfId="87" priority="90" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="88" priority="91" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",H367)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F367">
-    <cfRule type="containsText" dxfId="86" priority="89" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="87" priority="90" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",F367)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H368:N368">
-    <cfRule type="containsText" dxfId="85" priority="88" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="86" priority="89" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",H368)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F368">
-    <cfRule type="containsText" dxfId="84" priority="87" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="85" priority="88" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",F368)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H369:N369">
-    <cfRule type="containsText" dxfId="83" priority="86" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="84" priority="87" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",H369)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F369">
-    <cfRule type="containsText" dxfId="82" priority="85" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="83" priority="86" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",F369)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H379:N379">
-    <cfRule type="containsText" dxfId="81" priority="83" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="82" priority="84" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",H379)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F379">
-    <cfRule type="containsText" dxfId="80" priority="84" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="81" priority="85" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",F379)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H380:N384">
-    <cfRule type="containsText" dxfId="79" priority="81" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="80" priority="82" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",H380)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F380:F384">
-    <cfRule type="containsText" dxfId="78" priority="82" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="79" priority="83" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",F380)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M38:N38 G38 A38:C38">
-    <cfRule type="containsText" dxfId="77" priority="80" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="78" priority="81" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",A38)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A139:N139">
-    <cfRule type="containsText" dxfId="76" priority="75" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="77" priority="76" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",A139)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A125:N125">
-    <cfRule type="containsText" dxfId="75" priority="76" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="76" priority="77" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",A125)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A142:N143">
-    <cfRule type="containsText" dxfId="74" priority="74" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="75" priority="75" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",A142)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A172:A176 C172:N176">
-    <cfRule type="containsText" dxfId="73" priority="73" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="74" priority="74" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",A172)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A177:A196 C177:N196">
-    <cfRule type="containsText" dxfId="72" priority="72" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="73" priority="73" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",A177)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A251:N254">
-    <cfRule type="containsText" dxfId="71" priority="71" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="72" priority="72" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",A251)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M640:N640">
-    <cfRule type="containsText" dxfId="70" priority="22" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="71" priority="23" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",M640)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A261 H261:N261 C261:F261">
-    <cfRule type="containsText" dxfId="69" priority="69" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="70" priority="70" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",A261)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G447">
-    <cfRule type="containsText" dxfId="68" priority="67" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="69" priority="68" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G447)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G447">
-    <cfRule type="containsText" dxfId="67" priority="68" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="68" priority="69" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G447)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G448">
-    <cfRule type="containsText" dxfId="66" priority="65" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="67" priority="66" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G448)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G448">
-    <cfRule type="containsText" dxfId="65" priority="66" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="66" priority="67" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G448)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G449">
-    <cfRule type="containsText" dxfId="64" priority="63" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="65" priority="64" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G449)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G449">
-    <cfRule type="containsText" dxfId="63" priority="64" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="64" priority="65" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G449)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G450">
-    <cfRule type="containsText" dxfId="62" priority="61" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="63" priority="62" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G450)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G450">
-    <cfRule type="containsText" dxfId="61" priority="62" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="62" priority="63" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G450)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G451">
-    <cfRule type="containsText" dxfId="60" priority="59" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="61" priority="60" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G451)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G451">
-    <cfRule type="containsText" dxfId="59" priority="60" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="60" priority="61" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G451)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G452">
-    <cfRule type="containsText" dxfId="58" priority="57" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="59" priority="58" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G452)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G452">
-    <cfRule type="containsText" dxfId="57" priority="58" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="58" priority="59" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G452)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G453">
-    <cfRule type="containsText" dxfId="56" priority="55" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="57" priority="56" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G453)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G453">
-    <cfRule type="containsText" dxfId="55" priority="56" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="56" priority="57" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G453)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G454">
-    <cfRule type="containsText" dxfId="54" priority="53" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="55" priority="54" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G454)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G454">
-    <cfRule type="containsText" dxfId="53" priority="54" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="54" priority="55" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G454)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G455">
-    <cfRule type="containsText" dxfId="52" priority="51" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="53" priority="52" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G455)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G455">
-    <cfRule type="containsText" dxfId="51" priority="52" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="52" priority="53" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G455)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G466">
-    <cfRule type="containsText" dxfId="50" priority="49" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="51" priority="50" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G466)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G466">
-    <cfRule type="containsText" dxfId="49" priority="50" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="50" priority="51" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G466)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G467">
-    <cfRule type="containsText" dxfId="48" priority="47" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="49" priority="48" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G467)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G467">
-    <cfRule type="containsText" dxfId="47" priority="48" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="48" priority="49" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G467)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G468">
-    <cfRule type="containsText" dxfId="46" priority="45" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="47" priority="46" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G468)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G468">
-    <cfRule type="containsText" dxfId="45" priority="46" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="46" priority="47" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G468)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G469">
-    <cfRule type="containsText" dxfId="44" priority="43" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="45" priority="44" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G469)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G469">
-    <cfRule type="containsText" dxfId="43" priority="44" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="44" priority="45" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G469)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G470">
-    <cfRule type="containsText" dxfId="42" priority="41" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="43" priority="42" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G470)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G470">
-    <cfRule type="containsText" dxfId="41" priority="42" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="42" priority="43" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G470)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G471">
-    <cfRule type="containsText" dxfId="40" priority="39" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="41" priority="40" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G471)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G471">
-    <cfRule type="containsText" dxfId="39" priority="40" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="40" priority="41" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G471)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G472">
-    <cfRule type="containsText" dxfId="38" priority="37" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="39" priority="38" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G472)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G472">
-    <cfRule type="containsText" dxfId="37" priority="38" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="38" priority="39" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G472)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G473">
-    <cfRule type="containsText" dxfId="36" priority="35" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="37" priority="36" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G473)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G473">
-    <cfRule type="containsText" dxfId="35" priority="36" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="36" priority="37" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G473)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G474">
-    <cfRule type="containsText" dxfId="34" priority="33" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="35" priority="34" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G474)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G474">
-    <cfRule type="containsText" dxfId="33" priority="34" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="34" priority="35" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G474)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G475">
-    <cfRule type="containsText" dxfId="32" priority="31" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="33" priority="32" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G475)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G475">
-    <cfRule type="containsText" dxfId="31" priority="32" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="32" priority="33" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G475)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G476">
-    <cfRule type="containsText" dxfId="30" priority="29" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="31" priority="30" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G476)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G476">
-    <cfRule type="containsText" dxfId="29" priority="30" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="30" priority="31" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G476)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G477">
-    <cfRule type="containsText" dxfId="28" priority="27" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="29" priority="28" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G477)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G477">
-    <cfRule type="containsText" dxfId="27" priority="28" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="28" priority="29" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G477)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G478">
-    <cfRule type="containsText" dxfId="26" priority="25" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="27" priority="26" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G478)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G478">
-    <cfRule type="containsText" dxfId="25" priority="26" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="26" priority="27" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G478)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G479">
-    <cfRule type="containsText" dxfId="24" priority="23" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="25" priority="24" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G479)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G479">
-    <cfRule type="containsText" dxfId="23" priority="24" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="24" priority="25" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G479)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G31:G36 G25:G28 B25:C36 M25:N36">
-    <cfRule type="containsText" dxfId="22" priority="20" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="23" priority="21" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B25)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G29:G30">
-    <cfRule type="containsText" dxfId="21" priority="21" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="22" priority="22" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G29)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G4 M4:N4 A4:C4">
-    <cfRule type="containsText" dxfId="20" priority="17" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="21" priority="18" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",A4)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O2:O90 O92:O670">
-    <cfRule type="containsText" dxfId="19" priority="15" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="20" priority="16" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",O2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2:G3 B2:C3 M2:N3">
-    <cfRule type="containsText" dxfId="18" priority="16" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="19" priority="17" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G261">
-    <cfRule type="containsText" dxfId="17" priority="14" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="18" priority="15" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G261)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A91:G91 O91">
-    <cfRule type="containsText" dxfId="16" priority="13" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="17" priority="14" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",A91)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B261">
-    <cfRule type="containsText" dxfId="15" priority="12" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="16" priority="13" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B261)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B515">
-    <cfRule type="containsText" dxfId="14" priority="11" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="15" priority="12" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B515)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M515:N515 G515">
-    <cfRule type="containsText" dxfId="13" priority="10" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="14" priority="11" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G515)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B172:B196">
-    <cfRule type="containsText" dxfId="12" priority="7" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="13" priority="8" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B172)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B172:B196">
-    <cfRule type="containsText" dxfId="11" priority="8" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="12" priority="9" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B172)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A63:B63">
-    <cfRule type="containsText" dxfId="6" priority="6" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="7" priority="7" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",A63)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A108:B108">
-    <cfRule type="containsText" dxfId="4" priority="5" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="5" priority="6" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",A108)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B108:C108">
-    <cfRule type="containsText" dxfId="3" priority="4" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="4" priority="5" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B108)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B109">
-    <cfRule type="containsText" dxfId="2" priority="3" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="3" priority="4" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B109)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B110">
-    <cfRule type="containsText" dxfId="1" priority="2" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="2" priority="3" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B110)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B112">
+    <cfRule type="containsText" dxfId="1" priority="2" operator="containsText" text="&lt;?&gt;">
+      <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B112)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B113">
     <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="&lt;?&gt;">
-      <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B112)))</formula>
+      <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B113)))</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -45318,7 +45336,7 @@
   </sheetData>
   <autoFilter ref="A1:B1" xr:uid="{AF62FD2E-052D-40DF-8032-68688A8C1623}"/>
   <conditionalFormatting sqref="A2:B479">
-    <cfRule type="containsText" dxfId="10" priority="2" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="11" priority="2" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",A2)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -45648,12 +45666,12 @@
     <mergeCell ref="A1:B1"/>
   </mergeCells>
   <conditionalFormatting sqref="A1 C1 A2:C37 A39:C1048576">
-    <cfRule type="containsText" dxfId="9" priority="31" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="10" priority="31" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",A1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A38:C38">
-    <cfRule type="containsText" dxfId="8" priority="6" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="9" priority="6" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",A38)))</formula>
     </cfRule>
   </conditionalFormatting>

--- a/1.0.4/matrix/Validatiematrix v1.2.xlsx
+++ b/1.0.4/matrix/Validatiematrix v1.2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Default.DESKTOP-NDDI22K\Documents\Geonovum\github\xml_validatietestcontent\1.0.4\matrix\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{735CBD6A-C033-46F0-A15E-A7923464429B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DF5BBE1-7C3F-4116-83D3-46F5FC54592B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="348" windowWidth="23256" windowHeight="12720" tabRatio="670" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9515" uniqueCount="1786">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9516" uniqueCount="1786">
   <si>
     <t>Is Opdracht.zip een geldige zip</t>
   </si>
@@ -6334,7 +6334,17 @@
     <cellStyle name="Standaard 3 2" xfId="3" xr:uid="{A1634239-92B9-4583-AB04-DEBDF9A9A44B}"/>
     <cellStyle name="Standaard 3 3" xfId="5" xr:uid="{C77AD319-D6C6-4ABD-AE5A-A2C0A40B68E7}"/>
   </cellStyles>
-  <dxfs count="219">
+  <dxfs count="220">
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FFFF0000"/>
@@ -8894,7 +8904,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A94" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B113" sqref="B113"/>
+      <selection pane="bottomLeft" activeCell="A114" sqref="A114:B114"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -14354,11 +14364,11 @@
       </c>
     </row>
     <row r="114" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A114" s="38" t="s">
-        <v>1166</v>
-      </c>
-      <c r="B114" s="38">
-        <v>2</v>
+      <c r="A114" s="76" t="s">
+        <v>1166</v>
+      </c>
+      <c r="B114" s="81" t="s">
+        <v>1785</v>
       </c>
       <c r="C114" s="22" t="s">
         <v>526</v>
@@ -41164,1078 +41174,1083 @@
   </autoFilter>
   <phoneticPr fontId="5" type="noConversion"/>
   <conditionalFormatting sqref="F335:F339 C111:C115 F397:F408 F322:F333 F201 F269:F271 F267 F265 F259:F260 F223:F225 F219:F220 F214:F216 F203:F205 F291:G291 E450 H400:N408 G322:N339 E444:N445 M468:N475 B41:C53 B57:C62 B93:C95 B131:C138 M113:N116 G131:G138 M131:N138 B74:C81 M197:N197 G197 M41:N49 M51:N53 M57:N63 M74:N80 M88:N90 M93:N95 G51:G53 G57:G63 G74:G80 G88:G90 G93:G95 M577:N592 B66:C68 G66:G68 M66:N68 B109:C110 G108:G116 M108:N111 B148:C154 B83:C90 G84:G86 M84:N86 C116:D123 B144:C145 M144:N145 G144:G145 H155:N168 M148:N168 G148:G168 G201:N206 M451:N454 G505:G514 M504:N514 F208:N210 F212 F227:F230 G212:N230 G257:N260 F257 G118:G122 M118:N122 C126:D128 F370:F373 F346:G349 H346:N366 G370:G375 G385:G408 M596:N639 H370:N378 H385:N396 G39:G49 G37 A2:A3 B70:C70 M70:N70 G70 B1:O1 A126:B138 A140:B141 A144:B171 A197:B250 A255:B260 A262:B514 G262:N276 F262:F263 M641:N670 A37:B37 A25:A36 M5:N19 G5:G19 A516:B670 A515 M516:N575 G516:G670 A5:C24 A39:B62 A64:B68 A70:B90 A92:B107 A109:B124">
-    <cfRule type="containsText" dxfId="6" priority="373" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="7" priority="374" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",A1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B297:B305 B201:B206 B208:B250">
-    <cfRule type="containsText" dxfId="218" priority="468" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="219" priority="469" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B201)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F394:F396">
-    <cfRule type="containsText" dxfId="217" priority="458" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="218" priority="459" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",F394)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H290:N290">
-    <cfRule type="containsText" dxfId="216" priority="466" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="217" priority="467" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",H290)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M444:N445">
-    <cfRule type="containsText" dxfId="215" priority="457" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="216" priority="458" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",M444)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H445:L445">
-    <cfRule type="containsText" dxfId="214" priority="456" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="215" priority="457" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",H445)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G445:L445">
-    <cfRule type="containsText" dxfId="213" priority="455" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="214" priority="456" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G445)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M445:N445">
-    <cfRule type="containsText" dxfId="212" priority="453" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="213" priority="454" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",M445)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H444:L444">
-    <cfRule type="containsText" dxfId="211" priority="452" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="212" priority="453" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",H444)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G444:L444">
-    <cfRule type="containsText" dxfId="210" priority="451" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="211" priority="452" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G444)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M444:N444">
-    <cfRule type="containsText" dxfId="209" priority="449" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="210" priority="450" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",M444)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F334">
-    <cfRule type="containsText" dxfId="208" priority="448" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="209" priority="449" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",F334)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F374:F378 F385:F393">
-    <cfRule type="containsText" dxfId="207" priority="447" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="208" priority="448" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",F374)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H397:N398">
-    <cfRule type="containsText" dxfId="206" priority="446" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="207" priority="447" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",H397)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M455">
-    <cfRule type="containsText" dxfId="205" priority="415" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="206" priority="416" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",M455)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H450:N450">
-    <cfRule type="containsText" dxfId="204" priority="441" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="205" priority="442" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",H450)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N467">
-    <cfRule type="containsText" dxfId="203" priority="401" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="204" priority="402" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",N467)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H399:N399">
-    <cfRule type="containsText" dxfId="202" priority="384" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="203" priority="385" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",H399)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B466">
-    <cfRule type="containsText" dxfId="201" priority="432" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="202" priority="433" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B466)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M467">
-    <cfRule type="containsText" dxfId="200" priority="403" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="201" priority="404" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",M467)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G456">
-    <cfRule type="containsText" dxfId="199" priority="418" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="200" priority="419" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G456)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M466">
-    <cfRule type="containsText" dxfId="198" priority="407" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="199" priority="408" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",M466)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N455">
-    <cfRule type="containsText" dxfId="197" priority="413" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="198" priority="414" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",N455)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B455:B465">
-    <cfRule type="containsText" dxfId="196" priority="431" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="197" priority="432" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B455)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N466">
-    <cfRule type="containsText" dxfId="195" priority="405" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="196" priority="406" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",N466)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M456">
-    <cfRule type="containsText" dxfId="194" priority="411" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="195" priority="412" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",M456)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N456">
-    <cfRule type="containsText" dxfId="193" priority="409" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="194" priority="410" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",N456)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P342:X345">
-    <cfRule type="containsText" dxfId="192" priority="372" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="193" priority="373" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",P342)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E342:F342 E344:F345">
-    <cfRule type="containsText" dxfId="191" priority="371" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="192" priority="372" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",E342)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H344:H345">
-    <cfRule type="containsText" dxfId="190" priority="370" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="191" priority="371" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",H344)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I342 I344:I345">
-    <cfRule type="containsText" dxfId="189" priority="369" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="190" priority="370" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",I342)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J342 J344:J345">
-    <cfRule type="containsText" dxfId="188" priority="368" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="189" priority="369" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",J342)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K342 K344:K345">
-    <cfRule type="containsText" dxfId="187" priority="367" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="188" priority="368" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",K342)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L342 L344:L345">
-    <cfRule type="containsText" dxfId="186" priority="366" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="187" priority="367" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",L342)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M342 M344:M345">
-    <cfRule type="containsText" dxfId="185" priority="365" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="186" priority="366" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",M342)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N342 N344:N345">
-    <cfRule type="containsText" dxfId="184" priority="364" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="185" priority="365" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",N342)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P409:X409">
-    <cfRule type="containsText" dxfId="183" priority="363" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="184" priority="364" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",P409)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F409">
-    <cfRule type="containsText" dxfId="182" priority="362" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="183" priority="363" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",F409)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I409">
-    <cfRule type="containsText" dxfId="181" priority="360" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="182" priority="361" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",I409)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J409">
-    <cfRule type="containsText" dxfId="180" priority="359" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="181" priority="360" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",J409)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K409">
-    <cfRule type="containsText" dxfId="179" priority="358" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="180" priority="359" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",K409)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L409">
-    <cfRule type="containsText" dxfId="178" priority="357" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="179" priority="358" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",L409)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M409">
-    <cfRule type="containsText" dxfId="177" priority="356" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="178" priority="357" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",M409)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N409">
-    <cfRule type="containsText" dxfId="176" priority="355" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="177" priority="356" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",N409)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B505:B513">
-    <cfRule type="containsText" dxfId="175" priority="353" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="176" priority="354" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B505)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B514">
-    <cfRule type="containsText" dxfId="174" priority="332" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="175" priority="333" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B514)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B111:B114">
-    <cfRule type="containsText" dxfId="173" priority="320" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="174" priority="321" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B111)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B306 B296">
-    <cfRule type="containsText" dxfId="172" priority="321" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="173" priority="322" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B296)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B467:B475">
-    <cfRule type="containsText" dxfId="171" priority="318" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="172" priority="319" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B467)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B307:B321">
-    <cfRule type="containsText" dxfId="170" priority="319" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="171" priority="320" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B307)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B516">
-    <cfRule type="containsText" dxfId="169" priority="317" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="170" priority="318" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B516)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B450">
-    <cfRule type="containsText" dxfId="168" priority="315" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="169" priority="316" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B450)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B449">
-    <cfRule type="containsText" dxfId="167" priority="314" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="168" priority="315" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B449)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B322:B448">
-    <cfRule type="containsText" dxfId="166" priority="313" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="167" priority="314" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B322)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G504">
-    <cfRule type="containsText" dxfId="165" priority="293" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="166" priority="294" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G504)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C37 C39:C40">
-    <cfRule type="containsText" dxfId="164" priority="288" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="165" priority="289" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",C37)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E409">
-    <cfRule type="containsText" dxfId="163" priority="286" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="164" priority="287" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",E409)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M112:N112">
-    <cfRule type="containsText" dxfId="162" priority="279" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="163" priority="280" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",M112)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C71:D71">
-    <cfRule type="containsText" dxfId="161" priority="274" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="162" priority="275" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",C71)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C92:D92">
-    <cfRule type="containsText" dxfId="160" priority="272" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="161" priority="273" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",C92)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C129:D130">
-    <cfRule type="containsText" dxfId="159" priority="247" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="160" priority="248" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",C129)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G126:G130 M126:N130">
-    <cfRule type="containsText" dxfId="158" priority="246" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="159" priority="247" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G126)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B169:B171">
-    <cfRule type="containsText" dxfId="157" priority="245" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="158" priority="246" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B169)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G169:G170">
-    <cfRule type="containsText" dxfId="156" priority="244" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="157" priority="245" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G169)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H169:N170">
-    <cfRule type="containsText" dxfId="155" priority="243" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="156" priority="244" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",H169)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M446:N449 M438:N443 M420:N427 M92:N92 M87:N87 M71:N71 M54:N56 M50:N50 M37:N37 M39:N40">
-    <cfRule type="containsText" dxfId="154" priority="241" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="155" priority="242" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",M37)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M65:N65 G65">
-    <cfRule type="containsText" dxfId="153" priority="236" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="154" priority="237" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G65)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B64:B65">
-    <cfRule type="containsText" dxfId="152" priority="238" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="153" priority="239" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B64)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M64:N64 G64">
-    <cfRule type="containsText" dxfId="151" priority="237" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="152" priority="238" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G64)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B72:B73">
-    <cfRule type="containsText" dxfId="150" priority="232" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="151" priority="233" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B72)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M72:N72">
-    <cfRule type="containsText" dxfId="149" priority="234" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="150" priority="235" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",M72)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M73:N73">
-    <cfRule type="containsText" dxfId="148" priority="233" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="149" priority="234" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",M73)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B96:D107">
-    <cfRule type="containsText" dxfId="147" priority="229" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="148" priority="230" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B96)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M96:N107 G96:G107">
-    <cfRule type="containsText" dxfId="146" priority="230" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="147" priority="231" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G96)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M83:N83 G83">
-    <cfRule type="containsText" dxfId="145" priority="215" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="146" priority="216" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G83)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M82:N82 G82">
-    <cfRule type="containsText" dxfId="144" priority="214" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="145" priority="215" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G82)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G207:N207">
-    <cfRule type="containsText" dxfId="143" priority="222" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="144" priority="223" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G207)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B146:B147">
-    <cfRule type="containsText" dxfId="142" priority="224" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="143" priority="225" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B146)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G146:G147 M146:N147">
-    <cfRule type="containsText" dxfId="141" priority="223" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="142" priority="224" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G146)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B82">
-    <cfRule type="containsText" dxfId="140" priority="216" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="141" priority="217" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B82)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G123 M123:N123">
-    <cfRule type="containsText" dxfId="139" priority="213" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="140" priority="214" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G123)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B140:B141">
-    <cfRule type="containsText" dxfId="138" priority="210" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="139" priority="211" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B140)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G140:G141 M140:N141">
-    <cfRule type="containsText" dxfId="137" priority="209" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="138" priority="210" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G140)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B198:B200">
-    <cfRule type="containsText" dxfId="136" priority="160" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="137" priority="161" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B198)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M198:N200 G198:G200">
-    <cfRule type="containsText" dxfId="135" priority="159" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="136" priority="160" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G198)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B255:B258">
-    <cfRule type="containsText" dxfId="134" priority="149" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="135" priority="150" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B255)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B517:B546">
-    <cfRule type="containsText" dxfId="133" priority="146" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="134" priority="147" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B517)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G81">
-    <cfRule type="containsText" dxfId="132" priority="144" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="133" priority="145" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G81)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H171:N171">
-    <cfRule type="containsText" dxfId="131" priority="140" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="132" priority="141" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",H171)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F211:N211">
-    <cfRule type="containsText" dxfId="130" priority="138" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="131" priority="139" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",F211)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G171">
-    <cfRule type="containsText" dxfId="129" priority="141" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="130" priority="142" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G171)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F231:N249 F255:N256">
-    <cfRule type="containsText" dxfId="128" priority="135" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="129" priority="136" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",F231)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M117:N117 G117">
-    <cfRule type="containsText" dxfId="127" priority="134" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="128" priority="135" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G117)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B124:D124">
-    <cfRule type="containsText" dxfId="126" priority="133" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="127" priority="134" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B124)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G124 M124:N124">
-    <cfRule type="containsText" dxfId="125" priority="132" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="126" priority="133" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G124)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F250:N250">
-    <cfRule type="containsText" dxfId="124" priority="131" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="125" priority="132" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",F250)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1">
-    <cfRule type="containsText" dxfId="123" priority="130" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="124" priority="131" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",A1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G342">
-    <cfRule type="containsText" dxfId="122" priority="128" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="123" priority="129" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G342)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H342">
-    <cfRule type="containsText" dxfId="121" priority="127" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="122" priority="128" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",H342)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F340">
-    <cfRule type="containsText" dxfId="120" priority="126" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="121" priority="127" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",F340)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F350:F366">
-    <cfRule type="containsText" dxfId="119" priority="125" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="120" priority="126" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",F350)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I340">
-    <cfRule type="containsText" dxfId="118" priority="124" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="119" priority="125" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",I340)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J340">
-    <cfRule type="containsText" dxfId="117" priority="123" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="118" priority="124" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",J340)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K340">
-    <cfRule type="containsText" dxfId="116" priority="122" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="117" priority="123" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",K340)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L340">
-    <cfRule type="containsText" dxfId="115" priority="121" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="116" priority="122" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",L340)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M340">
-    <cfRule type="containsText" dxfId="114" priority="120" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="115" priority="121" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",M340)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N340">
-    <cfRule type="containsText" dxfId="113" priority="119" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="114" priority="120" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",N340)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H340">
-    <cfRule type="containsText" dxfId="112" priority="118" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="113" priority="119" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",H340)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G20:G24 M20:N24">
-    <cfRule type="containsText" dxfId="111" priority="114" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="112" priority="115" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G20)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G457:G465">
-    <cfRule type="containsText" dxfId="110" priority="113" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="111" priority="114" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G457)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M457:M465">
-    <cfRule type="containsText" dxfId="109" priority="112" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="110" priority="113" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",M457)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N457:N465">
-    <cfRule type="containsText" dxfId="108" priority="111" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="109" priority="112" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",N457)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M593:N593">
-    <cfRule type="containsText" dxfId="107" priority="110" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="108" priority="111" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",M593)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M594:N594">
-    <cfRule type="containsText" dxfId="106" priority="109" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="107" priority="110" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",M594)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F341">
-    <cfRule type="containsText" dxfId="105" priority="108" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="106" priority="109" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",F341)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I341">
-    <cfRule type="containsText" dxfId="104" priority="107" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="105" priority="108" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",I341)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J341">
-    <cfRule type="containsText" dxfId="103" priority="106" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="104" priority="107" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",J341)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K341">
-    <cfRule type="containsText" dxfId="102" priority="105" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="103" priority="106" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",K341)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L341">
-    <cfRule type="containsText" dxfId="101" priority="104" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="102" priority="105" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",L341)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M341">
-    <cfRule type="containsText" dxfId="100" priority="103" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="101" priority="104" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",M341)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N341">
-    <cfRule type="containsText" dxfId="99" priority="102" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="100" priority="103" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",N341)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H341">
-    <cfRule type="containsText" dxfId="98" priority="101" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="99" priority="102" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",H341)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E343:F343">
-    <cfRule type="containsText" dxfId="97" priority="100" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="98" priority="101" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",E343)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I343">
-    <cfRule type="containsText" dxfId="96" priority="99" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="97" priority="100" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",I343)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J343">
-    <cfRule type="containsText" dxfId="95" priority="98" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="96" priority="99" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",J343)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K343">
-    <cfRule type="containsText" dxfId="94" priority="97" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="95" priority="98" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",K343)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L343">
-    <cfRule type="containsText" dxfId="93" priority="96" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="94" priority="97" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",L343)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M343">
-    <cfRule type="containsText" dxfId="92" priority="95" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="93" priority="96" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",M343)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N343">
-    <cfRule type="containsText" dxfId="91" priority="94" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="92" priority="95" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",N343)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G343">
-    <cfRule type="containsText" dxfId="90" priority="93" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="91" priority="94" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G343)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H343">
-    <cfRule type="containsText" dxfId="89" priority="92" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="90" priority="93" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",H343)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H367:N367">
-    <cfRule type="containsText" dxfId="88" priority="91" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="89" priority="92" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",H367)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F367">
-    <cfRule type="containsText" dxfId="87" priority="90" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="88" priority="91" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",F367)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H368:N368">
-    <cfRule type="containsText" dxfId="86" priority="89" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="87" priority="90" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",H368)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F368">
-    <cfRule type="containsText" dxfId="85" priority="88" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="86" priority="89" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",F368)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H369:N369">
-    <cfRule type="containsText" dxfId="84" priority="87" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="85" priority="88" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",H369)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F369">
-    <cfRule type="containsText" dxfId="83" priority="86" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="84" priority="87" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",F369)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H379:N379">
-    <cfRule type="containsText" dxfId="82" priority="84" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="83" priority="85" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",H379)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F379">
-    <cfRule type="containsText" dxfId="81" priority="85" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="82" priority="86" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",F379)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H380:N384">
-    <cfRule type="containsText" dxfId="80" priority="82" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="81" priority="83" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",H380)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F380:F384">
-    <cfRule type="containsText" dxfId="79" priority="83" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="80" priority="84" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",F380)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M38:N38 G38 A38:C38">
-    <cfRule type="containsText" dxfId="78" priority="81" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="79" priority="82" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",A38)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A139:N139">
-    <cfRule type="containsText" dxfId="77" priority="76" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="78" priority="77" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",A139)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A125:N125">
-    <cfRule type="containsText" dxfId="76" priority="77" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="77" priority="78" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",A125)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A142:N143">
-    <cfRule type="containsText" dxfId="75" priority="75" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="76" priority="76" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",A142)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A172:A176 C172:N176">
-    <cfRule type="containsText" dxfId="74" priority="74" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="75" priority="75" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",A172)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A177:A196 C177:N196">
-    <cfRule type="containsText" dxfId="73" priority="73" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="74" priority="74" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",A177)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A251:N254">
-    <cfRule type="containsText" dxfId="72" priority="72" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="73" priority="73" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",A251)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M640:N640">
-    <cfRule type="containsText" dxfId="71" priority="23" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="72" priority="24" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",M640)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A261 H261:N261 C261:F261">
-    <cfRule type="containsText" dxfId="70" priority="70" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="71" priority="71" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",A261)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G447">
-    <cfRule type="containsText" dxfId="69" priority="68" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="70" priority="69" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G447)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G447">
-    <cfRule type="containsText" dxfId="68" priority="69" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="69" priority="70" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G447)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G448">
-    <cfRule type="containsText" dxfId="67" priority="66" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="68" priority="67" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G448)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G448">
-    <cfRule type="containsText" dxfId="66" priority="67" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="67" priority="68" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G448)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G449">
-    <cfRule type="containsText" dxfId="65" priority="64" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="66" priority="65" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G449)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G449">
-    <cfRule type="containsText" dxfId="64" priority="65" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="65" priority="66" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G449)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G450">
-    <cfRule type="containsText" dxfId="63" priority="62" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="64" priority="63" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G450)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G450">
-    <cfRule type="containsText" dxfId="62" priority="63" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="63" priority="64" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G450)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G451">
-    <cfRule type="containsText" dxfId="61" priority="60" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="62" priority="61" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G451)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G451">
-    <cfRule type="containsText" dxfId="60" priority="61" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="61" priority="62" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G451)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G452">
-    <cfRule type="containsText" dxfId="59" priority="58" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="60" priority="59" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G452)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G452">
-    <cfRule type="containsText" dxfId="58" priority="59" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="59" priority="60" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G452)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G453">
-    <cfRule type="containsText" dxfId="57" priority="56" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="58" priority="57" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G453)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G453">
-    <cfRule type="containsText" dxfId="56" priority="57" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="57" priority="58" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G453)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G454">
-    <cfRule type="containsText" dxfId="55" priority="54" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="56" priority="55" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G454)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G454">
-    <cfRule type="containsText" dxfId="54" priority="55" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="55" priority="56" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G454)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G455">
-    <cfRule type="containsText" dxfId="53" priority="52" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="54" priority="53" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G455)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G455">
-    <cfRule type="containsText" dxfId="52" priority="53" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="53" priority="54" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G455)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G466">
-    <cfRule type="containsText" dxfId="51" priority="50" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="52" priority="51" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G466)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G466">
-    <cfRule type="containsText" dxfId="50" priority="51" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="51" priority="52" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G466)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G467">
-    <cfRule type="containsText" dxfId="49" priority="48" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="50" priority="49" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G467)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G467">
-    <cfRule type="containsText" dxfId="48" priority="49" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="49" priority="50" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G467)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G468">
-    <cfRule type="containsText" dxfId="47" priority="46" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="48" priority="47" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G468)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G468">
-    <cfRule type="containsText" dxfId="46" priority="47" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="47" priority="48" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G468)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G469">
-    <cfRule type="containsText" dxfId="45" priority="44" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="46" priority="45" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G469)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G469">
-    <cfRule type="containsText" dxfId="44" priority="45" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="45" priority="46" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G469)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G470">
-    <cfRule type="containsText" dxfId="43" priority="42" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="44" priority="43" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G470)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G470">
-    <cfRule type="containsText" dxfId="42" priority="43" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="43" priority="44" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G470)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G471">
-    <cfRule type="containsText" dxfId="41" priority="40" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="42" priority="41" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G471)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G471">
-    <cfRule type="containsText" dxfId="40" priority="41" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="41" priority="42" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G471)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G472">
-    <cfRule type="containsText" dxfId="39" priority="38" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="40" priority="39" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G472)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G472">
-    <cfRule type="containsText" dxfId="38" priority="39" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="39" priority="40" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G472)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G473">
-    <cfRule type="containsText" dxfId="37" priority="36" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="38" priority="37" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G473)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G473">
-    <cfRule type="containsText" dxfId="36" priority="37" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="37" priority="38" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G473)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G474">
-    <cfRule type="containsText" dxfId="35" priority="34" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="36" priority="35" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G474)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G474">
-    <cfRule type="containsText" dxfId="34" priority="35" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="35" priority="36" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G474)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G475">
-    <cfRule type="containsText" dxfId="33" priority="32" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="34" priority="33" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G475)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G475">
-    <cfRule type="containsText" dxfId="32" priority="33" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="33" priority="34" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G475)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G476">
-    <cfRule type="containsText" dxfId="31" priority="30" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="32" priority="31" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G476)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G476">
-    <cfRule type="containsText" dxfId="30" priority="31" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="31" priority="32" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G476)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G477">
-    <cfRule type="containsText" dxfId="29" priority="28" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="30" priority="29" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G477)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G477">
-    <cfRule type="containsText" dxfId="28" priority="29" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="29" priority="30" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G477)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G478">
-    <cfRule type="containsText" dxfId="27" priority="26" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="28" priority="27" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G478)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G478">
-    <cfRule type="containsText" dxfId="26" priority="27" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="27" priority="28" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G478)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G479">
-    <cfRule type="containsText" dxfId="25" priority="24" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="26" priority="25" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G479)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G479">
-    <cfRule type="containsText" dxfId="24" priority="25" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="25" priority="26" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G479)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G31:G36 G25:G28 B25:C36 M25:N36">
-    <cfRule type="containsText" dxfId="23" priority="21" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="24" priority="22" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B25)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G29:G30">
-    <cfRule type="containsText" dxfId="22" priority="22" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="23" priority="23" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G29)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G4 M4:N4 A4:C4">
-    <cfRule type="containsText" dxfId="21" priority="18" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="22" priority="19" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",A4)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O2:O90 O92:O670">
-    <cfRule type="containsText" dxfId="20" priority="16" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="21" priority="17" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",O2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2:G3 B2:C3 M2:N3">
-    <cfRule type="containsText" dxfId="19" priority="17" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="20" priority="18" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G261">
-    <cfRule type="containsText" dxfId="18" priority="15" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="19" priority="16" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G261)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A91:G91 O91">
-    <cfRule type="containsText" dxfId="17" priority="14" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="18" priority="15" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",A91)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B261">
-    <cfRule type="containsText" dxfId="16" priority="13" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="17" priority="14" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B261)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B515">
-    <cfRule type="containsText" dxfId="15" priority="12" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="16" priority="13" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B515)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M515:N515 G515">
-    <cfRule type="containsText" dxfId="14" priority="11" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="15" priority="12" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G515)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B172:B196">
-    <cfRule type="containsText" dxfId="13" priority="8" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="14" priority="9" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B172)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B172:B196">
-    <cfRule type="containsText" dxfId="12" priority="9" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="13" priority="10" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B172)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A63:B63">
-    <cfRule type="containsText" dxfId="7" priority="7" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="8" priority="8" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",A63)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A108:B108">
-    <cfRule type="containsText" dxfId="5" priority="6" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="6" priority="7" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",A108)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B108:C108">
-    <cfRule type="containsText" dxfId="4" priority="5" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="5" priority="6" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B108)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B109">
-    <cfRule type="containsText" dxfId="3" priority="4" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="4" priority="5" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B109)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B110">
-    <cfRule type="containsText" dxfId="2" priority="3" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="3" priority="4" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B110)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B112">
-    <cfRule type="containsText" dxfId="1" priority="2" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="2" priority="3" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B112)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B113">
+    <cfRule type="containsText" dxfId="1" priority="2" operator="containsText" text="&lt;?&gt;">
+      <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B113)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B114">
     <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="&lt;?&gt;">
-      <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B113)))</formula>
+      <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B114)))</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -45336,7 +45351,7 @@
   </sheetData>
   <autoFilter ref="A1:B1" xr:uid="{AF62FD2E-052D-40DF-8032-68688A8C1623}"/>
   <conditionalFormatting sqref="A2:B479">
-    <cfRule type="containsText" dxfId="11" priority="2" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="12" priority="2" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",A2)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -45666,12 +45681,12 @@
     <mergeCell ref="A1:B1"/>
   </mergeCells>
   <conditionalFormatting sqref="A1 C1 A2:C37 A39:C1048576">
-    <cfRule type="containsText" dxfId="10" priority="31" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="11" priority="31" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",A1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A38:C38">
-    <cfRule type="containsText" dxfId="9" priority="6" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="10" priority="6" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",A38)))</formula>
     </cfRule>
   </conditionalFormatting>

--- a/1.0.4/matrix/Validatiematrix v1.2.xlsx
+++ b/1.0.4/matrix/Validatiematrix v1.2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Default.DESKTOP-NDDI22K\Documents\Geonovum\github\xml_validatietestcontent\1.0.4\matrix\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DF5BBE1-7C3F-4116-83D3-46F5FC54592B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BED64A4C-2BA8-43E5-8B65-1DA5800CE138}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="348" windowWidth="23256" windowHeight="12720" tabRatio="670" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9516" uniqueCount="1786">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9517" uniqueCount="1787">
   <si>
     <t>Is Opdracht.zip een geldige zip</t>
   </si>
@@ -5647,6 +5647,9 @@
   </si>
   <si>
     <t>2 (meldt fout LVBB1015)</t>
+  </si>
+  <si>
+    <t>2 (meldt fout LVBB1016)</t>
   </si>
 </sst>
 </file>
@@ -6334,7 +6337,27 @@
     <cellStyle name="Standaard 3 2" xfId="3" xr:uid="{A1634239-92B9-4583-AB04-DEBDF9A9A44B}"/>
     <cellStyle name="Standaard 3 3" xfId="5" xr:uid="{C77AD319-D6C6-4ABD-AE5A-A2C0A40B68E7}"/>
   </cellStyles>
-  <dxfs count="220">
+  <dxfs count="222">
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FFFF0000"/>
@@ -8903,8 +8926,8 @@
   <dimension ref="A1:O670"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A94" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A114" sqref="A114:B114"/>
+      <pane ySplit="1" topLeftCell="A100" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B115" sqref="B115"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -14412,11 +14435,11 @@
       </c>
     </row>
     <row r="115" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A115" s="38" t="s">
-        <v>1166</v>
-      </c>
-      <c r="B115" s="38">
-        <v>2</v>
+      <c r="A115" s="76" t="s">
+        <v>1166</v>
+      </c>
+      <c r="B115" s="81" t="s">
+        <v>1786</v>
       </c>
       <c r="C115" s="22" t="s">
         <v>528</v>
@@ -41174,1083 +41197,1093 @@
   </autoFilter>
   <phoneticPr fontId="5" type="noConversion"/>
   <conditionalFormatting sqref="F335:F339 C111:C115 F397:F408 F322:F333 F201 F269:F271 F267 F265 F259:F260 F223:F225 F219:F220 F214:F216 F203:F205 F291:G291 E450 H400:N408 G322:N339 E444:N445 M468:N475 B41:C53 B57:C62 B93:C95 B131:C138 M113:N116 G131:G138 M131:N138 B74:C81 M197:N197 G197 M41:N49 M51:N53 M57:N63 M74:N80 M88:N90 M93:N95 G51:G53 G57:G63 G74:G80 G88:G90 G93:G95 M577:N592 B66:C68 G66:G68 M66:N68 B109:C110 G108:G116 M108:N111 B148:C154 B83:C90 G84:G86 M84:N86 C116:D123 B144:C145 M144:N145 G144:G145 H155:N168 M148:N168 G148:G168 G201:N206 M451:N454 G505:G514 M504:N514 F208:N210 F212 F227:F230 G212:N230 G257:N260 F257 G118:G122 M118:N122 C126:D128 F370:F373 F346:G349 H346:N366 G370:G375 G385:G408 M596:N639 H370:N378 H385:N396 G39:G49 G37 A2:A3 B70:C70 M70:N70 G70 B1:O1 A126:B138 A140:B141 A144:B171 A197:B250 A255:B260 A262:B514 G262:N276 F262:F263 M641:N670 A37:B37 A25:A36 M5:N19 G5:G19 A516:B670 A515 M516:N575 G516:G670 A5:C24 A39:B62 A64:B68 A70:B90 A92:B107 A109:B124">
-    <cfRule type="containsText" dxfId="7" priority="374" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="9" priority="376" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",A1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B297:B305 B201:B206 B208:B250">
-    <cfRule type="containsText" dxfId="219" priority="469" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="221" priority="471" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B201)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F394:F396">
-    <cfRule type="containsText" dxfId="218" priority="459" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="220" priority="461" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",F394)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H290:N290">
-    <cfRule type="containsText" dxfId="217" priority="467" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="219" priority="469" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",H290)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M444:N445">
-    <cfRule type="containsText" dxfId="216" priority="458" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="218" priority="460" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",M444)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H445:L445">
-    <cfRule type="containsText" dxfId="215" priority="457" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="217" priority="459" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",H445)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G445:L445">
-    <cfRule type="containsText" dxfId="214" priority="456" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="216" priority="458" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G445)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M445:N445">
-    <cfRule type="containsText" dxfId="213" priority="454" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="215" priority="456" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",M445)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H444:L444">
-    <cfRule type="containsText" dxfId="212" priority="453" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="214" priority="455" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",H444)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G444:L444">
-    <cfRule type="containsText" dxfId="211" priority="452" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="213" priority="454" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G444)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M444:N444">
-    <cfRule type="containsText" dxfId="210" priority="450" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="212" priority="452" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",M444)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F334">
-    <cfRule type="containsText" dxfId="209" priority="449" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="211" priority="451" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",F334)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F374:F378 F385:F393">
-    <cfRule type="containsText" dxfId="208" priority="448" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="210" priority="450" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",F374)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H397:N398">
-    <cfRule type="containsText" dxfId="207" priority="447" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="209" priority="449" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",H397)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M455">
-    <cfRule type="containsText" dxfId="206" priority="416" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="208" priority="418" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",M455)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H450:N450">
-    <cfRule type="containsText" dxfId="205" priority="442" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="207" priority="444" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",H450)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N467">
-    <cfRule type="containsText" dxfId="204" priority="402" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="206" priority="404" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",N467)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H399:N399">
-    <cfRule type="containsText" dxfId="203" priority="385" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="205" priority="387" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",H399)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B466">
-    <cfRule type="containsText" dxfId="202" priority="433" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="204" priority="435" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B466)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M467">
-    <cfRule type="containsText" dxfId="201" priority="404" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="203" priority="406" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",M467)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G456">
-    <cfRule type="containsText" dxfId="200" priority="419" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="202" priority="421" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G456)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M466">
-    <cfRule type="containsText" dxfId="199" priority="408" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="201" priority="410" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",M466)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N455">
-    <cfRule type="containsText" dxfId="198" priority="414" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="200" priority="416" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",N455)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B455:B465">
-    <cfRule type="containsText" dxfId="197" priority="432" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="199" priority="434" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B455)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N466">
-    <cfRule type="containsText" dxfId="196" priority="406" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="198" priority="408" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",N466)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M456">
-    <cfRule type="containsText" dxfId="195" priority="412" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="197" priority="414" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",M456)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N456">
-    <cfRule type="containsText" dxfId="194" priority="410" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="196" priority="412" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",N456)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P342:X345">
-    <cfRule type="containsText" dxfId="193" priority="373" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="195" priority="375" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",P342)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E342:F342 E344:F345">
-    <cfRule type="containsText" dxfId="192" priority="372" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="194" priority="374" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",E342)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H344:H345">
-    <cfRule type="containsText" dxfId="191" priority="371" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="193" priority="373" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",H344)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I342 I344:I345">
-    <cfRule type="containsText" dxfId="190" priority="370" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="192" priority="372" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",I342)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J342 J344:J345">
-    <cfRule type="containsText" dxfId="189" priority="369" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="191" priority="371" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",J342)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K342 K344:K345">
-    <cfRule type="containsText" dxfId="188" priority="368" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="190" priority="370" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",K342)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L342 L344:L345">
-    <cfRule type="containsText" dxfId="187" priority="367" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="189" priority="369" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",L342)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M342 M344:M345">
-    <cfRule type="containsText" dxfId="186" priority="366" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="188" priority="368" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",M342)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N342 N344:N345">
-    <cfRule type="containsText" dxfId="185" priority="365" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="187" priority="367" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",N342)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P409:X409">
-    <cfRule type="containsText" dxfId="184" priority="364" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="186" priority="366" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",P409)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F409">
-    <cfRule type="containsText" dxfId="183" priority="363" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="185" priority="365" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",F409)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I409">
-    <cfRule type="containsText" dxfId="182" priority="361" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="184" priority="363" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",I409)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J409">
-    <cfRule type="containsText" dxfId="181" priority="360" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="183" priority="362" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",J409)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K409">
-    <cfRule type="containsText" dxfId="180" priority="359" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="182" priority="361" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",K409)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L409">
-    <cfRule type="containsText" dxfId="179" priority="358" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="181" priority="360" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",L409)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M409">
-    <cfRule type="containsText" dxfId="178" priority="357" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="180" priority="359" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",M409)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N409">
-    <cfRule type="containsText" dxfId="177" priority="356" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="179" priority="358" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",N409)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B505:B513">
-    <cfRule type="containsText" dxfId="176" priority="354" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="178" priority="356" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B505)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B514">
-    <cfRule type="containsText" dxfId="175" priority="333" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="177" priority="335" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B514)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B111:B114">
-    <cfRule type="containsText" dxfId="174" priority="321" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="176" priority="323" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B111)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B306 B296">
-    <cfRule type="containsText" dxfId="173" priority="322" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="175" priority="324" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B296)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B467:B475">
-    <cfRule type="containsText" dxfId="172" priority="319" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="174" priority="321" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B467)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B307:B321">
-    <cfRule type="containsText" dxfId="171" priority="320" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="173" priority="322" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B307)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B516">
-    <cfRule type="containsText" dxfId="170" priority="318" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="172" priority="320" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B516)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B450">
-    <cfRule type="containsText" dxfId="169" priority="316" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="171" priority="318" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B450)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B449">
-    <cfRule type="containsText" dxfId="168" priority="315" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="170" priority="317" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B449)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B322:B448">
-    <cfRule type="containsText" dxfId="167" priority="314" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="169" priority="316" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B322)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G504">
-    <cfRule type="containsText" dxfId="166" priority="294" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="168" priority="296" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G504)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C37 C39:C40">
-    <cfRule type="containsText" dxfId="165" priority="289" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="167" priority="291" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",C37)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E409">
-    <cfRule type="containsText" dxfId="164" priority="287" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="166" priority="289" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",E409)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M112:N112">
-    <cfRule type="containsText" dxfId="163" priority="280" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="165" priority="282" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",M112)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C71:D71">
-    <cfRule type="containsText" dxfId="162" priority="275" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="164" priority="277" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",C71)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C92:D92">
-    <cfRule type="containsText" dxfId="161" priority="273" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="163" priority="275" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",C92)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C129:D130">
-    <cfRule type="containsText" dxfId="160" priority="248" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="162" priority="250" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",C129)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G126:G130 M126:N130">
-    <cfRule type="containsText" dxfId="159" priority="247" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="161" priority="249" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G126)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B169:B171">
-    <cfRule type="containsText" dxfId="158" priority="246" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="160" priority="248" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B169)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G169:G170">
-    <cfRule type="containsText" dxfId="157" priority="245" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="159" priority="247" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G169)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H169:N170">
-    <cfRule type="containsText" dxfId="156" priority="244" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="158" priority="246" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",H169)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M446:N449 M438:N443 M420:N427 M92:N92 M87:N87 M71:N71 M54:N56 M50:N50 M37:N37 M39:N40">
-    <cfRule type="containsText" dxfId="155" priority="242" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="157" priority="244" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",M37)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M65:N65 G65">
-    <cfRule type="containsText" dxfId="154" priority="237" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="156" priority="239" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G65)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B64:B65">
-    <cfRule type="containsText" dxfId="153" priority="239" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="155" priority="241" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B64)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M64:N64 G64">
-    <cfRule type="containsText" dxfId="152" priority="238" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="154" priority="240" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G64)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B72:B73">
-    <cfRule type="containsText" dxfId="151" priority="233" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="153" priority="235" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B72)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M72:N72">
-    <cfRule type="containsText" dxfId="150" priority="235" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="152" priority="237" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",M72)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M73:N73">
-    <cfRule type="containsText" dxfId="149" priority="234" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="151" priority="236" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",M73)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B96:D107">
-    <cfRule type="containsText" dxfId="148" priority="230" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="150" priority="232" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B96)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M96:N107 G96:G107">
-    <cfRule type="containsText" dxfId="147" priority="231" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="149" priority="233" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G96)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M83:N83 G83">
-    <cfRule type="containsText" dxfId="146" priority="216" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="148" priority="218" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G83)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M82:N82 G82">
-    <cfRule type="containsText" dxfId="145" priority="215" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="147" priority="217" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G82)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G207:N207">
-    <cfRule type="containsText" dxfId="144" priority="223" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="146" priority="225" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G207)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B146:B147">
-    <cfRule type="containsText" dxfId="143" priority="225" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="145" priority="227" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B146)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G146:G147 M146:N147">
-    <cfRule type="containsText" dxfId="142" priority="224" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="144" priority="226" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G146)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B82">
-    <cfRule type="containsText" dxfId="141" priority="217" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="143" priority="219" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B82)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G123 M123:N123">
-    <cfRule type="containsText" dxfId="140" priority="214" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="142" priority="216" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G123)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B140:B141">
-    <cfRule type="containsText" dxfId="139" priority="211" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="141" priority="213" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B140)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G140:G141 M140:N141">
-    <cfRule type="containsText" dxfId="138" priority="210" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="140" priority="212" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G140)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B198:B200">
-    <cfRule type="containsText" dxfId="137" priority="161" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="139" priority="163" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B198)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M198:N200 G198:G200">
-    <cfRule type="containsText" dxfId="136" priority="160" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="138" priority="162" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G198)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B255:B258">
-    <cfRule type="containsText" dxfId="135" priority="150" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="137" priority="152" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B255)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B517:B546">
-    <cfRule type="containsText" dxfId="134" priority="147" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="136" priority="149" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B517)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G81">
-    <cfRule type="containsText" dxfId="133" priority="145" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="135" priority="147" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G81)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H171:N171">
-    <cfRule type="containsText" dxfId="132" priority="141" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="134" priority="143" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",H171)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F211:N211">
-    <cfRule type="containsText" dxfId="131" priority="139" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="133" priority="141" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",F211)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G171">
-    <cfRule type="containsText" dxfId="130" priority="142" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="132" priority="144" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G171)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F231:N249 F255:N256">
-    <cfRule type="containsText" dxfId="129" priority="136" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="131" priority="138" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",F231)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M117:N117 G117">
-    <cfRule type="containsText" dxfId="128" priority="135" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="130" priority="137" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G117)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B124:D124">
-    <cfRule type="containsText" dxfId="127" priority="134" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="129" priority="136" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B124)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G124 M124:N124">
-    <cfRule type="containsText" dxfId="126" priority="133" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="128" priority="135" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G124)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F250:N250">
-    <cfRule type="containsText" dxfId="125" priority="132" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="127" priority="134" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",F250)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1">
-    <cfRule type="containsText" dxfId="124" priority="131" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="126" priority="133" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",A1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G342">
-    <cfRule type="containsText" dxfId="123" priority="129" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="125" priority="131" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G342)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H342">
-    <cfRule type="containsText" dxfId="122" priority="128" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="124" priority="130" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",H342)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F340">
-    <cfRule type="containsText" dxfId="121" priority="127" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="123" priority="129" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",F340)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F350:F366">
-    <cfRule type="containsText" dxfId="120" priority="126" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="122" priority="128" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",F350)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I340">
-    <cfRule type="containsText" dxfId="119" priority="125" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="121" priority="127" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",I340)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J340">
-    <cfRule type="containsText" dxfId="118" priority="124" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="120" priority="126" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",J340)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K340">
-    <cfRule type="containsText" dxfId="117" priority="123" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="119" priority="125" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",K340)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L340">
-    <cfRule type="containsText" dxfId="116" priority="122" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="118" priority="124" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",L340)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M340">
-    <cfRule type="containsText" dxfId="115" priority="121" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="117" priority="123" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",M340)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N340">
-    <cfRule type="containsText" dxfId="114" priority="120" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="116" priority="122" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",N340)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H340">
-    <cfRule type="containsText" dxfId="113" priority="119" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="115" priority="121" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",H340)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G20:G24 M20:N24">
-    <cfRule type="containsText" dxfId="112" priority="115" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="114" priority="117" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G20)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G457:G465">
-    <cfRule type="containsText" dxfId="111" priority="114" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="113" priority="116" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G457)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M457:M465">
-    <cfRule type="containsText" dxfId="110" priority="113" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="112" priority="115" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",M457)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N457:N465">
-    <cfRule type="containsText" dxfId="109" priority="112" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="111" priority="114" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",N457)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M593:N593">
-    <cfRule type="containsText" dxfId="108" priority="111" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="110" priority="113" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",M593)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M594:N594">
-    <cfRule type="containsText" dxfId="107" priority="110" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="109" priority="112" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",M594)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F341">
-    <cfRule type="containsText" dxfId="106" priority="109" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="108" priority="111" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",F341)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I341">
-    <cfRule type="containsText" dxfId="105" priority="108" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="107" priority="110" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",I341)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J341">
-    <cfRule type="containsText" dxfId="104" priority="107" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="106" priority="109" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",J341)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K341">
-    <cfRule type="containsText" dxfId="103" priority="106" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="105" priority="108" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",K341)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L341">
-    <cfRule type="containsText" dxfId="102" priority="105" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="104" priority="107" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",L341)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M341">
-    <cfRule type="containsText" dxfId="101" priority="104" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="103" priority="106" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",M341)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N341">
-    <cfRule type="containsText" dxfId="100" priority="103" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="102" priority="105" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",N341)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H341">
-    <cfRule type="containsText" dxfId="99" priority="102" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="101" priority="104" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",H341)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E343:F343">
-    <cfRule type="containsText" dxfId="98" priority="101" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="100" priority="103" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",E343)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I343">
-    <cfRule type="containsText" dxfId="97" priority="100" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="99" priority="102" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",I343)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J343">
-    <cfRule type="containsText" dxfId="96" priority="99" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="98" priority="101" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",J343)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K343">
-    <cfRule type="containsText" dxfId="95" priority="98" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="97" priority="100" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",K343)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L343">
-    <cfRule type="containsText" dxfId="94" priority="97" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="96" priority="99" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",L343)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M343">
-    <cfRule type="containsText" dxfId="93" priority="96" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="95" priority="98" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",M343)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N343">
-    <cfRule type="containsText" dxfId="92" priority="95" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="94" priority="97" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",N343)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G343">
-    <cfRule type="containsText" dxfId="91" priority="94" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="93" priority="96" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G343)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H343">
-    <cfRule type="containsText" dxfId="90" priority="93" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="92" priority="95" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",H343)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H367:N367">
-    <cfRule type="containsText" dxfId="89" priority="92" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="91" priority="94" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",H367)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F367">
-    <cfRule type="containsText" dxfId="88" priority="91" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="90" priority="93" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",F367)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H368:N368">
-    <cfRule type="containsText" dxfId="87" priority="90" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="89" priority="92" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",H368)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F368">
-    <cfRule type="containsText" dxfId="86" priority="89" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="88" priority="91" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",F368)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H369:N369">
-    <cfRule type="containsText" dxfId="85" priority="88" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="87" priority="90" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",H369)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F369">
-    <cfRule type="containsText" dxfId="84" priority="87" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="86" priority="89" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",F369)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H379:N379">
-    <cfRule type="containsText" dxfId="83" priority="85" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="85" priority="87" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",H379)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F379">
-    <cfRule type="containsText" dxfId="82" priority="86" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="84" priority="88" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",F379)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H380:N384">
-    <cfRule type="containsText" dxfId="81" priority="83" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="83" priority="85" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",H380)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F380:F384">
-    <cfRule type="containsText" dxfId="80" priority="84" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="82" priority="86" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",F380)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M38:N38 G38 A38:C38">
-    <cfRule type="containsText" dxfId="79" priority="82" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="81" priority="84" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",A38)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A139:N139">
-    <cfRule type="containsText" dxfId="78" priority="77" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="80" priority="79" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",A139)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A125:N125">
-    <cfRule type="containsText" dxfId="77" priority="78" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="79" priority="80" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",A125)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A142:N143">
-    <cfRule type="containsText" dxfId="76" priority="76" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="78" priority="78" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",A142)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A172:A176 C172:N176">
-    <cfRule type="containsText" dxfId="75" priority="75" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="77" priority="77" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",A172)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A177:A196 C177:N196">
-    <cfRule type="containsText" dxfId="74" priority="74" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="76" priority="76" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",A177)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A251:N254">
-    <cfRule type="containsText" dxfId="73" priority="73" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="75" priority="75" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",A251)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M640:N640">
-    <cfRule type="containsText" dxfId="72" priority="24" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="74" priority="26" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",M640)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A261 H261:N261 C261:F261">
-    <cfRule type="containsText" dxfId="71" priority="71" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="73" priority="73" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",A261)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G447">
-    <cfRule type="containsText" dxfId="70" priority="69" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="72" priority="71" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G447)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G447">
-    <cfRule type="containsText" dxfId="69" priority="70" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="71" priority="72" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G447)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G448">
-    <cfRule type="containsText" dxfId="68" priority="67" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="70" priority="69" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G448)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G448">
-    <cfRule type="containsText" dxfId="67" priority="68" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="69" priority="70" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G448)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G449">
-    <cfRule type="containsText" dxfId="66" priority="65" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="68" priority="67" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G449)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G449">
-    <cfRule type="containsText" dxfId="65" priority="66" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="67" priority="68" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G449)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G450">
-    <cfRule type="containsText" dxfId="64" priority="63" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="66" priority="65" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G450)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G450">
-    <cfRule type="containsText" dxfId="63" priority="64" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="65" priority="66" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G450)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G451">
-    <cfRule type="containsText" dxfId="62" priority="61" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="64" priority="63" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G451)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G451">
-    <cfRule type="containsText" dxfId="61" priority="62" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="63" priority="64" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G451)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G452">
-    <cfRule type="containsText" dxfId="60" priority="59" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="62" priority="61" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G452)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G452">
-    <cfRule type="containsText" dxfId="59" priority="60" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="61" priority="62" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G452)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G453">
-    <cfRule type="containsText" dxfId="58" priority="57" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="60" priority="59" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G453)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G453">
-    <cfRule type="containsText" dxfId="57" priority="58" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="59" priority="60" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G453)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G454">
-    <cfRule type="containsText" dxfId="56" priority="55" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="58" priority="57" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G454)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G454">
-    <cfRule type="containsText" dxfId="55" priority="56" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="57" priority="58" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G454)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G455">
-    <cfRule type="containsText" dxfId="54" priority="53" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="56" priority="55" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G455)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G455">
-    <cfRule type="containsText" dxfId="53" priority="54" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="55" priority="56" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G455)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G466">
-    <cfRule type="containsText" dxfId="52" priority="51" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="54" priority="53" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G466)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G466">
-    <cfRule type="containsText" dxfId="51" priority="52" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="53" priority="54" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G466)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G467">
-    <cfRule type="containsText" dxfId="50" priority="49" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="52" priority="51" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G467)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G467">
-    <cfRule type="containsText" dxfId="49" priority="50" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="51" priority="52" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G467)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G468">
-    <cfRule type="containsText" dxfId="48" priority="47" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="50" priority="49" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G468)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G468">
-    <cfRule type="containsText" dxfId="47" priority="48" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="49" priority="50" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G468)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G469">
-    <cfRule type="containsText" dxfId="46" priority="45" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="48" priority="47" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G469)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G469">
-    <cfRule type="containsText" dxfId="45" priority="46" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="47" priority="48" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G469)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G470">
-    <cfRule type="containsText" dxfId="44" priority="43" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="46" priority="45" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G470)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G470">
-    <cfRule type="containsText" dxfId="43" priority="44" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="45" priority="46" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G470)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G471">
-    <cfRule type="containsText" dxfId="42" priority="41" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="44" priority="43" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G471)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G471">
-    <cfRule type="containsText" dxfId="41" priority="42" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="43" priority="44" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G471)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G472">
-    <cfRule type="containsText" dxfId="40" priority="39" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="42" priority="41" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G472)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G472">
-    <cfRule type="containsText" dxfId="39" priority="40" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="41" priority="42" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G472)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G473">
-    <cfRule type="containsText" dxfId="38" priority="37" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="40" priority="39" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G473)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G473">
-    <cfRule type="containsText" dxfId="37" priority="38" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="39" priority="40" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G473)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G474">
-    <cfRule type="containsText" dxfId="36" priority="35" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="38" priority="37" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G474)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G474">
-    <cfRule type="containsText" dxfId="35" priority="36" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="37" priority="38" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G474)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G475">
-    <cfRule type="containsText" dxfId="34" priority="33" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="36" priority="35" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G475)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G475">
-    <cfRule type="containsText" dxfId="33" priority="34" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="35" priority="36" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G475)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G476">
-    <cfRule type="containsText" dxfId="32" priority="31" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="34" priority="33" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G476)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G476">
-    <cfRule type="containsText" dxfId="31" priority="32" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="33" priority="34" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G476)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G477">
-    <cfRule type="containsText" dxfId="30" priority="29" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="32" priority="31" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G477)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G477">
-    <cfRule type="containsText" dxfId="29" priority="30" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="31" priority="32" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G477)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G478">
-    <cfRule type="containsText" dxfId="28" priority="27" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="30" priority="29" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G478)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G478">
-    <cfRule type="containsText" dxfId="27" priority="28" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="29" priority="30" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G478)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G479">
-    <cfRule type="containsText" dxfId="26" priority="25" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="28" priority="27" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G479)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G479">
-    <cfRule type="containsText" dxfId="25" priority="26" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="27" priority="28" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G479)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G31:G36 G25:G28 B25:C36 M25:N36">
-    <cfRule type="containsText" dxfId="24" priority="22" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="26" priority="24" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B25)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G29:G30">
-    <cfRule type="containsText" dxfId="23" priority="23" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="25" priority="25" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G29)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G4 M4:N4 A4:C4">
-    <cfRule type="containsText" dxfId="22" priority="19" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="24" priority="21" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",A4)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O2:O90 O92:O670">
-    <cfRule type="containsText" dxfId="21" priority="17" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="23" priority="19" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",O2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2:G3 B2:C3 M2:N3">
-    <cfRule type="containsText" dxfId="20" priority="18" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="22" priority="20" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G261">
-    <cfRule type="containsText" dxfId="19" priority="16" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="21" priority="18" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G261)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A91:G91 O91">
-    <cfRule type="containsText" dxfId="18" priority="15" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="20" priority="17" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",A91)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B261">
-    <cfRule type="containsText" dxfId="17" priority="14" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="19" priority="16" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B261)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B515">
-    <cfRule type="containsText" dxfId="16" priority="13" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="18" priority="15" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B515)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M515:N515 G515">
-    <cfRule type="containsText" dxfId="15" priority="12" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="17" priority="14" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G515)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B172:B196">
-    <cfRule type="containsText" dxfId="14" priority="9" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="16" priority="11" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B172)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B172:B196">
-    <cfRule type="containsText" dxfId="13" priority="10" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="15" priority="12" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B172)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A63:B63">
-    <cfRule type="containsText" dxfId="8" priority="8" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="10" priority="10" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",A63)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A108:B108">
-    <cfRule type="containsText" dxfId="6" priority="7" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="8" priority="9" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",A108)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B108:C108">
-    <cfRule type="containsText" dxfId="5" priority="6" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="7" priority="8" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B108)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B109">
-    <cfRule type="containsText" dxfId="4" priority="5" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="6" priority="7" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B109)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B110">
-    <cfRule type="containsText" dxfId="3" priority="4" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="5" priority="6" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B110)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B112">
-    <cfRule type="containsText" dxfId="2" priority="3" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="4" priority="5" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B112)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B113">
-    <cfRule type="containsText" dxfId="1" priority="2" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="3" priority="4" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B113)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B114">
+    <cfRule type="containsText" dxfId="2" priority="3" operator="containsText" text="&lt;?&gt;">
+      <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B114)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B115">
+    <cfRule type="containsText" dxfId="1" priority="2" operator="containsText" text="&lt;?&gt;">
+      <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B115)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B115">
     <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="&lt;?&gt;">
-      <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B114)))</formula>
+      <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B115)))</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -45351,7 +45384,7 @@
   </sheetData>
   <autoFilter ref="A1:B1" xr:uid="{AF62FD2E-052D-40DF-8032-68688A8C1623}"/>
   <conditionalFormatting sqref="A2:B479">
-    <cfRule type="containsText" dxfId="12" priority="2" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="14" priority="2" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",A2)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -45681,12 +45714,12 @@
     <mergeCell ref="A1:B1"/>
   </mergeCells>
   <conditionalFormatting sqref="A1 C1 A2:C37 A39:C1048576">
-    <cfRule type="containsText" dxfId="11" priority="31" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="13" priority="31" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",A1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A38:C38">
-    <cfRule type="containsText" dxfId="10" priority="6" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="12" priority="6" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",A38)))</formula>
     </cfRule>
   </conditionalFormatting>

--- a/1.0.4/matrix/Validatiematrix v1.2.xlsx
+++ b/1.0.4/matrix/Validatiematrix v1.2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Default.DESKTOP-NDDI22K\Documents\Geonovum\github\xml_validatietestcontent\1.0.4\matrix\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BED64A4C-2BA8-43E5-8B65-1DA5800CE138}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{238630A2-97A6-466B-8F73-2221BECEB95C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="348" windowWidth="23256" windowHeight="12720" tabRatio="670" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -6337,7 +6337,27 @@
     <cellStyle name="Standaard 3 2" xfId="3" xr:uid="{A1634239-92B9-4583-AB04-DEBDF9A9A44B}"/>
     <cellStyle name="Standaard 3 3" xfId="5" xr:uid="{C77AD319-D6C6-4ABD-AE5A-A2C0A40B68E7}"/>
   </cellStyles>
-  <dxfs count="222">
+  <dxfs count="224">
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FFFF0000"/>
@@ -8926,8 +8946,8 @@
   <dimension ref="A1:O670"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A100" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B115" sqref="B115"/>
+      <pane ySplit="1" topLeftCell="A101" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A119" sqref="A119:B119"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -14627,10 +14647,10 @@
       </c>
     </row>
     <row r="119" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A119" s="38" t="s">
-        <v>1166</v>
-      </c>
-      <c r="B119" s="38">
+      <c r="A119" s="76" t="s">
+        <v>1166</v>
+      </c>
+      <c r="B119" s="79">
         <v>2</v>
       </c>
       <c r="C119" s="18" t="s">
@@ -41196,1094 +41216,1104 @@
     </filterColumn>
   </autoFilter>
   <phoneticPr fontId="5" type="noConversion"/>
-  <conditionalFormatting sqref="F335:F339 C111:C115 F397:F408 F322:F333 F201 F269:F271 F267 F265 F259:F260 F223:F225 F219:F220 F214:F216 F203:F205 F291:G291 E450 H400:N408 G322:N339 E444:N445 M468:N475 B41:C53 B57:C62 B93:C95 B131:C138 M113:N116 G131:G138 M131:N138 B74:C81 M197:N197 G197 M41:N49 M51:N53 M57:N63 M74:N80 M88:N90 M93:N95 G51:G53 G57:G63 G74:G80 G88:G90 G93:G95 M577:N592 B66:C68 G66:G68 M66:N68 B109:C110 G108:G116 M108:N111 B148:C154 B83:C90 G84:G86 M84:N86 C116:D123 B144:C145 M144:N145 G144:G145 H155:N168 M148:N168 G148:G168 G201:N206 M451:N454 G505:G514 M504:N514 F208:N210 F212 F227:F230 G212:N230 G257:N260 F257 G118:G122 M118:N122 C126:D128 F370:F373 F346:G349 H346:N366 G370:G375 G385:G408 M596:N639 H370:N378 H385:N396 G39:G49 G37 A2:A3 B70:C70 M70:N70 G70 B1:O1 A126:B138 A140:B141 A144:B171 A197:B250 A255:B260 A262:B514 G262:N276 F262:F263 M641:N670 A37:B37 A25:A36 M5:N19 G5:G19 A516:B670 A515 M516:N575 G516:G670 A5:C24 A39:B62 A64:B68 A70:B90 A92:B107 A109:B124">
-    <cfRule type="containsText" dxfId="9" priority="376" operator="containsText" text="&lt;?&gt;">
+  <conditionalFormatting sqref="F335:F339 C111:C115 F397:F408 F322:F333 F201 F269:F271 F267 F265 F259:F260 F223:F225 F219:F220 F214:F216 F203:F205 F291:G291 E450 H400:N408 G322:N339 E444:N445 M468:N475 B41:C53 B57:C62 B93:C95 B131:C138 M113:N116 G131:G138 M131:N138 B74:C81 M197:N197 G197 M41:N49 M51:N53 M57:N63 M74:N80 M88:N90 M93:N95 G51:G53 G57:G63 G74:G80 G88:G90 G93:G95 M577:N592 B66:C68 G66:G68 M66:N68 B109:C110 G108:G116 M108:N111 B148:C154 B83:C90 G84:G86 M84:N86 C116:D123 B144:C145 M144:N145 G144:G145 H155:N168 M148:N168 G148:G168 G201:N206 M451:N454 G505:G514 M504:N514 F208:N210 F212 F227:F230 G212:N230 G257:N260 F257 G118:G122 M118:N122 C126:D128 F370:F373 F346:G349 H346:N366 G370:G375 G385:G408 M596:N639 H370:N378 H385:N396 G39:G49 G37 A2:A3 B70:C70 M70:N70 G70 B1:O1 A126:B138 A140:B141 A144:B171 A197:B250 A255:B260 A262:B514 G262:N276 F262:F263 M641:N670 A37:B37 A25:A36 M5:N19 G5:G19 A516:B670 A515 M516:N575 G516:G670 A5:C24 A39:B62 A64:B68 A70:B90 A92:B107 A109:B118 A120:B124">
+    <cfRule type="containsText" dxfId="11" priority="378" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",A1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B297:B305 B201:B206 B208:B250">
-    <cfRule type="containsText" dxfId="221" priority="471" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="223" priority="473" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B201)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F394:F396">
-    <cfRule type="containsText" dxfId="220" priority="461" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="222" priority="463" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",F394)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H290:N290">
-    <cfRule type="containsText" dxfId="219" priority="469" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="221" priority="471" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",H290)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M444:N445">
-    <cfRule type="containsText" dxfId="218" priority="460" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="220" priority="462" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",M444)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H445:L445">
-    <cfRule type="containsText" dxfId="217" priority="459" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="219" priority="461" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",H445)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G445:L445">
-    <cfRule type="containsText" dxfId="216" priority="458" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="218" priority="460" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G445)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M445:N445">
-    <cfRule type="containsText" dxfId="215" priority="456" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="217" priority="458" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",M445)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H444:L444">
-    <cfRule type="containsText" dxfId="214" priority="455" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="216" priority="457" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",H444)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G444:L444">
-    <cfRule type="containsText" dxfId="213" priority="454" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="215" priority="456" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G444)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M444:N444">
-    <cfRule type="containsText" dxfId="212" priority="452" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="214" priority="454" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",M444)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F334">
-    <cfRule type="containsText" dxfId="211" priority="451" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="213" priority="453" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",F334)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F374:F378 F385:F393">
-    <cfRule type="containsText" dxfId="210" priority="450" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="212" priority="452" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",F374)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H397:N398">
-    <cfRule type="containsText" dxfId="209" priority="449" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="211" priority="451" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",H397)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M455">
-    <cfRule type="containsText" dxfId="208" priority="418" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="210" priority="420" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",M455)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H450:N450">
-    <cfRule type="containsText" dxfId="207" priority="444" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="209" priority="446" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",H450)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N467">
-    <cfRule type="containsText" dxfId="206" priority="404" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="208" priority="406" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",N467)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H399:N399">
-    <cfRule type="containsText" dxfId="205" priority="387" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="207" priority="389" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",H399)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B466">
-    <cfRule type="containsText" dxfId="204" priority="435" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="206" priority="437" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B466)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M467">
-    <cfRule type="containsText" dxfId="203" priority="406" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="205" priority="408" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",M467)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G456">
-    <cfRule type="containsText" dxfId="202" priority="421" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="204" priority="423" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G456)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M466">
-    <cfRule type="containsText" dxfId="201" priority="410" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="203" priority="412" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",M466)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N455">
-    <cfRule type="containsText" dxfId="200" priority="416" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="202" priority="418" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",N455)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B455:B465">
-    <cfRule type="containsText" dxfId="199" priority="434" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="201" priority="436" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B455)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N466">
-    <cfRule type="containsText" dxfId="198" priority="408" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="200" priority="410" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",N466)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M456">
-    <cfRule type="containsText" dxfId="197" priority="414" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="199" priority="416" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",M456)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N456">
-    <cfRule type="containsText" dxfId="196" priority="412" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="198" priority="414" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",N456)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P342:X345">
-    <cfRule type="containsText" dxfId="195" priority="375" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="197" priority="377" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",P342)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E342:F342 E344:F345">
-    <cfRule type="containsText" dxfId="194" priority="374" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="196" priority="376" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",E342)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H344:H345">
-    <cfRule type="containsText" dxfId="193" priority="373" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="195" priority="375" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",H344)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I342 I344:I345">
-    <cfRule type="containsText" dxfId="192" priority="372" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="194" priority="374" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",I342)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J342 J344:J345">
-    <cfRule type="containsText" dxfId="191" priority="371" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="193" priority="373" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",J342)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K342 K344:K345">
-    <cfRule type="containsText" dxfId="190" priority="370" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="192" priority="372" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",K342)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L342 L344:L345">
-    <cfRule type="containsText" dxfId="189" priority="369" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="191" priority="371" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",L342)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M342 M344:M345">
-    <cfRule type="containsText" dxfId="188" priority="368" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="190" priority="370" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",M342)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N342 N344:N345">
-    <cfRule type="containsText" dxfId="187" priority="367" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="189" priority="369" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",N342)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P409:X409">
-    <cfRule type="containsText" dxfId="186" priority="366" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="188" priority="368" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",P409)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F409">
-    <cfRule type="containsText" dxfId="185" priority="365" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="187" priority="367" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",F409)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I409">
-    <cfRule type="containsText" dxfId="184" priority="363" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="186" priority="365" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",I409)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J409">
-    <cfRule type="containsText" dxfId="183" priority="362" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="185" priority="364" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",J409)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K409">
-    <cfRule type="containsText" dxfId="182" priority="361" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="184" priority="363" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",K409)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L409">
-    <cfRule type="containsText" dxfId="181" priority="360" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="183" priority="362" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",L409)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M409">
-    <cfRule type="containsText" dxfId="180" priority="359" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="182" priority="361" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",M409)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N409">
-    <cfRule type="containsText" dxfId="179" priority="358" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="181" priority="360" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",N409)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B505:B513">
-    <cfRule type="containsText" dxfId="178" priority="356" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="180" priority="358" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B505)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B514">
-    <cfRule type="containsText" dxfId="177" priority="335" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="179" priority="337" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B514)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B111:B114">
-    <cfRule type="containsText" dxfId="176" priority="323" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="178" priority="325" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B111)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B306 B296">
-    <cfRule type="containsText" dxfId="175" priority="324" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="177" priority="326" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B296)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B467:B475">
-    <cfRule type="containsText" dxfId="174" priority="321" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="176" priority="323" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B467)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B307:B321">
-    <cfRule type="containsText" dxfId="173" priority="322" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="175" priority="324" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B307)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B516">
-    <cfRule type="containsText" dxfId="172" priority="320" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="174" priority="322" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B516)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B450">
-    <cfRule type="containsText" dxfId="171" priority="318" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="173" priority="320" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B450)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B449">
-    <cfRule type="containsText" dxfId="170" priority="317" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="172" priority="319" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B449)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B322:B448">
-    <cfRule type="containsText" dxfId="169" priority="316" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="171" priority="318" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B322)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G504">
-    <cfRule type="containsText" dxfId="168" priority="296" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="170" priority="298" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G504)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C37 C39:C40">
-    <cfRule type="containsText" dxfId="167" priority="291" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="169" priority="293" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",C37)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E409">
-    <cfRule type="containsText" dxfId="166" priority="289" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="168" priority="291" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",E409)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M112:N112">
-    <cfRule type="containsText" dxfId="165" priority="282" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="167" priority="284" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",M112)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C71:D71">
-    <cfRule type="containsText" dxfId="164" priority="277" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="166" priority="279" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",C71)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C92:D92">
-    <cfRule type="containsText" dxfId="163" priority="275" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="165" priority="277" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",C92)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C129:D130">
-    <cfRule type="containsText" dxfId="162" priority="250" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="164" priority="252" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",C129)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G126:G130 M126:N130">
-    <cfRule type="containsText" dxfId="161" priority="249" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="163" priority="251" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G126)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B169:B171">
-    <cfRule type="containsText" dxfId="160" priority="248" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="162" priority="250" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B169)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G169:G170">
-    <cfRule type="containsText" dxfId="159" priority="247" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="161" priority="249" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G169)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H169:N170">
-    <cfRule type="containsText" dxfId="158" priority="246" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="160" priority="248" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",H169)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M446:N449 M438:N443 M420:N427 M92:N92 M87:N87 M71:N71 M54:N56 M50:N50 M37:N37 M39:N40">
-    <cfRule type="containsText" dxfId="157" priority="244" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="159" priority="246" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",M37)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M65:N65 G65">
-    <cfRule type="containsText" dxfId="156" priority="239" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="158" priority="241" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G65)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B64:B65">
-    <cfRule type="containsText" dxfId="155" priority="241" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="157" priority="243" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B64)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M64:N64 G64">
-    <cfRule type="containsText" dxfId="154" priority="240" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="156" priority="242" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G64)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B72:B73">
-    <cfRule type="containsText" dxfId="153" priority="235" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="155" priority="237" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B72)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M72:N72">
-    <cfRule type="containsText" dxfId="152" priority="237" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="154" priority="239" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",M72)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M73:N73">
-    <cfRule type="containsText" dxfId="151" priority="236" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="153" priority="238" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",M73)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B96:D107">
-    <cfRule type="containsText" dxfId="150" priority="232" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="152" priority="234" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B96)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M96:N107 G96:G107">
-    <cfRule type="containsText" dxfId="149" priority="233" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="151" priority="235" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G96)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M83:N83 G83">
-    <cfRule type="containsText" dxfId="148" priority="218" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="150" priority="220" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G83)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M82:N82 G82">
-    <cfRule type="containsText" dxfId="147" priority="217" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="149" priority="219" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G82)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G207:N207">
-    <cfRule type="containsText" dxfId="146" priority="225" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="148" priority="227" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G207)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B146:B147">
-    <cfRule type="containsText" dxfId="145" priority="227" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="147" priority="229" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B146)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G146:G147 M146:N147">
-    <cfRule type="containsText" dxfId="144" priority="226" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="146" priority="228" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G146)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B82">
-    <cfRule type="containsText" dxfId="143" priority="219" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="145" priority="221" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B82)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G123 M123:N123">
-    <cfRule type="containsText" dxfId="142" priority="216" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="144" priority="218" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G123)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B140:B141">
-    <cfRule type="containsText" dxfId="141" priority="213" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="143" priority="215" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B140)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G140:G141 M140:N141">
-    <cfRule type="containsText" dxfId="140" priority="212" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="142" priority="214" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G140)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B198:B200">
-    <cfRule type="containsText" dxfId="139" priority="163" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="141" priority="165" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B198)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M198:N200 G198:G200">
-    <cfRule type="containsText" dxfId="138" priority="162" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="140" priority="164" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G198)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B255:B258">
-    <cfRule type="containsText" dxfId="137" priority="152" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="139" priority="154" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B255)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B517:B546">
-    <cfRule type="containsText" dxfId="136" priority="149" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="138" priority="151" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B517)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G81">
-    <cfRule type="containsText" dxfId="135" priority="147" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="137" priority="149" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G81)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H171:N171">
-    <cfRule type="containsText" dxfId="134" priority="143" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="136" priority="145" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",H171)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F211:N211">
-    <cfRule type="containsText" dxfId="133" priority="141" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="135" priority="143" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",F211)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G171">
-    <cfRule type="containsText" dxfId="132" priority="144" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="134" priority="146" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G171)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F231:N249 F255:N256">
-    <cfRule type="containsText" dxfId="131" priority="138" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="133" priority="140" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",F231)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M117:N117 G117">
-    <cfRule type="containsText" dxfId="130" priority="137" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="132" priority="139" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G117)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B124:D124">
-    <cfRule type="containsText" dxfId="129" priority="136" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="131" priority="138" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B124)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G124 M124:N124">
-    <cfRule type="containsText" dxfId="128" priority="135" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="130" priority="137" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G124)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F250:N250">
-    <cfRule type="containsText" dxfId="127" priority="134" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="129" priority="136" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",F250)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1">
-    <cfRule type="containsText" dxfId="126" priority="133" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="128" priority="135" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",A1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G342">
-    <cfRule type="containsText" dxfId="125" priority="131" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="127" priority="133" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G342)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H342">
-    <cfRule type="containsText" dxfId="124" priority="130" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="126" priority="132" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",H342)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F340">
-    <cfRule type="containsText" dxfId="123" priority="129" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="125" priority="131" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",F340)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F350:F366">
-    <cfRule type="containsText" dxfId="122" priority="128" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="124" priority="130" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",F350)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I340">
-    <cfRule type="containsText" dxfId="121" priority="127" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="123" priority="129" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",I340)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J340">
-    <cfRule type="containsText" dxfId="120" priority="126" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="122" priority="128" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",J340)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K340">
-    <cfRule type="containsText" dxfId="119" priority="125" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="121" priority="127" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",K340)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L340">
-    <cfRule type="containsText" dxfId="118" priority="124" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="120" priority="126" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",L340)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M340">
-    <cfRule type="containsText" dxfId="117" priority="123" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="119" priority="125" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",M340)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N340">
-    <cfRule type="containsText" dxfId="116" priority="122" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="118" priority="124" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",N340)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H340">
-    <cfRule type="containsText" dxfId="115" priority="121" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="117" priority="123" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",H340)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G20:G24 M20:N24">
-    <cfRule type="containsText" dxfId="114" priority="117" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="116" priority="119" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G20)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G457:G465">
-    <cfRule type="containsText" dxfId="113" priority="116" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="115" priority="118" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G457)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M457:M465">
-    <cfRule type="containsText" dxfId="112" priority="115" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="114" priority="117" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",M457)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N457:N465">
-    <cfRule type="containsText" dxfId="111" priority="114" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="113" priority="116" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",N457)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M593:N593">
-    <cfRule type="containsText" dxfId="110" priority="113" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="112" priority="115" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",M593)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M594:N594">
-    <cfRule type="containsText" dxfId="109" priority="112" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="111" priority="114" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",M594)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F341">
-    <cfRule type="containsText" dxfId="108" priority="111" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="110" priority="113" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",F341)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I341">
-    <cfRule type="containsText" dxfId="107" priority="110" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="109" priority="112" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",I341)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J341">
-    <cfRule type="containsText" dxfId="106" priority="109" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="108" priority="111" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",J341)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K341">
-    <cfRule type="containsText" dxfId="105" priority="108" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="107" priority="110" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",K341)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L341">
-    <cfRule type="containsText" dxfId="104" priority="107" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="106" priority="109" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",L341)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M341">
-    <cfRule type="containsText" dxfId="103" priority="106" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="105" priority="108" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",M341)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N341">
-    <cfRule type="containsText" dxfId="102" priority="105" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="104" priority="107" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",N341)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H341">
-    <cfRule type="containsText" dxfId="101" priority="104" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="103" priority="106" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",H341)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E343:F343">
-    <cfRule type="containsText" dxfId="100" priority="103" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="102" priority="105" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",E343)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I343">
-    <cfRule type="containsText" dxfId="99" priority="102" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="101" priority="104" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",I343)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J343">
-    <cfRule type="containsText" dxfId="98" priority="101" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="100" priority="103" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",J343)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K343">
-    <cfRule type="containsText" dxfId="97" priority="100" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="99" priority="102" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",K343)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L343">
-    <cfRule type="containsText" dxfId="96" priority="99" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="98" priority="101" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",L343)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M343">
-    <cfRule type="containsText" dxfId="95" priority="98" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="97" priority="100" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",M343)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N343">
-    <cfRule type="containsText" dxfId="94" priority="97" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="96" priority="99" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",N343)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G343">
-    <cfRule type="containsText" dxfId="93" priority="96" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="95" priority="98" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G343)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H343">
-    <cfRule type="containsText" dxfId="92" priority="95" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="94" priority="97" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",H343)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H367:N367">
-    <cfRule type="containsText" dxfId="91" priority="94" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="93" priority="96" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",H367)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F367">
-    <cfRule type="containsText" dxfId="90" priority="93" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="92" priority="95" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",F367)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H368:N368">
-    <cfRule type="containsText" dxfId="89" priority="92" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="91" priority="94" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",H368)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F368">
-    <cfRule type="containsText" dxfId="88" priority="91" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="90" priority="93" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",F368)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H369:N369">
-    <cfRule type="containsText" dxfId="87" priority="90" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="89" priority="92" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",H369)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F369">
-    <cfRule type="containsText" dxfId="86" priority="89" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="88" priority="91" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",F369)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H379:N379">
-    <cfRule type="containsText" dxfId="85" priority="87" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="87" priority="89" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",H379)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F379">
-    <cfRule type="containsText" dxfId="84" priority="88" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="86" priority="90" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",F379)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H380:N384">
-    <cfRule type="containsText" dxfId="83" priority="85" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="85" priority="87" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",H380)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F380:F384">
-    <cfRule type="containsText" dxfId="82" priority="86" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="84" priority="88" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",F380)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M38:N38 G38 A38:C38">
-    <cfRule type="containsText" dxfId="81" priority="84" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="83" priority="86" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",A38)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A139:N139">
-    <cfRule type="containsText" dxfId="80" priority="79" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="82" priority="81" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",A139)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A125:N125">
-    <cfRule type="containsText" dxfId="79" priority="80" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="81" priority="82" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",A125)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A142:N143">
-    <cfRule type="containsText" dxfId="78" priority="78" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="80" priority="80" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",A142)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A172:A176 C172:N176">
-    <cfRule type="containsText" dxfId="77" priority="77" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="79" priority="79" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",A172)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A177:A196 C177:N196">
-    <cfRule type="containsText" dxfId="76" priority="76" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="78" priority="78" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",A177)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A251:N254">
-    <cfRule type="containsText" dxfId="75" priority="75" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="77" priority="77" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",A251)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M640:N640">
-    <cfRule type="containsText" dxfId="74" priority="26" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="76" priority="28" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",M640)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A261 H261:N261 C261:F261">
-    <cfRule type="containsText" dxfId="73" priority="73" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="75" priority="75" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",A261)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G447">
-    <cfRule type="containsText" dxfId="72" priority="71" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="74" priority="73" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G447)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G447">
-    <cfRule type="containsText" dxfId="71" priority="72" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="73" priority="74" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G447)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G448">
-    <cfRule type="containsText" dxfId="70" priority="69" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="72" priority="71" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G448)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G448">
-    <cfRule type="containsText" dxfId="69" priority="70" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="71" priority="72" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G448)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G449">
-    <cfRule type="containsText" dxfId="68" priority="67" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="70" priority="69" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G449)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G449">
-    <cfRule type="containsText" dxfId="67" priority="68" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="69" priority="70" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G449)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G450">
-    <cfRule type="containsText" dxfId="66" priority="65" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="68" priority="67" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G450)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G450">
-    <cfRule type="containsText" dxfId="65" priority="66" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="67" priority="68" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G450)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G451">
-    <cfRule type="containsText" dxfId="64" priority="63" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="66" priority="65" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G451)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G451">
-    <cfRule type="containsText" dxfId="63" priority="64" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="65" priority="66" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G451)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G452">
-    <cfRule type="containsText" dxfId="62" priority="61" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="64" priority="63" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G452)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G452">
-    <cfRule type="containsText" dxfId="61" priority="62" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="63" priority="64" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G452)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G453">
-    <cfRule type="containsText" dxfId="60" priority="59" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="62" priority="61" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G453)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G453">
-    <cfRule type="containsText" dxfId="59" priority="60" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="61" priority="62" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G453)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G454">
-    <cfRule type="containsText" dxfId="58" priority="57" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="60" priority="59" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G454)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G454">
-    <cfRule type="containsText" dxfId="57" priority="58" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="59" priority="60" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G454)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G455">
-    <cfRule type="containsText" dxfId="56" priority="55" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="58" priority="57" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G455)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G455">
-    <cfRule type="containsText" dxfId="55" priority="56" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="57" priority="58" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G455)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G466">
-    <cfRule type="containsText" dxfId="54" priority="53" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="56" priority="55" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G466)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G466">
-    <cfRule type="containsText" dxfId="53" priority="54" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="55" priority="56" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G466)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G467">
-    <cfRule type="containsText" dxfId="52" priority="51" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="54" priority="53" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G467)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G467">
-    <cfRule type="containsText" dxfId="51" priority="52" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="53" priority="54" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G467)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G468">
-    <cfRule type="containsText" dxfId="50" priority="49" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="52" priority="51" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G468)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G468">
-    <cfRule type="containsText" dxfId="49" priority="50" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="51" priority="52" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G468)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G469">
-    <cfRule type="containsText" dxfId="48" priority="47" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="50" priority="49" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G469)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G469">
-    <cfRule type="containsText" dxfId="47" priority="48" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="49" priority="50" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G469)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G470">
-    <cfRule type="containsText" dxfId="46" priority="45" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="48" priority="47" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G470)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G470">
-    <cfRule type="containsText" dxfId="45" priority="46" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="47" priority="48" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G470)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G471">
-    <cfRule type="containsText" dxfId="44" priority="43" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="46" priority="45" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G471)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G471">
-    <cfRule type="containsText" dxfId="43" priority="44" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="45" priority="46" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G471)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G472">
-    <cfRule type="containsText" dxfId="42" priority="41" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="44" priority="43" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G472)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G472">
-    <cfRule type="containsText" dxfId="41" priority="42" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="43" priority="44" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G472)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G473">
-    <cfRule type="containsText" dxfId="40" priority="39" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="42" priority="41" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G473)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G473">
-    <cfRule type="containsText" dxfId="39" priority="40" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="41" priority="42" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G473)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G474">
-    <cfRule type="containsText" dxfId="38" priority="37" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="40" priority="39" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G474)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G474">
-    <cfRule type="containsText" dxfId="37" priority="38" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="39" priority="40" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G474)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G475">
-    <cfRule type="containsText" dxfId="36" priority="35" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="38" priority="37" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G475)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G475">
-    <cfRule type="containsText" dxfId="35" priority="36" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="37" priority="38" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G475)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G476">
-    <cfRule type="containsText" dxfId="34" priority="33" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="36" priority="35" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G476)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G476">
-    <cfRule type="containsText" dxfId="33" priority="34" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="35" priority="36" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G476)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G477">
-    <cfRule type="containsText" dxfId="32" priority="31" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="34" priority="33" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G477)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G477">
-    <cfRule type="containsText" dxfId="31" priority="32" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="33" priority="34" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G477)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G478">
-    <cfRule type="containsText" dxfId="30" priority="29" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="32" priority="31" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G478)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G478">
-    <cfRule type="containsText" dxfId="29" priority="30" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="31" priority="32" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G478)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G479">
-    <cfRule type="containsText" dxfId="28" priority="27" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="30" priority="29" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G479)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G479">
-    <cfRule type="containsText" dxfId="27" priority="28" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="29" priority="30" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G479)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G31:G36 G25:G28 B25:C36 M25:N36">
-    <cfRule type="containsText" dxfId="26" priority="24" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="28" priority="26" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B25)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G29:G30">
-    <cfRule type="containsText" dxfId="25" priority="25" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="27" priority="27" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G29)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G4 M4:N4 A4:C4">
-    <cfRule type="containsText" dxfId="24" priority="21" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="26" priority="23" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",A4)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O2:O90 O92:O670">
-    <cfRule type="containsText" dxfId="23" priority="19" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="25" priority="21" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",O2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2:G3 B2:C3 M2:N3">
-    <cfRule type="containsText" dxfId="22" priority="20" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="24" priority="22" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G261">
-    <cfRule type="containsText" dxfId="21" priority="18" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="23" priority="20" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G261)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A91:G91 O91">
-    <cfRule type="containsText" dxfId="20" priority="17" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="22" priority="19" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",A91)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B261">
-    <cfRule type="containsText" dxfId="19" priority="16" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="21" priority="18" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B261)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B515">
-    <cfRule type="containsText" dxfId="18" priority="15" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="20" priority="17" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B515)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M515:N515 G515">
-    <cfRule type="containsText" dxfId="17" priority="14" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="19" priority="16" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G515)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B172:B196">
-    <cfRule type="containsText" dxfId="16" priority="11" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="18" priority="13" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B172)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B172:B196">
-    <cfRule type="containsText" dxfId="15" priority="12" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="17" priority="14" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B172)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A63:B63">
-    <cfRule type="containsText" dxfId="10" priority="10" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="12" priority="12" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",A63)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A108:B108">
-    <cfRule type="containsText" dxfId="8" priority="9" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="10" priority="11" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",A108)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B108:C108">
-    <cfRule type="containsText" dxfId="7" priority="8" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="9" priority="10" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B108)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B109">
-    <cfRule type="containsText" dxfId="6" priority="7" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="8" priority="9" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B109)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B110">
-    <cfRule type="containsText" dxfId="5" priority="6" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="7" priority="8" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B110)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B112">
-    <cfRule type="containsText" dxfId="4" priority="5" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="6" priority="7" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B112)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B113">
-    <cfRule type="containsText" dxfId="3" priority="4" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="5" priority="6" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B113)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B114">
-    <cfRule type="containsText" dxfId="2" priority="3" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="4" priority="5" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B114)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B115">
-    <cfRule type="containsText" dxfId="1" priority="2" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="3" priority="4" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B115)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B115">
+    <cfRule type="containsText" dxfId="2" priority="3" operator="containsText" text="&lt;?&gt;">
+      <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B115)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A119:B119">
+    <cfRule type="containsText" dxfId="1" priority="2" operator="containsText" text="&lt;?&gt;">
+      <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",A119)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B119">
     <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="&lt;?&gt;">
-      <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B115)))</formula>
+      <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B119)))</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -45384,7 +45414,7 @@
   </sheetData>
   <autoFilter ref="A1:B1" xr:uid="{AF62FD2E-052D-40DF-8032-68688A8C1623}"/>
   <conditionalFormatting sqref="A2:B479">
-    <cfRule type="containsText" dxfId="14" priority="2" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="16" priority="2" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",A2)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -45714,12 +45744,12 @@
     <mergeCell ref="A1:B1"/>
   </mergeCells>
   <conditionalFormatting sqref="A1 C1 A2:C37 A39:C1048576">
-    <cfRule type="containsText" dxfId="13" priority="31" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="15" priority="31" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",A1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A38:C38">
-    <cfRule type="containsText" dxfId="12" priority="6" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="14" priority="6" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",A38)))</formula>
     </cfRule>
   </conditionalFormatting>

--- a/1.0.4/matrix/Validatiematrix v1.2.xlsx
+++ b/1.0.4/matrix/Validatiematrix v1.2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Default.DESKTOP-NDDI22K\Documents\Geonovum\github\xml_validatietestcontent\1.0.4\matrix\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{238630A2-97A6-466B-8F73-2221BECEB95C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{895ABA25-B02A-48E2-864F-F0956E13B08C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="348" windowWidth="23256" windowHeight="12720" tabRatio="670" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9517" uniqueCount="1787">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9518" uniqueCount="1788">
   <si>
     <t>Is Opdracht.zip een geldige zip</t>
   </si>
@@ -5650,6 +5650,9 @@
   </si>
   <si>
     <t>2 (meldt fout LVBB1016)</t>
+  </si>
+  <si>
+    <t>2 (meldt fout LVBB1010)</t>
   </si>
 </sst>
 </file>
@@ -6337,7 +6340,27 @@
     <cellStyle name="Standaard 3 2" xfId="3" xr:uid="{A1634239-92B9-4583-AB04-DEBDF9A9A44B}"/>
     <cellStyle name="Standaard 3 3" xfId="5" xr:uid="{C77AD319-D6C6-4ABD-AE5A-A2C0A40B68E7}"/>
   </cellStyles>
-  <dxfs count="224">
+  <dxfs count="226">
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FFFF0000"/>
@@ -8947,7 +8970,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A101" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A119" sqref="A119:B119"/>
+      <selection pane="bottomLeft" activeCell="B122" sqref="B122"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -14793,11 +14816,11 @@
       </c>
     </row>
     <row r="122" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A122" s="38" t="s">
-        <v>1166</v>
-      </c>
-      <c r="B122" s="38">
-        <v>2</v>
+      <c r="A122" s="76" t="s">
+        <v>1166</v>
+      </c>
+      <c r="B122" s="81" t="s">
+        <v>1787</v>
       </c>
       <c r="C122" s="18" t="s">
         <v>86</v>
@@ -41217,1103 +41240,1113 @@
   </autoFilter>
   <phoneticPr fontId="5" type="noConversion"/>
   <conditionalFormatting sqref="F335:F339 C111:C115 F397:F408 F322:F333 F201 F269:F271 F267 F265 F259:F260 F223:F225 F219:F220 F214:F216 F203:F205 F291:G291 E450 H400:N408 G322:N339 E444:N445 M468:N475 B41:C53 B57:C62 B93:C95 B131:C138 M113:N116 G131:G138 M131:N138 B74:C81 M197:N197 G197 M41:N49 M51:N53 M57:N63 M74:N80 M88:N90 M93:N95 G51:G53 G57:G63 G74:G80 G88:G90 G93:G95 M577:N592 B66:C68 G66:G68 M66:N68 B109:C110 G108:G116 M108:N111 B148:C154 B83:C90 G84:G86 M84:N86 C116:D123 B144:C145 M144:N145 G144:G145 H155:N168 M148:N168 G148:G168 G201:N206 M451:N454 G505:G514 M504:N514 F208:N210 F212 F227:F230 G212:N230 G257:N260 F257 G118:G122 M118:N122 C126:D128 F370:F373 F346:G349 H346:N366 G370:G375 G385:G408 M596:N639 H370:N378 H385:N396 G39:G49 G37 A2:A3 B70:C70 M70:N70 G70 B1:O1 A126:B138 A140:B141 A144:B171 A197:B250 A255:B260 A262:B514 G262:N276 F262:F263 M641:N670 A37:B37 A25:A36 M5:N19 G5:G19 A516:B670 A515 M516:N575 G516:G670 A5:C24 A39:B62 A64:B68 A70:B90 A92:B107 A109:B118 A120:B124">
-    <cfRule type="containsText" dxfId="11" priority="378" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="13" priority="380" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",A1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B297:B305 B201:B206 B208:B250">
-    <cfRule type="containsText" dxfId="223" priority="473" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="225" priority="475" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B201)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F394:F396">
-    <cfRule type="containsText" dxfId="222" priority="463" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="224" priority="465" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",F394)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H290:N290">
-    <cfRule type="containsText" dxfId="221" priority="471" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="223" priority="473" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",H290)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M444:N445">
-    <cfRule type="containsText" dxfId="220" priority="462" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="222" priority="464" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",M444)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H445:L445">
-    <cfRule type="containsText" dxfId="219" priority="461" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="221" priority="463" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",H445)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G445:L445">
-    <cfRule type="containsText" dxfId="218" priority="460" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="220" priority="462" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G445)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M445:N445">
-    <cfRule type="containsText" dxfId="217" priority="458" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="219" priority="460" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",M445)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H444:L444">
-    <cfRule type="containsText" dxfId="216" priority="457" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="218" priority="459" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",H444)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G444:L444">
-    <cfRule type="containsText" dxfId="215" priority="456" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="217" priority="458" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G444)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M444:N444">
-    <cfRule type="containsText" dxfId="214" priority="454" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="216" priority="456" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",M444)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F334">
-    <cfRule type="containsText" dxfId="213" priority="453" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="215" priority="455" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",F334)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F374:F378 F385:F393">
-    <cfRule type="containsText" dxfId="212" priority="452" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="214" priority="454" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",F374)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H397:N398">
-    <cfRule type="containsText" dxfId="211" priority="451" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="213" priority="453" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",H397)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M455">
-    <cfRule type="containsText" dxfId="210" priority="420" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="212" priority="422" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",M455)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H450:N450">
-    <cfRule type="containsText" dxfId="209" priority="446" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="211" priority="448" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",H450)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N467">
-    <cfRule type="containsText" dxfId="208" priority="406" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="210" priority="408" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",N467)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H399:N399">
-    <cfRule type="containsText" dxfId="207" priority="389" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="209" priority="391" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",H399)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B466">
-    <cfRule type="containsText" dxfId="206" priority="437" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="208" priority="439" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B466)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M467">
-    <cfRule type="containsText" dxfId="205" priority="408" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="207" priority="410" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",M467)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G456">
-    <cfRule type="containsText" dxfId="204" priority="423" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="206" priority="425" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G456)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M466">
-    <cfRule type="containsText" dxfId="203" priority="412" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="205" priority="414" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",M466)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N455">
-    <cfRule type="containsText" dxfId="202" priority="418" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="204" priority="420" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",N455)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B455:B465">
-    <cfRule type="containsText" dxfId="201" priority="436" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="203" priority="438" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B455)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N466">
-    <cfRule type="containsText" dxfId="200" priority="410" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="202" priority="412" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",N466)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M456">
-    <cfRule type="containsText" dxfId="199" priority="416" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="201" priority="418" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",M456)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N456">
-    <cfRule type="containsText" dxfId="198" priority="414" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="200" priority="416" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",N456)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P342:X345">
-    <cfRule type="containsText" dxfId="197" priority="377" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="199" priority="379" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",P342)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E342:F342 E344:F345">
-    <cfRule type="containsText" dxfId="196" priority="376" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="198" priority="378" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",E342)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H344:H345">
-    <cfRule type="containsText" dxfId="195" priority="375" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="197" priority="377" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",H344)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I342 I344:I345">
-    <cfRule type="containsText" dxfId="194" priority="374" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="196" priority="376" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",I342)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J342 J344:J345">
-    <cfRule type="containsText" dxfId="193" priority="373" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="195" priority="375" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",J342)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K342 K344:K345">
-    <cfRule type="containsText" dxfId="192" priority="372" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="194" priority="374" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",K342)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L342 L344:L345">
-    <cfRule type="containsText" dxfId="191" priority="371" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="193" priority="373" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",L342)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M342 M344:M345">
-    <cfRule type="containsText" dxfId="190" priority="370" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="192" priority="372" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",M342)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N342 N344:N345">
-    <cfRule type="containsText" dxfId="189" priority="369" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="191" priority="371" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",N342)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P409:X409">
-    <cfRule type="containsText" dxfId="188" priority="368" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="190" priority="370" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",P409)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F409">
-    <cfRule type="containsText" dxfId="187" priority="367" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="189" priority="369" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",F409)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I409">
-    <cfRule type="containsText" dxfId="186" priority="365" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="188" priority="367" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",I409)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J409">
-    <cfRule type="containsText" dxfId="185" priority="364" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="187" priority="366" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",J409)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K409">
-    <cfRule type="containsText" dxfId="184" priority="363" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="186" priority="365" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",K409)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L409">
-    <cfRule type="containsText" dxfId="183" priority="362" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="185" priority="364" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",L409)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M409">
-    <cfRule type="containsText" dxfId="182" priority="361" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="184" priority="363" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",M409)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N409">
-    <cfRule type="containsText" dxfId="181" priority="360" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="183" priority="362" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",N409)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B505:B513">
-    <cfRule type="containsText" dxfId="180" priority="358" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="182" priority="360" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B505)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B514">
-    <cfRule type="containsText" dxfId="179" priority="337" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="181" priority="339" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B514)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B111:B114">
-    <cfRule type="containsText" dxfId="178" priority="325" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="180" priority="327" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B111)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B306 B296">
-    <cfRule type="containsText" dxfId="177" priority="326" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="179" priority="328" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B296)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B467:B475">
-    <cfRule type="containsText" dxfId="176" priority="323" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="178" priority="325" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B467)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B307:B321">
-    <cfRule type="containsText" dxfId="175" priority="324" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="177" priority="326" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B307)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B516">
-    <cfRule type="containsText" dxfId="174" priority="322" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="176" priority="324" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B516)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B450">
-    <cfRule type="containsText" dxfId="173" priority="320" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="175" priority="322" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B450)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B449">
-    <cfRule type="containsText" dxfId="172" priority="319" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="174" priority="321" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B449)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B322:B448">
-    <cfRule type="containsText" dxfId="171" priority="318" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="173" priority="320" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B322)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G504">
-    <cfRule type="containsText" dxfId="170" priority="298" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="172" priority="300" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G504)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C37 C39:C40">
-    <cfRule type="containsText" dxfId="169" priority="293" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="171" priority="295" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",C37)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E409">
-    <cfRule type="containsText" dxfId="168" priority="291" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="170" priority="293" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",E409)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M112:N112">
-    <cfRule type="containsText" dxfId="167" priority="284" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="169" priority="286" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",M112)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C71:D71">
-    <cfRule type="containsText" dxfId="166" priority="279" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="168" priority="281" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",C71)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C92:D92">
-    <cfRule type="containsText" dxfId="165" priority="277" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="167" priority="279" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",C92)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C129:D130">
-    <cfRule type="containsText" dxfId="164" priority="252" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="166" priority="254" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",C129)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G126:G130 M126:N130">
-    <cfRule type="containsText" dxfId="163" priority="251" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="165" priority="253" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G126)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B169:B171">
-    <cfRule type="containsText" dxfId="162" priority="250" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="164" priority="252" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B169)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G169:G170">
-    <cfRule type="containsText" dxfId="161" priority="249" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="163" priority="251" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G169)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H169:N170">
-    <cfRule type="containsText" dxfId="160" priority="248" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="162" priority="250" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",H169)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M446:N449 M438:N443 M420:N427 M92:N92 M87:N87 M71:N71 M54:N56 M50:N50 M37:N37 M39:N40">
-    <cfRule type="containsText" dxfId="159" priority="246" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="161" priority="248" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",M37)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M65:N65 G65">
-    <cfRule type="containsText" dxfId="158" priority="241" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="160" priority="243" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G65)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B64:B65">
-    <cfRule type="containsText" dxfId="157" priority="243" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="159" priority="245" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B64)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M64:N64 G64">
-    <cfRule type="containsText" dxfId="156" priority="242" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="158" priority="244" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G64)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B72:B73">
-    <cfRule type="containsText" dxfId="155" priority="237" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="157" priority="239" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B72)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M72:N72">
-    <cfRule type="containsText" dxfId="154" priority="239" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="156" priority="241" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",M72)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M73:N73">
-    <cfRule type="containsText" dxfId="153" priority="238" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="155" priority="240" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",M73)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B96:D107">
-    <cfRule type="containsText" dxfId="152" priority="234" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="154" priority="236" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B96)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M96:N107 G96:G107">
-    <cfRule type="containsText" dxfId="151" priority="235" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="153" priority="237" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G96)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M83:N83 G83">
-    <cfRule type="containsText" dxfId="150" priority="220" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="152" priority="222" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G83)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M82:N82 G82">
-    <cfRule type="containsText" dxfId="149" priority="219" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="151" priority="221" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G82)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G207:N207">
-    <cfRule type="containsText" dxfId="148" priority="227" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="150" priority="229" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G207)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B146:B147">
-    <cfRule type="containsText" dxfId="147" priority="229" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="149" priority="231" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B146)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G146:G147 M146:N147">
-    <cfRule type="containsText" dxfId="146" priority="228" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="148" priority="230" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G146)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B82">
-    <cfRule type="containsText" dxfId="145" priority="221" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="147" priority="223" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B82)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G123 M123:N123">
-    <cfRule type="containsText" dxfId="144" priority="218" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="146" priority="220" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G123)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B140:B141">
-    <cfRule type="containsText" dxfId="143" priority="215" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="145" priority="217" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B140)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G140:G141 M140:N141">
-    <cfRule type="containsText" dxfId="142" priority="214" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="144" priority="216" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G140)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B198:B200">
-    <cfRule type="containsText" dxfId="141" priority="165" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="143" priority="167" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B198)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M198:N200 G198:G200">
-    <cfRule type="containsText" dxfId="140" priority="164" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="142" priority="166" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G198)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B255:B258">
-    <cfRule type="containsText" dxfId="139" priority="154" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="141" priority="156" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B255)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B517:B546">
-    <cfRule type="containsText" dxfId="138" priority="151" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="140" priority="153" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B517)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G81">
-    <cfRule type="containsText" dxfId="137" priority="149" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="139" priority="151" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G81)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H171:N171">
-    <cfRule type="containsText" dxfId="136" priority="145" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="138" priority="147" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",H171)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F211:N211">
-    <cfRule type="containsText" dxfId="135" priority="143" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="137" priority="145" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",F211)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G171">
-    <cfRule type="containsText" dxfId="134" priority="146" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="136" priority="148" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G171)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F231:N249 F255:N256">
-    <cfRule type="containsText" dxfId="133" priority="140" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="135" priority="142" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",F231)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M117:N117 G117">
-    <cfRule type="containsText" dxfId="132" priority="139" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="134" priority="141" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G117)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B124:D124">
-    <cfRule type="containsText" dxfId="131" priority="138" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="133" priority="140" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B124)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G124 M124:N124">
-    <cfRule type="containsText" dxfId="130" priority="137" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="132" priority="139" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G124)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F250:N250">
-    <cfRule type="containsText" dxfId="129" priority="136" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="131" priority="138" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",F250)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1">
-    <cfRule type="containsText" dxfId="128" priority="135" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="130" priority="137" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",A1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G342">
-    <cfRule type="containsText" dxfId="127" priority="133" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="129" priority="135" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G342)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H342">
-    <cfRule type="containsText" dxfId="126" priority="132" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="128" priority="134" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",H342)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F340">
-    <cfRule type="containsText" dxfId="125" priority="131" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="127" priority="133" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",F340)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F350:F366">
-    <cfRule type="containsText" dxfId="124" priority="130" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="126" priority="132" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",F350)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I340">
-    <cfRule type="containsText" dxfId="123" priority="129" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="125" priority="131" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",I340)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J340">
-    <cfRule type="containsText" dxfId="122" priority="128" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="124" priority="130" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",J340)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K340">
-    <cfRule type="containsText" dxfId="121" priority="127" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="123" priority="129" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",K340)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L340">
-    <cfRule type="containsText" dxfId="120" priority="126" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="122" priority="128" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",L340)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M340">
-    <cfRule type="containsText" dxfId="119" priority="125" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="121" priority="127" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",M340)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N340">
-    <cfRule type="containsText" dxfId="118" priority="124" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="120" priority="126" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",N340)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H340">
-    <cfRule type="containsText" dxfId="117" priority="123" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="119" priority="125" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",H340)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G20:G24 M20:N24">
-    <cfRule type="containsText" dxfId="116" priority="119" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="118" priority="121" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G20)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G457:G465">
-    <cfRule type="containsText" dxfId="115" priority="118" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="117" priority="120" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G457)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M457:M465">
-    <cfRule type="containsText" dxfId="114" priority="117" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="116" priority="119" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",M457)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N457:N465">
-    <cfRule type="containsText" dxfId="113" priority="116" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="115" priority="118" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",N457)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M593:N593">
-    <cfRule type="containsText" dxfId="112" priority="115" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="114" priority="117" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",M593)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M594:N594">
-    <cfRule type="containsText" dxfId="111" priority="114" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="113" priority="116" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",M594)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F341">
-    <cfRule type="containsText" dxfId="110" priority="113" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="112" priority="115" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",F341)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I341">
-    <cfRule type="containsText" dxfId="109" priority="112" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="111" priority="114" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",I341)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J341">
-    <cfRule type="containsText" dxfId="108" priority="111" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="110" priority="113" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",J341)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K341">
-    <cfRule type="containsText" dxfId="107" priority="110" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="109" priority="112" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",K341)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L341">
-    <cfRule type="containsText" dxfId="106" priority="109" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="108" priority="111" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",L341)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M341">
-    <cfRule type="containsText" dxfId="105" priority="108" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="107" priority="110" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",M341)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N341">
-    <cfRule type="containsText" dxfId="104" priority="107" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="106" priority="109" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",N341)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H341">
-    <cfRule type="containsText" dxfId="103" priority="106" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="105" priority="108" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",H341)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E343:F343">
-    <cfRule type="containsText" dxfId="102" priority="105" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="104" priority="107" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",E343)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I343">
-    <cfRule type="containsText" dxfId="101" priority="104" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="103" priority="106" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",I343)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J343">
-    <cfRule type="containsText" dxfId="100" priority="103" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="102" priority="105" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",J343)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K343">
-    <cfRule type="containsText" dxfId="99" priority="102" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="101" priority="104" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",K343)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L343">
-    <cfRule type="containsText" dxfId="98" priority="101" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="100" priority="103" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",L343)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M343">
-    <cfRule type="containsText" dxfId="97" priority="100" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="99" priority="102" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",M343)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N343">
-    <cfRule type="containsText" dxfId="96" priority="99" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="98" priority="101" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",N343)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G343">
-    <cfRule type="containsText" dxfId="95" priority="98" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="97" priority="100" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G343)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H343">
-    <cfRule type="containsText" dxfId="94" priority="97" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="96" priority="99" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",H343)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H367:N367">
-    <cfRule type="containsText" dxfId="93" priority="96" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="95" priority="98" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",H367)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F367">
-    <cfRule type="containsText" dxfId="92" priority="95" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="94" priority="97" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",F367)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H368:N368">
-    <cfRule type="containsText" dxfId="91" priority="94" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="93" priority="96" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",H368)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F368">
-    <cfRule type="containsText" dxfId="90" priority="93" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="92" priority="95" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",F368)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H369:N369">
-    <cfRule type="containsText" dxfId="89" priority="92" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="91" priority="94" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",H369)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F369">
-    <cfRule type="containsText" dxfId="88" priority="91" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="90" priority="93" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",F369)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H379:N379">
-    <cfRule type="containsText" dxfId="87" priority="89" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="89" priority="91" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",H379)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F379">
-    <cfRule type="containsText" dxfId="86" priority="90" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="88" priority="92" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",F379)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H380:N384">
-    <cfRule type="containsText" dxfId="85" priority="87" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="87" priority="89" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",H380)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F380:F384">
-    <cfRule type="containsText" dxfId="84" priority="88" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="86" priority="90" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",F380)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M38:N38 G38 A38:C38">
-    <cfRule type="containsText" dxfId="83" priority="86" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="85" priority="88" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",A38)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A139:N139">
-    <cfRule type="containsText" dxfId="82" priority="81" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="84" priority="83" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",A139)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A125:N125">
-    <cfRule type="containsText" dxfId="81" priority="82" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="83" priority="84" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",A125)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A142:N143">
-    <cfRule type="containsText" dxfId="80" priority="80" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="82" priority="82" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",A142)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A172:A176 C172:N176">
-    <cfRule type="containsText" dxfId="79" priority="79" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="81" priority="81" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",A172)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A177:A196 C177:N196">
-    <cfRule type="containsText" dxfId="78" priority="78" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="80" priority="80" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",A177)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A251:N254">
-    <cfRule type="containsText" dxfId="77" priority="77" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="79" priority="79" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",A251)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M640:N640">
-    <cfRule type="containsText" dxfId="76" priority="28" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="78" priority="30" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",M640)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A261 H261:N261 C261:F261">
-    <cfRule type="containsText" dxfId="75" priority="75" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="77" priority="77" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",A261)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G447">
-    <cfRule type="containsText" dxfId="74" priority="73" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="76" priority="75" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G447)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G447">
-    <cfRule type="containsText" dxfId="73" priority="74" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="75" priority="76" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G447)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G448">
-    <cfRule type="containsText" dxfId="72" priority="71" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="74" priority="73" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G448)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G448">
-    <cfRule type="containsText" dxfId="71" priority="72" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="73" priority="74" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G448)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G449">
-    <cfRule type="containsText" dxfId="70" priority="69" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="72" priority="71" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G449)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G449">
-    <cfRule type="containsText" dxfId="69" priority="70" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="71" priority="72" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G449)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G450">
-    <cfRule type="containsText" dxfId="68" priority="67" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="70" priority="69" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G450)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G450">
-    <cfRule type="containsText" dxfId="67" priority="68" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="69" priority="70" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G450)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G451">
-    <cfRule type="containsText" dxfId="66" priority="65" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="68" priority="67" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G451)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G451">
-    <cfRule type="containsText" dxfId="65" priority="66" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="67" priority="68" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G451)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G452">
-    <cfRule type="containsText" dxfId="64" priority="63" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="66" priority="65" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G452)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G452">
-    <cfRule type="containsText" dxfId="63" priority="64" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="65" priority="66" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G452)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G453">
-    <cfRule type="containsText" dxfId="62" priority="61" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="64" priority="63" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G453)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G453">
-    <cfRule type="containsText" dxfId="61" priority="62" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="63" priority="64" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G453)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G454">
-    <cfRule type="containsText" dxfId="60" priority="59" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="62" priority="61" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G454)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G454">
-    <cfRule type="containsText" dxfId="59" priority="60" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="61" priority="62" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G454)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G455">
-    <cfRule type="containsText" dxfId="58" priority="57" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="60" priority="59" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G455)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G455">
-    <cfRule type="containsText" dxfId="57" priority="58" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="59" priority="60" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G455)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G466">
-    <cfRule type="containsText" dxfId="56" priority="55" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="58" priority="57" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G466)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G466">
-    <cfRule type="containsText" dxfId="55" priority="56" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="57" priority="58" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G466)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G467">
-    <cfRule type="containsText" dxfId="54" priority="53" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="56" priority="55" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G467)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G467">
-    <cfRule type="containsText" dxfId="53" priority="54" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="55" priority="56" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G467)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G468">
-    <cfRule type="containsText" dxfId="52" priority="51" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="54" priority="53" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G468)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G468">
-    <cfRule type="containsText" dxfId="51" priority="52" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="53" priority="54" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G468)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G469">
-    <cfRule type="containsText" dxfId="50" priority="49" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="52" priority="51" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G469)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G469">
-    <cfRule type="containsText" dxfId="49" priority="50" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="51" priority="52" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G469)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G470">
-    <cfRule type="containsText" dxfId="48" priority="47" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="50" priority="49" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G470)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G470">
-    <cfRule type="containsText" dxfId="47" priority="48" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="49" priority="50" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G470)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G471">
-    <cfRule type="containsText" dxfId="46" priority="45" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="48" priority="47" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G471)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G471">
-    <cfRule type="containsText" dxfId="45" priority="46" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="47" priority="48" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G471)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G472">
-    <cfRule type="containsText" dxfId="44" priority="43" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="46" priority="45" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G472)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G472">
-    <cfRule type="containsText" dxfId="43" priority="44" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="45" priority="46" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G472)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G473">
-    <cfRule type="containsText" dxfId="42" priority="41" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="44" priority="43" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G473)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G473">
-    <cfRule type="containsText" dxfId="41" priority="42" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="43" priority="44" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G473)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G474">
-    <cfRule type="containsText" dxfId="40" priority="39" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="42" priority="41" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G474)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G474">
-    <cfRule type="containsText" dxfId="39" priority="40" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="41" priority="42" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G474)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G475">
-    <cfRule type="containsText" dxfId="38" priority="37" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="40" priority="39" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G475)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G475">
-    <cfRule type="containsText" dxfId="37" priority="38" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="39" priority="40" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G475)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G476">
-    <cfRule type="containsText" dxfId="36" priority="35" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="38" priority="37" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G476)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G476">
-    <cfRule type="containsText" dxfId="35" priority="36" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="37" priority="38" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G476)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G477">
-    <cfRule type="containsText" dxfId="34" priority="33" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="36" priority="35" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G477)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G477">
-    <cfRule type="containsText" dxfId="33" priority="34" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="35" priority="36" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G477)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G478">
-    <cfRule type="containsText" dxfId="32" priority="31" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="34" priority="33" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G478)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G478">
-    <cfRule type="containsText" dxfId="31" priority="32" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="33" priority="34" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G478)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G479">
-    <cfRule type="containsText" dxfId="30" priority="29" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="32" priority="31" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G479)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G479">
-    <cfRule type="containsText" dxfId="29" priority="30" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="31" priority="32" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G479)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G31:G36 G25:G28 B25:C36 M25:N36">
-    <cfRule type="containsText" dxfId="28" priority="26" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="30" priority="28" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B25)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G29:G30">
-    <cfRule type="containsText" dxfId="27" priority="27" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="29" priority="29" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G29)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G4 M4:N4 A4:C4">
-    <cfRule type="containsText" dxfId="26" priority="23" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="28" priority="25" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",A4)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O2:O90 O92:O670">
-    <cfRule type="containsText" dxfId="25" priority="21" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="27" priority="23" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",O2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2:G3 B2:C3 M2:N3">
-    <cfRule type="containsText" dxfId="24" priority="22" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="26" priority="24" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G261">
-    <cfRule type="containsText" dxfId="23" priority="20" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="25" priority="22" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G261)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A91:G91 O91">
-    <cfRule type="containsText" dxfId="22" priority="19" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="24" priority="21" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",A91)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B261">
-    <cfRule type="containsText" dxfId="21" priority="18" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="23" priority="20" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B261)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B515">
-    <cfRule type="containsText" dxfId="20" priority="17" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="22" priority="19" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B515)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M515:N515 G515">
-    <cfRule type="containsText" dxfId="19" priority="16" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="21" priority="18" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G515)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B172:B196">
-    <cfRule type="containsText" dxfId="18" priority="13" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="20" priority="15" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B172)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B172:B196">
-    <cfRule type="containsText" dxfId="17" priority="14" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="19" priority="16" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B172)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A63:B63">
-    <cfRule type="containsText" dxfId="12" priority="12" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="14" priority="14" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",A63)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A108:B108">
-    <cfRule type="containsText" dxfId="10" priority="11" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="12" priority="13" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",A108)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B108:C108">
-    <cfRule type="containsText" dxfId="9" priority="10" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="11" priority="12" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B108)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B109">
-    <cfRule type="containsText" dxfId="8" priority="9" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="10" priority="11" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B109)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B110">
-    <cfRule type="containsText" dxfId="7" priority="8" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="9" priority="10" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B110)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B112">
-    <cfRule type="containsText" dxfId="6" priority="7" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="8" priority="9" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B112)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B113">
-    <cfRule type="containsText" dxfId="5" priority="6" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="7" priority="8" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B113)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B114">
-    <cfRule type="containsText" dxfId="4" priority="5" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="6" priority="7" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B114)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B115">
-    <cfRule type="containsText" dxfId="3" priority="4" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="5" priority="6" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B115)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B115">
-    <cfRule type="containsText" dxfId="2" priority="3" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="4" priority="5" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B115)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A119:B119">
-    <cfRule type="containsText" dxfId="1" priority="2" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="3" priority="4" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",A119)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B119">
+    <cfRule type="containsText" dxfId="2" priority="3" operator="containsText" text="&lt;?&gt;">
+      <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B119)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B122">
+    <cfRule type="containsText" dxfId="1" priority="2" operator="containsText" text="&lt;?&gt;">
+      <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B122)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B122">
     <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="&lt;?&gt;">
-      <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B119)))</formula>
+      <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B122)))</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -45414,7 +45447,7 @@
   </sheetData>
   <autoFilter ref="A1:B1" xr:uid="{AF62FD2E-052D-40DF-8032-68688A8C1623}"/>
   <conditionalFormatting sqref="A2:B479">
-    <cfRule type="containsText" dxfId="16" priority="2" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="18" priority="2" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",A2)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -45744,12 +45777,12 @@
     <mergeCell ref="A1:B1"/>
   </mergeCells>
   <conditionalFormatting sqref="A1 C1 A2:C37 A39:C1048576">
-    <cfRule type="containsText" dxfId="15" priority="31" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="17" priority="31" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",A1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A38:C38">
-    <cfRule type="containsText" dxfId="14" priority="6" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="16" priority="6" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",A38)))</formula>
     </cfRule>
   </conditionalFormatting>

--- a/1.0.4/matrix/Validatiematrix v1.2.xlsx
+++ b/1.0.4/matrix/Validatiematrix v1.2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Default.DESKTOP-NDDI22K\Documents\Geonovum\github\xml_validatietestcontent\1.0.4\matrix\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{895ABA25-B02A-48E2-864F-F0956E13B08C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFDA0216-4955-4F90-8581-9C294E7D5167}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="348" windowWidth="23256" windowHeight="12720" tabRatio="670" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9518" uniqueCount="1788">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9519" uniqueCount="1788">
   <si>
     <t>Is Opdracht.zip een geldige zip</t>
   </si>
@@ -6340,7 +6340,27 @@
     <cellStyle name="Standaard 3 2" xfId="3" xr:uid="{A1634239-92B9-4583-AB04-DEBDF9A9A44B}"/>
     <cellStyle name="Standaard 3 3" xfId="5" xr:uid="{C77AD319-D6C6-4ABD-AE5A-A2C0A40B68E7}"/>
   </cellStyles>
-  <dxfs count="226">
+  <dxfs count="228">
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FFFF0000"/>
@@ -8970,7 +8990,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A101" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B122" sqref="B122"/>
+      <selection pane="bottomLeft" activeCell="B125" sqref="B125"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -14912,11 +14932,11 @@
       </c>
     </row>
     <row r="124" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A124" s="38" t="s">
-        <v>1166</v>
-      </c>
-      <c r="B124" s="38">
-        <v>2</v>
+      <c r="A124" s="76" t="s">
+        <v>1166</v>
+      </c>
+      <c r="B124" s="81" t="s">
+        <v>1779</v>
       </c>
       <c r="C124" s="18" t="s">
         <v>1161</v>
@@ -41240,1113 +41260,1123 @@
   </autoFilter>
   <phoneticPr fontId="5" type="noConversion"/>
   <conditionalFormatting sqref="F335:F339 C111:C115 F397:F408 F322:F333 F201 F269:F271 F267 F265 F259:F260 F223:F225 F219:F220 F214:F216 F203:F205 F291:G291 E450 H400:N408 G322:N339 E444:N445 M468:N475 B41:C53 B57:C62 B93:C95 B131:C138 M113:N116 G131:G138 M131:N138 B74:C81 M197:N197 G197 M41:N49 M51:N53 M57:N63 M74:N80 M88:N90 M93:N95 G51:G53 G57:G63 G74:G80 G88:G90 G93:G95 M577:N592 B66:C68 G66:G68 M66:N68 B109:C110 G108:G116 M108:N111 B148:C154 B83:C90 G84:G86 M84:N86 C116:D123 B144:C145 M144:N145 G144:G145 H155:N168 M148:N168 G148:G168 G201:N206 M451:N454 G505:G514 M504:N514 F208:N210 F212 F227:F230 G212:N230 G257:N260 F257 G118:G122 M118:N122 C126:D128 F370:F373 F346:G349 H346:N366 G370:G375 G385:G408 M596:N639 H370:N378 H385:N396 G39:G49 G37 A2:A3 B70:C70 M70:N70 G70 B1:O1 A126:B138 A140:B141 A144:B171 A197:B250 A255:B260 A262:B514 G262:N276 F262:F263 M641:N670 A37:B37 A25:A36 M5:N19 G5:G19 A516:B670 A515 M516:N575 G516:G670 A5:C24 A39:B62 A64:B68 A70:B90 A92:B107 A109:B118 A120:B124">
-    <cfRule type="containsText" dxfId="13" priority="380" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="15" priority="382" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",A1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B297:B305 B201:B206 B208:B250">
-    <cfRule type="containsText" dxfId="225" priority="475" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="227" priority="477" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B201)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F394:F396">
-    <cfRule type="containsText" dxfId="224" priority="465" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="226" priority="467" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",F394)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H290:N290">
-    <cfRule type="containsText" dxfId="223" priority="473" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="225" priority="475" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",H290)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M444:N445">
-    <cfRule type="containsText" dxfId="222" priority="464" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="224" priority="466" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",M444)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H445:L445">
-    <cfRule type="containsText" dxfId="221" priority="463" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="223" priority="465" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",H445)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G445:L445">
-    <cfRule type="containsText" dxfId="220" priority="462" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="222" priority="464" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G445)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M445:N445">
-    <cfRule type="containsText" dxfId="219" priority="460" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="221" priority="462" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",M445)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H444:L444">
-    <cfRule type="containsText" dxfId="218" priority="459" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="220" priority="461" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",H444)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G444:L444">
-    <cfRule type="containsText" dxfId="217" priority="458" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="219" priority="460" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G444)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M444:N444">
-    <cfRule type="containsText" dxfId="216" priority="456" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="218" priority="458" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",M444)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F334">
-    <cfRule type="containsText" dxfId="215" priority="455" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="217" priority="457" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",F334)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F374:F378 F385:F393">
-    <cfRule type="containsText" dxfId="214" priority="454" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="216" priority="456" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",F374)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H397:N398">
-    <cfRule type="containsText" dxfId="213" priority="453" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="215" priority="455" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",H397)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M455">
-    <cfRule type="containsText" dxfId="212" priority="422" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="214" priority="424" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",M455)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H450:N450">
-    <cfRule type="containsText" dxfId="211" priority="448" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="213" priority="450" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",H450)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N467">
-    <cfRule type="containsText" dxfId="210" priority="408" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="212" priority="410" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",N467)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H399:N399">
-    <cfRule type="containsText" dxfId="209" priority="391" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="211" priority="393" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",H399)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B466">
-    <cfRule type="containsText" dxfId="208" priority="439" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="210" priority="441" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B466)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M467">
-    <cfRule type="containsText" dxfId="207" priority="410" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="209" priority="412" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",M467)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G456">
-    <cfRule type="containsText" dxfId="206" priority="425" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="208" priority="427" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G456)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M466">
-    <cfRule type="containsText" dxfId="205" priority="414" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="207" priority="416" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",M466)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N455">
-    <cfRule type="containsText" dxfId="204" priority="420" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="206" priority="422" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",N455)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B455:B465">
-    <cfRule type="containsText" dxfId="203" priority="438" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="205" priority="440" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B455)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N466">
-    <cfRule type="containsText" dxfId="202" priority="412" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="204" priority="414" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",N466)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M456">
-    <cfRule type="containsText" dxfId="201" priority="418" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="203" priority="420" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",M456)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N456">
-    <cfRule type="containsText" dxfId="200" priority="416" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="202" priority="418" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",N456)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P342:X345">
-    <cfRule type="containsText" dxfId="199" priority="379" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="201" priority="381" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",P342)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E342:F342 E344:F345">
-    <cfRule type="containsText" dxfId="198" priority="378" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="200" priority="380" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",E342)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H344:H345">
-    <cfRule type="containsText" dxfId="197" priority="377" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="199" priority="379" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",H344)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I342 I344:I345">
-    <cfRule type="containsText" dxfId="196" priority="376" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="198" priority="378" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",I342)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J342 J344:J345">
-    <cfRule type="containsText" dxfId="195" priority="375" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="197" priority="377" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",J342)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K342 K344:K345">
-    <cfRule type="containsText" dxfId="194" priority="374" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="196" priority="376" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",K342)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L342 L344:L345">
-    <cfRule type="containsText" dxfId="193" priority="373" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="195" priority="375" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",L342)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M342 M344:M345">
-    <cfRule type="containsText" dxfId="192" priority="372" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="194" priority="374" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",M342)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N342 N344:N345">
-    <cfRule type="containsText" dxfId="191" priority="371" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="193" priority="373" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",N342)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P409:X409">
-    <cfRule type="containsText" dxfId="190" priority="370" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="192" priority="372" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",P409)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F409">
-    <cfRule type="containsText" dxfId="189" priority="369" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="191" priority="371" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",F409)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I409">
-    <cfRule type="containsText" dxfId="188" priority="367" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="190" priority="369" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",I409)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J409">
-    <cfRule type="containsText" dxfId="187" priority="366" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="189" priority="368" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",J409)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K409">
-    <cfRule type="containsText" dxfId="186" priority="365" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="188" priority="367" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",K409)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L409">
-    <cfRule type="containsText" dxfId="185" priority="364" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="187" priority="366" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",L409)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M409">
-    <cfRule type="containsText" dxfId="184" priority="363" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="186" priority="365" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",M409)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N409">
-    <cfRule type="containsText" dxfId="183" priority="362" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="185" priority="364" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",N409)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B505:B513">
-    <cfRule type="containsText" dxfId="182" priority="360" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="184" priority="362" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B505)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B514">
-    <cfRule type="containsText" dxfId="181" priority="339" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="183" priority="341" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B514)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B111:B114">
-    <cfRule type="containsText" dxfId="180" priority="327" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="182" priority="329" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B111)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B306 B296">
-    <cfRule type="containsText" dxfId="179" priority="328" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="181" priority="330" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B296)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B467:B475">
-    <cfRule type="containsText" dxfId="178" priority="325" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="180" priority="327" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B467)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B307:B321">
-    <cfRule type="containsText" dxfId="177" priority="326" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="179" priority="328" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B307)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B516">
-    <cfRule type="containsText" dxfId="176" priority="324" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="178" priority="326" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B516)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B450">
-    <cfRule type="containsText" dxfId="175" priority="322" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="177" priority="324" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B450)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B449">
-    <cfRule type="containsText" dxfId="174" priority="321" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="176" priority="323" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B449)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B322:B448">
-    <cfRule type="containsText" dxfId="173" priority="320" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="175" priority="322" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B322)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G504">
-    <cfRule type="containsText" dxfId="172" priority="300" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="174" priority="302" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G504)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C37 C39:C40">
-    <cfRule type="containsText" dxfId="171" priority="295" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="173" priority="297" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",C37)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E409">
-    <cfRule type="containsText" dxfId="170" priority="293" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="172" priority="295" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",E409)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M112:N112">
-    <cfRule type="containsText" dxfId="169" priority="286" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="171" priority="288" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",M112)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C71:D71">
-    <cfRule type="containsText" dxfId="168" priority="281" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="170" priority="283" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",C71)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C92:D92">
-    <cfRule type="containsText" dxfId="167" priority="279" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="169" priority="281" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",C92)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C129:D130">
-    <cfRule type="containsText" dxfId="166" priority="254" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="168" priority="256" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",C129)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G126:G130 M126:N130">
-    <cfRule type="containsText" dxfId="165" priority="253" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="167" priority="255" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G126)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B169:B171">
-    <cfRule type="containsText" dxfId="164" priority="252" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="166" priority="254" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B169)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G169:G170">
-    <cfRule type="containsText" dxfId="163" priority="251" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="165" priority="253" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G169)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H169:N170">
-    <cfRule type="containsText" dxfId="162" priority="250" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="164" priority="252" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",H169)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M446:N449 M438:N443 M420:N427 M92:N92 M87:N87 M71:N71 M54:N56 M50:N50 M37:N37 M39:N40">
-    <cfRule type="containsText" dxfId="161" priority="248" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="163" priority="250" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",M37)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M65:N65 G65">
-    <cfRule type="containsText" dxfId="160" priority="243" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="162" priority="245" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G65)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B64:B65">
-    <cfRule type="containsText" dxfId="159" priority="245" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="161" priority="247" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B64)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M64:N64 G64">
-    <cfRule type="containsText" dxfId="158" priority="244" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="160" priority="246" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G64)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B72:B73">
-    <cfRule type="containsText" dxfId="157" priority="239" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="159" priority="241" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B72)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M72:N72">
-    <cfRule type="containsText" dxfId="156" priority="241" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="158" priority="243" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",M72)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M73:N73">
-    <cfRule type="containsText" dxfId="155" priority="240" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="157" priority="242" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",M73)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B96:D107">
-    <cfRule type="containsText" dxfId="154" priority="236" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="156" priority="238" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B96)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M96:N107 G96:G107">
-    <cfRule type="containsText" dxfId="153" priority="237" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="155" priority="239" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G96)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M83:N83 G83">
-    <cfRule type="containsText" dxfId="152" priority="222" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="154" priority="224" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G83)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M82:N82 G82">
-    <cfRule type="containsText" dxfId="151" priority="221" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="153" priority="223" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G82)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G207:N207">
-    <cfRule type="containsText" dxfId="150" priority="229" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="152" priority="231" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G207)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B146:B147">
-    <cfRule type="containsText" dxfId="149" priority="231" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="151" priority="233" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B146)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G146:G147 M146:N147">
-    <cfRule type="containsText" dxfId="148" priority="230" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="150" priority="232" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G146)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B82">
-    <cfRule type="containsText" dxfId="147" priority="223" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="149" priority="225" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B82)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G123 M123:N123">
-    <cfRule type="containsText" dxfId="146" priority="220" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="148" priority="222" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G123)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B140:B141">
-    <cfRule type="containsText" dxfId="145" priority="217" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="147" priority="219" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B140)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G140:G141 M140:N141">
-    <cfRule type="containsText" dxfId="144" priority="216" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="146" priority="218" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G140)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B198:B200">
-    <cfRule type="containsText" dxfId="143" priority="167" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="145" priority="169" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B198)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M198:N200 G198:G200">
-    <cfRule type="containsText" dxfId="142" priority="166" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="144" priority="168" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G198)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B255:B258">
-    <cfRule type="containsText" dxfId="141" priority="156" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="143" priority="158" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B255)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B517:B546">
-    <cfRule type="containsText" dxfId="140" priority="153" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="142" priority="155" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B517)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G81">
-    <cfRule type="containsText" dxfId="139" priority="151" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="141" priority="153" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G81)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H171:N171">
-    <cfRule type="containsText" dxfId="138" priority="147" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="140" priority="149" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",H171)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F211:N211">
-    <cfRule type="containsText" dxfId="137" priority="145" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="139" priority="147" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",F211)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G171">
-    <cfRule type="containsText" dxfId="136" priority="148" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="138" priority="150" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G171)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F231:N249 F255:N256">
-    <cfRule type="containsText" dxfId="135" priority="142" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="137" priority="144" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",F231)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M117:N117 G117">
-    <cfRule type="containsText" dxfId="134" priority="141" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="136" priority="143" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G117)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B124:D124">
-    <cfRule type="containsText" dxfId="133" priority="140" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="135" priority="142" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B124)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G124 M124:N124">
-    <cfRule type="containsText" dxfId="132" priority="139" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="134" priority="141" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G124)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F250:N250">
-    <cfRule type="containsText" dxfId="131" priority="138" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="133" priority="140" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",F250)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1">
-    <cfRule type="containsText" dxfId="130" priority="137" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="132" priority="139" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",A1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G342">
-    <cfRule type="containsText" dxfId="129" priority="135" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="131" priority="137" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G342)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H342">
-    <cfRule type="containsText" dxfId="128" priority="134" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="130" priority="136" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",H342)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F340">
-    <cfRule type="containsText" dxfId="127" priority="133" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="129" priority="135" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",F340)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F350:F366">
-    <cfRule type="containsText" dxfId="126" priority="132" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="128" priority="134" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",F350)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I340">
-    <cfRule type="containsText" dxfId="125" priority="131" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="127" priority="133" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",I340)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J340">
-    <cfRule type="containsText" dxfId="124" priority="130" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="126" priority="132" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",J340)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K340">
-    <cfRule type="containsText" dxfId="123" priority="129" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="125" priority="131" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",K340)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L340">
-    <cfRule type="containsText" dxfId="122" priority="128" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="124" priority="130" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",L340)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M340">
-    <cfRule type="containsText" dxfId="121" priority="127" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="123" priority="129" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",M340)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N340">
-    <cfRule type="containsText" dxfId="120" priority="126" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="122" priority="128" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",N340)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H340">
-    <cfRule type="containsText" dxfId="119" priority="125" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="121" priority="127" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",H340)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G20:G24 M20:N24">
-    <cfRule type="containsText" dxfId="118" priority="121" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="120" priority="123" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G20)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G457:G465">
-    <cfRule type="containsText" dxfId="117" priority="120" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="119" priority="122" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G457)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M457:M465">
-    <cfRule type="containsText" dxfId="116" priority="119" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="118" priority="121" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",M457)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N457:N465">
-    <cfRule type="containsText" dxfId="115" priority="118" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="117" priority="120" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",N457)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M593:N593">
-    <cfRule type="containsText" dxfId="114" priority="117" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="116" priority="119" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",M593)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M594:N594">
-    <cfRule type="containsText" dxfId="113" priority="116" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="115" priority="118" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",M594)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F341">
-    <cfRule type="containsText" dxfId="112" priority="115" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="114" priority="117" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",F341)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I341">
-    <cfRule type="containsText" dxfId="111" priority="114" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="113" priority="116" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",I341)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J341">
-    <cfRule type="containsText" dxfId="110" priority="113" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="112" priority="115" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",J341)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K341">
-    <cfRule type="containsText" dxfId="109" priority="112" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="111" priority="114" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",K341)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L341">
-    <cfRule type="containsText" dxfId="108" priority="111" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="110" priority="113" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",L341)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M341">
-    <cfRule type="containsText" dxfId="107" priority="110" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="109" priority="112" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",M341)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N341">
-    <cfRule type="containsText" dxfId="106" priority="109" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="108" priority="111" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",N341)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H341">
-    <cfRule type="containsText" dxfId="105" priority="108" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="107" priority="110" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",H341)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E343:F343">
-    <cfRule type="containsText" dxfId="104" priority="107" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="106" priority="109" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",E343)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I343">
-    <cfRule type="containsText" dxfId="103" priority="106" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="105" priority="108" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",I343)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J343">
-    <cfRule type="containsText" dxfId="102" priority="105" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="104" priority="107" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",J343)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K343">
-    <cfRule type="containsText" dxfId="101" priority="104" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="103" priority="106" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",K343)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L343">
-    <cfRule type="containsText" dxfId="100" priority="103" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="102" priority="105" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",L343)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M343">
-    <cfRule type="containsText" dxfId="99" priority="102" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="101" priority="104" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",M343)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N343">
-    <cfRule type="containsText" dxfId="98" priority="101" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="100" priority="103" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",N343)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G343">
-    <cfRule type="containsText" dxfId="97" priority="100" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="99" priority="102" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G343)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H343">
-    <cfRule type="containsText" dxfId="96" priority="99" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="98" priority="101" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",H343)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H367:N367">
-    <cfRule type="containsText" dxfId="95" priority="98" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="97" priority="100" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",H367)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F367">
-    <cfRule type="containsText" dxfId="94" priority="97" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="96" priority="99" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",F367)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H368:N368">
-    <cfRule type="containsText" dxfId="93" priority="96" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="95" priority="98" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",H368)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F368">
-    <cfRule type="containsText" dxfId="92" priority="95" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="94" priority="97" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",F368)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H369:N369">
-    <cfRule type="containsText" dxfId="91" priority="94" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="93" priority="96" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",H369)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F369">
-    <cfRule type="containsText" dxfId="90" priority="93" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="92" priority="95" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",F369)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H379:N379">
-    <cfRule type="containsText" dxfId="89" priority="91" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="91" priority="93" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",H379)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F379">
-    <cfRule type="containsText" dxfId="88" priority="92" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="90" priority="94" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",F379)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H380:N384">
-    <cfRule type="containsText" dxfId="87" priority="89" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="89" priority="91" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",H380)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F380:F384">
-    <cfRule type="containsText" dxfId="86" priority="90" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="88" priority="92" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",F380)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M38:N38 G38 A38:C38">
-    <cfRule type="containsText" dxfId="85" priority="88" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="87" priority="90" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",A38)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A139:N139">
-    <cfRule type="containsText" dxfId="84" priority="83" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="86" priority="85" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",A139)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A125:N125">
-    <cfRule type="containsText" dxfId="83" priority="84" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="85" priority="86" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",A125)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A142:N143">
-    <cfRule type="containsText" dxfId="82" priority="82" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="84" priority="84" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",A142)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A172:A176 C172:N176">
-    <cfRule type="containsText" dxfId="81" priority="81" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="83" priority="83" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",A172)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A177:A196 C177:N196">
-    <cfRule type="containsText" dxfId="80" priority="80" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="82" priority="82" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",A177)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A251:N254">
-    <cfRule type="containsText" dxfId="79" priority="79" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="81" priority="81" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",A251)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M640:N640">
-    <cfRule type="containsText" dxfId="78" priority="30" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="80" priority="32" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",M640)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A261 H261:N261 C261:F261">
-    <cfRule type="containsText" dxfId="77" priority="77" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="79" priority="79" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",A261)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G447">
-    <cfRule type="containsText" dxfId="76" priority="75" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="78" priority="77" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G447)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G447">
-    <cfRule type="containsText" dxfId="75" priority="76" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="77" priority="78" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G447)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G448">
-    <cfRule type="containsText" dxfId="74" priority="73" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="76" priority="75" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G448)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G448">
-    <cfRule type="containsText" dxfId="73" priority="74" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="75" priority="76" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G448)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G449">
-    <cfRule type="containsText" dxfId="72" priority="71" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="74" priority="73" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G449)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G449">
-    <cfRule type="containsText" dxfId="71" priority="72" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="73" priority="74" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G449)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G450">
-    <cfRule type="containsText" dxfId="70" priority="69" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="72" priority="71" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G450)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G450">
-    <cfRule type="containsText" dxfId="69" priority="70" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="71" priority="72" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G450)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G451">
-    <cfRule type="containsText" dxfId="68" priority="67" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="70" priority="69" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G451)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G451">
-    <cfRule type="containsText" dxfId="67" priority="68" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="69" priority="70" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G451)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G452">
-    <cfRule type="containsText" dxfId="66" priority="65" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="68" priority="67" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G452)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G452">
-    <cfRule type="containsText" dxfId="65" priority="66" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="67" priority="68" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G452)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G453">
-    <cfRule type="containsText" dxfId="64" priority="63" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="66" priority="65" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G453)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G453">
-    <cfRule type="containsText" dxfId="63" priority="64" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="65" priority="66" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G453)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G454">
-    <cfRule type="containsText" dxfId="62" priority="61" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="64" priority="63" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G454)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G454">
-    <cfRule type="containsText" dxfId="61" priority="62" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="63" priority="64" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G454)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G455">
-    <cfRule type="containsText" dxfId="60" priority="59" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="62" priority="61" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G455)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G455">
-    <cfRule type="containsText" dxfId="59" priority="60" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="61" priority="62" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G455)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G466">
-    <cfRule type="containsText" dxfId="58" priority="57" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="60" priority="59" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G466)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G466">
-    <cfRule type="containsText" dxfId="57" priority="58" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="59" priority="60" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G466)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G467">
-    <cfRule type="containsText" dxfId="56" priority="55" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="58" priority="57" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G467)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G467">
-    <cfRule type="containsText" dxfId="55" priority="56" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="57" priority="58" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G467)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G468">
-    <cfRule type="containsText" dxfId="54" priority="53" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="56" priority="55" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G468)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G468">
-    <cfRule type="containsText" dxfId="53" priority="54" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="55" priority="56" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G468)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G469">
-    <cfRule type="containsText" dxfId="52" priority="51" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="54" priority="53" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G469)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G469">
-    <cfRule type="containsText" dxfId="51" priority="52" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="53" priority="54" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G469)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G470">
-    <cfRule type="containsText" dxfId="50" priority="49" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="52" priority="51" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G470)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G470">
-    <cfRule type="containsText" dxfId="49" priority="50" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="51" priority="52" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G470)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G471">
-    <cfRule type="containsText" dxfId="48" priority="47" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="50" priority="49" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G471)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G471">
-    <cfRule type="containsText" dxfId="47" priority="48" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="49" priority="50" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G471)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G472">
-    <cfRule type="containsText" dxfId="46" priority="45" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="48" priority="47" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G472)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G472">
-    <cfRule type="containsText" dxfId="45" priority="46" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="47" priority="48" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G472)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G473">
-    <cfRule type="containsText" dxfId="44" priority="43" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="46" priority="45" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G473)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G473">
-    <cfRule type="containsText" dxfId="43" priority="44" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="45" priority="46" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G473)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G474">
-    <cfRule type="containsText" dxfId="42" priority="41" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="44" priority="43" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G474)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G474">
-    <cfRule type="containsText" dxfId="41" priority="42" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="43" priority="44" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G474)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G475">
-    <cfRule type="containsText" dxfId="40" priority="39" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="42" priority="41" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G475)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G475">
-    <cfRule type="containsText" dxfId="39" priority="40" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="41" priority="42" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G475)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G476">
-    <cfRule type="containsText" dxfId="38" priority="37" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="40" priority="39" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G476)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G476">
-    <cfRule type="containsText" dxfId="37" priority="38" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="39" priority="40" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G476)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G477">
-    <cfRule type="containsText" dxfId="36" priority="35" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="38" priority="37" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G477)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G477">
-    <cfRule type="containsText" dxfId="35" priority="36" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="37" priority="38" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G477)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G478">
-    <cfRule type="containsText" dxfId="34" priority="33" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="36" priority="35" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G478)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G478">
-    <cfRule type="containsText" dxfId="33" priority="34" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="35" priority="36" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G478)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G479">
-    <cfRule type="containsText" dxfId="32" priority="31" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="34" priority="33" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G479)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G479">
-    <cfRule type="containsText" dxfId="31" priority="32" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="33" priority="34" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G479)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G31:G36 G25:G28 B25:C36 M25:N36">
-    <cfRule type="containsText" dxfId="30" priority="28" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="32" priority="30" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B25)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G29:G30">
-    <cfRule type="containsText" dxfId="29" priority="29" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="31" priority="31" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G29)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G4 M4:N4 A4:C4">
-    <cfRule type="containsText" dxfId="28" priority="25" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="30" priority="27" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",A4)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O2:O90 O92:O670">
-    <cfRule type="containsText" dxfId="27" priority="23" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="29" priority="25" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",O2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2:G3 B2:C3 M2:N3">
-    <cfRule type="containsText" dxfId="26" priority="24" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="28" priority="26" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G261">
-    <cfRule type="containsText" dxfId="25" priority="22" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="27" priority="24" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G261)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A91:G91 O91">
-    <cfRule type="containsText" dxfId="24" priority="21" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="26" priority="23" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",A91)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B261">
-    <cfRule type="containsText" dxfId="23" priority="20" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="25" priority="22" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B261)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B515">
-    <cfRule type="containsText" dxfId="22" priority="19" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="24" priority="21" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B515)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M515:N515 G515">
-    <cfRule type="containsText" dxfId="21" priority="18" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="23" priority="20" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G515)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B172:B196">
-    <cfRule type="containsText" dxfId="20" priority="15" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="22" priority="17" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B172)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B172:B196">
-    <cfRule type="containsText" dxfId="19" priority="16" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="21" priority="18" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B172)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A63:B63">
-    <cfRule type="containsText" dxfId="14" priority="14" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="16" priority="16" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",A63)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A108:B108">
-    <cfRule type="containsText" dxfId="12" priority="13" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="14" priority="15" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",A108)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B108:C108">
-    <cfRule type="containsText" dxfId="11" priority="12" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="13" priority="14" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B108)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B109">
-    <cfRule type="containsText" dxfId="10" priority="11" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="12" priority="13" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B109)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B110">
-    <cfRule type="containsText" dxfId="9" priority="10" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="11" priority="12" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B110)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B112">
-    <cfRule type="containsText" dxfId="8" priority="9" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="10" priority="11" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B112)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B113">
-    <cfRule type="containsText" dxfId="7" priority="8" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="9" priority="10" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B113)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B114">
-    <cfRule type="containsText" dxfId="6" priority="7" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="8" priority="9" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B114)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B115">
-    <cfRule type="containsText" dxfId="5" priority="6" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="7" priority="8" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B115)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B115">
-    <cfRule type="containsText" dxfId="4" priority="5" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="6" priority="7" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B115)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A119:B119">
-    <cfRule type="containsText" dxfId="3" priority="4" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="5" priority="6" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",A119)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B119">
-    <cfRule type="containsText" dxfId="2" priority="3" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="4" priority="5" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B119)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B122">
-    <cfRule type="containsText" dxfId="1" priority="2" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="3" priority="4" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B122)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B122">
+    <cfRule type="containsText" dxfId="2" priority="3" operator="containsText" text="&lt;?&gt;">
+      <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B122)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B124">
+    <cfRule type="containsText" dxfId="1" priority="2" operator="containsText" text="&lt;?&gt;">
+      <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B124)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B124">
     <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="&lt;?&gt;">
-      <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B122)))</formula>
+      <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B124)))</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -45447,7 +45477,7 @@
   </sheetData>
   <autoFilter ref="A1:B1" xr:uid="{AF62FD2E-052D-40DF-8032-68688A8C1623}"/>
   <conditionalFormatting sqref="A2:B479">
-    <cfRule type="containsText" dxfId="18" priority="2" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="20" priority="2" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",A2)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -45777,12 +45807,12 @@
     <mergeCell ref="A1:B1"/>
   </mergeCells>
   <conditionalFormatting sqref="A1 C1 A2:C37 A39:C1048576">
-    <cfRule type="containsText" dxfId="17" priority="31" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="19" priority="31" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",A1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A38:C38">
-    <cfRule type="containsText" dxfId="16" priority="6" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="18" priority="6" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",A38)))</formula>
     </cfRule>
   </conditionalFormatting>

--- a/1.0.4/matrix/Validatiematrix v1.2.xlsx
+++ b/1.0.4/matrix/Validatiematrix v1.2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Default.DESKTOP-NDDI22K\Documents\Geonovum\github\xml_validatietestcontent\1.0.4\matrix\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFDA0216-4955-4F90-8581-9C294E7D5167}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7866B167-7543-41F5-B6FC-9790671F5796}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="348" windowWidth="23256" windowHeight="12720" tabRatio="670" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9519" uniqueCount="1788">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9520" uniqueCount="1788">
   <si>
     <t>Is Opdracht.zip een geldige zip</t>
   </si>
@@ -6077,7 +6077,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="84">
+  <cellXfs count="85">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -6329,6 +6329,9 @@
     <xf numFmtId="0" fontId="8" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="8" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="8">
     <cellStyle name="Normal 2" xfId="4" xr:uid="{0EC6E668-CD22-429A-B10D-9E4834C96B63}"/>
@@ -6340,7 +6343,47 @@
     <cellStyle name="Standaard 3 2" xfId="3" xr:uid="{A1634239-92B9-4583-AB04-DEBDF9A9A44B}"/>
     <cellStyle name="Standaard 3 3" xfId="5" xr:uid="{C77AD319-D6C6-4ABD-AE5A-A2C0A40B68E7}"/>
   </cellStyles>
-  <dxfs count="228">
+  <dxfs count="232">
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FFFF0000"/>
@@ -8990,7 +9033,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A101" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B125" sqref="B125"/>
+      <selection pane="bottomLeft" activeCell="A126" sqref="A126"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -14980,11 +15023,11 @@
       </c>
     </row>
     <row r="125" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A125" s="70" t="s">
+      <c r="A125" s="84" t="s">
         <v>1169</v>
       </c>
-      <c r="B125" s="74">
-        <v>2</v>
+      <c r="B125" s="81" t="s">
+        <v>1779</v>
       </c>
       <c r="C125" s="40" t="s">
         <v>1281</v>
@@ -41260,1123 +41303,1143 @@
   </autoFilter>
   <phoneticPr fontId="5" type="noConversion"/>
   <conditionalFormatting sqref="F335:F339 C111:C115 F397:F408 F322:F333 F201 F269:F271 F267 F265 F259:F260 F223:F225 F219:F220 F214:F216 F203:F205 F291:G291 E450 H400:N408 G322:N339 E444:N445 M468:N475 B41:C53 B57:C62 B93:C95 B131:C138 M113:N116 G131:G138 M131:N138 B74:C81 M197:N197 G197 M41:N49 M51:N53 M57:N63 M74:N80 M88:N90 M93:N95 G51:G53 G57:G63 G74:G80 G88:G90 G93:G95 M577:N592 B66:C68 G66:G68 M66:N68 B109:C110 G108:G116 M108:N111 B148:C154 B83:C90 G84:G86 M84:N86 C116:D123 B144:C145 M144:N145 G144:G145 H155:N168 M148:N168 G148:G168 G201:N206 M451:N454 G505:G514 M504:N514 F208:N210 F212 F227:F230 G212:N230 G257:N260 F257 G118:G122 M118:N122 C126:D128 F370:F373 F346:G349 H346:N366 G370:G375 G385:G408 M596:N639 H370:N378 H385:N396 G39:G49 G37 A2:A3 B70:C70 M70:N70 G70 B1:O1 A126:B138 A140:B141 A144:B171 A197:B250 A255:B260 A262:B514 G262:N276 F262:F263 M641:N670 A37:B37 A25:A36 M5:N19 G5:G19 A516:B670 A515 M516:N575 G516:G670 A5:C24 A39:B62 A64:B68 A70:B90 A92:B107 A109:B118 A120:B124">
-    <cfRule type="containsText" dxfId="15" priority="382" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="19" priority="386" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",A1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B297:B305 B201:B206 B208:B250">
-    <cfRule type="containsText" dxfId="227" priority="477" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="231" priority="481" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B201)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F394:F396">
-    <cfRule type="containsText" dxfId="226" priority="467" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="230" priority="471" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",F394)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H290:N290">
-    <cfRule type="containsText" dxfId="225" priority="475" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="229" priority="479" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",H290)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M444:N445">
-    <cfRule type="containsText" dxfId="224" priority="466" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="228" priority="470" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",M444)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H445:L445">
-    <cfRule type="containsText" dxfId="223" priority="465" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="227" priority="469" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",H445)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G445:L445">
-    <cfRule type="containsText" dxfId="222" priority="464" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="226" priority="468" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G445)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M445:N445">
-    <cfRule type="containsText" dxfId="221" priority="462" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="225" priority="466" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",M445)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H444:L444">
-    <cfRule type="containsText" dxfId="220" priority="461" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="224" priority="465" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",H444)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G444:L444">
-    <cfRule type="containsText" dxfId="219" priority="460" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="223" priority="464" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G444)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M444:N444">
-    <cfRule type="containsText" dxfId="218" priority="458" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="222" priority="462" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",M444)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F334">
-    <cfRule type="containsText" dxfId="217" priority="457" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="221" priority="461" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",F334)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F374:F378 F385:F393">
-    <cfRule type="containsText" dxfId="216" priority="456" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="220" priority="460" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",F374)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H397:N398">
-    <cfRule type="containsText" dxfId="215" priority="455" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="219" priority="459" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",H397)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M455">
-    <cfRule type="containsText" dxfId="214" priority="424" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="218" priority="428" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",M455)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H450:N450">
-    <cfRule type="containsText" dxfId="213" priority="450" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="217" priority="454" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",H450)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N467">
-    <cfRule type="containsText" dxfId="212" priority="410" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="216" priority="414" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",N467)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H399:N399">
-    <cfRule type="containsText" dxfId="211" priority="393" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="215" priority="397" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",H399)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B466">
-    <cfRule type="containsText" dxfId="210" priority="441" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="214" priority="445" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B466)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M467">
-    <cfRule type="containsText" dxfId="209" priority="412" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="213" priority="416" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",M467)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G456">
-    <cfRule type="containsText" dxfId="208" priority="427" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="212" priority="431" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G456)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M466">
-    <cfRule type="containsText" dxfId="207" priority="416" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="211" priority="420" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",M466)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N455">
-    <cfRule type="containsText" dxfId="206" priority="422" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="210" priority="426" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",N455)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B455:B465">
-    <cfRule type="containsText" dxfId="205" priority="440" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="209" priority="444" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B455)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N466">
-    <cfRule type="containsText" dxfId="204" priority="414" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="208" priority="418" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",N466)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M456">
-    <cfRule type="containsText" dxfId="203" priority="420" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="207" priority="424" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",M456)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N456">
-    <cfRule type="containsText" dxfId="202" priority="418" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="206" priority="422" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",N456)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P342:X345">
-    <cfRule type="containsText" dxfId="201" priority="381" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="205" priority="385" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",P342)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E342:F342 E344:F345">
-    <cfRule type="containsText" dxfId="200" priority="380" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="204" priority="384" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",E342)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H344:H345">
-    <cfRule type="containsText" dxfId="199" priority="379" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="203" priority="383" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",H344)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I342 I344:I345">
-    <cfRule type="containsText" dxfId="198" priority="378" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="202" priority="382" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",I342)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J342 J344:J345">
-    <cfRule type="containsText" dxfId="197" priority="377" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="201" priority="381" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",J342)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K342 K344:K345">
-    <cfRule type="containsText" dxfId="196" priority="376" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="200" priority="380" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",K342)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L342 L344:L345">
-    <cfRule type="containsText" dxfId="195" priority="375" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="199" priority="379" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",L342)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M342 M344:M345">
-    <cfRule type="containsText" dxfId="194" priority="374" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="198" priority="378" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",M342)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N342 N344:N345">
-    <cfRule type="containsText" dxfId="193" priority="373" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="197" priority="377" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",N342)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P409:X409">
-    <cfRule type="containsText" dxfId="192" priority="372" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="196" priority="376" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",P409)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F409">
-    <cfRule type="containsText" dxfId="191" priority="371" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="195" priority="375" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",F409)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I409">
-    <cfRule type="containsText" dxfId="190" priority="369" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="194" priority="373" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",I409)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J409">
-    <cfRule type="containsText" dxfId="189" priority="368" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="193" priority="372" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",J409)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K409">
-    <cfRule type="containsText" dxfId="188" priority="367" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="192" priority="371" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",K409)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L409">
-    <cfRule type="containsText" dxfId="187" priority="366" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="191" priority="370" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",L409)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M409">
-    <cfRule type="containsText" dxfId="186" priority="365" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="190" priority="369" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",M409)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N409">
-    <cfRule type="containsText" dxfId="185" priority="364" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="189" priority="368" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",N409)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B505:B513">
-    <cfRule type="containsText" dxfId="184" priority="362" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="188" priority="366" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B505)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B514">
-    <cfRule type="containsText" dxfId="183" priority="341" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="187" priority="345" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B514)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B111:B114">
-    <cfRule type="containsText" dxfId="182" priority="329" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="186" priority="333" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B111)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B306 B296">
-    <cfRule type="containsText" dxfId="181" priority="330" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="185" priority="334" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B296)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B467:B475">
-    <cfRule type="containsText" dxfId="180" priority="327" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="184" priority="331" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B467)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B307:B321">
-    <cfRule type="containsText" dxfId="179" priority="328" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="183" priority="332" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B307)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B516">
-    <cfRule type="containsText" dxfId="178" priority="326" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="182" priority="330" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B516)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B450">
-    <cfRule type="containsText" dxfId="177" priority="324" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="181" priority="328" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B450)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B449">
-    <cfRule type="containsText" dxfId="176" priority="323" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="180" priority="327" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B449)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B322:B448">
-    <cfRule type="containsText" dxfId="175" priority="322" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="179" priority="326" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B322)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G504">
-    <cfRule type="containsText" dxfId="174" priority="302" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="178" priority="306" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G504)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C37 C39:C40">
-    <cfRule type="containsText" dxfId="173" priority="297" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="177" priority="301" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",C37)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E409">
-    <cfRule type="containsText" dxfId="172" priority="295" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="176" priority="299" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",E409)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M112:N112">
-    <cfRule type="containsText" dxfId="171" priority="288" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="175" priority="292" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",M112)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C71:D71">
-    <cfRule type="containsText" dxfId="170" priority="283" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="174" priority="287" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",C71)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C92:D92">
-    <cfRule type="containsText" dxfId="169" priority="281" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="173" priority="285" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",C92)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C129:D130">
-    <cfRule type="containsText" dxfId="168" priority="256" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="172" priority="260" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",C129)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G126:G130 M126:N130">
-    <cfRule type="containsText" dxfId="167" priority="255" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="171" priority="259" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G126)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B169:B171">
-    <cfRule type="containsText" dxfId="166" priority="254" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="170" priority="258" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B169)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G169:G170">
-    <cfRule type="containsText" dxfId="165" priority="253" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="169" priority="257" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G169)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H169:N170">
-    <cfRule type="containsText" dxfId="164" priority="252" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="168" priority="256" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",H169)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M446:N449 M438:N443 M420:N427 M92:N92 M87:N87 M71:N71 M54:N56 M50:N50 M37:N37 M39:N40">
-    <cfRule type="containsText" dxfId="163" priority="250" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="167" priority="254" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",M37)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M65:N65 G65">
-    <cfRule type="containsText" dxfId="162" priority="245" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="166" priority="249" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G65)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B64:B65">
-    <cfRule type="containsText" dxfId="161" priority="247" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="165" priority="251" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B64)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M64:N64 G64">
-    <cfRule type="containsText" dxfId="160" priority="246" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="164" priority="250" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G64)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B72:B73">
-    <cfRule type="containsText" dxfId="159" priority="241" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="163" priority="245" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B72)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M72:N72">
-    <cfRule type="containsText" dxfId="158" priority="243" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="162" priority="247" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",M72)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M73:N73">
-    <cfRule type="containsText" dxfId="157" priority="242" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="161" priority="246" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",M73)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B96:D107">
-    <cfRule type="containsText" dxfId="156" priority="238" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="160" priority="242" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B96)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M96:N107 G96:G107">
-    <cfRule type="containsText" dxfId="155" priority="239" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="159" priority="243" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G96)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M83:N83 G83">
-    <cfRule type="containsText" dxfId="154" priority="224" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="158" priority="228" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G83)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M82:N82 G82">
-    <cfRule type="containsText" dxfId="153" priority="223" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="157" priority="227" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G82)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G207:N207">
-    <cfRule type="containsText" dxfId="152" priority="231" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="156" priority="235" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G207)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B146:B147">
-    <cfRule type="containsText" dxfId="151" priority="233" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="155" priority="237" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B146)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G146:G147 M146:N147">
-    <cfRule type="containsText" dxfId="150" priority="232" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="154" priority="236" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G146)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B82">
-    <cfRule type="containsText" dxfId="149" priority="225" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="153" priority="229" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B82)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G123 M123:N123">
-    <cfRule type="containsText" dxfId="148" priority="222" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="152" priority="226" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G123)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B140:B141">
-    <cfRule type="containsText" dxfId="147" priority="219" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="151" priority="223" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B140)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G140:G141 M140:N141">
-    <cfRule type="containsText" dxfId="146" priority="218" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="150" priority="222" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G140)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B198:B200">
-    <cfRule type="containsText" dxfId="145" priority="169" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="149" priority="173" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B198)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M198:N200 G198:G200">
-    <cfRule type="containsText" dxfId="144" priority="168" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="148" priority="172" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G198)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B255:B258">
-    <cfRule type="containsText" dxfId="143" priority="158" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="147" priority="162" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B255)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B517:B546">
-    <cfRule type="containsText" dxfId="142" priority="155" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="146" priority="159" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B517)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G81">
-    <cfRule type="containsText" dxfId="141" priority="153" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="145" priority="157" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G81)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H171:N171">
-    <cfRule type="containsText" dxfId="140" priority="149" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="144" priority="153" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",H171)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F211:N211">
-    <cfRule type="containsText" dxfId="139" priority="147" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="143" priority="151" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",F211)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G171">
-    <cfRule type="containsText" dxfId="138" priority="150" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="142" priority="154" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G171)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F231:N249 F255:N256">
-    <cfRule type="containsText" dxfId="137" priority="144" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="141" priority="148" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",F231)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M117:N117 G117">
-    <cfRule type="containsText" dxfId="136" priority="143" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="140" priority="147" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G117)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B124:D124">
-    <cfRule type="containsText" dxfId="135" priority="142" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="139" priority="146" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B124)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G124 M124:N124">
-    <cfRule type="containsText" dxfId="134" priority="141" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="138" priority="145" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G124)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F250:N250">
-    <cfRule type="containsText" dxfId="133" priority="140" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="137" priority="144" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",F250)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1">
-    <cfRule type="containsText" dxfId="132" priority="139" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="136" priority="143" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",A1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G342">
-    <cfRule type="containsText" dxfId="131" priority="137" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="135" priority="141" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G342)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H342">
-    <cfRule type="containsText" dxfId="130" priority="136" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="134" priority="140" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",H342)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F340">
-    <cfRule type="containsText" dxfId="129" priority="135" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="133" priority="139" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",F340)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F350:F366">
-    <cfRule type="containsText" dxfId="128" priority="134" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="132" priority="138" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",F350)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I340">
-    <cfRule type="containsText" dxfId="127" priority="133" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="131" priority="137" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",I340)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J340">
-    <cfRule type="containsText" dxfId="126" priority="132" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="130" priority="136" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",J340)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K340">
-    <cfRule type="containsText" dxfId="125" priority="131" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="129" priority="135" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",K340)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L340">
-    <cfRule type="containsText" dxfId="124" priority="130" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="128" priority="134" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",L340)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M340">
-    <cfRule type="containsText" dxfId="123" priority="129" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="127" priority="133" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",M340)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N340">
-    <cfRule type="containsText" dxfId="122" priority="128" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="126" priority="132" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",N340)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H340">
-    <cfRule type="containsText" dxfId="121" priority="127" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="125" priority="131" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",H340)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G20:G24 M20:N24">
-    <cfRule type="containsText" dxfId="120" priority="123" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="124" priority="127" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G20)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G457:G465">
-    <cfRule type="containsText" dxfId="119" priority="122" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="123" priority="126" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G457)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M457:M465">
-    <cfRule type="containsText" dxfId="118" priority="121" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="122" priority="125" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",M457)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N457:N465">
-    <cfRule type="containsText" dxfId="117" priority="120" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="121" priority="124" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",N457)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M593:N593">
-    <cfRule type="containsText" dxfId="116" priority="119" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="120" priority="123" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",M593)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M594:N594">
-    <cfRule type="containsText" dxfId="115" priority="118" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="119" priority="122" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",M594)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F341">
-    <cfRule type="containsText" dxfId="114" priority="117" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="118" priority="121" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",F341)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I341">
-    <cfRule type="containsText" dxfId="113" priority="116" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="117" priority="120" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",I341)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J341">
-    <cfRule type="containsText" dxfId="112" priority="115" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="116" priority="119" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",J341)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K341">
-    <cfRule type="containsText" dxfId="111" priority="114" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="115" priority="118" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",K341)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L341">
-    <cfRule type="containsText" dxfId="110" priority="113" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="114" priority="117" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",L341)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M341">
-    <cfRule type="containsText" dxfId="109" priority="112" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="113" priority="116" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",M341)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N341">
-    <cfRule type="containsText" dxfId="108" priority="111" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="112" priority="115" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",N341)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H341">
-    <cfRule type="containsText" dxfId="107" priority="110" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="111" priority="114" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",H341)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E343:F343">
-    <cfRule type="containsText" dxfId="106" priority="109" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="110" priority="113" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",E343)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I343">
-    <cfRule type="containsText" dxfId="105" priority="108" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="109" priority="112" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",I343)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J343">
-    <cfRule type="containsText" dxfId="104" priority="107" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="108" priority="111" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",J343)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K343">
-    <cfRule type="containsText" dxfId="103" priority="106" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="107" priority="110" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",K343)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L343">
-    <cfRule type="containsText" dxfId="102" priority="105" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="106" priority="109" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",L343)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M343">
-    <cfRule type="containsText" dxfId="101" priority="104" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="105" priority="108" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",M343)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N343">
-    <cfRule type="containsText" dxfId="100" priority="103" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="104" priority="107" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",N343)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G343">
-    <cfRule type="containsText" dxfId="99" priority="102" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="103" priority="106" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G343)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H343">
-    <cfRule type="containsText" dxfId="98" priority="101" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="102" priority="105" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",H343)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H367:N367">
-    <cfRule type="containsText" dxfId="97" priority="100" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="101" priority="104" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",H367)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F367">
-    <cfRule type="containsText" dxfId="96" priority="99" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="100" priority="103" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",F367)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H368:N368">
-    <cfRule type="containsText" dxfId="95" priority="98" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="99" priority="102" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",H368)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F368">
-    <cfRule type="containsText" dxfId="94" priority="97" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="98" priority="101" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",F368)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H369:N369">
-    <cfRule type="containsText" dxfId="93" priority="96" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="97" priority="100" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",H369)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F369">
-    <cfRule type="containsText" dxfId="92" priority="95" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="96" priority="99" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",F369)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H379:N379">
-    <cfRule type="containsText" dxfId="91" priority="93" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="95" priority="97" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",H379)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F379">
-    <cfRule type="containsText" dxfId="90" priority="94" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="94" priority="98" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",F379)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H380:N384">
-    <cfRule type="containsText" dxfId="89" priority="91" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="93" priority="95" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",H380)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F380:F384">
-    <cfRule type="containsText" dxfId="88" priority="92" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="92" priority="96" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",F380)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M38:N38 G38 A38:C38">
-    <cfRule type="containsText" dxfId="87" priority="90" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="91" priority="94" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",A38)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A139:N139">
-    <cfRule type="containsText" dxfId="86" priority="85" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="90" priority="89" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",A139)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A125:N125">
-    <cfRule type="containsText" dxfId="85" priority="86" operator="containsText" text="&lt;?&gt;">
+  <conditionalFormatting sqref="A125 C125:N125">
+    <cfRule type="containsText" dxfId="89" priority="90" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",A125)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A142:N143">
-    <cfRule type="containsText" dxfId="84" priority="84" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="88" priority="88" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",A142)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A172:A176 C172:N176">
-    <cfRule type="containsText" dxfId="83" priority="83" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="87" priority="87" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",A172)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A177:A196 C177:N196">
-    <cfRule type="containsText" dxfId="82" priority="82" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="86" priority="86" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",A177)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A251:N254">
-    <cfRule type="containsText" dxfId="81" priority="81" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="85" priority="85" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",A251)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M640:N640">
-    <cfRule type="containsText" dxfId="80" priority="32" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="84" priority="36" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",M640)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A261 H261:N261 C261:F261">
-    <cfRule type="containsText" dxfId="79" priority="79" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="83" priority="83" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",A261)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G447">
-    <cfRule type="containsText" dxfId="78" priority="77" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="82" priority="81" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G447)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G447">
-    <cfRule type="containsText" dxfId="77" priority="78" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="81" priority="82" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G447)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G448">
-    <cfRule type="containsText" dxfId="76" priority="75" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="80" priority="79" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G448)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G448">
-    <cfRule type="containsText" dxfId="75" priority="76" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="79" priority="80" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G448)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G449">
-    <cfRule type="containsText" dxfId="74" priority="73" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="78" priority="77" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G449)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G449">
-    <cfRule type="containsText" dxfId="73" priority="74" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="77" priority="78" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G449)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G450">
-    <cfRule type="containsText" dxfId="72" priority="71" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="76" priority="75" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G450)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G450">
-    <cfRule type="containsText" dxfId="71" priority="72" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="75" priority="76" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G450)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G451">
-    <cfRule type="containsText" dxfId="70" priority="69" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="74" priority="73" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G451)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G451">
-    <cfRule type="containsText" dxfId="69" priority="70" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="73" priority="74" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G451)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G452">
-    <cfRule type="containsText" dxfId="68" priority="67" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="72" priority="71" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G452)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G452">
-    <cfRule type="containsText" dxfId="67" priority="68" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="71" priority="72" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G452)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G453">
-    <cfRule type="containsText" dxfId="66" priority="65" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="70" priority="69" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G453)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G453">
-    <cfRule type="containsText" dxfId="65" priority="66" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="69" priority="70" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G453)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G454">
-    <cfRule type="containsText" dxfId="64" priority="63" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="68" priority="67" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G454)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G454">
-    <cfRule type="containsText" dxfId="63" priority="64" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="67" priority="68" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G454)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G455">
-    <cfRule type="containsText" dxfId="62" priority="61" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="66" priority="65" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G455)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G455">
-    <cfRule type="containsText" dxfId="61" priority="62" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="65" priority="66" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G455)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G466">
-    <cfRule type="containsText" dxfId="60" priority="59" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="64" priority="63" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G466)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G466">
-    <cfRule type="containsText" dxfId="59" priority="60" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="63" priority="64" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G466)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G467">
-    <cfRule type="containsText" dxfId="58" priority="57" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="62" priority="61" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G467)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G467">
-    <cfRule type="containsText" dxfId="57" priority="58" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="61" priority="62" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G467)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G468">
-    <cfRule type="containsText" dxfId="56" priority="55" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="60" priority="59" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G468)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G468">
-    <cfRule type="containsText" dxfId="55" priority="56" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="59" priority="60" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G468)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G469">
-    <cfRule type="containsText" dxfId="54" priority="53" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="58" priority="57" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G469)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G469">
-    <cfRule type="containsText" dxfId="53" priority="54" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="57" priority="58" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G469)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G470">
-    <cfRule type="containsText" dxfId="52" priority="51" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="56" priority="55" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G470)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G470">
-    <cfRule type="containsText" dxfId="51" priority="52" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="55" priority="56" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G470)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G471">
-    <cfRule type="containsText" dxfId="50" priority="49" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="54" priority="53" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G471)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G471">
-    <cfRule type="containsText" dxfId="49" priority="50" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="53" priority="54" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G471)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G472">
-    <cfRule type="containsText" dxfId="48" priority="47" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="52" priority="51" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G472)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G472">
-    <cfRule type="containsText" dxfId="47" priority="48" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="51" priority="52" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G472)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G473">
-    <cfRule type="containsText" dxfId="46" priority="45" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="50" priority="49" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G473)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G473">
-    <cfRule type="containsText" dxfId="45" priority="46" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="49" priority="50" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G473)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G474">
-    <cfRule type="containsText" dxfId="44" priority="43" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="48" priority="47" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G474)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G474">
-    <cfRule type="containsText" dxfId="43" priority="44" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="47" priority="48" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G474)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G475">
-    <cfRule type="containsText" dxfId="42" priority="41" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="46" priority="45" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G475)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G475">
-    <cfRule type="containsText" dxfId="41" priority="42" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="45" priority="46" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G475)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G476">
-    <cfRule type="containsText" dxfId="40" priority="39" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="44" priority="43" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G476)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G476">
-    <cfRule type="containsText" dxfId="39" priority="40" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="43" priority="44" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G476)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G477">
-    <cfRule type="containsText" dxfId="38" priority="37" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="42" priority="41" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G477)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G477">
-    <cfRule type="containsText" dxfId="37" priority="38" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="41" priority="42" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G477)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G478">
-    <cfRule type="containsText" dxfId="36" priority="35" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="40" priority="39" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G478)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G478">
-    <cfRule type="containsText" dxfId="35" priority="36" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="39" priority="40" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G478)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G479">
-    <cfRule type="containsText" dxfId="34" priority="33" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="38" priority="37" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G479)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G479">
-    <cfRule type="containsText" dxfId="33" priority="34" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="37" priority="38" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G479)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G31:G36 G25:G28 B25:C36 M25:N36">
-    <cfRule type="containsText" dxfId="32" priority="30" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="36" priority="34" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B25)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G29:G30">
-    <cfRule type="containsText" dxfId="31" priority="31" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="35" priority="35" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G29)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G4 M4:N4 A4:C4">
-    <cfRule type="containsText" dxfId="30" priority="27" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="34" priority="31" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",A4)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O2:O90 O92:O670">
-    <cfRule type="containsText" dxfId="29" priority="25" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="33" priority="29" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",O2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2:G3 B2:C3 M2:N3">
-    <cfRule type="containsText" dxfId="28" priority="26" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="32" priority="30" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G261">
-    <cfRule type="containsText" dxfId="27" priority="24" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="31" priority="28" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G261)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A91:G91 O91">
-    <cfRule type="containsText" dxfId="26" priority="23" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="30" priority="27" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",A91)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B261">
-    <cfRule type="containsText" dxfId="25" priority="22" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="29" priority="26" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B261)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B515">
-    <cfRule type="containsText" dxfId="24" priority="21" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="28" priority="25" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B515)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M515:N515 G515">
-    <cfRule type="containsText" dxfId="23" priority="20" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="27" priority="24" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G515)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B172:B196">
-    <cfRule type="containsText" dxfId="22" priority="17" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="26" priority="21" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B172)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B172:B196">
-    <cfRule type="containsText" dxfId="21" priority="18" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="25" priority="22" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B172)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A63:B63">
-    <cfRule type="containsText" dxfId="16" priority="16" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="20" priority="20" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",A63)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A108:B108">
-    <cfRule type="containsText" dxfId="14" priority="15" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="18" priority="19" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",A108)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B108:C108">
-    <cfRule type="containsText" dxfId="13" priority="14" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="17" priority="18" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B108)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B109">
-    <cfRule type="containsText" dxfId="12" priority="13" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="16" priority="17" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B109)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B110">
-    <cfRule type="containsText" dxfId="11" priority="12" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="15" priority="16" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B110)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B112">
-    <cfRule type="containsText" dxfId="10" priority="11" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="14" priority="15" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B112)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B113">
-    <cfRule type="containsText" dxfId="9" priority="10" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="13" priority="14" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B113)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B114">
-    <cfRule type="containsText" dxfId="8" priority="9" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="12" priority="13" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B114)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B115">
-    <cfRule type="containsText" dxfId="7" priority="8" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="11" priority="12" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B115)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B115">
-    <cfRule type="containsText" dxfId="6" priority="7" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="10" priority="11" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B115)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A119:B119">
-    <cfRule type="containsText" dxfId="5" priority="6" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="9" priority="10" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",A119)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B119">
-    <cfRule type="containsText" dxfId="4" priority="5" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="8" priority="9" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B119)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B122">
-    <cfRule type="containsText" dxfId="3" priority="4" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="7" priority="8" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B122)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B122">
-    <cfRule type="containsText" dxfId="2" priority="3" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="6" priority="7" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B122)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B124">
-    <cfRule type="containsText" dxfId="1" priority="2" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="5" priority="6" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B124)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B124">
+    <cfRule type="containsText" dxfId="4" priority="5" operator="containsText" text="&lt;?&gt;">
+      <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B124)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B125">
+    <cfRule type="containsText" dxfId="3" priority="4" operator="containsText" text="&lt;?&gt;">
+      <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B125)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B125">
+    <cfRule type="containsText" dxfId="2" priority="3" operator="containsText" text="&lt;?&gt;">
+      <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B125)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B125">
+    <cfRule type="containsText" dxfId="1" priority="2" operator="containsText" text="&lt;?&gt;">
+      <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B125)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B125">
     <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="&lt;?&gt;">
-      <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B124)))</formula>
+      <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B125)))</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -45477,7 +45540,7 @@
   </sheetData>
   <autoFilter ref="A1:B1" xr:uid="{AF62FD2E-052D-40DF-8032-68688A8C1623}"/>
   <conditionalFormatting sqref="A2:B479">
-    <cfRule type="containsText" dxfId="20" priority="2" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="24" priority="2" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",A2)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -45807,12 +45870,12 @@
     <mergeCell ref="A1:B1"/>
   </mergeCells>
   <conditionalFormatting sqref="A1 C1 A2:C37 A39:C1048576">
-    <cfRule type="containsText" dxfId="19" priority="31" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="23" priority="31" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",A1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A38:C38">
-    <cfRule type="containsText" dxfId="18" priority="6" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="22" priority="6" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",A38)))</formula>
     </cfRule>
   </conditionalFormatting>

--- a/1.0.4/matrix/Validatiematrix v1.2.xlsx
+++ b/1.0.4/matrix/Validatiematrix v1.2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Default.DESKTOP-NDDI22K\Documents\Geonovum\github\xml_validatietestcontent\1.0.4\matrix\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7866B167-7543-41F5-B6FC-9790671F5796}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6E3401F-9AB1-467E-A077-14CF3EA8DDE8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="348" windowWidth="23256" windowHeight="12720" tabRatio="670" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9520" uniqueCount="1788">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9521" uniqueCount="1788">
   <si>
     <t>Is Opdracht.zip een geldige zip</t>
   </si>
@@ -6343,7 +6343,37 @@
     <cellStyle name="Standaard 3 2" xfId="3" xr:uid="{A1634239-92B9-4583-AB04-DEBDF9A9A44B}"/>
     <cellStyle name="Standaard 3 3" xfId="5" xr:uid="{C77AD319-D6C6-4ABD-AE5A-A2C0A40B68E7}"/>
   </cellStyles>
-  <dxfs count="232">
+  <dxfs count="235">
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FFFF0000"/>
@@ -9032,8 +9062,8 @@
   <dimension ref="A1:O670"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A101" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A126" sqref="A126"/>
+      <pane ySplit="1" topLeftCell="A108" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B126" sqref="B126"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -15072,11 +15102,11 @@
       </c>
     </row>
     <row r="126" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A126" s="38" t="s">
-        <v>1166</v>
-      </c>
-      <c r="B126" s="38">
-        <v>2</v>
+      <c r="A126" s="76" t="s">
+        <v>1166</v>
+      </c>
+      <c r="B126" s="81" t="s">
+        <v>1779</v>
       </c>
       <c r="C126" s="18" t="s">
         <v>88</v>
@@ -41302,1124 +41332,1139 @@
     </filterColumn>
   </autoFilter>
   <phoneticPr fontId="5" type="noConversion"/>
-  <conditionalFormatting sqref="F335:F339 C111:C115 F397:F408 F322:F333 F201 F269:F271 F267 F265 F259:F260 F223:F225 F219:F220 F214:F216 F203:F205 F291:G291 E450 H400:N408 G322:N339 E444:N445 M468:N475 B41:C53 B57:C62 B93:C95 B131:C138 M113:N116 G131:G138 M131:N138 B74:C81 M197:N197 G197 M41:N49 M51:N53 M57:N63 M74:N80 M88:N90 M93:N95 G51:G53 G57:G63 G74:G80 G88:G90 G93:G95 M577:N592 B66:C68 G66:G68 M66:N68 B109:C110 G108:G116 M108:N111 B148:C154 B83:C90 G84:G86 M84:N86 C116:D123 B144:C145 M144:N145 G144:G145 H155:N168 M148:N168 G148:G168 G201:N206 M451:N454 G505:G514 M504:N514 F208:N210 F212 F227:F230 G212:N230 G257:N260 F257 G118:G122 M118:N122 C126:D128 F370:F373 F346:G349 H346:N366 G370:G375 G385:G408 M596:N639 H370:N378 H385:N396 G39:G49 G37 A2:A3 B70:C70 M70:N70 G70 B1:O1 A126:B138 A140:B141 A144:B171 A197:B250 A255:B260 A262:B514 G262:N276 F262:F263 M641:N670 A37:B37 A25:A36 M5:N19 G5:G19 A516:B670 A515 M516:N575 G516:G670 A5:C24 A39:B62 A64:B68 A70:B90 A92:B107 A109:B118 A120:B124">
-    <cfRule type="containsText" dxfId="19" priority="386" operator="containsText" text="&lt;?&gt;">
+  <conditionalFormatting sqref="F335:F339 C111:C115 F397:F408 F322:F333 F201 F269:F271 F267 F265 F259:F260 F223:F225 F219:F220 F214:F216 F203:F205 F291:G291 E450 H400:N408 G322:N339 E444:N445 M468:N475 B41:C53 B57:C62 B93:C95 B131:C138 M113:N116 G131:G138 M131:N138 B74:C81 M197:N197 G197 M41:N49 M51:N53 M57:N63 M74:N80 M88:N90 M93:N95 G51:G53 G57:G63 G74:G80 G88:G90 G93:G95 M577:N592 B66:C68 G66:G68 M66:N68 B109:C110 G108:G116 M108:N111 B148:C154 B83:C90 G84:G86 M84:N86 C116:D123 B144:C145 M144:N145 G144:G145 H155:N168 M148:N168 G148:G168 G201:N206 M451:N454 G505:G514 M504:N514 F208:N210 F212 F227:F230 G212:N230 G257:N260 F257 G118:G122 M118:N122 C126:D128 F370:F373 F346:G349 H346:N366 G370:G375 G385:G408 M596:N639 H370:N378 H385:N396 G39:G49 G37 A2:A3 B70:C70 M70:N70 G70 B1:O1 A140:B141 A144:B171 A197:B250 A255:B260 A262:B514 G262:N276 F262:F263 M641:N670 A37:B37 A25:A36 M5:N19 G5:G19 A516:B670 A515 M516:N575 G516:G670 A5:C24 A39:B62 A64:B68 A70:B90 A92:B107 A109:B118 A120:B124 A126:B138">
+    <cfRule type="containsText" dxfId="22" priority="389" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",A1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B297:B305 B201:B206 B208:B250">
-    <cfRule type="containsText" dxfId="231" priority="481" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="234" priority="484" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B201)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F394:F396">
-    <cfRule type="containsText" dxfId="230" priority="471" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="233" priority="474" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",F394)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H290:N290">
-    <cfRule type="containsText" dxfId="229" priority="479" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="232" priority="482" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",H290)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M444:N445">
-    <cfRule type="containsText" dxfId="228" priority="470" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="231" priority="473" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",M444)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H445:L445">
-    <cfRule type="containsText" dxfId="227" priority="469" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="230" priority="472" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",H445)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G445:L445">
-    <cfRule type="containsText" dxfId="226" priority="468" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="229" priority="471" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G445)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M445:N445">
-    <cfRule type="containsText" dxfId="225" priority="466" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="228" priority="469" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",M445)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H444:L444">
-    <cfRule type="containsText" dxfId="224" priority="465" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="227" priority="468" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",H444)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G444:L444">
-    <cfRule type="containsText" dxfId="223" priority="464" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="226" priority="467" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G444)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M444:N444">
-    <cfRule type="containsText" dxfId="222" priority="462" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="225" priority="465" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",M444)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F334">
-    <cfRule type="containsText" dxfId="221" priority="461" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="224" priority="464" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",F334)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F374:F378 F385:F393">
-    <cfRule type="containsText" dxfId="220" priority="460" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="223" priority="463" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",F374)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H397:N398">
-    <cfRule type="containsText" dxfId="219" priority="459" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="222" priority="462" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",H397)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M455">
-    <cfRule type="containsText" dxfId="218" priority="428" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="221" priority="431" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",M455)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H450:N450">
-    <cfRule type="containsText" dxfId="217" priority="454" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="220" priority="457" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",H450)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N467">
-    <cfRule type="containsText" dxfId="216" priority="414" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="219" priority="417" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",N467)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H399:N399">
-    <cfRule type="containsText" dxfId="215" priority="397" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="218" priority="400" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",H399)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B466">
-    <cfRule type="containsText" dxfId="214" priority="445" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="217" priority="448" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B466)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M467">
-    <cfRule type="containsText" dxfId="213" priority="416" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="216" priority="419" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",M467)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G456">
-    <cfRule type="containsText" dxfId="212" priority="431" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="215" priority="434" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G456)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M466">
-    <cfRule type="containsText" dxfId="211" priority="420" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="214" priority="423" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",M466)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N455">
-    <cfRule type="containsText" dxfId="210" priority="426" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="213" priority="429" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",N455)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B455:B465">
-    <cfRule type="containsText" dxfId="209" priority="444" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="212" priority="447" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B455)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N466">
-    <cfRule type="containsText" dxfId="208" priority="418" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="211" priority="421" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",N466)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M456">
-    <cfRule type="containsText" dxfId="207" priority="424" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="210" priority="427" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",M456)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N456">
-    <cfRule type="containsText" dxfId="206" priority="422" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="209" priority="425" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",N456)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P342:X345">
-    <cfRule type="containsText" dxfId="205" priority="385" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="208" priority="388" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",P342)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E342:F342 E344:F345">
-    <cfRule type="containsText" dxfId="204" priority="384" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="207" priority="387" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",E342)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H344:H345">
-    <cfRule type="containsText" dxfId="203" priority="383" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="206" priority="386" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",H344)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I342 I344:I345">
-    <cfRule type="containsText" dxfId="202" priority="382" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="205" priority="385" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",I342)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J342 J344:J345">
-    <cfRule type="containsText" dxfId="201" priority="381" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="204" priority="384" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",J342)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K342 K344:K345">
-    <cfRule type="containsText" dxfId="200" priority="380" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="203" priority="383" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",K342)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L342 L344:L345">
-    <cfRule type="containsText" dxfId="199" priority="379" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="202" priority="382" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",L342)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M342 M344:M345">
-    <cfRule type="containsText" dxfId="198" priority="378" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="201" priority="381" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",M342)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N342 N344:N345">
-    <cfRule type="containsText" dxfId="197" priority="377" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="200" priority="380" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",N342)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P409:X409">
-    <cfRule type="containsText" dxfId="196" priority="376" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="199" priority="379" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",P409)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F409">
-    <cfRule type="containsText" dxfId="195" priority="375" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="198" priority="378" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",F409)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I409">
-    <cfRule type="containsText" dxfId="194" priority="373" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="197" priority="376" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",I409)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J409">
-    <cfRule type="containsText" dxfId="193" priority="372" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="196" priority="375" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",J409)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K409">
-    <cfRule type="containsText" dxfId="192" priority="371" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="195" priority="374" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",K409)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L409">
-    <cfRule type="containsText" dxfId="191" priority="370" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="194" priority="373" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",L409)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M409">
-    <cfRule type="containsText" dxfId="190" priority="369" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="193" priority="372" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",M409)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N409">
-    <cfRule type="containsText" dxfId="189" priority="368" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="192" priority="371" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",N409)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B505:B513">
-    <cfRule type="containsText" dxfId="188" priority="366" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="191" priority="369" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B505)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B514">
-    <cfRule type="containsText" dxfId="187" priority="345" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="190" priority="348" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B514)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B111:B114">
-    <cfRule type="containsText" dxfId="186" priority="333" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="189" priority="336" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B111)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B306 B296">
-    <cfRule type="containsText" dxfId="185" priority="334" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="188" priority="337" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B296)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B467:B475">
-    <cfRule type="containsText" dxfId="184" priority="331" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="187" priority="334" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B467)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B307:B321">
-    <cfRule type="containsText" dxfId="183" priority="332" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="186" priority="335" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B307)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B516">
-    <cfRule type="containsText" dxfId="182" priority="330" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="185" priority="333" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B516)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B450">
-    <cfRule type="containsText" dxfId="181" priority="328" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="184" priority="331" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B450)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B449">
-    <cfRule type="containsText" dxfId="180" priority="327" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="183" priority="330" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B449)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B322:B448">
-    <cfRule type="containsText" dxfId="179" priority="326" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="182" priority="329" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B322)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G504">
-    <cfRule type="containsText" dxfId="178" priority="306" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="181" priority="309" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G504)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C37 C39:C40">
-    <cfRule type="containsText" dxfId="177" priority="301" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="180" priority="304" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",C37)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E409">
-    <cfRule type="containsText" dxfId="176" priority="299" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="179" priority="302" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",E409)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M112:N112">
-    <cfRule type="containsText" dxfId="175" priority="292" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="178" priority="295" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",M112)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C71:D71">
-    <cfRule type="containsText" dxfId="174" priority="287" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="177" priority="290" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",C71)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C92:D92">
-    <cfRule type="containsText" dxfId="173" priority="285" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="176" priority="288" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",C92)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C129:D130">
-    <cfRule type="containsText" dxfId="172" priority="260" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="175" priority="263" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",C129)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G126:G130 M126:N130">
-    <cfRule type="containsText" dxfId="171" priority="259" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="174" priority="262" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G126)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B169:B171">
-    <cfRule type="containsText" dxfId="170" priority="258" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="173" priority="261" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B169)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G169:G170">
-    <cfRule type="containsText" dxfId="169" priority="257" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="172" priority="260" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G169)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H169:N170">
-    <cfRule type="containsText" dxfId="168" priority="256" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="171" priority="259" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",H169)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M446:N449 M438:N443 M420:N427 M92:N92 M87:N87 M71:N71 M54:N56 M50:N50 M37:N37 M39:N40">
-    <cfRule type="containsText" dxfId="167" priority="254" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="170" priority="257" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",M37)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M65:N65 G65">
-    <cfRule type="containsText" dxfId="166" priority="249" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="169" priority="252" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G65)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B64:B65">
-    <cfRule type="containsText" dxfId="165" priority="251" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="168" priority="254" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B64)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M64:N64 G64">
-    <cfRule type="containsText" dxfId="164" priority="250" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="167" priority="253" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G64)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B72:B73">
-    <cfRule type="containsText" dxfId="163" priority="245" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="166" priority="248" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B72)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M72:N72">
-    <cfRule type="containsText" dxfId="162" priority="247" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="165" priority="250" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",M72)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M73:N73">
-    <cfRule type="containsText" dxfId="161" priority="246" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="164" priority="249" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",M73)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B96:D107">
-    <cfRule type="containsText" dxfId="160" priority="242" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="163" priority="245" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B96)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M96:N107 G96:G107">
-    <cfRule type="containsText" dxfId="159" priority="243" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="162" priority="246" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G96)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M83:N83 G83">
-    <cfRule type="containsText" dxfId="158" priority="228" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="161" priority="231" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G83)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M82:N82 G82">
-    <cfRule type="containsText" dxfId="157" priority="227" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="160" priority="230" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G82)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G207:N207">
-    <cfRule type="containsText" dxfId="156" priority="235" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="159" priority="238" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G207)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B146:B147">
-    <cfRule type="containsText" dxfId="155" priority="237" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="158" priority="240" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B146)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G146:G147 M146:N147">
-    <cfRule type="containsText" dxfId="154" priority="236" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="157" priority="239" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G146)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B82">
-    <cfRule type="containsText" dxfId="153" priority="229" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="156" priority="232" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B82)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G123 M123:N123">
-    <cfRule type="containsText" dxfId="152" priority="226" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="155" priority="229" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G123)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B140:B141">
-    <cfRule type="containsText" dxfId="151" priority="223" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="154" priority="226" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B140)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G140:G141 M140:N141">
-    <cfRule type="containsText" dxfId="150" priority="222" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="153" priority="225" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G140)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B198:B200">
-    <cfRule type="containsText" dxfId="149" priority="173" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="152" priority="176" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B198)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M198:N200 G198:G200">
-    <cfRule type="containsText" dxfId="148" priority="172" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="151" priority="175" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G198)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B255:B258">
-    <cfRule type="containsText" dxfId="147" priority="162" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="150" priority="165" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B255)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B517:B546">
-    <cfRule type="containsText" dxfId="146" priority="159" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="149" priority="162" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B517)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G81">
-    <cfRule type="containsText" dxfId="145" priority="157" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="148" priority="160" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G81)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H171:N171">
-    <cfRule type="containsText" dxfId="144" priority="153" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="147" priority="156" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",H171)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F211:N211">
-    <cfRule type="containsText" dxfId="143" priority="151" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="146" priority="154" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",F211)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G171">
-    <cfRule type="containsText" dxfId="142" priority="154" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="145" priority="157" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G171)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F231:N249 F255:N256">
-    <cfRule type="containsText" dxfId="141" priority="148" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="144" priority="151" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",F231)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M117:N117 G117">
-    <cfRule type="containsText" dxfId="140" priority="147" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="143" priority="150" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G117)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B124:D124">
-    <cfRule type="containsText" dxfId="139" priority="146" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="142" priority="149" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B124)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G124 M124:N124">
-    <cfRule type="containsText" dxfId="138" priority="145" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="141" priority="148" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G124)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F250:N250">
-    <cfRule type="containsText" dxfId="137" priority="144" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="140" priority="147" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",F250)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1">
-    <cfRule type="containsText" dxfId="136" priority="143" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="139" priority="146" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",A1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G342">
-    <cfRule type="containsText" dxfId="135" priority="141" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="138" priority="144" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G342)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H342">
-    <cfRule type="containsText" dxfId="134" priority="140" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="137" priority="143" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",H342)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F340">
-    <cfRule type="containsText" dxfId="133" priority="139" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="136" priority="142" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",F340)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F350:F366">
-    <cfRule type="containsText" dxfId="132" priority="138" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="135" priority="141" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",F350)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I340">
-    <cfRule type="containsText" dxfId="131" priority="137" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="134" priority="140" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",I340)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J340">
-    <cfRule type="containsText" dxfId="130" priority="136" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="133" priority="139" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",J340)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K340">
-    <cfRule type="containsText" dxfId="129" priority="135" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="132" priority="138" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",K340)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L340">
-    <cfRule type="containsText" dxfId="128" priority="134" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="131" priority="137" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",L340)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M340">
-    <cfRule type="containsText" dxfId="127" priority="133" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="130" priority="136" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",M340)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N340">
-    <cfRule type="containsText" dxfId="126" priority="132" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="129" priority="135" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",N340)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H340">
-    <cfRule type="containsText" dxfId="125" priority="131" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="128" priority="134" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",H340)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G20:G24 M20:N24">
-    <cfRule type="containsText" dxfId="124" priority="127" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="127" priority="130" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G20)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G457:G465">
-    <cfRule type="containsText" dxfId="123" priority="126" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="126" priority="129" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G457)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M457:M465">
-    <cfRule type="containsText" dxfId="122" priority="125" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="125" priority="128" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",M457)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N457:N465">
-    <cfRule type="containsText" dxfId="121" priority="124" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="124" priority="127" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",N457)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M593:N593">
-    <cfRule type="containsText" dxfId="120" priority="123" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="123" priority="126" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",M593)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M594:N594">
-    <cfRule type="containsText" dxfId="119" priority="122" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="122" priority="125" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",M594)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F341">
-    <cfRule type="containsText" dxfId="118" priority="121" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="121" priority="124" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",F341)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I341">
-    <cfRule type="containsText" dxfId="117" priority="120" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="120" priority="123" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",I341)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J341">
-    <cfRule type="containsText" dxfId="116" priority="119" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="119" priority="122" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",J341)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K341">
-    <cfRule type="containsText" dxfId="115" priority="118" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="118" priority="121" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",K341)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L341">
-    <cfRule type="containsText" dxfId="114" priority="117" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="117" priority="120" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",L341)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M341">
-    <cfRule type="containsText" dxfId="113" priority="116" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="116" priority="119" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",M341)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N341">
-    <cfRule type="containsText" dxfId="112" priority="115" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="115" priority="118" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",N341)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H341">
-    <cfRule type="containsText" dxfId="111" priority="114" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="114" priority="117" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",H341)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E343:F343">
-    <cfRule type="containsText" dxfId="110" priority="113" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="113" priority="116" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",E343)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I343">
-    <cfRule type="containsText" dxfId="109" priority="112" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="112" priority="115" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",I343)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J343">
-    <cfRule type="containsText" dxfId="108" priority="111" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="111" priority="114" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",J343)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K343">
-    <cfRule type="containsText" dxfId="107" priority="110" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="110" priority="113" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",K343)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L343">
-    <cfRule type="containsText" dxfId="106" priority="109" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="109" priority="112" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",L343)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M343">
-    <cfRule type="containsText" dxfId="105" priority="108" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="108" priority="111" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",M343)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N343">
-    <cfRule type="containsText" dxfId="104" priority="107" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="107" priority="110" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",N343)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G343">
-    <cfRule type="containsText" dxfId="103" priority="106" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="106" priority="109" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G343)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H343">
-    <cfRule type="containsText" dxfId="102" priority="105" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="105" priority="108" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",H343)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H367:N367">
-    <cfRule type="containsText" dxfId="101" priority="104" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="104" priority="107" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",H367)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F367">
-    <cfRule type="containsText" dxfId="100" priority="103" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="103" priority="106" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",F367)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H368:N368">
-    <cfRule type="containsText" dxfId="99" priority="102" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="102" priority="105" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",H368)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F368">
-    <cfRule type="containsText" dxfId="98" priority="101" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="101" priority="104" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",F368)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H369:N369">
-    <cfRule type="containsText" dxfId="97" priority="100" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="100" priority="103" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",H369)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F369">
-    <cfRule type="containsText" dxfId="96" priority="99" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="99" priority="102" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",F369)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H379:N379">
-    <cfRule type="containsText" dxfId="95" priority="97" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="98" priority="100" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",H379)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F379">
-    <cfRule type="containsText" dxfId="94" priority="98" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="97" priority="101" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",F379)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H380:N384">
-    <cfRule type="containsText" dxfId="93" priority="95" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="96" priority="98" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",H380)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F380:F384">
-    <cfRule type="containsText" dxfId="92" priority="96" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="95" priority="99" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",F380)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M38:N38 G38 A38:C38">
-    <cfRule type="containsText" dxfId="91" priority="94" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="94" priority="97" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",A38)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A139:N139">
-    <cfRule type="containsText" dxfId="90" priority="89" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="93" priority="92" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",A139)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A125 C125:N125">
-    <cfRule type="containsText" dxfId="89" priority="90" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="92" priority="93" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",A125)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A142:N143">
-    <cfRule type="containsText" dxfId="88" priority="88" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="91" priority="91" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",A142)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A172:A176 C172:N176">
-    <cfRule type="containsText" dxfId="87" priority="87" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="90" priority="90" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",A172)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A177:A196 C177:N196">
-    <cfRule type="containsText" dxfId="86" priority="86" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="89" priority="89" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",A177)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A251:N254">
-    <cfRule type="containsText" dxfId="85" priority="85" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="88" priority="88" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",A251)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M640:N640">
-    <cfRule type="containsText" dxfId="84" priority="36" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="87" priority="39" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",M640)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A261 H261:N261 C261:F261">
-    <cfRule type="containsText" dxfId="83" priority="83" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="86" priority="86" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",A261)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G447">
-    <cfRule type="containsText" dxfId="82" priority="81" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="85" priority="84" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G447)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G447">
-    <cfRule type="containsText" dxfId="81" priority="82" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="84" priority="85" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G447)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G448">
-    <cfRule type="containsText" dxfId="80" priority="79" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="83" priority="82" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G448)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G448">
-    <cfRule type="containsText" dxfId="79" priority="80" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="82" priority="83" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G448)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G449">
-    <cfRule type="containsText" dxfId="78" priority="77" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="81" priority="80" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G449)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G449">
-    <cfRule type="containsText" dxfId="77" priority="78" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="80" priority="81" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G449)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G450">
-    <cfRule type="containsText" dxfId="76" priority="75" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="79" priority="78" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G450)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G450">
-    <cfRule type="containsText" dxfId="75" priority="76" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="78" priority="79" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G450)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G451">
-    <cfRule type="containsText" dxfId="74" priority="73" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="77" priority="76" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G451)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G451">
-    <cfRule type="containsText" dxfId="73" priority="74" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="76" priority="77" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G451)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G452">
-    <cfRule type="containsText" dxfId="72" priority="71" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="75" priority="74" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G452)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G452">
-    <cfRule type="containsText" dxfId="71" priority="72" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="74" priority="75" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G452)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G453">
-    <cfRule type="containsText" dxfId="70" priority="69" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="73" priority="72" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G453)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G453">
-    <cfRule type="containsText" dxfId="69" priority="70" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="72" priority="73" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G453)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G454">
-    <cfRule type="containsText" dxfId="68" priority="67" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="71" priority="70" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G454)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G454">
-    <cfRule type="containsText" dxfId="67" priority="68" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="70" priority="71" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G454)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G455">
-    <cfRule type="containsText" dxfId="66" priority="65" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="69" priority="68" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G455)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G455">
-    <cfRule type="containsText" dxfId="65" priority="66" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="68" priority="69" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G455)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G466">
-    <cfRule type="containsText" dxfId="64" priority="63" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="67" priority="66" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G466)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G466">
-    <cfRule type="containsText" dxfId="63" priority="64" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="66" priority="67" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G466)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G467">
-    <cfRule type="containsText" dxfId="62" priority="61" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="65" priority="64" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G467)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G467">
-    <cfRule type="containsText" dxfId="61" priority="62" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="64" priority="65" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G467)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G468">
-    <cfRule type="containsText" dxfId="60" priority="59" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="63" priority="62" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G468)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G468">
-    <cfRule type="containsText" dxfId="59" priority="60" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="62" priority="63" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G468)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G469">
-    <cfRule type="containsText" dxfId="58" priority="57" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="61" priority="60" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G469)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G469">
-    <cfRule type="containsText" dxfId="57" priority="58" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="60" priority="61" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G469)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G470">
-    <cfRule type="containsText" dxfId="56" priority="55" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="59" priority="58" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G470)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G470">
-    <cfRule type="containsText" dxfId="55" priority="56" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="58" priority="59" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G470)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G471">
-    <cfRule type="containsText" dxfId="54" priority="53" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="57" priority="56" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G471)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G471">
-    <cfRule type="containsText" dxfId="53" priority="54" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="56" priority="57" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G471)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G472">
-    <cfRule type="containsText" dxfId="52" priority="51" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="55" priority="54" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G472)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G472">
-    <cfRule type="containsText" dxfId="51" priority="52" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="54" priority="55" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G472)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G473">
-    <cfRule type="containsText" dxfId="50" priority="49" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="53" priority="52" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G473)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G473">
-    <cfRule type="containsText" dxfId="49" priority="50" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="52" priority="53" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G473)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G474">
-    <cfRule type="containsText" dxfId="48" priority="47" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="51" priority="50" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G474)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G474">
-    <cfRule type="containsText" dxfId="47" priority="48" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="50" priority="51" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G474)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G475">
-    <cfRule type="containsText" dxfId="46" priority="45" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="49" priority="48" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G475)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G475">
-    <cfRule type="containsText" dxfId="45" priority="46" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="48" priority="49" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G475)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G476">
-    <cfRule type="containsText" dxfId="44" priority="43" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="47" priority="46" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G476)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G476">
-    <cfRule type="containsText" dxfId="43" priority="44" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="46" priority="47" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G476)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G477">
-    <cfRule type="containsText" dxfId="42" priority="41" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="45" priority="44" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G477)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G477">
-    <cfRule type="containsText" dxfId="41" priority="42" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="44" priority="45" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G477)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G478">
-    <cfRule type="containsText" dxfId="40" priority="39" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="43" priority="42" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G478)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G478">
-    <cfRule type="containsText" dxfId="39" priority="40" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="42" priority="43" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G478)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G479">
-    <cfRule type="containsText" dxfId="38" priority="37" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="41" priority="40" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G479)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G479">
-    <cfRule type="containsText" dxfId="37" priority="38" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="40" priority="41" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G479)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G31:G36 G25:G28 B25:C36 M25:N36">
-    <cfRule type="containsText" dxfId="36" priority="34" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="39" priority="37" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B25)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G29:G30">
-    <cfRule type="containsText" dxfId="35" priority="35" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="38" priority="38" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G29)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G4 M4:N4 A4:C4">
-    <cfRule type="containsText" dxfId="34" priority="31" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="37" priority="34" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",A4)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O2:O90 O92:O670">
-    <cfRule type="containsText" dxfId="33" priority="29" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="36" priority="32" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",O2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2:G3 B2:C3 M2:N3">
-    <cfRule type="containsText" dxfId="32" priority="30" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="35" priority="33" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G261">
-    <cfRule type="containsText" dxfId="31" priority="28" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="34" priority="31" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G261)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A91:G91 O91">
-    <cfRule type="containsText" dxfId="30" priority="27" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="33" priority="30" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",A91)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B261">
-    <cfRule type="containsText" dxfId="29" priority="26" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="32" priority="29" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B261)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B515">
-    <cfRule type="containsText" dxfId="28" priority="25" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="31" priority="28" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B515)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M515:N515 G515">
-    <cfRule type="containsText" dxfId="27" priority="24" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="30" priority="27" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G515)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B172:B196">
-    <cfRule type="containsText" dxfId="26" priority="21" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="29" priority="24" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B172)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B172:B196">
-    <cfRule type="containsText" dxfId="25" priority="22" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="28" priority="25" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B172)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A63:B63">
-    <cfRule type="containsText" dxfId="20" priority="20" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="23" priority="23" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",A63)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A108:B108">
-    <cfRule type="containsText" dxfId="18" priority="19" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="21" priority="22" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",A108)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B108:C108">
-    <cfRule type="containsText" dxfId="17" priority="18" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="20" priority="21" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B108)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B109">
-    <cfRule type="containsText" dxfId="16" priority="17" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="19" priority="20" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B109)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B110">
-    <cfRule type="containsText" dxfId="15" priority="16" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="18" priority="19" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B110)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B112">
-    <cfRule type="containsText" dxfId="14" priority="15" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="17" priority="18" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B112)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B113">
-    <cfRule type="containsText" dxfId="13" priority="14" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="16" priority="17" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B113)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B114">
-    <cfRule type="containsText" dxfId="12" priority="13" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="15" priority="16" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B114)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B115">
-    <cfRule type="containsText" dxfId="11" priority="12" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="14" priority="15" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B115)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B115">
-    <cfRule type="containsText" dxfId="10" priority="11" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="13" priority="14" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B115)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A119:B119">
-    <cfRule type="containsText" dxfId="9" priority="10" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="12" priority="13" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",A119)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B119">
-    <cfRule type="containsText" dxfId="8" priority="9" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="11" priority="12" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B119)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B122">
-    <cfRule type="containsText" dxfId="7" priority="8" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="10" priority="11" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B122)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B122">
-    <cfRule type="containsText" dxfId="6" priority="7" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="9" priority="10" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B122)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B124">
-    <cfRule type="containsText" dxfId="5" priority="6" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="8" priority="9" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B124)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B124">
+    <cfRule type="containsText" dxfId="7" priority="8" operator="containsText" text="&lt;?&gt;">
+      <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B124)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B125">
+    <cfRule type="containsText" dxfId="6" priority="7" operator="containsText" text="&lt;?&gt;">
+      <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B125)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B125">
+    <cfRule type="containsText" dxfId="5" priority="6" operator="containsText" text="&lt;?&gt;">
+      <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B125)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B125">
     <cfRule type="containsText" dxfId="4" priority="5" operator="containsText" text="&lt;?&gt;">
-      <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B124)))</formula>
+      <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B125)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B125">
@@ -42427,19 +42472,19 @@
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B125)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B125">
+  <conditionalFormatting sqref="B126">
     <cfRule type="containsText" dxfId="2" priority="3" operator="containsText" text="&lt;?&gt;">
-      <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B125)))</formula>
+      <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B126)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B125">
+  <conditionalFormatting sqref="B126">
     <cfRule type="containsText" dxfId="1" priority="2" operator="containsText" text="&lt;?&gt;">
-      <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B125)))</formula>
+      <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B126)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B125">
+  <conditionalFormatting sqref="B126">
     <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="&lt;?&gt;">
-      <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B125)))</formula>
+      <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B126)))</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -45540,7 +45585,7 @@
   </sheetData>
   <autoFilter ref="A1:B1" xr:uid="{AF62FD2E-052D-40DF-8032-68688A8C1623}"/>
   <conditionalFormatting sqref="A2:B479">
-    <cfRule type="containsText" dxfId="24" priority="2" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="27" priority="2" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",A2)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -45870,12 +45915,12 @@
     <mergeCell ref="A1:B1"/>
   </mergeCells>
   <conditionalFormatting sqref="A1 C1 A2:C37 A39:C1048576">
-    <cfRule type="containsText" dxfId="23" priority="31" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="26" priority="31" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",A1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A38:C38">
-    <cfRule type="containsText" dxfId="22" priority="6" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="25" priority="6" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",A38)))</formula>
     </cfRule>
   </conditionalFormatting>

--- a/1.0.4/matrix/Validatiematrix v1.2.xlsx
+++ b/1.0.4/matrix/Validatiematrix v1.2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Default.DESKTOP-NDDI22K\Documents\Geonovum\github\xml_validatietestcontent\1.0.4\matrix\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6E3401F-9AB1-467E-A077-14CF3EA8DDE8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{655F7892-093D-4637-8279-F0AD8B6BAF91}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="348" windowWidth="23256" windowHeight="12720" tabRatio="670" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9521" uniqueCount="1788">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9525" uniqueCount="1788">
   <si>
     <t>Is Opdracht.zip een geldige zip</t>
   </si>
@@ -6343,7 +6343,127 @@
     <cellStyle name="Standaard 3 2" xfId="3" xr:uid="{A1634239-92B9-4583-AB04-DEBDF9A9A44B}"/>
     <cellStyle name="Standaard 3 3" xfId="5" xr:uid="{C77AD319-D6C6-4ABD-AE5A-A2C0A40B68E7}"/>
   </cellStyles>
-  <dxfs count="235">
+  <dxfs count="247">
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FFFF0000"/>
@@ -9063,7 +9183,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A108" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B126" sqref="B126"/>
+      <selection pane="bottomLeft" activeCell="A132" sqref="A132:B132"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -15246,11 +15366,11 @@
       </c>
     </row>
     <row r="129" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A129" s="38" t="s">
-        <v>1166</v>
-      </c>
-      <c r="B129" s="38">
-        <v>2</v>
+      <c r="A129" s="76" t="s">
+        <v>1166</v>
+      </c>
+      <c r="B129" s="81" t="s">
+        <v>1779</v>
       </c>
       <c r="C129" s="22" t="s">
         <v>93</v>
@@ -15294,11 +15414,11 @@
       </c>
     </row>
     <row r="130" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A130" s="38" t="s">
-        <v>1166</v>
-      </c>
-      <c r="B130" s="38">
-        <v>2</v>
+      <c r="A130" s="76" t="s">
+        <v>1166</v>
+      </c>
+      <c r="B130" s="81" t="s">
+        <v>1779</v>
       </c>
       <c r="C130" s="22" t="s">
         <v>94</v>
@@ -15342,11 +15462,11 @@
       </c>
     </row>
     <row r="131" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A131" s="38" t="s">
-        <v>1166</v>
-      </c>
-      <c r="B131" s="38">
-        <v>2</v>
+      <c r="A131" s="76" t="s">
+        <v>1166</v>
+      </c>
+      <c r="B131" s="81" t="s">
+        <v>1779</v>
       </c>
       <c r="C131" s="22" t="s">
         <v>96</v>
@@ -15390,11 +15510,11 @@
       </c>
     </row>
     <row r="132" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A132" s="38" t="s">
-        <v>1166</v>
-      </c>
-      <c r="B132" s="38">
-        <v>2</v>
+      <c r="A132" s="76" t="s">
+        <v>1166</v>
+      </c>
+      <c r="B132" s="81" t="s">
+        <v>1779</v>
       </c>
       <c r="C132" s="22" t="s">
         <v>98</v>
@@ -41333,1158 +41453,1218 @@
   </autoFilter>
   <phoneticPr fontId="5" type="noConversion"/>
   <conditionalFormatting sqref="F335:F339 C111:C115 F397:F408 F322:F333 F201 F269:F271 F267 F265 F259:F260 F223:F225 F219:F220 F214:F216 F203:F205 F291:G291 E450 H400:N408 G322:N339 E444:N445 M468:N475 B41:C53 B57:C62 B93:C95 B131:C138 M113:N116 G131:G138 M131:N138 B74:C81 M197:N197 G197 M41:N49 M51:N53 M57:N63 M74:N80 M88:N90 M93:N95 G51:G53 G57:G63 G74:G80 G88:G90 G93:G95 M577:N592 B66:C68 G66:G68 M66:N68 B109:C110 G108:G116 M108:N111 B148:C154 B83:C90 G84:G86 M84:N86 C116:D123 B144:C145 M144:N145 G144:G145 H155:N168 M148:N168 G148:G168 G201:N206 M451:N454 G505:G514 M504:N514 F208:N210 F212 F227:F230 G212:N230 G257:N260 F257 G118:G122 M118:N122 C126:D128 F370:F373 F346:G349 H346:N366 G370:G375 G385:G408 M596:N639 H370:N378 H385:N396 G39:G49 G37 A2:A3 B70:C70 M70:N70 G70 B1:O1 A140:B141 A144:B171 A197:B250 A255:B260 A262:B514 G262:N276 F262:F263 M641:N670 A37:B37 A25:A36 M5:N19 G5:G19 A516:B670 A515 M516:N575 G516:G670 A5:C24 A39:B62 A64:B68 A70:B90 A92:B107 A109:B118 A120:B124 A126:B138">
-    <cfRule type="containsText" dxfId="22" priority="389" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="34" priority="401" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",A1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B297:B305 B201:B206 B208:B250">
-    <cfRule type="containsText" dxfId="234" priority="484" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="246" priority="496" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B201)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F394:F396">
-    <cfRule type="containsText" dxfId="233" priority="474" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="245" priority="486" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",F394)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H290:N290">
-    <cfRule type="containsText" dxfId="232" priority="482" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="244" priority="494" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",H290)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M444:N445">
-    <cfRule type="containsText" dxfId="231" priority="473" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="243" priority="485" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",M444)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H445:L445">
-    <cfRule type="containsText" dxfId="230" priority="472" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="242" priority="484" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",H445)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G445:L445">
-    <cfRule type="containsText" dxfId="229" priority="471" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="241" priority="483" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G445)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M445:N445">
-    <cfRule type="containsText" dxfId="228" priority="469" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="240" priority="481" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",M445)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H444:L444">
-    <cfRule type="containsText" dxfId="227" priority="468" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="239" priority="480" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",H444)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G444:L444">
-    <cfRule type="containsText" dxfId="226" priority="467" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="238" priority="479" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G444)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M444:N444">
-    <cfRule type="containsText" dxfId="225" priority="465" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="237" priority="477" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",M444)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F334">
-    <cfRule type="containsText" dxfId="224" priority="464" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="236" priority="476" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",F334)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F374:F378 F385:F393">
-    <cfRule type="containsText" dxfId="223" priority="463" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="235" priority="475" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",F374)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H397:N398">
-    <cfRule type="containsText" dxfId="222" priority="462" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="234" priority="474" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",H397)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M455">
-    <cfRule type="containsText" dxfId="221" priority="431" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="233" priority="443" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",M455)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H450:N450">
-    <cfRule type="containsText" dxfId="220" priority="457" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="232" priority="469" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",H450)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N467">
-    <cfRule type="containsText" dxfId="219" priority="417" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="231" priority="429" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",N467)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H399:N399">
-    <cfRule type="containsText" dxfId="218" priority="400" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="230" priority="412" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",H399)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B466">
-    <cfRule type="containsText" dxfId="217" priority="448" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="229" priority="460" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B466)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M467">
-    <cfRule type="containsText" dxfId="216" priority="419" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="228" priority="431" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",M467)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G456">
-    <cfRule type="containsText" dxfId="215" priority="434" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="227" priority="446" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G456)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M466">
-    <cfRule type="containsText" dxfId="214" priority="423" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="226" priority="435" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",M466)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N455">
-    <cfRule type="containsText" dxfId="213" priority="429" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="225" priority="441" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",N455)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B455:B465">
-    <cfRule type="containsText" dxfId="212" priority="447" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="224" priority="459" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B455)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N466">
-    <cfRule type="containsText" dxfId="211" priority="421" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="223" priority="433" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",N466)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M456">
-    <cfRule type="containsText" dxfId="210" priority="427" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="222" priority="439" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",M456)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N456">
-    <cfRule type="containsText" dxfId="209" priority="425" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="221" priority="437" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",N456)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P342:X345">
-    <cfRule type="containsText" dxfId="208" priority="388" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="220" priority="400" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",P342)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E342:F342 E344:F345">
-    <cfRule type="containsText" dxfId="207" priority="387" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="219" priority="399" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",E342)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H344:H345">
-    <cfRule type="containsText" dxfId="206" priority="386" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="218" priority="398" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",H344)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I342 I344:I345">
-    <cfRule type="containsText" dxfId="205" priority="385" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="217" priority="397" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",I342)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J342 J344:J345">
-    <cfRule type="containsText" dxfId="204" priority="384" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="216" priority="396" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",J342)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K342 K344:K345">
-    <cfRule type="containsText" dxfId="203" priority="383" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="215" priority="395" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",K342)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L342 L344:L345">
-    <cfRule type="containsText" dxfId="202" priority="382" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="214" priority="394" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",L342)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M342 M344:M345">
-    <cfRule type="containsText" dxfId="201" priority="381" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="213" priority="393" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",M342)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N342 N344:N345">
-    <cfRule type="containsText" dxfId="200" priority="380" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="212" priority="392" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",N342)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P409:X409">
-    <cfRule type="containsText" dxfId="199" priority="379" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="211" priority="391" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",P409)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F409">
-    <cfRule type="containsText" dxfId="198" priority="378" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="210" priority="390" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",F409)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I409">
-    <cfRule type="containsText" dxfId="197" priority="376" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="209" priority="388" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",I409)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J409">
-    <cfRule type="containsText" dxfId="196" priority="375" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="208" priority="387" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",J409)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K409">
-    <cfRule type="containsText" dxfId="195" priority="374" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="207" priority="386" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",K409)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L409">
-    <cfRule type="containsText" dxfId="194" priority="373" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="206" priority="385" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",L409)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M409">
-    <cfRule type="containsText" dxfId="193" priority="372" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="205" priority="384" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",M409)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N409">
-    <cfRule type="containsText" dxfId="192" priority="371" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="204" priority="383" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",N409)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B505:B513">
-    <cfRule type="containsText" dxfId="191" priority="369" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="203" priority="381" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B505)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B514">
-    <cfRule type="containsText" dxfId="190" priority="348" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="202" priority="360" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B514)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B111:B114">
-    <cfRule type="containsText" dxfId="189" priority="336" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="201" priority="348" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B111)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B306 B296">
-    <cfRule type="containsText" dxfId="188" priority="337" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="200" priority="349" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B296)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B467:B475">
-    <cfRule type="containsText" dxfId="187" priority="334" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="199" priority="346" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B467)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B307:B321">
-    <cfRule type="containsText" dxfId="186" priority="335" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="198" priority="347" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B307)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B516">
-    <cfRule type="containsText" dxfId="185" priority="333" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="197" priority="345" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B516)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B450">
-    <cfRule type="containsText" dxfId="184" priority="331" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="196" priority="343" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B450)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B449">
-    <cfRule type="containsText" dxfId="183" priority="330" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="195" priority="342" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B449)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B322:B448">
-    <cfRule type="containsText" dxfId="182" priority="329" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="194" priority="341" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B322)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G504">
-    <cfRule type="containsText" dxfId="181" priority="309" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="193" priority="321" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G504)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C37 C39:C40">
-    <cfRule type="containsText" dxfId="180" priority="304" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="192" priority="316" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",C37)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E409">
-    <cfRule type="containsText" dxfId="179" priority="302" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="191" priority="314" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",E409)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M112:N112">
-    <cfRule type="containsText" dxfId="178" priority="295" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="190" priority="307" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",M112)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C71:D71">
-    <cfRule type="containsText" dxfId="177" priority="290" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="189" priority="302" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",C71)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C92:D92">
-    <cfRule type="containsText" dxfId="176" priority="288" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="188" priority="300" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",C92)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C129:D130">
-    <cfRule type="containsText" dxfId="175" priority="263" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="187" priority="275" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",C129)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G126:G130 M126:N130">
-    <cfRule type="containsText" dxfId="174" priority="262" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="186" priority="274" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G126)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B169:B171">
-    <cfRule type="containsText" dxfId="173" priority="261" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="185" priority="273" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B169)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G169:G170">
-    <cfRule type="containsText" dxfId="172" priority="260" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="184" priority="272" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G169)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H169:N170">
-    <cfRule type="containsText" dxfId="171" priority="259" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="183" priority="271" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",H169)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M446:N449 M438:N443 M420:N427 M92:N92 M87:N87 M71:N71 M54:N56 M50:N50 M37:N37 M39:N40">
-    <cfRule type="containsText" dxfId="170" priority="257" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="182" priority="269" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",M37)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M65:N65 G65">
-    <cfRule type="containsText" dxfId="169" priority="252" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="181" priority="264" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G65)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B64:B65">
-    <cfRule type="containsText" dxfId="168" priority="254" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="180" priority="266" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B64)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M64:N64 G64">
-    <cfRule type="containsText" dxfId="167" priority="253" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="179" priority="265" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G64)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B72:B73">
-    <cfRule type="containsText" dxfId="166" priority="248" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="178" priority="260" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B72)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M72:N72">
-    <cfRule type="containsText" dxfId="165" priority="250" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="177" priority="262" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",M72)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M73:N73">
-    <cfRule type="containsText" dxfId="164" priority="249" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="176" priority="261" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",M73)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B96:D107">
-    <cfRule type="containsText" dxfId="163" priority="245" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="175" priority="257" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B96)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M96:N107 G96:G107">
-    <cfRule type="containsText" dxfId="162" priority="246" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="174" priority="258" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G96)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M83:N83 G83">
-    <cfRule type="containsText" dxfId="161" priority="231" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="173" priority="243" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G83)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M82:N82 G82">
-    <cfRule type="containsText" dxfId="160" priority="230" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="172" priority="242" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G82)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G207:N207">
-    <cfRule type="containsText" dxfId="159" priority="238" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="171" priority="250" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G207)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B146:B147">
-    <cfRule type="containsText" dxfId="158" priority="240" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="170" priority="252" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B146)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G146:G147 M146:N147">
-    <cfRule type="containsText" dxfId="157" priority="239" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="169" priority="251" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G146)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B82">
-    <cfRule type="containsText" dxfId="156" priority="232" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="168" priority="244" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B82)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G123 M123:N123">
-    <cfRule type="containsText" dxfId="155" priority="229" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="167" priority="241" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G123)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B140:B141">
-    <cfRule type="containsText" dxfId="154" priority="226" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="166" priority="238" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B140)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G140:G141 M140:N141">
-    <cfRule type="containsText" dxfId="153" priority="225" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="165" priority="237" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G140)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B198:B200">
-    <cfRule type="containsText" dxfId="152" priority="176" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="164" priority="188" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B198)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M198:N200 G198:G200">
-    <cfRule type="containsText" dxfId="151" priority="175" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="163" priority="187" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G198)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B255:B258">
-    <cfRule type="containsText" dxfId="150" priority="165" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="162" priority="177" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B255)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B517:B546">
-    <cfRule type="containsText" dxfId="149" priority="162" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="161" priority="174" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B517)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G81">
-    <cfRule type="containsText" dxfId="148" priority="160" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="160" priority="172" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G81)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H171:N171">
-    <cfRule type="containsText" dxfId="147" priority="156" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="159" priority="168" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",H171)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F211:N211">
-    <cfRule type="containsText" dxfId="146" priority="154" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="158" priority="166" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",F211)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G171">
-    <cfRule type="containsText" dxfId="145" priority="157" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="157" priority="169" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G171)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F231:N249 F255:N256">
-    <cfRule type="containsText" dxfId="144" priority="151" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="156" priority="163" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",F231)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M117:N117 G117">
-    <cfRule type="containsText" dxfId="143" priority="150" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="155" priority="162" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G117)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B124:D124">
-    <cfRule type="containsText" dxfId="142" priority="149" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="154" priority="161" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B124)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G124 M124:N124">
-    <cfRule type="containsText" dxfId="141" priority="148" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="153" priority="160" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G124)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F250:N250">
-    <cfRule type="containsText" dxfId="140" priority="147" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="152" priority="159" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",F250)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1">
-    <cfRule type="containsText" dxfId="139" priority="146" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="151" priority="158" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",A1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G342">
-    <cfRule type="containsText" dxfId="138" priority="144" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="150" priority="156" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G342)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H342">
-    <cfRule type="containsText" dxfId="137" priority="143" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="149" priority="155" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",H342)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F340">
-    <cfRule type="containsText" dxfId="136" priority="142" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="148" priority="154" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",F340)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F350:F366">
-    <cfRule type="containsText" dxfId="135" priority="141" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="147" priority="153" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",F350)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I340">
-    <cfRule type="containsText" dxfId="134" priority="140" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="146" priority="152" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",I340)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J340">
-    <cfRule type="containsText" dxfId="133" priority="139" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="145" priority="151" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",J340)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K340">
-    <cfRule type="containsText" dxfId="132" priority="138" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="144" priority="150" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",K340)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L340">
-    <cfRule type="containsText" dxfId="131" priority="137" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="143" priority="149" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",L340)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M340">
-    <cfRule type="containsText" dxfId="130" priority="136" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="142" priority="148" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",M340)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N340">
-    <cfRule type="containsText" dxfId="129" priority="135" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="141" priority="147" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",N340)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H340">
-    <cfRule type="containsText" dxfId="128" priority="134" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="140" priority="146" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",H340)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G20:G24 M20:N24">
-    <cfRule type="containsText" dxfId="127" priority="130" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="139" priority="142" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G20)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G457:G465">
-    <cfRule type="containsText" dxfId="126" priority="129" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="138" priority="141" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G457)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M457:M465">
-    <cfRule type="containsText" dxfId="125" priority="128" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="137" priority="140" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",M457)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N457:N465">
-    <cfRule type="containsText" dxfId="124" priority="127" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="136" priority="139" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",N457)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M593:N593">
-    <cfRule type="containsText" dxfId="123" priority="126" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="135" priority="138" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",M593)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M594:N594">
-    <cfRule type="containsText" dxfId="122" priority="125" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="134" priority="137" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",M594)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F341">
-    <cfRule type="containsText" dxfId="121" priority="124" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="133" priority="136" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",F341)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I341">
-    <cfRule type="containsText" dxfId="120" priority="123" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="132" priority="135" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",I341)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J341">
-    <cfRule type="containsText" dxfId="119" priority="122" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="131" priority="134" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",J341)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K341">
-    <cfRule type="containsText" dxfId="118" priority="121" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="130" priority="133" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",K341)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L341">
-    <cfRule type="containsText" dxfId="117" priority="120" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="129" priority="132" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",L341)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M341">
-    <cfRule type="containsText" dxfId="116" priority="119" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="128" priority="131" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",M341)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N341">
-    <cfRule type="containsText" dxfId="115" priority="118" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="127" priority="130" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",N341)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H341">
-    <cfRule type="containsText" dxfId="114" priority="117" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="126" priority="129" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",H341)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E343:F343">
-    <cfRule type="containsText" dxfId="113" priority="116" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="125" priority="128" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",E343)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I343">
-    <cfRule type="containsText" dxfId="112" priority="115" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="124" priority="127" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",I343)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J343">
-    <cfRule type="containsText" dxfId="111" priority="114" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="123" priority="126" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",J343)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K343">
-    <cfRule type="containsText" dxfId="110" priority="113" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="122" priority="125" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",K343)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L343">
-    <cfRule type="containsText" dxfId="109" priority="112" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="121" priority="124" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",L343)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M343">
-    <cfRule type="containsText" dxfId="108" priority="111" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="120" priority="123" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",M343)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N343">
-    <cfRule type="containsText" dxfId="107" priority="110" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="119" priority="122" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",N343)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G343">
-    <cfRule type="containsText" dxfId="106" priority="109" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="118" priority="121" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G343)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H343">
-    <cfRule type="containsText" dxfId="105" priority="108" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="117" priority="120" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",H343)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H367:N367">
-    <cfRule type="containsText" dxfId="104" priority="107" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="116" priority="119" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",H367)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F367">
-    <cfRule type="containsText" dxfId="103" priority="106" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="115" priority="118" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",F367)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H368:N368">
-    <cfRule type="containsText" dxfId="102" priority="105" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="114" priority="117" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",H368)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F368">
-    <cfRule type="containsText" dxfId="101" priority="104" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="113" priority="116" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",F368)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H369:N369">
-    <cfRule type="containsText" dxfId="100" priority="103" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="112" priority="115" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",H369)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F369">
-    <cfRule type="containsText" dxfId="99" priority="102" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="111" priority="114" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",F369)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H379:N379">
-    <cfRule type="containsText" dxfId="98" priority="100" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="110" priority="112" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",H379)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F379">
-    <cfRule type="containsText" dxfId="97" priority="101" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="109" priority="113" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",F379)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H380:N384">
-    <cfRule type="containsText" dxfId="96" priority="98" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="108" priority="110" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",H380)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F380:F384">
-    <cfRule type="containsText" dxfId="95" priority="99" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="107" priority="111" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",F380)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M38:N38 G38 A38:C38">
-    <cfRule type="containsText" dxfId="94" priority="97" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="106" priority="109" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",A38)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A139:N139">
-    <cfRule type="containsText" dxfId="93" priority="92" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="105" priority="104" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",A139)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A125 C125:N125">
-    <cfRule type="containsText" dxfId="92" priority="93" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="104" priority="105" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",A125)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A142:N143">
-    <cfRule type="containsText" dxfId="91" priority="91" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="103" priority="103" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",A142)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A172:A176 C172:N176">
-    <cfRule type="containsText" dxfId="90" priority="90" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="102" priority="102" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",A172)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A177:A196 C177:N196">
-    <cfRule type="containsText" dxfId="89" priority="89" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="101" priority="101" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",A177)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A251:N254">
-    <cfRule type="containsText" dxfId="88" priority="88" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="100" priority="100" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",A251)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M640:N640">
-    <cfRule type="containsText" dxfId="87" priority="39" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="99" priority="51" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",M640)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A261 H261:N261 C261:F261">
-    <cfRule type="containsText" dxfId="86" priority="86" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="98" priority="98" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",A261)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G447">
-    <cfRule type="containsText" dxfId="85" priority="84" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="97" priority="96" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G447)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G447">
-    <cfRule type="containsText" dxfId="84" priority="85" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="96" priority="97" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G447)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G448">
-    <cfRule type="containsText" dxfId="83" priority="82" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="95" priority="94" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G448)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G448">
-    <cfRule type="containsText" dxfId="82" priority="83" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="94" priority="95" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G448)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G449">
-    <cfRule type="containsText" dxfId="81" priority="80" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="93" priority="92" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G449)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G449">
-    <cfRule type="containsText" dxfId="80" priority="81" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="92" priority="93" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G449)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G450">
-    <cfRule type="containsText" dxfId="79" priority="78" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="91" priority="90" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G450)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G450">
-    <cfRule type="containsText" dxfId="78" priority="79" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="90" priority="91" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G450)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G451">
-    <cfRule type="containsText" dxfId="77" priority="76" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="89" priority="88" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G451)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G451">
-    <cfRule type="containsText" dxfId="76" priority="77" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="88" priority="89" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G451)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G452">
-    <cfRule type="containsText" dxfId="75" priority="74" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="87" priority="86" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G452)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G452">
-    <cfRule type="containsText" dxfId="74" priority="75" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="86" priority="87" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G452)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G453">
-    <cfRule type="containsText" dxfId="73" priority="72" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="85" priority="84" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G453)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G453">
-    <cfRule type="containsText" dxfId="72" priority="73" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="84" priority="85" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G453)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G454">
-    <cfRule type="containsText" dxfId="71" priority="70" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="83" priority="82" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G454)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G454">
-    <cfRule type="containsText" dxfId="70" priority="71" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="82" priority="83" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G454)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G455">
-    <cfRule type="containsText" dxfId="69" priority="68" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="81" priority="80" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G455)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G455">
-    <cfRule type="containsText" dxfId="68" priority="69" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="80" priority="81" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G455)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G466">
-    <cfRule type="containsText" dxfId="67" priority="66" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="79" priority="78" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G466)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G466">
-    <cfRule type="containsText" dxfId="66" priority="67" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="78" priority="79" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G466)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G467">
-    <cfRule type="containsText" dxfId="65" priority="64" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="77" priority="76" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G467)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G467">
-    <cfRule type="containsText" dxfId="64" priority="65" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="76" priority="77" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G467)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G468">
-    <cfRule type="containsText" dxfId="63" priority="62" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="75" priority="74" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G468)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G468">
-    <cfRule type="containsText" dxfId="62" priority="63" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="74" priority="75" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G468)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G469">
-    <cfRule type="containsText" dxfId="61" priority="60" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="73" priority="72" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G469)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G469">
-    <cfRule type="containsText" dxfId="60" priority="61" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="72" priority="73" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G469)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G470">
-    <cfRule type="containsText" dxfId="59" priority="58" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="71" priority="70" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G470)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G470">
-    <cfRule type="containsText" dxfId="58" priority="59" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="70" priority="71" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G470)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G471">
-    <cfRule type="containsText" dxfId="57" priority="56" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="69" priority="68" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G471)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G471">
-    <cfRule type="containsText" dxfId="56" priority="57" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="68" priority="69" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G471)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G472">
-    <cfRule type="containsText" dxfId="55" priority="54" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="67" priority="66" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G472)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G472">
-    <cfRule type="containsText" dxfId="54" priority="55" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="66" priority="67" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G472)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G473">
-    <cfRule type="containsText" dxfId="53" priority="52" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="65" priority="64" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G473)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G473">
-    <cfRule type="containsText" dxfId="52" priority="53" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="64" priority="65" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G473)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G474">
-    <cfRule type="containsText" dxfId="51" priority="50" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="63" priority="62" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G474)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G474">
-    <cfRule type="containsText" dxfId="50" priority="51" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="62" priority="63" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G474)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G475">
-    <cfRule type="containsText" dxfId="49" priority="48" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="61" priority="60" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G475)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G475">
-    <cfRule type="containsText" dxfId="48" priority="49" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="60" priority="61" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G475)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G476">
-    <cfRule type="containsText" dxfId="47" priority="46" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="59" priority="58" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G476)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G476">
-    <cfRule type="containsText" dxfId="46" priority="47" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="58" priority="59" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G476)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G477">
-    <cfRule type="containsText" dxfId="45" priority="44" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="57" priority="56" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G477)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G477">
-    <cfRule type="containsText" dxfId="44" priority="45" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="56" priority="57" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G477)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G478">
-    <cfRule type="containsText" dxfId="43" priority="42" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="55" priority="54" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G478)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G478">
-    <cfRule type="containsText" dxfId="42" priority="43" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="54" priority="55" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G478)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G479">
-    <cfRule type="containsText" dxfId="41" priority="40" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="53" priority="52" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G479)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G479">
-    <cfRule type="containsText" dxfId="40" priority="41" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="52" priority="53" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G479)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G31:G36 G25:G28 B25:C36 M25:N36">
-    <cfRule type="containsText" dxfId="39" priority="37" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="51" priority="49" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B25)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G29:G30">
-    <cfRule type="containsText" dxfId="38" priority="38" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="50" priority="50" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G29)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G4 M4:N4 A4:C4">
-    <cfRule type="containsText" dxfId="37" priority="34" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="49" priority="46" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",A4)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O2:O90 O92:O670">
-    <cfRule type="containsText" dxfId="36" priority="32" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="48" priority="44" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",O2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2:G3 B2:C3 M2:N3">
-    <cfRule type="containsText" dxfId="35" priority="33" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="47" priority="45" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G261">
-    <cfRule type="containsText" dxfId="34" priority="31" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="46" priority="43" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G261)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A91:G91 O91">
-    <cfRule type="containsText" dxfId="33" priority="30" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="45" priority="42" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",A91)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B261">
-    <cfRule type="containsText" dxfId="32" priority="29" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="44" priority="41" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B261)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B515">
-    <cfRule type="containsText" dxfId="31" priority="28" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="43" priority="40" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B515)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M515:N515 G515">
-    <cfRule type="containsText" dxfId="30" priority="27" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="42" priority="39" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G515)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B172:B196">
-    <cfRule type="containsText" dxfId="29" priority="24" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="41" priority="36" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B172)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B172:B196">
-    <cfRule type="containsText" dxfId="28" priority="25" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="40" priority="37" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B172)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A63:B63">
-    <cfRule type="containsText" dxfId="23" priority="23" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="35" priority="35" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",A63)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A108:B108">
-    <cfRule type="containsText" dxfId="21" priority="22" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="33" priority="34" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",A108)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B108:C108">
-    <cfRule type="containsText" dxfId="20" priority="21" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="32" priority="33" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B108)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B109">
-    <cfRule type="containsText" dxfId="19" priority="20" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="31" priority="32" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B109)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B110">
-    <cfRule type="containsText" dxfId="18" priority="19" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="30" priority="31" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B110)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B112">
-    <cfRule type="containsText" dxfId="17" priority="18" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="29" priority="30" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B112)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B113">
-    <cfRule type="containsText" dxfId="16" priority="17" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="28" priority="29" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B113)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B114">
-    <cfRule type="containsText" dxfId="15" priority="16" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="27" priority="28" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B114)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B115">
-    <cfRule type="containsText" dxfId="14" priority="15" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="26" priority="27" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B115)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B115">
-    <cfRule type="containsText" dxfId="13" priority="14" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="25" priority="26" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B115)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A119:B119">
-    <cfRule type="containsText" dxfId="12" priority="13" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="24" priority="25" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",A119)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B119">
-    <cfRule type="containsText" dxfId="11" priority="12" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="23" priority="24" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B119)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B122">
-    <cfRule type="containsText" dxfId="10" priority="11" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="22" priority="23" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B122)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B122">
-    <cfRule type="containsText" dxfId="9" priority="10" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="21" priority="22" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B122)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B124">
-    <cfRule type="containsText" dxfId="8" priority="9" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="20" priority="21" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B124)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B124">
-    <cfRule type="containsText" dxfId="7" priority="8" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="19" priority="20" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B124)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B125">
-    <cfRule type="containsText" dxfId="6" priority="7" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="18" priority="19" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B125)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B125">
-    <cfRule type="containsText" dxfId="5" priority="6" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="17" priority="18" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B125)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B125">
-    <cfRule type="containsText" dxfId="4" priority="5" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="16" priority="17" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B125)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B125">
-    <cfRule type="containsText" dxfId="3" priority="4" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="15" priority="16" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B125)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B126">
-    <cfRule type="containsText" dxfId="2" priority="3" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="14" priority="15" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B126)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B126">
-    <cfRule type="containsText" dxfId="1" priority="2" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="13" priority="14" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B126)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B126">
+    <cfRule type="containsText" dxfId="12" priority="13" operator="containsText" text="&lt;?&gt;">
+      <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B126)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B129">
+    <cfRule type="containsText" dxfId="11" priority="12" operator="containsText" text="&lt;?&gt;">
+      <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B129)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B129">
+    <cfRule type="containsText" dxfId="10" priority="11" operator="containsText" text="&lt;?&gt;">
+      <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B129)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B129">
+    <cfRule type="containsText" dxfId="9" priority="10" operator="containsText" text="&lt;?&gt;">
+      <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B129)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B130">
+    <cfRule type="containsText" dxfId="8" priority="9" operator="containsText" text="&lt;?&gt;">
+      <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B130)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B130">
+    <cfRule type="containsText" dxfId="7" priority="8" operator="containsText" text="&lt;?&gt;">
+      <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B130)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B130">
+    <cfRule type="containsText" dxfId="6" priority="7" operator="containsText" text="&lt;?&gt;">
+      <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B130)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B131">
+    <cfRule type="containsText" dxfId="5" priority="6" operator="containsText" text="&lt;?&gt;">
+      <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B131)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B131">
+    <cfRule type="containsText" dxfId="4" priority="5" operator="containsText" text="&lt;?&gt;">
+      <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B131)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B131">
+    <cfRule type="containsText" dxfId="3" priority="4" operator="containsText" text="&lt;?&gt;">
+      <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B131)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B132">
+    <cfRule type="containsText" dxfId="2" priority="3" operator="containsText" text="&lt;?&gt;">
+      <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B132)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B132">
+    <cfRule type="containsText" dxfId="1" priority="2" operator="containsText" text="&lt;?&gt;">
+      <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B132)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B132">
     <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="&lt;?&gt;">
-      <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B126)))</formula>
+      <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B132)))</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -45585,7 +45765,7 @@
   </sheetData>
   <autoFilter ref="A1:B1" xr:uid="{AF62FD2E-052D-40DF-8032-68688A8C1623}"/>
   <conditionalFormatting sqref="A2:B479">
-    <cfRule type="containsText" dxfId="27" priority="2" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="39" priority="2" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",A2)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -45915,12 +46095,12 @@
     <mergeCell ref="A1:B1"/>
   </mergeCells>
   <conditionalFormatting sqref="A1 C1 A2:C37 A39:C1048576">
-    <cfRule type="containsText" dxfId="26" priority="31" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="38" priority="31" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",A1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A38:C38">
-    <cfRule type="containsText" dxfId="25" priority="6" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="37" priority="6" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",A38)))</formula>
     </cfRule>
   </conditionalFormatting>

--- a/1.0.4/matrix/Validatiematrix v1.2.xlsx
+++ b/1.0.4/matrix/Validatiematrix v1.2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Default.DESKTOP-NDDI22K\Documents\Geonovum\github\xml_validatietestcontent\1.0.4\matrix\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{655F7892-093D-4637-8279-F0AD8B6BAF91}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81A5EE33-AC9A-4EF4-B23E-C7C2B0E80574}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="348" windowWidth="23256" windowHeight="12720" tabRatio="670" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9525" uniqueCount="1788">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9526" uniqueCount="1788">
   <si>
     <t>Is Opdracht.zip een geldige zip</t>
   </si>
@@ -6343,7 +6343,37 @@
     <cellStyle name="Standaard 3 2" xfId="3" xr:uid="{A1634239-92B9-4583-AB04-DEBDF9A9A44B}"/>
     <cellStyle name="Standaard 3 3" xfId="5" xr:uid="{C77AD319-D6C6-4ABD-AE5A-A2C0A40B68E7}"/>
   </cellStyles>
-  <dxfs count="247">
+  <dxfs count="250">
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FFFF0000"/>
@@ -9182,8 +9212,8 @@
   <dimension ref="A1:O670"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A108" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A132" sqref="A132:B132"/>
+      <pane ySplit="1" topLeftCell="A115" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A134" sqref="A134:B134"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -15606,11 +15636,11 @@
       </c>
     </row>
     <row r="134" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A134" s="38" t="s">
-        <v>1166</v>
-      </c>
-      <c r="B134" s="38">
-        <v>2</v>
+      <c r="A134" s="76" t="s">
+        <v>1166</v>
+      </c>
+      <c r="B134" s="81" t="s">
+        <v>1779</v>
       </c>
       <c r="C134" s="22" t="s">
         <v>535</v>
@@ -41453,1123 +41483,1138 @@
   </autoFilter>
   <phoneticPr fontId="5" type="noConversion"/>
   <conditionalFormatting sqref="F335:F339 C111:C115 F397:F408 F322:F333 F201 F269:F271 F267 F265 F259:F260 F223:F225 F219:F220 F214:F216 F203:F205 F291:G291 E450 H400:N408 G322:N339 E444:N445 M468:N475 B41:C53 B57:C62 B93:C95 B131:C138 M113:N116 G131:G138 M131:N138 B74:C81 M197:N197 G197 M41:N49 M51:N53 M57:N63 M74:N80 M88:N90 M93:N95 G51:G53 G57:G63 G74:G80 G88:G90 G93:G95 M577:N592 B66:C68 G66:G68 M66:N68 B109:C110 G108:G116 M108:N111 B148:C154 B83:C90 G84:G86 M84:N86 C116:D123 B144:C145 M144:N145 G144:G145 H155:N168 M148:N168 G148:G168 G201:N206 M451:N454 G505:G514 M504:N514 F208:N210 F212 F227:F230 G212:N230 G257:N260 F257 G118:G122 M118:N122 C126:D128 F370:F373 F346:G349 H346:N366 G370:G375 G385:G408 M596:N639 H370:N378 H385:N396 G39:G49 G37 A2:A3 B70:C70 M70:N70 G70 B1:O1 A140:B141 A144:B171 A197:B250 A255:B260 A262:B514 G262:N276 F262:F263 M641:N670 A37:B37 A25:A36 M5:N19 G5:G19 A516:B670 A515 M516:N575 G516:G670 A5:C24 A39:B62 A64:B68 A70:B90 A92:B107 A109:B118 A120:B124 A126:B138">
-    <cfRule type="containsText" dxfId="34" priority="401" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="37" priority="404" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",A1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B297:B305 B201:B206 B208:B250">
-    <cfRule type="containsText" dxfId="246" priority="496" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="249" priority="499" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B201)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F394:F396">
-    <cfRule type="containsText" dxfId="245" priority="486" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="248" priority="489" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",F394)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H290:N290">
-    <cfRule type="containsText" dxfId="244" priority="494" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="247" priority="497" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",H290)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M444:N445">
-    <cfRule type="containsText" dxfId="243" priority="485" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="246" priority="488" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",M444)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H445:L445">
-    <cfRule type="containsText" dxfId="242" priority="484" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="245" priority="487" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",H445)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G445:L445">
-    <cfRule type="containsText" dxfId="241" priority="483" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="244" priority="486" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G445)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M445:N445">
-    <cfRule type="containsText" dxfId="240" priority="481" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="243" priority="484" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",M445)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H444:L444">
-    <cfRule type="containsText" dxfId="239" priority="480" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="242" priority="483" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",H444)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G444:L444">
-    <cfRule type="containsText" dxfId="238" priority="479" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="241" priority="482" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G444)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M444:N444">
-    <cfRule type="containsText" dxfId="237" priority="477" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="240" priority="480" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",M444)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F334">
-    <cfRule type="containsText" dxfId="236" priority="476" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="239" priority="479" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",F334)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F374:F378 F385:F393">
-    <cfRule type="containsText" dxfId="235" priority="475" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="238" priority="478" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",F374)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H397:N398">
-    <cfRule type="containsText" dxfId="234" priority="474" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="237" priority="477" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",H397)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M455">
-    <cfRule type="containsText" dxfId="233" priority="443" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="236" priority="446" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",M455)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H450:N450">
-    <cfRule type="containsText" dxfId="232" priority="469" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="235" priority="472" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",H450)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N467">
-    <cfRule type="containsText" dxfId="231" priority="429" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="234" priority="432" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",N467)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H399:N399">
-    <cfRule type="containsText" dxfId="230" priority="412" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="233" priority="415" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",H399)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B466">
-    <cfRule type="containsText" dxfId="229" priority="460" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="232" priority="463" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B466)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M467">
-    <cfRule type="containsText" dxfId="228" priority="431" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="231" priority="434" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",M467)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G456">
-    <cfRule type="containsText" dxfId="227" priority="446" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="230" priority="449" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G456)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M466">
-    <cfRule type="containsText" dxfId="226" priority="435" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="229" priority="438" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",M466)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N455">
-    <cfRule type="containsText" dxfId="225" priority="441" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="228" priority="444" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",N455)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B455:B465">
-    <cfRule type="containsText" dxfId="224" priority="459" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="227" priority="462" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B455)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N466">
-    <cfRule type="containsText" dxfId="223" priority="433" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="226" priority="436" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",N466)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M456">
-    <cfRule type="containsText" dxfId="222" priority="439" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="225" priority="442" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",M456)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N456">
-    <cfRule type="containsText" dxfId="221" priority="437" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="224" priority="440" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",N456)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P342:X345">
-    <cfRule type="containsText" dxfId="220" priority="400" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="223" priority="403" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",P342)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E342:F342 E344:F345">
-    <cfRule type="containsText" dxfId="219" priority="399" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="222" priority="402" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",E342)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H344:H345">
-    <cfRule type="containsText" dxfId="218" priority="398" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="221" priority="401" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",H344)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I342 I344:I345">
-    <cfRule type="containsText" dxfId="217" priority="397" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="220" priority="400" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",I342)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J342 J344:J345">
-    <cfRule type="containsText" dxfId="216" priority="396" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="219" priority="399" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",J342)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K342 K344:K345">
-    <cfRule type="containsText" dxfId="215" priority="395" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="218" priority="398" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",K342)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L342 L344:L345">
-    <cfRule type="containsText" dxfId="214" priority="394" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="217" priority="397" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",L342)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M342 M344:M345">
-    <cfRule type="containsText" dxfId="213" priority="393" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="216" priority="396" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",M342)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N342 N344:N345">
-    <cfRule type="containsText" dxfId="212" priority="392" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="215" priority="395" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",N342)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P409:X409">
-    <cfRule type="containsText" dxfId="211" priority="391" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="214" priority="394" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",P409)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F409">
-    <cfRule type="containsText" dxfId="210" priority="390" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="213" priority="393" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",F409)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I409">
-    <cfRule type="containsText" dxfId="209" priority="388" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="212" priority="391" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",I409)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J409">
-    <cfRule type="containsText" dxfId="208" priority="387" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="211" priority="390" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",J409)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K409">
-    <cfRule type="containsText" dxfId="207" priority="386" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="210" priority="389" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",K409)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L409">
-    <cfRule type="containsText" dxfId="206" priority="385" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="209" priority="388" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",L409)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M409">
-    <cfRule type="containsText" dxfId="205" priority="384" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="208" priority="387" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",M409)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N409">
-    <cfRule type="containsText" dxfId="204" priority="383" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="207" priority="386" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",N409)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B505:B513">
-    <cfRule type="containsText" dxfId="203" priority="381" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="206" priority="384" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B505)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B514">
-    <cfRule type="containsText" dxfId="202" priority="360" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="205" priority="363" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B514)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B111:B114">
-    <cfRule type="containsText" dxfId="201" priority="348" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="204" priority="351" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B111)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B306 B296">
-    <cfRule type="containsText" dxfId="200" priority="349" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="203" priority="352" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B296)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B467:B475">
-    <cfRule type="containsText" dxfId="199" priority="346" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="202" priority="349" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B467)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B307:B321">
-    <cfRule type="containsText" dxfId="198" priority="347" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="201" priority="350" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B307)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B516">
-    <cfRule type="containsText" dxfId="197" priority="345" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="200" priority="348" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B516)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B450">
-    <cfRule type="containsText" dxfId="196" priority="343" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="199" priority="346" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B450)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B449">
-    <cfRule type="containsText" dxfId="195" priority="342" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="198" priority="345" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B449)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B322:B448">
-    <cfRule type="containsText" dxfId="194" priority="341" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="197" priority="344" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B322)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G504">
-    <cfRule type="containsText" dxfId="193" priority="321" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="196" priority="324" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G504)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C37 C39:C40">
-    <cfRule type="containsText" dxfId="192" priority="316" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="195" priority="319" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",C37)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E409">
-    <cfRule type="containsText" dxfId="191" priority="314" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="194" priority="317" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",E409)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M112:N112">
-    <cfRule type="containsText" dxfId="190" priority="307" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="193" priority="310" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",M112)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C71:D71">
-    <cfRule type="containsText" dxfId="189" priority="302" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="192" priority="305" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",C71)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C92:D92">
-    <cfRule type="containsText" dxfId="188" priority="300" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="191" priority="303" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",C92)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C129:D130">
-    <cfRule type="containsText" dxfId="187" priority="275" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="190" priority="278" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",C129)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G126:G130 M126:N130">
-    <cfRule type="containsText" dxfId="186" priority="274" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="189" priority="277" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G126)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B169:B171">
-    <cfRule type="containsText" dxfId="185" priority="273" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="188" priority="276" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B169)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G169:G170">
-    <cfRule type="containsText" dxfId="184" priority="272" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="187" priority="275" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G169)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H169:N170">
-    <cfRule type="containsText" dxfId="183" priority="271" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="186" priority="274" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",H169)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M446:N449 M438:N443 M420:N427 M92:N92 M87:N87 M71:N71 M54:N56 M50:N50 M37:N37 M39:N40">
-    <cfRule type="containsText" dxfId="182" priority="269" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="185" priority="272" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",M37)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M65:N65 G65">
-    <cfRule type="containsText" dxfId="181" priority="264" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="184" priority="267" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G65)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B64:B65">
-    <cfRule type="containsText" dxfId="180" priority="266" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="183" priority="269" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B64)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M64:N64 G64">
-    <cfRule type="containsText" dxfId="179" priority="265" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="182" priority="268" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G64)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B72:B73">
-    <cfRule type="containsText" dxfId="178" priority="260" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="181" priority="263" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B72)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M72:N72">
-    <cfRule type="containsText" dxfId="177" priority="262" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="180" priority="265" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",M72)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M73:N73">
-    <cfRule type="containsText" dxfId="176" priority="261" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="179" priority="264" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",M73)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B96:D107">
-    <cfRule type="containsText" dxfId="175" priority="257" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="178" priority="260" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B96)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M96:N107 G96:G107">
-    <cfRule type="containsText" dxfId="174" priority="258" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="177" priority="261" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G96)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M83:N83 G83">
-    <cfRule type="containsText" dxfId="173" priority="243" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="176" priority="246" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G83)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M82:N82 G82">
-    <cfRule type="containsText" dxfId="172" priority="242" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="175" priority="245" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G82)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G207:N207">
-    <cfRule type="containsText" dxfId="171" priority="250" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="174" priority="253" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G207)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B146:B147">
-    <cfRule type="containsText" dxfId="170" priority="252" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="173" priority="255" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B146)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G146:G147 M146:N147">
-    <cfRule type="containsText" dxfId="169" priority="251" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="172" priority="254" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G146)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B82">
-    <cfRule type="containsText" dxfId="168" priority="244" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="171" priority="247" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B82)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G123 M123:N123">
-    <cfRule type="containsText" dxfId="167" priority="241" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="170" priority="244" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G123)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B140:B141">
-    <cfRule type="containsText" dxfId="166" priority="238" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="169" priority="241" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B140)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G140:G141 M140:N141">
-    <cfRule type="containsText" dxfId="165" priority="237" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="168" priority="240" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G140)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B198:B200">
-    <cfRule type="containsText" dxfId="164" priority="188" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="167" priority="191" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B198)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M198:N200 G198:G200">
-    <cfRule type="containsText" dxfId="163" priority="187" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="166" priority="190" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G198)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B255:B258">
-    <cfRule type="containsText" dxfId="162" priority="177" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="165" priority="180" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B255)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B517:B546">
-    <cfRule type="containsText" dxfId="161" priority="174" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="164" priority="177" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B517)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G81">
-    <cfRule type="containsText" dxfId="160" priority="172" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="163" priority="175" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G81)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H171:N171">
-    <cfRule type="containsText" dxfId="159" priority="168" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="162" priority="171" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",H171)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F211:N211">
-    <cfRule type="containsText" dxfId="158" priority="166" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="161" priority="169" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",F211)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G171">
-    <cfRule type="containsText" dxfId="157" priority="169" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="160" priority="172" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G171)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F231:N249 F255:N256">
-    <cfRule type="containsText" dxfId="156" priority="163" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="159" priority="166" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",F231)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M117:N117 G117">
-    <cfRule type="containsText" dxfId="155" priority="162" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="158" priority="165" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G117)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B124:D124">
-    <cfRule type="containsText" dxfId="154" priority="161" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="157" priority="164" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B124)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G124 M124:N124">
-    <cfRule type="containsText" dxfId="153" priority="160" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="156" priority="163" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G124)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F250:N250">
-    <cfRule type="containsText" dxfId="152" priority="159" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="155" priority="162" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",F250)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1">
-    <cfRule type="containsText" dxfId="151" priority="158" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="154" priority="161" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",A1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G342">
-    <cfRule type="containsText" dxfId="150" priority="156" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="153" priority="159" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G342)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H342">
-    <cfRule type="containsText" dxfId="149" priority="155" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="152" priority="158" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",H342)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F340">
-    <cfRule type="containsText" dxfId="148" priority="154" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="151" priority="157" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",F340)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F350:F366">
-    <cfRule type="containsText" dxfId="147" priority="153" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="150" priority="156" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",F350)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I340">
-    <cfRule type="containsText" dxfId="146" priority="152" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="149" priority="155" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",I340)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J340">
-    <cfRule type="containsText" dxfId="145" priority="151" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="148" priority="154" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",J340)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K340">
-    <cfRule type="containsText" dxfId="144" priority="150" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="147" priority="153" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",K340)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L340">
-    <cfRule type="containsText" dxfId="143" priority="149" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="146" priority="152" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",L340)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M340">
-    <cfRule type="containsText" dxfId="142" priority="148" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="145" priority="151" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",M340)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N340">
-    <cfRule type="containsText" dxfId="141" priority="147" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="144" priority="150" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",N340)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H340">
-    <cfRule type="containsText" dxfId="140" priority="146" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="143" priority="149" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",H340)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G20:G24 M20:N24">
-    <cfRule type="containsText" dxfId="139" priority="142" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="142" priority="145" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G20)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G457:G465">
-    <cfRule type="containsText" dxfId="138" priority="141" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="141" priority="144" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G457)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M457:M465">
-    <cfRule type="containsText" dxfId="137" priority="140" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="140" priority="143" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",M457)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N457:N465">
-    <cfRule type="containsText" dxfId="136" priority="139" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="139" priority="142" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",N457)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M593:N593">
-    <cfRule type="containsText" dxfId="135" priority="138" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="138" priority="141" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",M593)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M594:N594">
-    <cfRule type="containsText" dxfId="134" priority="137" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="137" priority="140" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",M594)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F341">
-    <cfRule type="containsText" dxfId="133" priority="136" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="136" priority="139" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",F341)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I341">
-    <cfRule type="containsText" dxfId="132" priority="135" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="135" priority="138" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",I341)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J341">
-    <cfRule type="containsText" dxfId="131" priority="134" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="134" priority="137" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",J341)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K341">
-    <cfRule type="containsText" dxfId="130" priority="133" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="133" priority="136" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",K341)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L341">
-    <cfRule type="containsText" dxfId="129" priority="132" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="132" priority="135" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",L341)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M341">
-    <cfRule type="containsText" dxfId="128" priority="131" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="131" priority="134" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",M341)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N341">
-    <cfRule type="containsText" dxfId="127" priority="130" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="130" priority="133" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",N341)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H341">
-    <cfRule type="containsText" dxfId="126" priority="129" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="129" priority="132" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",H341)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E343:F343">
-    <cfRule type="containsText" dxfId="125" priority="128" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="128" priority="131" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",E343)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I343">
-    <cfRule type="containsText" dxfId="124" priority="127" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="127" priority="130" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",I343)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J343">
-    <cfRule type="containsText" dxfId="123" priority="126" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="126" priority="129" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",J343)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K343">
-    <cfRule type="containsText" dxfId="122" priority="125" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="125" priority="128" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",K343)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L343">
-    <cfRule type="containsText" dxfId="121" priority="124" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="124" priority="127" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",L343)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M343">
-    <cfRule type="containsText" dxfId="120" priority="123" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="123" priority="126" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",M343)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N343">
-    <cfRule type="containsText" dxfId="119" priority="122" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="122" priority="125" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",N343)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G343">
-    <cfRule type="containsText" dxfId="118" priority="121" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="121" priority="124" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G343)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H343">
-    <cfRule type="containsText" dxfId="117" priority="120" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="120" priority="123" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",H343)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H367:N367">
-    <cfRule type="containsText" dxfId="116" priority="119" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="119" priority="122" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",H367)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F367">
-    <cfRule type="containsText" dxfId="115" priority="118" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="118" priority="121" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",F367)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H368:N368">
-    <cfRule type="containsText" dxfId="114" priority="117" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="117" priority="120" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",H368)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F368">
-    <cfRule type="containsText" dxfId="113" priority="116" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="116" priority="119" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",F368)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H369:N369">
-    <cfRule type="containsText" dxfId="112" priority="115" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="115" priority="118" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",H369)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F369">
-    <cfRule type="containsText" dxfId="111" priority="114" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="114" priority="117" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",F369)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H379:N379">
-    <cfRule type="containsText" dxfId="110" priority="112" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="113" priority="115" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",H379)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F379">
-    <cfRule type="containsText" dxfId="109" priority="113" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="112" priority="116" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",F379)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H380:N384">
-    <cfRule type="containsText" dxfId="108" priority="110" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="111" priority="113" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",H380)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F380:F384">
-    <cfRule type="containsText" dxfId="107" priority="111" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="110" priority="114" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",F380)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M38:N38 G38 A38:C38">
-    <cfRule type="containsText" dxfId="106" priority="109" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="109" priority="112" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",A38)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A139:N139">
-    <cfRule type="containsText" dxfId="105" priority="104" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="108" priority="107" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",A139)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A125 C125:N125">
-    <cfRule type="containsText" dxfId="104" priority="105" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="107" priority="108" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",A125)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A142:N143">
-    <cfRule type="containsText" dxfId="103" priority="103" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="106" priority="106" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",A142)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A172:A176 C172:N176">
-    <cfRule type="containsText" dxfId="102" priority="102" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="105" priority="105" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",A172)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A177:A196 C177:N196">
-    <cfRule type="containsText" dxfId="101" priority="101" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="104" priority="104" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",A177)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A251:N254">
-    <cfRule type="containsText" dxfId="100" priority="100" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="103" priority="103" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",A251)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M640:N640">
-    <cfRule type="containsText" dxfId="99" priority="51" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="102" priority="54" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",M640)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A261 H261:N261 C261:F261">
-    <cfRule type="containsText" dxfId="98" priority="98" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="101" priority="101" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",A261)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G447">
-    <cfRule type="containsText" dxfId="97" priority="96" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="100" priority="99" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G447)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G447">
-    <cfRule type="containsText" dxfId="96" priority="97" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="99" priority="100" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G447)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G448">
-    <cfRule type="containsText" dxfId="95" priority="94" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="98" priority="97" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G448)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G448">
-    <cfRule type="containsText" dxfId="94" priority="95" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="97" priority="98" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G448)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G449">
-    <cfRule type="containsText" dxfId="93" priority="92" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="96" priority="95" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G449)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G449">
-    <cfRule type="containsText" dxfId="92" priority="93" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="95" priority="96" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G449)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G450">
-    <cfRule type="containsText" dxfId="91" priority="90" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="94" priority="93" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G450)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G450">
-    <cfRule type="containsText" dxfId="90" priority="91" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="93" priority="94" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G450)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G451">
-    <cfRule type="containsText" dxfId="89" priority="88" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="92" priority="91" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G451)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G451">
-    <cfRule type="containsText" dxfId="88" priority="89" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="91" priority="92" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G451)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G452">
-    <cfRule type="containsText" dxfId="87" priority="86" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="90" priority="89" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G452)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G452">
-    <cfRule type="containsText" dxfId="86" priority="87" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="89" priority="90" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G452)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G453">
-    <cfRule type="containsText" dxfId="85" priority="84" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="88" priority="87" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G453)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G453">
-    <cfRule type="containsText" dxfId="84" priority="85" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="87" priority="88" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G453)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G454">
-    <cfRule type="containsText" dxfId="83" priority="82" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="86" priority="85" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G454)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G454">
-    <cfRule type="containsText" dxfId="82" priority="83" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="85" priority="86" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G454)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G455">
-    <cfRule type="containsText" dxfId="81" priority="80" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="84" priority="83" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G455)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G455">
-    <cfRule type="containsText" dxfId="80" priority="81" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="83" priority="84" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G455)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G466">
-    <cfRule type="containsText" dxfId="79" priority="78" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="82" priority="81" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G466)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G466">
-    <cfRule type="containsText" dxfId="78" priority="79" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="81" priority="82" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G466)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G467">
-    <cfRule type="containsText" dxfId="77" priority="76" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="80" priority="79" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G467)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G467">
-    <cfRule type="containsText" dxfId="76" priority="77" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="79" priority="80" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G467)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G468">
-    <cfRule type="containsText" dxfId="75" priority="74" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="78" priority="77" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G468)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G468">
-    <cfRule type="containsText" dxfId="74" priority="75" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="77" priority="78" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G468)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G469">
-    <cfRule type="containsText" dxfId="73" priority="72" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="76" priority="75" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G469)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G469">
-    <cfRule type="containsText" dxfId="72" priority="73" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="75" priority="76" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G469)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G470">
-    <cfRule type="containsText" dxfId="71" priority="70" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="74" priority="73" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G470)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G470">
-    <cfRule type="containsText" dxfId="70" priority="71" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="73" priority="74" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G470)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G471">
-    <cfRule type="containsText" dxfId="69" priority="68" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="72" priority="71" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G471)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G471">
-    <cfRule type="containsText" dxfId="68" priority="69" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="71" priority="72" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G471)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G472">
-    <cfRule type="containsText" dxfId="67" priority="66" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="70" priority="69" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G472)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G472">
-    <cfRule type="containsText" dxfId="66" priority="67" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="69" priority="70" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G472)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G473">
-    <cfRule type="containsText" dxfId="65" priority="64" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="68" priority="67" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G473)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G473">
-    <cfRule type="containsText" dxfId="64" priority="65" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="67" priority="68" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G473)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G474">
-    <cfRule type="containsText" dxfId="63" priority="62" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="66" priority="65" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G474)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G474">
-    <cfRule type="containsText" dxfId="62" priority="63" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="65" priority="66" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G474)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G475">
-    <cfRule type="containsText" dxfId="61" priority="60" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="64" priority="63" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G475)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G475">
-    <cfRule type="containsText" dxfId="60" priority="61" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="63" priority="64" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G475)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G476">
-    <cfRule type="containsText" dxfId="59" priority="58" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="62" priority="61" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G476)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G476">
-    <cfRule type="containsText" dxfId="58" priority="59" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="61" priority="62" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G476)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G477">
-    <cfRule type="containsText" dxfId="57" priority="56" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="60" priority="59" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G477)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G477">
-    <cfRule type="containsText" dxfId="56" priority="57" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="59" priority="60" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G477)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G478">
-    <cfRule type="containsText" dxfId="55" priority="54" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="58" priority="57" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G478)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G478">
-    <cfRule type="containsText" dxfId="54" priority="55" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="57" priority="58" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G478)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G479">
-    <cfRule type="containsText" dxfId="53" priority="52" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="56" priority="55" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G479)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G479">
-    <cfRule type="containsText" dxfId="52" priority="53" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="55" priority="56" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G479)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G31:G36 G25:G28 B25:C36 M25:N36">
-    <cfRule type="containsText" dxfId="51" priority="49" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="54" priority="52" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B25)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G29:G30">
-    <cfRule type="containsText" dxfId="50" priority="50" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="53" priority="53" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G29)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G4 M4:N4 A4:C4">
-    <cfRule type="containsText" dxfId="49" priority="46" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="52" priority="49" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",A4)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O2:O90 O92:O670">
-    <cfRule type="containsText" dxfId="48" priority="44" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="51" priority="47" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",O2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2:G3 B2:C3 M2:N3">
-    <cfRule type="containsText" dxfId="47" priority="45" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="50" priority="48" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G261">
-    <cfRule type="containsText" dxfId="46" priority="43" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="49" priority="46" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G261)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A91:G91 O91">
-    <cfRule type="containsText" dxfId="45" priority="42" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="48" priority="45" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",A91)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B261">
-    <cfRule type="containsText" dxfId="44" priority="41" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="47" priority="44" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B261)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B515">
-    <cfRule type="containsText" dxfId="43" priority="40" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="46" priority="43" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B515)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M515:N515 G515">
-    <cfRule type="containsText" dxfId="42" priority="39" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="45" priority="42" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G515)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B172:B196">
-    <cfRule type="containsText" dxfId="41" priority="36" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="44" priority="39" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B172)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B172:B196">
-    <cfRule type="containsText" dxfId="40" priority="37" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="43" priority="40" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B172)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A63:B63">
-    <cfRule type="containsText" dxfId="35" priority="35" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="38" priority="38" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",A63)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A108:B108">
-    <cfRule type="containsText" dxfId="33" priority="34" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="36" priority="37" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",A108)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B108:C108">
-    <cfRule type="containsText" dxfId="32" priority="33" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="35" priority="36" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B108)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B109">
-    <cfRule type="containsText" dxfId="31" priority="32" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="34" priority="35" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B109)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B110">
-    <cfRule type="containsText" dxfId="30" priority="31" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="33" priority="34" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B110)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B112">
-    <cfRule type="containsText" dxfId="29" priority="30" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="32" priority="33" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B112)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B113">
-    <cfRule type="containsText" dxfId="28" priority="29" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="31" priority="32" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B113)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B114">
-    <cfRule type="containsText" dxfId="27" priority="28" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="30" priority="31" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B114)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B115">
-    <cfRule type="containsText" dxfId="26" priority="27" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="29" priority="30" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B115)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B115">
-    <cfRule type="containsText" dxfId="25" priority="26" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="28" priority="29" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B115)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A119:B119">
-    <cfRule type="containsText" dxfId="24" priority="25" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="27" priority="28" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",A119)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B119">
-    <cfRule type="containsText" dxfId="23" priority="24" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="26" priority="27" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B119)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B122">
-    <cfRule type="containsText" dxfId="22" priority="23" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="25" priority="26" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B122)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B122">
-    <cfRule type="containsText" dxfId="21" priority="22" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="24" priority="25" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B122)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B124">
-    <cfRule type="containsText" dxfId="20" priority="21" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="23" priority="24" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B124)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B124">
+    <cfRule type="containsText" dxfId="22" priority="23" operator="containsText" text="&lt;?&gt;">
+      <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B124)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B125">
+    <cfRule type="containsText" dxfId="21" priority="22" operator="containsText" text="&lt;?&gt;">
+      <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B125)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B125">
+    <cfRule type="containsText" dxfId="20" priority="21" operator="containsText" text="&lt;?&gt;">
+      <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B125)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B125">
     <cfRule type="containsText" dxfId="19" priority="20" operator="containsText" text="&lt;?&gt;">
-      <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B124)))</formula>
+      <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B125)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B125">
@@ -42577,94 +42622,94 @@
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B125)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B125">
+  <conditionalFormatting sqref="B126">
     <cfRule type="containsText" dxfId="17" priority="18" operator="containsText" text="&lt;?&gt;">
-      <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B125)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B125">
-    <cfRule type="containsText" dxfId="16" priority="17" operator="containsText" text="&lt;?&gt;">
-      <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B125)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B125">
-    <cfRule type="containsText" dxfId="15" priority="16" operator="containsText" text="&lt;?&gt;">
-      <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B125)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B126">
-    <cfRule type="containsText" dxfId="14" priority="15" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B126)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B126">
-    <cfRule type="containsText" dxfId="13" priority="14" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="16" priority="17" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B126)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B126">
-    <cfRule type="containsText" dxfId="12" priority="13" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="15" priority="16" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B126)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B129">
-    <cfRule type="containsText" dxfId="11" priority="12" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="14" priority="15" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B129)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B129">
-    <cfRule type="containsText" dxfId="10" priority="11" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="13" priority="14" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B129)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B129">
-    <cfRule type="containsText" dxfId="9" priority="10" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="12" priority="13" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B129)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B130">
-    <cfRule type="containsText" dxfId="8" priority="9" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="11" priority="12" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B130)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B130">
-    <cfRule type="containsText" dxfId="7" priority="8" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="10" priority="11" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B130)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B130">
-    <cfRule type="containsText" dxfId="6" priority="7" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="9" priority="10" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B130)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B131">
-    <cfRule type="containsText" dxfId="5" priority="6" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="8" priority="9" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B131)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B131">
-    <cfRule type="containsText" dxfId="4" priority="5" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="7" priority="8" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B131)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B131">
-    <cfRule type="containsText" dxfId="3" priority="4" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="6" priority="7" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B131)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B132">
-    <cfRule type="containsText" dxfId="2" priority="3" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="5" priority="6" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B132)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B132">
-    <cfRule type="containsText" dxfId="1" priority="2" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="4" priority="5" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B132)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B132">
+    <cfRule type="containsText" dxfId="3" priority="4" operator="containsText" text="&lt;?&gt;">
+      <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B132)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B134">
+    <cfRule type="containsText" dxfId="2" priority="3" operator="containsText" text="&lt;?&gt;">
+      <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B134)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B134">
+    <cfRule type="containsText" dxfId="1" priority="2" operator="containsText" text="&lt;?&gt;">
+      <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B134)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B134">
     <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="&lt;?&gt;">
-      <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B132)))</formula>
+      <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B134)))</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -45765,7 +45810,7 @@
   </sheetData>
   <autoFilter ref="A1:B1" xr:uid="{AF62FD2E-052D-40DF-8032-68688A8C1623}"/>
   <conditionalFormatting sqref="A2:B479">
-    <cfRule type="containsText" dxfId="39" priority="2" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="42" priority="2" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",A2)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -46095,12 +46140,12 @@
     <mergeCell ref="A1:B1"/>
   </mergeCells>
   <conditionalFormatting sqref="A1 C1 A2:C37 A39:C1048576">
-    <cfRule type="containsText" dxfId="38" priority="31" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="41" priority="31" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",A1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A38:C38">
-    <cfRule type="containsText" dxfId="37" priority="6" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="40" priority="6" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",A38)))</formula>
     </cfRule>
   </conditionalFormatting>

--- a/1.0.4/matrix/Validatiematrix v1.2.xlsx
+++ b/1.0.4/matrix/Validatiematrix v1.2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Default.DESKTOP-NDDI22K\Documents\Geonovum\github\xml_validatietestcontent\1.0.4\matrix\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81A5EE33-AC9A-4EF4-B23E-C7C2B0E80574}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4318DF3E-100E-4FA2-BE53-5566502AF2CA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="348" windowWidth="23256" windowHeight="12720" tabRatio="670" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9526" uniqueCount="1788">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9527" uniqueCount="1788">
   <si>
     <t>Is Opdracht.zip een geldige zip</t>
   </si>
@@ -6343,7 +6343,37 @@
     <cellStyle name="Standaard 3 2" xfId="3" xr:uid="{A1634239-92B9-4583-AB04-DEBDF9A9A44B}"/>
     <cellStyle name="Standaard 3 3" xfId="5" xr:uid="{C77AD319-D6C6-4ABD-AE5A-A2C0A40B68E7}"/>
   </cellStyles>
-  <dxfs count="250">
+  <dxfs count="253">
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FFFF0000"/>
@@ -9213,7 +9243,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A115" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A134" sqref="A134:B134"/>
+      <selection pane="bottomLeft" activeCell="A136" sqref="A136"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -15684,11 +15714,11 @@
       </c>
     </row>
     <row r="135" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A135" s="38" t="s">
-        <v>1166</v>
-      </c>
-      <c r="B135" s="38">
-        <v>2</v>
+      <c r="A135" s="76" t="s">
+        <v>1166</v>
+      </c>
+      <c r="B135" s="81" t="s">
+        <v>1779</v>
       </c>
       <c r="C135" s="22" t="s">
         <v>537</v>
@@ -41483,1123 +41513,1138 @@
   </autoFilter>
   <phoneticPr fontId="5" type="noConversion"/>
   <conditionalFormatting sqref="F335:F339 C111:C115 F397:F408 F322:F333 F201 F269:F271 F267 F265 F259:F260 F223:F225 F219:F220 F214:F216 F203:F205 F291:G291 E450 H400:N408 G322:N339 E444:N445 M468:N475 B41:C53 B57:C62 B93:C95 B131:C138 M113:N116 G131:G138 M131:N138 B74:C81 M197:N197 G197 M41:N49 M51:N53 M57:N63 M74:N80 M88:N90 M93:N95 G51:G53 G57:G63 G74:G80 G88:G90 G93:G95 M577:N592 B66:C68 G66:G68 M66:N68 B109:C110 G108:G116 M108:N111 B148:C154 B83:C90 G84:G86 M84:N86 C116:D123 B144:C145 M144:N145 G144:G145 H155:N168 M148:N168 G148:G168 G201:N206 M451:N454 G505:G514 M504:N514 F208:N210 F212 F227:F230 G212:N230 G257:N260 F257 G118:G122 M118:N122 C126:D128 F370:F373 F346:G349 H346:N366 G370:G375 G385:G408 M596:N639 H370:N378 H385:N396 G39:G49 G37 A2:A3 B70:C70 M70:N70 G70 B1:O1 A140:B141 A144:B171 A197:B250 A255:B260 A262:B514 G262:N276 F262:F263 M641:N670 A37:B37 A25:A36 M5:N19 G5:G19 A516:B670 A515 M516:N575 G516:G670 A5:C24 A39:B62 A64:B68 A70:B90 A92:B107 A109:B118 A120:B124 A126:B138">
-    <cfRule type="containsText" dxfId="37" priority="404" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="40" priority="407" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",A1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B297:B305 B201:B206 B208:B250">
-    <cfRule type="containsText" dxfId="249" priority="499" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="252" priority="502" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B201)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F394:F396">
-    <cfRule type="containsText" dxfId="248" priority="489" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="251" priority="492" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",F394)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H290:N290">
-    <cfRule type="containsText" dxfId="247" priority="497" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="250" priority="500" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",H290)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M444:N445">
-    <cfRule type="containsText" dxfId="246" priority="488" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="249" priority="491" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",M444)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H445:L445">
-    <cfRule type="containsText" dxfId="245" priority="487" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="248" priority="490" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",H445)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G445:L445">
-    <cfRule type="containsText" dxfId="244" priority="486" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="247" priority="489" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G445)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M445:N445">
-    <cfRule type="containsText" dxfId="243" priority="484" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="246" priority="487" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",M445)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H444:L444">
-    <cfRule type="containsText" dxfId="242" priority="483" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="245" priority="486" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",H444)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G444:L444">
-    <cfRule type="containsText" dxfId="241" priority="482" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="244" priority="485" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G444)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M444:N444">
-    <cfRule type="containsText" dxfId="240" priority="480" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="243" priority="483" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",M444)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F334">
-    <cfRule type="containsText" dxfId="239" priority="479" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="242" priority="482" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",F334)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F374:F378 F385:F393">
-    <cfRule type="containsText" dxfId="238" priority="478" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="241" priority="481" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",F374)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H397:N398">
-    <cfRule type="containsText" dxfId="237" priority="477" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="240" priority="480" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",H397)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M455">
-    <cfRule type="containsText" dxfId="236" priority="446" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="239" priority="449" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",M455)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H450:N450">
-    <cfRule type="containsText" dxfId="235" priority="472" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="238" priority="475" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",H450)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N467">
-    <cfRule type="containsText" dxfId="234" priority="432" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="237" priority="435" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",N467)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H399:N399">
-    <cfRule type="containsText" dxfId="233" priority="415" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="236" priority="418" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",H399)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B466">
-    <cfRule type="containsText" dxfId="232" priority="463" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="235" priority="466" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B466)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M467">
-    <cfRule type="containsText" dxfId="231" priority="434" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="234" priority="437" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",M467)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G456">
-    <cfRule type="containsText" dxfId="230" priority="449" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="233" priority="452" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G456)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M466">
-    <cfRule type="containsText" dxfId="229" priority="438" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="232" priority="441" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",M466)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N455">
-    <cfRule type="containsText" dxfId="228" priority="444" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="231" priority="447" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",N455)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B455:B465">
-    <cfRule type="containsText" dxfId="227" priority="462" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="230" priority="465" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B455)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N466">
-    <cfRule type="containsText" dxfId="226" priority="436" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="229" priority="439" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",N466)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M456">
-    <cfRule type="containsText" dxfId="225" priority="442" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="228" priority="445" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",M456)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N456">
-    <cfRule type="containsText" dxfId="224" priority="440" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="227" priority="443" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",N456)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P342:X345">
-    <cfRule type="containsText" dxfId="223" priority="403" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="226" priority="406" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",P342)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E342:F342 E344:F345">
-    <cfRule type="containsText" dxfId="222" priority="402" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="225" priority="405" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",E342)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H344:H345">
-    <cfRule type="containsText" dxfId="221" priority="401" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="224" priority="404" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",H344)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I342 I344:I345">
-    <cfRule type="containsText" dxfId="220" priority="400" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="223" priority="403" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",I342)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J342 J344:J345">
-    <cfRule type="containsText" dxfId="219" priority="399" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="222" priority="402" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",J342)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K342 K344:K345">
-    <cfRule type="containsText" dxfId="218" priority="398" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="221" priority="401" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",K342)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L342 L344:L345">
-    <cfRule type="containsText" dxfId="217" priority="397" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="220" priority="400" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",L342)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M342 M344:M345">
-    <cfRule type="containsText" dxfId="216" priority="396" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="219" priority="399" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",M342)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N342 N344:N345">
-    <cfRule type="containsText" dxfId="215" priority="395" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="218" priority="398" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",N342)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P409:X409">
-    <cfRule type="containsText" dxfId="214" priority="394" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="217" priority="397" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",P409)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F409">
-    <cfRule type="containsText" dxfId="213" priority="393" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="216" priority="396" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",F409)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I409">
-    <cfRule type="containsText" dxfId="212" priority="391" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="215" priority="394" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",I409)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J409">
-    <cfRule type="containsText" dxfId="211" priority="390" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="214" priority="393" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",J409)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K409">
-    <cfRule type="containsText" dxfId="210" priority="389" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="213" priority="392" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",K409)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L409">
-    <cfRule type="containsText" dxfId="209" priority="388" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="212" priority="391" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",L409)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M409">
-    <cfRule type="containsText" dxfId="208" priority="387" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="211" priority="390" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",M409)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N409">
-    <cfRule type="containsText" dxfId="207" priority="386" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="210" priority="389" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",N409)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B505:B513">
-    <cfRule type="containsText" dxfId="206" priority="384" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="209" priority="387" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B505)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B514">
-    <cfRule type="containsText" dxfId="205" priority="363" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="208" priority="366" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B514)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B111:B114">
-    <cfRule type="containsText" dxfId="204" priority="351" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="207" priority="354" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B111)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B306 B296">
-    <cfRule type="containsText" dxfId="203" priority="352" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="206" priority="355" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B296)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B467:B475">
-    <cfRule type="containsText" dxfId="202" priority="349" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="205" priority="352" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B467)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B307:B321">
-    <cfRule type="containsText" dxfId="201" priority="350" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="204" priority="353" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B307)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B516">
-    <cfRule type="containsText" dxfId="200" priority="348" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="203" priority="351" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B516)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B450">
-    <cfRule type="containsText" dxfId="199" priority="346" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="202" priority="349" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B450)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B449">
-    <cfRule type="containsText" dxfId="198" priority="345" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="201" priority="348" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B449)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B322:B448">
-    <cfRule type="containsText" dxfId="197" priority="344" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="200" priority="347" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B322)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G504">
-    <cfRule type="containsText" dxfId="196" priority="324" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="199" priority="327" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G504)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C37 C39:C40">
-    <cfRule type="containsText" dxfId="195" priority="319" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="198" priority="322" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",C37)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E409">
-    <cfRule type="containsText" dxfId="194" priority="317" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="197" priority="320" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",E409)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M112:N112">
-    <cfRule type="containsText" dxfId="193" priority="310" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="196" priority="313" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",M112)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C71:D71">
-    <cfRule type="containsText" dxfId="192" priority="305" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="195" priority="308" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",C71)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C92:D92">
-    <cfRule type="containsText" dxfId="191" priority="303" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="194" priority="306" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",C92)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C129:D130">
-    <cfRule type="containsText" dxfId="190" priority="278" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="193" priority="281" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",C129)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G126:G130 M126:N130">
-    <cfRule type="containsText" dxfId="189" priority="277" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="192" priority="280" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G126)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B169:B171">
-    <cfRule type="containsText" dxfId="188" priority="276" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="191" priority="279" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B169)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G169:G170">
-    <cfRule type="containsText" dxfId="187" priority="275" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="190" priority="278" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G169)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H169:N170">
-    <cfRule type="containsText" dxfId="186" priority="274" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="189" priority="277" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",H169)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M446:N449 M438:N443 M420:N427 M92:N92 M87:N87 M71:N71 M54:N56 M50:N50 M37:N37 M39:N40">
-    <cfRule type="containsText" dxfId="185" priority="272" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="188" priority="275" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",M37)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M65:N65 G65">
-    <cfRule type="containsText" dxfId="184" priority="267" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="187" priority="270" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G65)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B64:B65">
-    <cfRule type="containsText" dxfId="183" priority="269" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="186" priority="272" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B64)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M64:N64 G64">
-    <cfRule type="containsText" dxfId="182" priority="268" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="185" priority="271" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G64)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B72:B73">
-    <cfRule type="containsText" dxfId="181" priority="263" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="184" priority="266" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B72)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M72:N72">
-    <cfRule type="containsText" dxfId="180" priority="265" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="183" priority="268" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",M72)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M73:N73">
-    <cfRule type="containsText" dxfId="179" priority="264" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="182" priority="267" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",M73)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B96:D107">
-    <cfRule type="containsText" dxfId="178" priority="260" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="181" priority="263" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B96)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M96:N107 G96:G107">
-    <cfRule type="containsText" dxfId="177" priority="261" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="180" priority="264" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G96)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M83:N83 G83">
-    <cfRule type="containsText" dxfId="176" priority="246" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="179" priority="249" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G83)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M82:N82 G82">
-    <cfRule type="containsText" dxfId="175" priority="245" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="178" priority="248" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G82)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G207:N207">
-    <cfRule type="containsText" dxfId="174" priority="253" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="177" priority="256" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G207)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B146:B147">
-    <cfRule type="containsText" dxfId="173" priority="255" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="176" priority="258" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B146)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G146:G147 M146:N147">
-    <cfRule type="containsText" dxfId="172" priority="254" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="175" priority="257" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G146)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B82">
-    <cfRule type="containsText" dxfId="171" priority="247" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="174" priority="250" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B82)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G123 M123:N123">
-    <cfRule type="containsText" dxfId="170" priority="244" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="173" priority="247" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G123)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B140:B141">
-    <cfRule type="containsText" dxfId="169" priority="241" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="172" priority="244" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B140)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G140:G141 M140:N141">
-    <cfRule type="containsText" dxfId="168" priority="240" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="171" priority="243" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G140)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B198:B200">
-    <cfRule type="containsText" dxfId="167" priority="191" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="170" priority="194" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B198)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M198:N200 G198:G200">
-    <cfRule type="containsText" dxfId="166" priority="190" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="169" priority="193" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G198)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B255:B258">
-    <cfRule type="containsText" dxfId="165" priority="180" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="168" priority="183" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B255)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B517:B546">
-    <cfRule type="containsText" dxfId="164" priority="177" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="167" priority="180" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B517)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G81">
-    <cfRule type="containsText" dxfId="163" priority="175" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="166" priority="178" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G81)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H171:N171">
-    <cfRule type="containsText" dxfId="162" priority="171" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="165" priority="174" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",H171)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F211:N211">
-    <cfRule type="containsText" dxfId="161" priority="169" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="164" priority="172" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",F211)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G171">
-    <cfRule type="containsText" dxfId="160" priority="172" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="163" priority="175" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G171)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F231:N249 F255:N256">
-    <cfRule type="containsText" dxfId="159" priority="166" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="162" priority="169" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",F231)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M117:N117 G117">
-    <cfRule type="containsText" dxfId="158" priority="165" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="161" priority="168" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G117)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B124:D124">
-    <cfRule type="containsText" dxfId="157" priority="164" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="160" priority="167" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B124)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G124 M124:N124">
-    <cfRule type="containsText" dxfId="156" priority="163" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="159" priority="166" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G124)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F250:N250">
-    <cfRule type="containsText" dxfId="155" priority="162" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="158" priority="165" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",F250)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1">
-    <cfRule type="containsText" dxfId="154" priority="161" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="157" priority="164" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",A1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G342">
-    <cfRule type="containsText" dxfId="153" priority="159" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="156" priority="162" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G342)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H342">
-    <cfRule type="containsText" dxfId="152" priority="158" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="155" priority="161" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",H342)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F340">
-    <cfRule type="containsText" dxfId="151" priority="157" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="154" priority="160" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",F340)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F350:F366">
-    <cfRule type="containsText" dxfId="150" priority="156" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="153" priority="159" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",F350)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I340">
-    <cfRule type="containsText" dxfId="149" priority="155" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="152" priority="158" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",I340)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J340">
-    <cfRule type="containsText" dxfId="148" priority="154" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="151" priority="157" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",J340)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K340">
-    <cfRule type="containsText" dxfId="147" priority="153" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="150" priority="156" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",K340)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L340">
-    <cfRule type="containsText" dxfId="146" priority="152" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="149" priority="155" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",L340)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M340">
-    <cfRule type="containsText" dxfId="145" priority="151" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="148" priority="154" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",M340)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N340">
-    <cfRule type="containsText" dxfId="144" priority="150" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="147" priority="153" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",N340)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H340">
-    <cfRule type="containsText" dxfId="143" priority="149" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="146" priority="152" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",H340)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G20:G24 M20:N24">
-    <cfRule type="containsText" dxfId="142" priority="145" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="145" priority="148" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G20)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G457:G465">
-    <cfRule type="containsText" dxfId="141" priority="144" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="144" priority="147" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G457)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M457:M465">
-    <cfRule type="containsText" dxfId="140" priority="143" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="143" priority="146" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",M457)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N457:N465">
-    <cfRule type="containsText" dxfId="139" priority="142" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="142" priority="145" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",N457)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M593:N593">
-    <cfRule type="containsText" dxfId="138" priority="141" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="141" priority="144" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",M593)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M594:N594">
-    <cfRule type="containsText" dxfId="137" priority="140" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="140" priority="143" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",M594)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F341">
-    <cfRule type="containsText" dxfId="136" priority="139" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="139" priority="142" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",F341)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I341">
-    <cfRule type="containsText" dxfId="135" priority="138" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="138" priority="141" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",I341)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J341">
-    <cfRule type="containsText" dxfId="134" priority="137" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="137" priority="140" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",J341)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K341">
-    <cfRule type="containsText" dxfId="133" priority="136" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="136" priority="139" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",K341)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L341">
-    <cfRule type="containsText" dxfId="132" priority="135" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="135" priority="138" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",L341)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M341">
-    <cfRule type="containsText" dxfId="131" priority="134" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="134" priority="137" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",M341)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N341">
-    <cfRule type="containsText" dxfId="130" priority="133" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="133" priority="136" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",N341)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H341">
-    <cfRule type="containsText" dxfId="129" priority="132" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="132" priority="135" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",H341)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E343:F343">
-    <cfRule type="containsText" dxfId="128" priority="131" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="131" priority="134" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",E343)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I343">
-    <cfRule type="containsText" dxfId="127" priority="130" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="130" priority="133" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",I343)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J343">
-    <cfRule type="containsText" dxfId="126" priority="129" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="129" priority="132" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",J343)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K343">
-    <cfRule type="containsText" dxfId="125" priority="128" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="128" priority="131" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",K343)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L343">
-    <cfRule type="containsText" dxfId="124" priority="127" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="127" priority="130" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",L343)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M343">
-    <cfRule type="containsText" dxfId="123" priority="126" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="126" priority="129" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",M343)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N343">
-    <cfRule type="containsText" dxfId="122" priority="125" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="125" priority="128" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",N343)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G343">
-    <cfRule type="containsText" dxfId="121" priority="124" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="124" priority="127" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G343)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H343">
-    <cfRule type="containsText" dxfId="120" priority="123" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="123" priority="126" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",H343)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H367:N367">
-    <cfRule type="containsText" dxfId="119" priority="122" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="122" priority="125" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",H367)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F367">
-    <cfRule type="containsText" dxfId="118" priority="121" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="121" priority="124" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",F367)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H368:N368">
-    <cfRule type="containsText" dxfId="117" priority="120" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="120" priority="123" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",H368)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F368">
-    <cfRule type="containsText" dxfId="116" priority="119" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="119" priority="122" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",F368)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H369:N369">
-    <cfRule type="containsText" dxfId="115" priority="118" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="118" priority="121" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",H369)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F369">
-    <cfRule type="containsText" dxfId="114" priority="117" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="117" priority="120" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",F369)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H379:N379">
-    <cfRule type="containsText" dxfId="113" priority="115" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="116" priority="118" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",H379)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F379">
-    <cfRule type="containsText" dxfId="112" priority="116" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="115" priority="119" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",F379)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H380:N384">
-    <cfRule type="containsText" dxfId="111" priority="113" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="114" priority="116" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",H380)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F380:F384">
-    <cfRule type="containsText" dxfId="110" priority="114" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="113" priority="117" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",F380)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M38:N38 G38 A38:C38">
-    <cfRule type="containsText" dxfId="109" priority="112" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="112" priority="115" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",A38)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A139:N139">
-    <cfRule type="containsText" dxfId="108" priority="107" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="111" priority="110" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",A139)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A125 C125:N125">
-    <cfRule type="containsText" dxfId="107" priority="108" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="110" priority="111" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",A125)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A142:N143">
-    <cfRule type="containsText" dxfId="106" priority="106" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="109" priority="109" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",A142)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A172:A176 C172:N176">
-    <cfRule type="containsText" dxfId="105" priority="105" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="108" priority="108" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",A172)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A177:A196 C177:N196">
-    <cfRule type="containsText" dxfId="104" priority="104" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="107" priority="107" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",A177)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A251:N254">
-    <cfRule type="containsText" dxfId="103" priority="103" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="106" priority="106" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",A251)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M640:N640">
-    <cfRule type="containsText" dxfId="102" priority="54" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="105" priority="57" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",M640)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A261 H261:N261 C261:F261">
-    <cfRule type="containsText" dxfId="101" priority="101" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="104" priority="104" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",A261)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G447">
-    <cfRule type="containsText" dxfId="100" priority="99" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="103" priority="102" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G447)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G447">
-    <cfRule type="containsText" dxfId="99" priority="100" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="102" priority="103" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G447)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G448">
-    <cfRule type="containsText" dxfId="98" priority="97" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="101" priority="100" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G448)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G448">
-    <cfRule type="containsText" dxfId="97" priority="98" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="100" priority="101" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G448)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G449">
-    <cfRule type="containsText" dxfId="96" priority="95" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="99" priority="98" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G449)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G449">
-    <cfRule type="containsText" dxfId="95" priority="96" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="98" priority="99" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G449)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G450">
-    <cfRule type="containsText" dxfId="94" priority="93" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="97" priority="96" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G450)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G450">
-    <cfRule type="containsText" dxfId="93" priority="94" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="96" priority="97" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G450)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G451">
-    <cfRule type="containsText" dxfId="92" priority="91" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="95" priority="94" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G451)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G451">
-    <cfRule type="containsText" dxfId="91" priority="92" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="94" priority="95" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G451)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G452">
-    <cfRule type="containsText" dxfId="90" priority="89" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="93" priority="92" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G452)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G452">
-    <cfRule type="containsText" dxfId="89" priority="90" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="92" priority="93" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G452)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G453">
-    <cfRule type="containsText" dxfId="88" priority="87" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="91" priority="90" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G453)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G453">
-    <cfRule type="containsText" dxfId="87" priority="88" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="90" priority="91" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G453)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G454">
-    <cfRule type="containsText" dxfId="86" priority="85" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="89" priority="88" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G454)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G454">
-    <cfRule type="containsText" dxfId="85" priority="86" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="88" priority="89" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G454)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G455">
-    <cfRule type="containsText" dxfId="84" priority="83" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="87" priority="86" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G455)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G455">
-    <cfRule type="containsText" dxfId="83" priority="84" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="86" priority="87" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G455)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G466">
-    <cfRule type="containsText" dxfId="82" priority="81" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="85" priority="84" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G466)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G466">
-    <cfRule type="containsText" dxfId="81" priority="82" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="84" priority="85" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G466)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G467">
-    <cfRule type="containsText" dxfId="80" priority="79" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="83" priority="82" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G467)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G467">
-    <cfRule type="containsText" dxfId="79" priority="80" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="82" priority="83" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G467)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G468">
-    <cfRule type="containsText" dxfId="78" priority="77" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="81" priority="80" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G468)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G468">
-    <cfRule type="containsText" dxfId="77" priority="78" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="80" priority="81" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G468)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G469">
-    <cfRule type="containsText" dxfId="76" priority="75" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="79" priority="78" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G469)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G469">
-    <cfRule type="containsText" dxfId="75" priority="76" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="78" priority="79" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G469)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G470">
-    <cfRule type="containsText" dxfId="74" priority="73" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="77" priority="76" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G470)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G470">
-    <cfRule type="containsText" dxfId="73" priority="74" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="76" priority="77" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G470)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G471">
-    <cfRule type="containsText" dxfId="72" priority="71" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="75" priority="74" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G471)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G471">
-    <cfRule type="containsText" dxfId="71" priority="72" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="74" priority="75" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G471)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G472">
-    <cfRule type="containsText" dxfId="70" priority="69" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="73" priority="72" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G472)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G472">
-    <cfRule type="containsText" dxfId="69" priority="70" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="72" priority="73" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G472)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G473">
-    <cfRule type="containsText" dxfId="68" priority="67" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="71" priority="70" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G473)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G473">
-    <cfRule type="containsText" dxfId="67" priority="68" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="70" priority="71" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G473)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G474">
-    <cfRule type="containsText" dxfId="66" priority="65" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="69" priority="68" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G474)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G474">
-    <cfRule type="containsText" dxfId="65" priority="66" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="68" priority="69" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G474)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G475">
-    <cfRule type="containsText" dxfId="64" priority="63" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="67" priority="66" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G475)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G475">
-    <cfRule type="containsText" dxfId="63" priority="64" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="66" priority="67" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G475)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G476">
-    <cfRule type="containsText" dxfId="62" priority="61" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="65" priority="64" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G476)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G476">
-    <cfRule type="containsText" dxfId="61" priority="62" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="64" priority="65" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G476)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G477">
-    <cfRule type="containsText" dxfId="60" priority="59" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="63" priority="62" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G477)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G477">
-    <cfRule type="containsText" dxfId="59" priority="60" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="62" priority="63" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G477)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G478">
-    <cfRule type="containsText" dxfId="58" priority="57" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="61" priority="60" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G478)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G478">
-    <cfRule type="containsText" dxfId="57" priority="58" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="60" priority="61" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G478)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G479">
-    <cfRule type="containsText" dxfId="56" priority="55" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="59" priority="58" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G479)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G479">
-    <cfRule type="containsText" dxfId="55" priority="56" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="58" priority="59" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G479)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G31:G36 G25:G28 B25:C36 M25:N36">
-    <cfRule type="containsText" dxfId="54" priority="52" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="57" priority="55" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B25)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G29:G30">
-    <cfRule type="containsText" dxfId="53" priority="53" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="56" priority="56" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G29)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G4 M4:N4 A4:C4">
-    <cfRule type="containsText" dxfId="52" priority="49" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="55" priority="52" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",A4)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O2:O90 O92:O670">
-    <cfRule type="containsText" dxfId="51" priority="47" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="54" priority="50" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",O2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2:G3 B2:C3 M2:N3">
-    <cfRule type="containsText" dxfId="50" priority="48" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="53" priority="51" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G261">
-    <cfRule type="containsText" dxfId="49" priority="46" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="52" priority="49" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G261)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A91:G91 O91">
-    <cfRule type="containsText" dxfId="48" priority="45" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="51" priority="48" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",A91)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B261">
-    <cfRule type="containsText" dxfId="47" priority="44" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="50" priority="47" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B261)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B515">
-    <cfRule type="containsText" dxfId="46" priority="43" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="49" priority="46" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B515)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M515:N515 G515">
-    <cfRule type="containsText" dxfId="45" priority="42" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="48" priority="45" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G515)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B172:B196">
-    <cfRule type="containsText" dxfId="44" priority="39" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="47" priority="42" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B172)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B172:B196">
-    <cfRule type="containsText" dxfId="43" priority="40" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="46" priority="43" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B172)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A63:B63">
-    <cfRule type="containsText" dxfId="38" priority="38" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="41" priority="41" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",A63)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A108:B108">
-    <cfRule type="containsText" dxfId="36" priority="37" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="39" priority="40" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",A108)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B108:C108">
-    <cfRule type="containsText" dxfId="35" priority="36" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="38" priority="39" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B108)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B109">
-    <cfRule type="containsText" dxfId="34" priority="35" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="37" priority="38" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B109)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B110">
-    <cfRule type="containsText" dxfId="33" priority="34" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="36" priority="37" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B110)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B112">
-    <cfRule type="containsText" dxfId="32" priority="33" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="35" priority="36" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B112)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B113">
-    <cfRule type="containsText" dxfId="31" priority="32" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="34" priority="35" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B113)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B114">
-    <cfRule type="containsText" dxfId="30" priority="31" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="33" priority="34" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B114)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B115">
-    <cfRule type="containsText" dxfId="29" priority="30" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="32" priority="33" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B115)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B115">
-    <cfRule type="containsText" dxfId="28" priority="29" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="31" priority="32" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B115)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A119:B119">
-    <cfRule type="containsText" dxfId="27" priority="28" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="30" priority="31" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",A119)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B119">
-    <cfRule type="containsText" dxfId="26" priority="27" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="29" priority="30" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B119)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B122">
-    <cfRule type="containsText" dxfId="25" priority="26" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="28" priority="29" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B122)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B122">
-    <cfRule type="containsText" dxfId="24" priority="25" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="27" priority="28" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B122)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B124">
-    <cfRule type="containsText" dxfId="23" priority="24" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="26" priority="27" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B124)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B124">
+    <cfRule type="containsText" dxfId="25" priority="26" operator="containsText" text="&lt;?&gt;">
+      <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B124)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B125">
+    <cfRule type="containsText" dxfId="24" priority="25" operator="containsText" text="&lt;?&gt;">
+      <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B125)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B125">
+    <cfRule type="containsText" dxfId="23" priority="24" operator="containsText" text="&lt;?&gt;">
+      <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B125)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B125">
     <cfRule type="containsText" dxfId="22" priority="23" operator="containsText" text="&lt;?&gt;">
-      <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B124)))</formula>
+      <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B125)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B125">
@@ -42607,109 +42652,109 @@
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B125)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B125">
+  <conditionalFormatting sqref="B126">
     <cfRule type="containsText" dxfId="20" priority="21" operator="containsText" text="&lt;?&gt;">
-      <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B125)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B125">
-    <cfRule type="containsText" dxfId="19" priority="20" operator="containsText" text="&lt;?&gt;">
-      <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B125)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B125">
-    <cfRule type="containsText" dxfId="18" priority="19" operator="containsText" text="&lt;?&gt;">
-      <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B125)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B126">
-    <cfRule type="containsText" dxfId="17" priority="18" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B126)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B126">
-    <cfRule type="containsText" dxfId="16" priority="17" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="19" priority="20" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B126)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B126">
-    <cfRule type="containsText" dxfId="15" priority="16" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="18" priority="19" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B126)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B129">
-    <cfRule type="containsText" dxfId="14" priority="15" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="17" priority="18" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B129)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B129">
-    <cfRule type="containsText" dxfId="13" priority="14" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="16" priority="17" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B129)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B129">
-    <cfRule type="containsText" dxfId="12" priority="13" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="15" priority="16" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B129)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B130">
-    <cfRule type="containsText" dxfId="11" priority="12" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="14" priority="15" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B130)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B130">
-    <cfRule type="containsText" dxfId="10" priority="11" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="13" priority="14" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B130)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B130">
-    <cfRule type="containsText" dxfId="9" priority="10" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="12" priority="13" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B130)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B131">
-    <cfRule type="containsText" dxfId="8" priority="9" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="11" priority="12" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B131)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B131">
-    <cfRule type="containsText" dxfId="7" priority="8" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="10" priority="11" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B131)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B131">
-    <cfRule type="containsText" dxfId="6" priority="7" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="9" priority="10" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B131)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B132">
-    <cfRule type="containsText" dxfId="5" priority="6" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="8" priority="9" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B132)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B132">
-    <cfRule type="containsText" dxfId="4" priority="5" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="7" priority="8" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B132)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B132">
-    <cfRule type="containsText" dxfId="3" priority="4" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="6" priority="7" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B132)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B134">
-    <cfRule type="containsText" dxfId="2" priority="3" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="5" priority="6" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B134)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B134">
-    <cfRule type="containsText" dxfId="1" priority="2" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="4" priority="5" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B134)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B134">
+    <cfRule type="containsText" dxfId="3" priority="4" operator="containsText" text="&lt;?&gt;">
+      <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B134)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B135">
+    <cfRule type="containsText" dxfId="2" priority="3" operator="containsText" text="&lt;?&gt;">
+      <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B135)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B135">
+    <cfRule type="containsText" dxfId="1" priority="2" operator="containsText" text="&lt;?&gt;">
+      <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B135)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B135">
     <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="&lt;?&gt;">
-      <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B134)))</formula>
+      <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B135)))</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -45810,7 +45855,7 @@
   </sheetData>
   <autoFilter ref="A1:B1" xr:uid="{AF62FD2E-052D-40DF-8032-68688A8C1623}"/>
   <conditionalFormatting sqref="A2:B479">
-    <cfRule type="containsText" dxfId="42" priority="2" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="45" priority="2" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",A2)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -46140,12 +46185,12 @@
     <mergeCell ref="A1:B1"/>
   </mergeCells>
   <conditionalFormatting sqref="A1 C1 A2:C37 A39:C1048576">
-    <cfRule type="containsText" dxfId="41" priority="31" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="44" priority="31" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",A1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A38:C38">
-    <cfRule type="containsText" dxfId="40" priority="6" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="43" priority="6" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",A38)))</formula>
     </cfRule>
   </conditionalFormatting>

--- a/1.0.4/matrix/Validatiematrix v1.2.xlsx
+++ b/1.0.4/matrix/Validatiematrix v1.2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Default.DESKTOP-NDDI22K\Documents\Geonovum\github\xml_validatietestcontent\1.0.4\matrix\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4318DF3E-100E-4FA2-BE53-5566502AF2CA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE274916-339A-4572-A25C-1DD02068DA0F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="348" windowWidth="23256" windowHeight="12720" tabRatio="670" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9527" uniqueCount="1788">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9528" uniqueCount="1788">
   <si>
     <t>Is Opdracht.zip een geldige zip</t>
   </si>
@@ -6343,7 +6343,37 @@
     <cellStyle name="Standaard 3 2" xfId="3" xr:uid="{A1634239-92B9-4583-AB04-DEBDF9A9A44B}"/>
     <cellStyle name="Standaard 3 3" xfId="5" xr:uid="{C77AD319-D6C6-4ABD-AE5A-A2C0A40B68E7}"/>
   </cellStyles>
-  <dxfs count="253">
+  <dxfs count="256">
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FFFF0000"/>
@@ -9243,7 +9273,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A115" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A136" sqref="A136"/>
+      <selection pane="bottomLeft" activeCell="A136" sqref="A136:B136"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -15762,11 +15792,11 @@
       </c>
     </row>
     <row r="136" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A136" s="38" t="s">
-        <v>1166</v>
-      </c>
-      <c r="B136" s="38">
-        <v>2</v>
+      <c r="A136" s="76" t="s">
+        <v>1166</v>
+      </c>
+      <c r="B136" s="81" t="s">
+        <v>1779</v>
       </c>
       <c r="C136" s="22" t="s">
         <v>539</v>
@@ -41513,1123 +41543,1138 @@
   </autoFilter>
   <phoneticPr fontId="5" type="noConversion"/>
   <conditionalFormatting sqref="F335:F339 C111:C115 F397:F408 F322:F333 F201 F269:F271 F267 F265 F259:F260 F223:F225 F219:F220 F214:F216 F203:F205 F291:G291 E450 H400:N408 G322:N339 E444:N445 M468:N475 B41:C53 B57:C62 B93:C95 B131:C138 M113:N116 G131:G138 M131:N138 B74:C81 M197:N197 G197 M41:N49 M51:N53 M57:N63 M74:N80 M88:N90 M93:N95 G51:G53 G57:G63 G74:G80 G88:G90 G93:G95 M577:N592 B66:C68 G66:G68 M66:N68 B109:C110 G108:G116 M108:N111 B148:C154 B83:C90 G84:G86 M84:N86 C116:D123 B144:C145 M144:N145 G144:G145 H155:N168 M148:N168 G148:G168 G201:N206 M451:N454 G505:G514 M504:N514 F208:N210 F212 F227:F230 G212:N230 G257:N260 F257 G118:G122 M118:N122 C126:D128 F370:F373 F346:G349 H346:N366 G370:G375 G385:G408 M596:N639 H370:N378 H385:N396 G39:G49 G37 A2:A3 B70:C70 M70:N70 G70 B1:O1 A140:B141 A144:B171 A197:B250 A255:B260 A262:B514 G262:N276 F262:F263 M641:N670 A37:B37 A25:A36 M5:N19 G5:G19 A516:B670 A515 M516:N575 G516:G670 A5:C24 A39:B62 A64:B68 A70:B90 A92:B107 A109:B118 A120:B124 A126:B138">
-    <cfRule type="containsText" dxfId="40" priority="407" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="43" priority="410" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",A1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B297:B305 B201:B206 B208:B250">
-    <cfRule type="containsText" dxfId="252" priority="502" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="255" priority="505" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B201)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F394:F396">
-    <cfRule type="containsText" dxfId="251" priority="492" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="254" priority="495" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",F394)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H290:N290">
-    <cfRule type="containsText" dxfId="250" priority="500" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="253" priority="503" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",H290)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M444:N445">
-    <cfRule type="containsText" dxfId="249" priority="491" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="252" priority="494" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",M444)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H445:L445">
-    <cfRule type="containsText" dxfId="248" priority="490" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="251" priority="493" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",H445)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G445:L445">
-    <cfRule type="containsText" dxfId="247" priority="489" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="250" priority="492" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G445)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M445:N445">
-    <cfRule type="containsText" dxfId="246" priority="487" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="249" priority="490" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",M445)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H444:L444">
-    <cfRule type="containsText" dxfId="245" priority="486" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="248" priority="489" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",H444)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G444:L444">
-    <cfRule type="containsText" dxfId="244" priority="485" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="247" priority="488" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G444)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M444:N444">
-    <cfRule type="containsText" dxfId="243" priority="483" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="246" priority="486" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",M444)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F334">
-    <cfRule type="containsText" dxfId="242" priority="482" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="245" priority="485" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",F334)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F374:F378 F385:F393">
-    <cfRule type="containsText" dxfId="241" priority="481" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="244" priority="484" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",F374)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H397:N398">
-    <cfRule type="containsText" dxfId="240" priority="480" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="243" priority="483" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",H397)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M455">
-    <cfRule type="containsText" dxfId="239" priority="449" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="242" priority="452" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",M455)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H450:N450">
-    <cfRule type="containsText" dxfId="238" priority="475" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="241" priority="478" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",H450)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N467">
-    <cfRule type="containsText" dxfId="237" priority="435" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="240" priority="438" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",N467)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H399:N399">
-    <cfRule type="containsText" dxfId="236" priority="418" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="239" priority="421" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",H399)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B466">
-    <cfRule type="containsText" dxfId="235" priority="466" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="238" priority="469" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B466)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M467">
-    <cfRule type="containsText" dxfId="234" priority="437" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="237" priority="440" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",M467)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G456">
-    <cfRule type="containsText" dxfId="233" priority="452" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="236" priority="455" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G456)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M466">
-    <cfRule type="containsText" dxfId="232" priority="441" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="235" priority="444" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",M466)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N455">
-    <cfRule type="containsText" dxfId="231" priority="447" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="234" priority="450" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",N455)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B455:B465">
-    <cfRule type="containsText" dxfId="230" priority="465" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="233" priority="468" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B455)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N466">
-    <cfRule type="containsText" dxfId="229" priority="439" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="232" priority="442" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",N466)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M456">
-    <cfRule type="containsText" dxfId="228" priority="445" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="231" priority="448" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",M456)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N456">
-    <cfRule type="containsText" dxfId="227" priority="443" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="230" priority="446" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",N456)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P342:X345">
-    <cfRule type="containsText" dxfId="226" priority="406" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="229" priority="409" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",P342)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E342:F342 E344:F345">
-    <cfRule type="containsText" dxfId="225" priority="405" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="228" priority="408" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",E342)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H344:H345">
-    <cfRule type="containsText" dxfId="224" priority="404" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="227" priority="407" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",H344)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I342 I344:I345">
-    <cfRule type="containsText" dxfId="223" priority="403" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="226" priority="406" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",I342)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J342 J344:J345">
-    <cfRule type="containsText" dxfId="222" priority="402" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="225" priority="405" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",J342)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K342 K344:K345">
-    <cfRule type="containsText" dxfId="221" priority="401" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="224" priority="404" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",K342)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L342 L344:L345">
-    <cfRule type="containsText" dxfId="220" priority="400" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="223" priority="403" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",L342)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M342 M344:M345">
-    <cfRule type="containsText" dxfId="219" priority="399" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="222" priority="402" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",M342)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N342 N344:N345">
-    <cfRule type="containsText" dxfId="218" priority="398" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="221" priority="401" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",N342)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P409:X409">
-    <cfRule type="containsText" dxfId="217" priority="397" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="220" priority="400" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",P409)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F409">
-    <cfRule type="containsText" dxfId="216" priority="396" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="219" priority="399" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",F409)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I409">
-    <cfRule type="containsText" dxfId="215" priority="394" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="218" priority="397" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",I409)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J409">
-    <cfRule type="containsText" dxfId="214" priority="393" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="217" priority="396" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",J409)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K409">
-    <cfRule type="containsText" dxfId="213" priority="392" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="216" priority="395" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",K409)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L409">
-    <cfRule type="containsText" dxfId="212" priority="391" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="215" priority="394" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",L409)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M409">
-    <cfRule type="containsText" dxfId="211" priority="390" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="214" priority="393" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",M409)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N409">
-    <cfRule type="containsText" dxfId="210" priority="389" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="213" priority="392" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",N409)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B505:B513">
-    <cfRule type="containsText" dxfId="209" priority="387" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="212" priority="390" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B505)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B514">
-    <cfRule type="containsText" dxfId="208" priority="366" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="211" priority="369" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B514)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B111:B114">
-    <cfRule type="containsText" dxfId="207" priority="354" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="210" priority="357" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B111)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B306 B296">
-    <cfRule type="containsText" dxfId="206" priority="355" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="209" priority="358" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B296)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B467:B475">
-    <cfRule type="containsText" dxfId="205" priority="352" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="208" priority="355" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B467)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B307:B321">
-    <cfRule type="containsText" dxfId="204" priority="353" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="207" priority="356" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B307)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B516">
-    <cfRule type="containsText" dxfId="203" priority="351" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="206" priority="354" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B516)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B450">
-    <cfRule type="containsText" dxfId="202" priority="349" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="205" priority="352" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B450)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B449">
-    <cfRule type="containsText" dxfId="201" priority="348" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="204" priority="351" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B449)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B322:B448">
-    <cfRule type="containsText" dxfId="200" priority="347" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="203" priority="350" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B322)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G504">
-    <cfRule type="containsText" dxfId="199" priority="327" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="202" priority="330" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G504)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C37 C39:C40">
-    <cfRule type="containsText" dxfId="198" priority="322" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="201" priority="325" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",C37)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E409">
-    <cfRule type="containsText" dxfId="197" priority="320" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="200" priority="323" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",E409)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M112:N112">
-    <cfRule type="containsText" dxfId="196" priority="313" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="199" priority="316" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",M112)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C71:D71">
-    <cfRule type="containsText" dxfId="195" priority="308" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="198" priority="311" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",C71)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C92:D92">
-    <cfRule type="containsText" dxfId="194" priority="306" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="197" priority="309" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",C92)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C129:D130">
-    <cfRule type="containsText" dxfId="193" priority="281" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="196" priority="284" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",C129)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G126:G130 M126:N130">
-    <cfRule type="containsText" dxfId="192" priority="280" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="195" priority="283" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G126)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B169:B171">
-    <cfRule type="containsText" dxfId="191" priority="279" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="194" priority="282" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B169)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G169:G170">
-    <cfRule type="containsText" dxfId="190" priority="278" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="193" priority="281" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G169)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H169:N170">
-    <cfRule type="containsText" dxfId="189" priority="277" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="192" priority="280" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",H169)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M446:N449 M438:N443 M420:N427 M92:N92 M87:N87 M71:N71 M54:N56 M50:N50 M37:N37 M39:N40">
-    <cfRule type="containsText" dxfId="188" priority="275" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="191" priority="278" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",M37)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M65:N65 G65">
-    <cfRule type="containsText" dxfId="187" priority="270" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="190" priority="273" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G65)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B64:B65">
-    <cfRule type="containsText" dxfId="186" priority="272" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="189" priority="275" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B64)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M64:N64 G64">
-    <cfRule type="containsText" dxfId="185" priority="271" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="188" priority="274" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G64)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B72:B73">
-    <cfRule type="containsText" dxfId="184" priority="266" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="187" priority="269" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B72)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M72:N72">
-    <cfRule type="containsText" dxfId="183" priority="268" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="186" priority="271" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",M72)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M73:N73">
-    <cfRule type="containsText" dxfId="182" priority="267" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="185" priority="270" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",M73)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B96:D107">
-    <cfRule type="containsText" dxfId="181" priority="263" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="184" priority="266" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B96)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M96:N107 G96:G107">
-    <cfRule type="containsText" dxfId="180" priority="264" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="183" priority="267" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G96)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M83:N83 G83">
-    <cfRule type="containsText" dxfId="179" priority="249" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="182" priority="252" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G83)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M82:N82 G82">
-    <cfRule type="containsText" dxfId="178" priority="248" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="181" priority="251" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G82)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G207:N207">
-    <cfRule type="containsText" dxfId="177" priority="256" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="180" priority="259" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G207)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B146:B147">
-    <cfRule type="containsText" dxfId="176" priority="258" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="179" priority="261" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B146)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G146:G147 M146:N147">
-    <cfRule type="containsText" dxfId="175" priority="257" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="178" priority="260" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G146)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B82">
-    <cfRule type="containsText" dxfId="174" priority="250" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="177" priority="253" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B82)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G123 M123:N123">
-    <cfRule type="containsText" dxfId="173" priority="247" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="176" priority="250" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G123)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B140:B141">
-    <cfRule type="containsText" dxfId="172" priority="244" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="175" priority="247" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B140)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G140:G141 M140:N141">
-    <cfRule type="containsText" dxfId="171" priority="243" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="174" priority="246" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G140)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B198:B200">
-    <cfRule type="containsText" dxfId="170" priority="194" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="173" priority="197" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B198)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M198:N200 G198:G200">
-    <cfRule type="containsText" dxfId="169" priority="193" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="172" priority="196" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G198)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B255:B258">
-    <cfRule type="containsText" dxfId="168" priority="183" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="171" priority="186" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B255)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B517:B546">
-    <cfRule type="containsText" dxfId="167" priority="180" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="170" priority="183" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B517)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G81">
-    <cfRule type="containsText" dxfId="166" priority="178" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="169" priority="181" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G81)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H171:N171">
-    <cfRule type="containsText" dxfId="165" priority="174" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="168" priority="177" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",H171)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F211:N211">
-    <cfRule type="containsText" dxfId="164" priority="172" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="167" priority="175" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",F211)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G171">
-    <cfRule type="containsText" dxfId="163" priority="175" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="166" priority="178" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G171)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F231:N249 F255:N256">
-    <cfRule type="containsText" dxfId="162" priority="169" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="165" priority="172" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",F231)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M117:N117 G117">
-    <cfRule type="containsText" dxfId="161" priority="168" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="164" priority="171" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G117)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B124:D124">
-    <cfRule type="containsText" dxfId="160" priority="167" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="163" priority="170" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B124)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G124 M124:N124">
-    <cfRule type="containsText" dxfId="159" priority="166" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="162" priority="169" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G124)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F250:N250">
-    <cfRule type="containsText" dxfId="158" priority="165" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="161" priority="168" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",F250)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1">
-    <cfRule type="containsText" dxfId="157" priority="164" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="160" priority="167" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",A1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G342">
-    <cfRule type="containsText" dxfId="156" priority="162" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="159" priority="165" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G342)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H342">
-    <cfRule type="containsText" dxfId="155" priority="161" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="158" priority="164" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",H342)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F340">
-    <cfRule type="containsText" dxfId="154" priority="160" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="157" priority="163" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",F340)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F350:F366">
-    <cfRule type="containsText" dxfId="153" priority="159" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="156" priority="162" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",F350)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I340">
-    <cfRule type="containsText" dxfId="152" priority="158" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="155" priority="161" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",I340)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J340">
-    <cfRule type="containsText" dxfId="151" priority="157" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="154" priority="160" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",J340)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K340">
-    <cfRule type="containsText" dxfId="150" priority="156" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="153" priority="159" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",K340)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L340">
-    <cfRule type="containsText" dxfId="149" priority="155" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="152" priority="158" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",L340)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M340">
-    <cfRule type="containsText" dxfId="148" priority="154" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="151" priority="157" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",M340)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N340">
-    <cfRule type="containsText" dxfId="147" priority="153" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="150" priority="156" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",N340)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H340">
-    <cfRule type="containsText" dxfId="146" priority="152" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="149" priority="155" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",H340)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G20:G24 M20:N24">
-    <cfRule type="containsText" dxfId="145" priority="148" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="148" priority="151" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G20)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G457:G465">
-    <cfRule type="containsText" dxfId="144" priority="147" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="147" priority="150" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G457)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M457:M465">
-    <cfRule type="containsText" dxfId="143" priority="146" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="146" priority="149" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",M457)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N457:N465">
-    <cfRule type="containsText" dxfId="142" priority="145" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="145" priority="148" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",N457)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M593:N593">
-    <cfRule type="containsText" dxfId="141" priority="144" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="144" priority="147" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",M593)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M594:N594">
-    <cfRule type="containsText" dxfId="140" priority="143" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="143" priority="146" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",M594)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F341">
-    <cfRule type="containsText" dxfId="139" priority="142" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="142" priority="145" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",F341)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I341">
-    <cfRule type="containsText" dxfId="138" priority="141" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="141" priority="144" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",I341)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J341">
-    <cfRule type="containsText" dxfId="137" priority="140" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="140" priority="143" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",J341)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K341">
-    <cfRule type="containsText" dxfId="136" priority="139" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="139" priority="142" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",K341)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L341">
-    <cfRule type="containsText" dxfId="135" priority="138" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="138" priority="141" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",L341)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M341">
-    <cfRule type="containsText" dxfId="134" priority="137" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="137" priority="140" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",M341)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N341">
-    <cfRule type="containsText" dxfId="133" priority="136" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="136" priority="139" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",N341)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H341">
-    <cfRule type="containsText" dxfId="132" priority="135" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="135" priority="138" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",H341)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E343:F343">
-    <cfRule type="containsText" dxfId="131" priority="134" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="134" priority="137" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",E343)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I343">
-    <cfRule type="containsText" dxfId="130" priority="133" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="133" priority="136" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",I343)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J343">
-    <cfRule type="containsText" dxfId="129" priority="132" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="132" priority="135" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",J343)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K343">
-    <cfRule type="containsText" dxfId="128" priority="131" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="131" priority="134" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",K343)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L343">
-    <cfRule type="containsText" dxfId="127" priority="130" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="130" priority="133" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",L343)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M343">
-    <cfRule type="containsText" dxfId="126" priority="129" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="129" priority="132" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",M343)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N343">
-    <cfRule type="containsText" dxfId="125" priority="128" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="128" priority="131" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",N343)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G343">
-    <cfRule type="containsText" dxfId="124" priority="127" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="127" priority="130" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G343)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H343">
-    <cfRule type="containsText" dxfId="123" priority="126" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="126" priority="129" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",H343)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H367:N367">
-    <cfRule type="containsText" dxfId="122" priority="125" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="125" priority="128" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",H367)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F367">
-    <cfRule type="containsText" dxfId="121" priority="124" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="124" priority="127" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",F367)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H368:N368">
-    <cfRule type="containsText" dxfId="120" priority="123" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="123" priority="126" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",H368)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F368">
-    <cfRule type="containsText" dxfId="119" priority="122" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="122" priority="125" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",F368)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H369:N369">
-    <cfRule type="containsText" dxfId="118" priority="121" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="121" priority="124" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",H369)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F369">
-    <cfRule type="containsText" dxfId="117" priority="120" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="120" priority="123" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",F369)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H379:N379">
-    <cfRule type="containsText" dxfId="116" priority="118" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="119" priority="121" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",H379)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F379">
-    <cfRule type="containsText" dxfId="115" priority="119" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="118" priority="122" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",F379)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H380:N384">
-    <cfRule type="containsText" dxfId="114" priority="116" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="117" priority="119" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",H380)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F380:F384">
-    <cfRule type="containsText" dxfId="113" priority="117" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="116" priority="120" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",F380)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M38:N38 G38 A38:C38">
-    <cfRule type="containsText" dxfId="112" priority="115" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="115" priority="118" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",A38)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A139:N139">
-    <cfRule type="containsText" dxfId="111" priority="110" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="114" priority="113" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",A139)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A125 C125:N125">
-    <cfRule type="containsText" dxfId="110" priority="111" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="113" priority="114" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",A125)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A142:N143">
-    <cfRule type="containsText" dxfId="109" priority="109" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="112" priority="112" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",A142)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A172:A176 C172:N176">
-    <cfRule type="containsText" dxfId="108" priority="108" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="111" priority="111" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",A172)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A177:A196 C177:N196">
-    <cfRule type="containsText" dxfId="107" priority="107" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="110" priority="110" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",A177)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A251:N254">
-    <cfRule type="containsText" dxfId="106" priority="106" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="109" priority="109" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",A251)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M640:N640">
-    <cfRule type="containsText" dxfId="105" priority="57" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="108" priority="60" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",M640)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A261 H261:N261 C261:F261">
-    <cfRule type="containsText" dxfId="104" priority="104" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="107" priority="107" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",A261)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G447">
-    <cfRule type="containsText" dxfId="103" priority="102" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="106" priority="105" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G447)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G447">
-    <cfRule type="containsText" dxfId="102" priority="103" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="105" priority="106" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G447)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G448">
-    <cfRule type="containsText" dxfId="101" priority="100" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="104" priority="103" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G448)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G448">
-    <cfRule type="containsText" dxfId="100" priority="101" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="103" priority="104" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G448)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G449">
-    <cfRule type="containsText" dxfId="99" priority="98" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="102" priority="101" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G449)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G449">
-    <cfRule type="containsText" dxfId="98" priority="99" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="101" priority="102" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G449)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G450">
-    <cfRule type="containsText" dxfId="97" priority="96" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="100" priority="99" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G450)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G450">
-    <cfRule type="containsText" dxfId="96" priority="97" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="99" priority="100" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G450)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G451">
-    <cfRule type="containsText" dxfId="95" priority="94" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="98" priority="97" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G451)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G451">
-    <cfRule type="containsText" dxfId="94" priority="95" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="97" priority="98" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G451)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G452">
-    <cfRule type="containsText" dxfId="93" priority="92" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="96" priority="95" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G452)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G452">
-    <cfRule type="containsText" dxfId="92" priority="93" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="95" priority="96" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G452)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G453">
-    <cfRule type="containsText" dxfId="91" priority="90" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="94" priority="93" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G453)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G453">
-    <cfRule type="containsText" dxfId="90" priority="91" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="93" priority="94" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G453)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G454">
-    <cfRule type="containsText" dxfId="89" priority="88" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="92" priority="91" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G454)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G454">
-    <cfRule type="containsText" dxfId="88" priority="89" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="91" priority="92" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G454)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G455">
-    <cfRule type="containsText" dxfId="87" priority="86" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="90" priority="89" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G455)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G455">
-    <cfRule type="containsText" dxfId="86" priority="87" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="89" priority="90" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G455)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G466">
-    <cfRule type="containsText" dxfId="85" priority="84" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="88" priority="87" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G466)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G466">
-    <cfRule type="containsText" dxfId="84" priority="85" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="87" priority="88" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G466)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G467">
-    <cfRule type="containsText" dxfId="83" priority="82" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="86" priority="85" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G467)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G467">
-    <cfRule type="containsText" dxfId="82" priority="83" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="85" priority="86" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G467)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G468">
-    <cfRule type="containsText" dxfId="81" priority="80" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="84" priority="83" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G468)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G468">
-    <cfRule type="containsText" dxfId="80" priority="81" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="83" priority="84" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G468)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G469">
-    <cfRule type="containsText" dxfId="79" priority="78" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="82" priority="81" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G469)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G469">
-    <cfRule type="containsText" dxfId="78" priority="79" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="81" priority="82" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G469)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G470">
-    <cfRule type="containsText" dxfId="77" priority="76" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="80" priority="79" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G470)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G470">
-    <cfRule type="containsText" dxfId="76" priority="77" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="79" priority="80" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G470)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G471">
-    <cfRule type="containsText" dxfId="75" priority="74" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="78" priority="77" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G471)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G471">
-    <cfRule type="containsText" dxfId="74" priority="75" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="77" priority="78" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G471)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G472">
-    <cfRule type="containsText" dxfId="73" priority="72" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="76" priority="75" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G472)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G472">
-    <cfRule type="containsText" dxfId="72" priority="73" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="75" priority="76" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G472)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G473">
-    <cfRule type="containsText" dxfId="71" priority="70" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="74" priority="73" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G473)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G473">
-    <cfRule type="containsText" dxfId="70" priority="71" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="73" priority="74" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G473)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G474">
-    <cfRule type="containsText" dxfId="69" priority="68" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="72" priority="71" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G474)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G474">
-    <cfRule type="containsText" dxfId="68" priority="69" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="71" priority="72" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G474)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G475">
-    <cfRule type="containsText" dxfId="67" priority="66" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="70" priority="69" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G475)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G475">
-    <cfRule type="containsText" dxfId="66" priority="67" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="69" priority="70" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G475)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G476">
-    <cfRule type="containsText" dxfId="65" priority="64" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="68" priority="67" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G476)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G476">
-    <cfRule type="containsText" dxfId="64" priority="65" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="67" priority="68" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G476)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G477">
-    <cfRule type="containsText" dxfId="63" priority="62" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="66" priority="65" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G477)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G477">
-    <cfRule type="containsText" dxfId="62" priority="63" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="65" priority="66" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G477)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G478">
-    <cfRule type="containsText" dxfId="61" priority="60" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="64" priority="63" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G478)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G478">
-    <cfRule type="containsText" dxfId="60" priority="61" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="63" priority="64" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G478)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G479">
-    <cfRule type="containsText" dxfId="59" priority="58" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="62" priority="61" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G479)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G479">
-    <cfRule type="containsText" dxfId="58" priority="59" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="61" priority="62" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G479)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G31:G36 G25:G28 B25:C36 M25:N36">
-    <cfRule type="containsText" dxfId="57" priority="55" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="60" priority="58" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B25)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G29:G30">
-    <cfRule type="containsText" dxfId="56" priority="56" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="59" priority="59" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G29)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G4 M4:N4 A4:C4">
-    <cfRule type="containsText" dxfId="55" priority="52" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="58" priority="55" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",A4)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O2:O90 O92:O670">
-    <cfRule type="containsText" dxfId="54" priority="50" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="57" priority="53" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",O2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2:G3 B2:C3 M2:N3">
-    <cfRule type="containsText" dxfId="53" priority="51" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="56" priority="54" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G261">
-    <cfRule type="containsText" dxfId="52" priority="49" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="55" priority="52" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G261)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A91:G91 O91">
-    <cfRule type="containsText" dxfId="51" priority="48" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="54" priority="51" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",A91)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B261">
-    <cfRule type="containsText" dxfId="50" priority="47" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="53" priority="50" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B261)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B515">
-    <cfRule type="containsText" dxfId="49" priority="46" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="52" priority="49" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B515)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M515:N515 G515">
-    <cfRule type="containsText" dxfId="48" priority="45" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="51" priority="48" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G515)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B172:B196">
-    <cfRule type="containsText" dxfId="47" priority="42" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="50" priority="45" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B172)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B172:B196">
-    <cfRule type="containsText" dxfId="46" priority="43" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="49" priority="46" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B172)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A63:B63">
-    <cfRule type="containsText" dxfId="41" priority="41" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="44" priority="44" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",A63)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A108:B108">
-    <cfRule type="containsText" dxfId="39" priority="40" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="42" priority="43" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",A108)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B108:C108">
-    <cfRule type="containsText" dxfId="38" priority="39" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="41" priority="42" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B108)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B109">
-    <cfRule type="containsText" dxfId="37" priority="38" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="40" priority="41" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B109)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B110">
-    <cfRule type="containsText" dxfId="36" priority="37" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="39" priority="40" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B110)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B112">
-    <cfRule type="containsText" dxfId="35" priority="36" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="38" priority="39" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B112)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B113">
-    <cfRule type="containsText" dxfId="34" priority="35" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="37" priority="38" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B113)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B114">
-    <cfRule type="containsText" dxfId="33" priority="34" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="36" priority="37" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B114)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B115">
-    <cfRule type="containsText" dxfId="32" priority="33" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="35" priority="36" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B115)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B115">
-    <cfRule type="containsText" dxfId="31" priority="32" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="34" priority="35" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B115)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A119:B119">
-    <cfRule type="containsText" dxfId="30" priority="31" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="33" priority="34" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",A119)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B119">
-    <cfRule type="containsText" dxfId="29" priority="30" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="32" priority="33" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B119)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B122">
-    <cfRule type="containsText" dxfId="28" priority="29" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="31" priority="32" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B122)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B122">
-    <cfRule type="containsText" dxfId="27" priority="28" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="30" priority="31" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B122)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B124">
-    <cfRule type="containsText" dxfId="26" priority="27" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="29" priority="30" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B124)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B124">
+    <cfRule type="containsText" dxfId="28" priority="29" operator="containsText" text="&lt;?&gt;">
+      <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B124)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B125">
+    <cfRule type="containsText" dxfId="27" priority="28" operator="containsText" text="&lt;?&gt;">
+      <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B125)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B125">
+    <cfRule type="containsText" dxfId="26" priority="27" operator="containsText" text="&lt;?&gt;">
+      <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B125)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B125">
     <cfRule type="containsText" dxfId="25" priority="26" operator="containsText" text="&lt;?&gt;">
-      <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B124)))</formula>
+      <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B125)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B125">
@@ -42637,124 +42682,124 @@
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B125)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B125">
+  <conditionalFormatting sqref="B126">
     <cfRule type="containsText" dxfId="23" priority="24" operator="containsText" text="&lt;?&gt;">
-      <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B125)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B125">
-    <cfRule type="containsText" dxfId="22" priority="23" operator="containsText" text="&lt;?&gt;">
-      <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B125)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B125">
-    <cfRule type="containsText" dxfId="21" priority="22" operator="containsText" text="&lt;?&gt;">
-      <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B125)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B126">
-    <cfRule type="containsText" dxfId="20" priority="21" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B126)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B126">
-    <cfRule type="containsText" dxfId="19" priority="20" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="22" priority="23" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B126)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B126">
-    <cfRule type="containsText" dxfId="18" priority="19" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="21" priority="22" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B126)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B129">
-    <cfRule type="containsText" dxfId="17" priority="18" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="20" priority="21" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B129)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B129">
-    <cfRule type="containsText" dxfId="16" priority="17" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="19" priority="20" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B129)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B129">
-    <cfRule type="containsText" dxfId="15" priority="16" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="18" priority="19" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B129)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B130">
-    <cfRule type="containsText" dxfId="14" priority="15" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="17" priority="18" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B130)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B130">
-    <cfRule type="containsText" dxfId="13" priority="14" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="16" priority="17" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B130)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B130">
-    <cfRule type="containsText" dxfId="12" priority="13" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="15" priority="16" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B130)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B131">
-    <cfRule type="containsText" dxfId="11" priority="12" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="14" priority="15" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B131)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B131">
-    <cfRule type="containsText" dxfId="10" priority="11" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="13" priority="14" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B131)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B131">
-    <cfRule type="containsText" dxfId="9" priority="10" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="12" priority="13" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B131)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B132">
-    <cfRule type="containsText" dxfId="8" priority="9" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="11" priority="12" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B132)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B132">
-    <cfRule type="containsText" dxfId="7" priority="8" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="10" priority="11" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B132)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B132">
-    <cfRule type="containsText" dxfId="6" priority="7" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="9" priority="10" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B132)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B134">
-    <cfRule type="containsText" dxfId="5" priority="6" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="8" priority="9" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B134)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B134">
-    <cfRule type="containsText" dxfId="4" priority="5" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="7" priority="8" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B134)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B134">
-    <cfRule type="containsText" dxfId="3" priority="4" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="6" priority="7" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B134)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B135">
-    <cfRule type="containsText" dxfId="2" priority="3" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="5" priority="6" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B135)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B135">
-    <cfRule type="containsText" dxfId="1" priority="2" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="4" priority="5" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B135)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B135">
+    <cfRule type="containsText" dxfId="3" priority="4" operator="containsText" text="&lt;?&gt;">
+      <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B135)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B136">
+    <cfRule type="containsText" dxfId="2" priority="3" operator="containsText" text="&lt;?&gt;">
+      <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B136)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B136">
+    <cfRule type="containsText" dxfId="1" priority="2" operator="containsText" text="&lt;?&gt;">
+      <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B136)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B136">
     <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="&lt;?&gt;">
-      <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B135)))</formula>
+      <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B136)))</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -45855,7 +45900,7 @@
   </sheetData>
   <autoFilter ref="A1:B1" xr:uid="{AF62FD2E-052D-40DF-8032-68688A8C1623}"/>
   <conditionalFormatting sqref="A2:B479">
-    <cfRule type="containsText" dxfId="45" priority="2" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="48" priority="2" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",A2)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -46185,12 +46230,12 @@
     <mergeCell ref="A1:B1"/>
   </mergeCells>
   <conditionalFormatting sqref="A1 C1 A2:C37 A39:C1048576">
-    <cfRule type="containsText" dxfId="44" priority="31" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="47" priority="31" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",A1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A38:C38">
-    <cfRule type="containsText" dxfId="43" priority="6" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="46" priority="6" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",A38)))</formula>
     </cfRule>
   </conditionalFormatting>

--- a/1.0.4/matrix/Validatiematrix v1.2.xlsx
+++ b/1.0.4/matrix/Validatiematrix v1.2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Default.DESKTOP-NDDI22K\Documents\Geonovum\github\xml_validatietestcontent\1.0.4\matrix\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE274916-339A-4572-A25C-1DD02068DA0F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54DC6D90-BF03-4960-B6FF-BE9DA54B2313}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="348" windowWidth="23256" windowHeight="12720" tabRatio="670" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9528" uniqueCount="1788">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9530" uniqueCount="1788">
   <si>
     <t>Is Opdracht.zip een geldige zip</t>
   </si>
@@ -6343,7 +6343,67 @@
     <cellStyle name="Standaard 3 2" xfId="3" xr:uid="{A1634239-92B9-4583-AB04-DEBDF9A9A44B}"/>
     <cellStyle name="Standaard 3 3" xfId="5" xr:uid="{C77AD319-D6C6-4ABD-AE5A-A2C0A40B68E7}"/>
   </cellStyles>
-  <dxfs count="256">
+  <dxfs count="262">
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FFFF0000"/>
@@ -9273,7 +9333,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A115" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A136" sqref="A136:B136"/>
+      <selection pane="bottomLeft" activeCell="A139" sqref="A139"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -15840,11 +15900,11 @@
       </c>
     </row>
     <row r="137" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A137" s="38" t="s">
-        <v>1166</v>
-      </c>
-      <c r="B137" s="38">
-        <v>2</v>
+      <c r="A137" s="76" t="s">
+        <v>1166</v>
+      </c>
+      <c r="B137" s="81" t="s">
+        <v>1779</v>
       </c>
       <c r="C137" s="22" t="s">
         <v>541</v>
@@ -15888,11 +15948,11 @@
       </c>
     </row>
     <row r="138" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A138" s="38" t="s">
-        <v>1166</v>
-      </c>
-      <c r="B138" s="38">
-        <v>2</v>
+      <c r="A138" s="76" t="s">
+        <v>1166</v>
+      </c>
+      <c r="B138" s="81" t="s">
+        <v>1779</v>
       </c>
       <c r="C138" s="22" t="s">
         <v>734</v>
@@ -41543,1263 +41603,1293 @@
   </autoFilter>
   <phoneticPr fontId="5" type="noConversion"/>
   <conditionalFormatting sqref="F335:F339 C111:C115 F397:F408 F322:F333 F201 F269:F271 F267 F265 F259:F260 F223:F225 F219:F220 F214:F216 F203:F205 F291:G291 E450 H400:N408 G322:N339 E444:N445 M468:N475 B41:C53 B57:C62 B93:C95 B131:C138 M113:N116 G131:G138 M131:N138 B74:C81 M197:N197 G197 M41:N49 M51:N53 M57:N63 M74:N80 M88:N90 M93:N95 G51:G53 G57:G63 G74:G80 G88:G90 G93:G95 M577:N592 B66:C68 G66:G68 M66:N68 B109:C110 G108:G116 M108:N111 B148:C154 B83:C90 G84:G86 M84:N86 C116:D123 B144:C145 M144:N145 G144:G145 H155:N168 M148:N168 G148:G168 G201:N206 M451:N454 G505:G514 M504:N514 F208:N210 F212 F227:F230 G212:N230 G257:N260 F257 G118:G122 M118:N122 C126:D128 F370:F373 F346:G349 H346:N366 G370:G375 G385:G408 M596:N639 H370:N378 H385:N396 G39:G49 G37 A2:A3 B70:C70 M70:N70 G70 B1:O1 A140:B141 A144:B171 A197:B250 A255:B260 A262:B514 G262:N276 F262:F263 M641:N670 A37:B37 A25:A36 M5:N19 G5:G19 A516:B670 A515 M516:N575 G516:G670 A5:C24 A39:B62 A64:B68 A70:B90 A92:B107 A109:B118 A120:B124 A126:B138">
-    <cfRule type="containsText" dxfId="43" priority="410" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="49" priority="416" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",A1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B297:B305 B201:B206 B208:B250">
-    <cfRule type="containsText" dxfId="255" priority="505" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="261" priority="511" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B201)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F394:F396">
-    <cfRule type="containsText" dxfId="254" priority="495" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="260" priority="501" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",F394)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H290:N290">
-    <cfRule type="containsText" dxfId="253" priority="503" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="259" priority="509" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",H290)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M444:N445">
-    <cfRule type="containsText" dxfId="252" priority="494" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="258" priority="500" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",M444)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H445:L445">
-    <cfRule type="containsText" dxfId="251" priority="493" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="257" priority="499" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",H445)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G445:L445">
-    <cfRule type="containsText" dxfId="250" priority="492" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="256" priority="498" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G445)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M445:N445">
-    <cfRule type="containsText" dxfId="249" priority="490" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="255" priority="496" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",M445)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H444:L444">
-    <cfRule type="containsText" dxfId="248" priority="489" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="254" priority="495" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",H444)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G444:L444">
-    <cfRule type="containsText" dxfId="247" priority="488" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="253" priority="494" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G444)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M444:N444">
-    <cfRule type="containsText" dxfId="246" priority="486" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="252" priority="492" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",M444)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F334">
-    <cfRule type="containsText" dxfId="245" priority="485" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="251" priority="491" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",F334)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F374:F378 F385:F393">
-    <cfRule type="containsText" dxfId="244" priority="484" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="250" priority="490" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",F374)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H397:N398">
-    <cfRule type="containsText" dxfId="243" priority="483" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="249" priority="489" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",H397)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M455">
-    <cfRule type="containsText" dxfId="242" priority="452" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="248" priority="458" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",M455)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H450:N450">
-    <cfRule type="containsText" dxfId="241" priority="478" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="247" priority="484" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",H450)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N467">
-    <cfRule type="containsText" dxfId="240" priority="438" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="246" priority="444" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",N467)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H399:N399">
-    <cfRule type="containsText" dxfId="239" priority="421" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="245" priority="427" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",H399)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B466">
-    <cfRule type="containsText" dxfId="238" priority="469" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="244" priority="475" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B466)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M467">
-    <cfRule type="containsText" dxfId="237" priority="440" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="243" priority="446" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",M467)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G456">
-    <cfRule type="containsText" dxfId="236" priority="455" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="242" priority="461" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G456)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M466">
-    <cfRule type="containsText" dxfId="235" priority="444" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="241" priority="450" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",M466)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N455">
-    <cfRule type="containsText" dxfId="234" priority="450" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="240" priority="456" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",N455)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B455:B465">
-    <cfRule type="containsText" dxfId="233" priority="468" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="239" priority="474" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B455)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N466">
-    <cfRule type="containsText" dxfId="232" priority="442" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="238" priority="448" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",N466)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M456">
-    <cfRule type="containsText" dxfId="231" priority="448" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="237" priority="454" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",M456)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N456">
-    <cfRule type="containsText" dxfId="230" priority="446" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="236" priority="452" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",N456)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P342:X345">
-    <cfRule type="containsText" dxfId="229" priority="409" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="235" priority="415" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",P342)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E342:F342 E344:F345">
-    <cfRule type="containsText" dxfId="228" priority="408" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="234" priority="414" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",E342)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H344:H345">
-    <cfRule type="containsText" dxfId="227" priority="407" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="233" priority="413" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",H344)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I342 I344:I345">
-    <cfRule type="containsText" dxfId="226" priority="406" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="232" priority="412" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",I342)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J342 J344:J345">
-    <cfRule type="containsText" dxfId="225" priority="405" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="231" priority="411" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",J342)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K342 K344:K345">
-    <cfRule type="containsText" dxfId="224" priority="404" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="230" priority="410" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",K342)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L342 L344:L345">
-    <cfRule type="containsText" dxfId="223" priority="403" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="229" priority="409" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",L342)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M342 M344:M345">
-    <cfRule type="containsText" dxfId="222" priority="402" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="228" priority="408" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",M342)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N342 N344:N345">
-    <cfRule type="containsText" dxfId="221" priority="401" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="227" priority="407" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",N342)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P409:X409">
-    <cfRule type="containsText" dxfId="220" priority="400" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="226" priority="406" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",P409)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F409">
-    <cfRule type="containsText" dxfId="219" priority="399" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="225" priority="405" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",F409)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I409">
-    <cfRule type="containsText" dxfId="218" priority="397" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="224" priority="403" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",I409)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J409">
-    <cfRule type="containsText" dxfId="217" priority="396" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="223" priority="402" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",J409)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K409">
-    <cfRule type="containsText" dxfId="216" priority="395" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="222" priority="401" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",K409)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L409">
-    <cfRule type="containsText" dxfId="215" priority="394" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="221" priority="400" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",L409)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M409">
-    <cfRule type="containsText" dxfId="214" priority="393" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="220" priority="399" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",M409)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N409">
-    <cfRule type="containsText" dxfId="213" priority="392" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="219" priority="398" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",N409)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B505:B513">
-    <cfRule type="containsText" dxfId="212" priority="390" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="218" priority="396" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B505)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B514">
-    <cfRule type="containsText" dxfId="211" priority="369" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="217" priority="375" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B514)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B111:B114">
-    <cfRule type="containsText" dxfId="210" priority="357" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="216" priority="363" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B111)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B306 B296">
-    <cfRule type="containsText" dxfId="209" priority="358" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="215" priority="364" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B296)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B467:B475">
-    <cfRule type="containsText" dxfId="208" priority="355" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="214" priority="361" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B467)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B307:B321">
-    <cfRule type="containsText" dxfId="207" priority="356" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="213" priority="362" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B307)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B516">
-    <cfRule type="containsText" dxfId="206" priority="354" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="212" priority="360" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B516)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B450">
-    <cfRule type="containsText" dxfId="205" priority="352" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="211" priority="358" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B450)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B449">
-    <cfRule type="containsText" dxfId="204" priority="351" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="210" priority="357" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B449)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B322:B448">
-    <cfRule type="containsText" dxfId="203" priority="350" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="209" priority="356" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B322)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G504">
-    <cfRule type="containsText" dxfId="202" priority="330" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="208" priority="336" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G504)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C37 C39:C40">
-    <cfRule type="containsText" dxfId="201" priority="325" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="207" priority="331" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",C37)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E409">
-    <cfRule type="containsText" dxfId="200" priority="323" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="206" priority="329" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",E409)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M112:N112">
-    <cfRule type="containsText" dxfId="199" priority="316" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="205" priority="322" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",M112)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C71:D71">
-    <cfRule type="containsText" dxfId="198" priority="311" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="204" priority="317" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",C71)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C92:D92">
-    <cfRule type="containsText" dxfId="197" priority="309" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="203" priority="315" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",C92)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C129:D130">
-    <cfRule type="containsText" dxfId="196" priority="284" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="202" priority="290" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",C129)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G126:G130 M126:N130">
-    <cfRule type="containsText" dxfId="195" priority="283" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="201" priority="289" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G126)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B169:B171">
-    <cfRule type="containsText" dxfId="194" priority="282" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="200" priority="288" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B169)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G169:G170">
-    <cfRule type="containsText" dxfId="193" priority="281" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="199" priority="287" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G169)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H169:N170">
-    <cfRule type="containsText" dxfId="192" priority="280" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="198" priority="286" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",H169)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M446:N449 M438:N443 M420:N427 M92:N92 M87:N87 M71:N71 M54:N56 M50:N50 M37:N37 M39:N40">
-    <cfRule type="containsText" dxfId="191" priority="278" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="197" priority="284" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",M37)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M65:N65 G65">
-    <cfRule type="containsText" dxfId="190" priority="273" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="196" priority="279" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G65)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B64:B65">
-    <cfRule type="containsText" dxfId="189" priority="275" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="195" priority="281" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B64)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M64:N64 G64">
-    <cfRule type="containsText" dxfId="188" priority="274" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="194" priority="280" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G64)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B72:B73">
-    <cfRule type="containsText" dxfId="187" priority="269" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="193" priority="275" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B72)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M72:N72">
-    <cfRule type="containsText" dxfId="186" priority="271" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="192" priority="277" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",M72)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M73:N73">
-    <cfRule type="containsText" dxfId="185" priority="270" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="191" priority="276" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",M73)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B96:D107">
-    <cfRule type="containsText" dxfId="184" priority="266" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="190" priority="272" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B96)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M96:N107 G96:G107">
-    <cfRule type="containsText" dxfId="183" priority="267" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="189" priority="273" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G96)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M83:N83 G83">
-    <cfRule type="containsText" dxfId="182" priority="252" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="188" priority="258" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G83)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M82:N82 G82">
-    <cfRule type="containsText" dxfId="181" priority="251" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="187" priority="257" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G82)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G207:N207">
-    <cfRule type="containsText" dxfId="180" priority="259" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="186" priority="265" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G207)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B146:B147">
-    <cfRule type="containsText" dxfId="179" priority="261" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="185" priority="267" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B146)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G146:G147 M146:N147">
-    <cfRule type="containsText" dxfId="178" priority="260" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="184" priority="266" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G146)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B82">
-    <cfRule type="containsText" dxfId="177" priority="253" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="183" priority="259" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B82)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G123 M123:N123">
-    <cfRule type="containsText" dxfId="176" priority="250" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="182" priority="256" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G123)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B140:B141">
-    <cfRule type="containsText" dxfId="175" priority="247" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="181" priority="253" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B140)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G140:G141 M140:N141">
-    <cfRule type="containsText" dxfId="174" priority="246" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="180" priority="252" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G140)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B198:B200">
-    <cfRule type="containsText" dxfId="173" priority="197" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="179" priority="203" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B198)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M198:N200 G198:G200">
-    <cfRule type="containsText" dxfId="172" priority="196" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="178" priority="202" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G198)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B255:B258">
-    <cfRule type="containsText" dxfId="171" priority="186" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="177" priority="192" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B255)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B517:B546">
-    <cfRule type="containsText" dxfId="170" priority="183" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="176" priority="189" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B517)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G81">
-    <cfRule type="containsText" dxfId="169" priority="181" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="175" priority="187" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G81)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H171:N171">
-    <cfRule type="containsText" dxfId="168" priority="177" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="174" priority="183" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",H171)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F211:N211">
-    <cfRule type="containsText" dxfId="167" priority="175" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="173" priority="181" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",F211)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G171">
-    <cfRule type="containsText" dxfId="166" priority="178" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="172" priority="184" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G171)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F231:N249 F255:N256">
-    <cfRule type="containsText" dxfId="165" priority="172" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="171" priority="178" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",F231)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M117:N117 G117">
-    <cfRule type="containsText" dxfId="164" priority="171" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="170" priority="177" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G117)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B124:D124">
-    <cfRule type="containsText" dxfId="163" priority="170" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="169" priority="176" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B124)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G124 M124:N124">
-    <cfRule type="containsText" dxfId="162" priority="169" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="168" priority="175" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G124)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F250:N250">
-    <cfRule type="containsText" dxfId="161" priority="168" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="167" priority="174" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",F250)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1">
-    <cfRule type="containsText" dxfId="160" priority="167" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="166" priority="173" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",A1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G342">
-    <cfRule type="containsText" dxfId="159" priority="165" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="165" priority="171" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G342)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H342">
-    <cfRule type="containsText" dxfId="158" priority="164" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="164" priority="170" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",H342)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F340">
-    <cfRule type="containsText" dxfId="157" priority="163" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="163" priority="169" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",F340)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F350:F366">
-    <cfRule type="containsText" dxfId="156" priority="162" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="162" priority="168" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",F350)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I340">
-    <cfRule type="containsText" dxfId="155" priority="161" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="161" priority="167" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",I340)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J340">
-    <cfRule type="containsText" dxfId="154" priority="160" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="160" priority="166" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",J340)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K340">
-    <cfRule type="containsText" dxfId="153" priority="159" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="159" priority="165" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",K340)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L340">
-    <cfRule type="containsText" dxfId="152" priority="158" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="158" priority="164" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",L340)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M340">
-    <cfRule type="containsText" dxfId="151" priority="157" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="157" priority="163" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",M340)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N340">
-    <cfRule type="containsText" dxfId="150" priority="156" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="156" priority="162" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",N340)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H340">
-    <cfRule type="containsText" dxfId="149" priority="155" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="155" priority="161" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",H340)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G20:G24 M20:N24">
-    <cfRule type="containsText" dxfId="148" priority="151" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="154" priority="157" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G20)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G457:G465">
-    <cfRule type="containsText" dxfId="147" priority="150" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="153" priority="156" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G457)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M457:M465">
-    <cfRule type="containsText" dxfId="146" priority="149" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="152" priority="155" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",M457)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N457:N465">
-    <cfRule type="containsText" dxfId="145" priority="148" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="151" priority="154" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",N457)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M593:N593">
-    <cfRule type="containsText" dxfId="144" priority="147" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="150" priority="153" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",M593)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M594:N594">
-    <cfRule type="containsText" dxfId="143" priority="146" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="149" priority="152" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",M594)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F341">
-    <cfRule type="containsText" dxfId="142" priority="145" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="148" priority="151" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",F341)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I341">
-    <cfRule type="containsText" dxfId="141" priority="144" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="147" priority="150" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",I341)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J341">
-    <cfRule type="containsText" dxfId="140" priority="143" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="146" priority="149" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",J341)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K341">
-    <cfRule type="containsText" dxfId="139" priority="142" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="145" priority="148" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",K341)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L341">
-    <cfRule type="containsText" dxfId="138" priority="141" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="144" priority="147" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",L341)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M341">
-    <cfRule type="containsText" dxfId="137" priority="140" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="143" priority="146" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",M341)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N341">
-    <cfRule type="containsText" dxfId="136" priority="139" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="142" priority="145" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",N341)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H341">
-    <cfRule type="containsText" dxfId="135" priority="138" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="141" priority="144" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",H341)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E343:F343">
-    <cfRule type="containsText" dxfId="134" priority="137" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="140" priority="143" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",E343)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I343">
-    <cfRule type="containsText" dxfId="133" priority="136" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="139" priority="142" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",I343)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J343">
-    <cfRule type="containsText" dxfId="132" priority="135" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="138" priority="141" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",J343)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K343">
-    <cfRule type="containsText" dxfId="131" priority="134" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="137" priority="140" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",K343)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L343">
-    <cfRule type="containsText" dxfId="130" priority="133" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="136" priority="139" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",L343)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M343">
-    <cfRule type="containsText" dxfId="129" priority="132" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="135" priority="138" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",M343)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N343">
-    <cfRule type="containsText" dxfId="128" priority="131" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="134" priority="137" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",N343)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G343">
-    <cfRule type="containsText" dxfId="127" priority="130" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="133" priority="136" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G343)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H343">
-    <cfRule type="containsText" dxfId="126" priority="129" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="132" priority="135" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",H343)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H367:N367">
-    <cfRule type="containsText" dxfId="125" priority="128" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="131" priority="134" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",H367)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F367">
-    <cfRule type="containsText" dxfId="124" priority="127" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="130" priority="133" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",F367)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H368:N368">
-    <cfRule type="containsText" dxfId="123" priority="126" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="129" priority="132" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",H368)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F368">
-    <cfRule type="containsText" dxfId="122" priority="125" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="128" priority="131" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",F368)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H369:N369">
-    <cfRule type="containsText" dxfId="121" priority="124" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="127" priority="130" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",H369)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F369">
-    <cfRule type="containsText" dxfId="120" priority="123" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="126" priority="129" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",F369)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H379:N379">
-    <cfRule type="containsText" dxfId="119" priority="121" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="125" priority="127" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",H379)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F379">
-    <cfRule type="containsText" dxfId="118" priority="122" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="124" priority="128" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",F379)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H380:N384">
-    <cfRule type="containsText" dxfId="117" priority="119" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="123" priority="125" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",H380)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F380:F384">
-    <cfRule type="containsText" dxfId="116" priority="120" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="122" priority="126" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",F380)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M38:N38 G38 A38:C38">
-    <cfRule type="containsText" dxfId="115" priority="118" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="121" priority="124" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",A38)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A139:N139">
-    <cfRule type="containsText" dxfId="114" priority="113" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="120" priority="119" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",A139)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A125 C125:N125">
-    <cfRule type="containsText" dxfId="113" priority="114" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="119" priority="120" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",A125)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A142:N143">
-    <cfRule type="containsText" dxfId="112" priority="112" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="118" priority="118" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",A142)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A172:A176 C172:N176">
-    <cfRule type="containsText" dxfId="111" priority="111" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="117" priority="117" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",A172)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A177:A196 C177:N196">
-    <cfRule type="containsText" dxfId="110" priority="110" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="116" priority="116" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",A177)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A251:N254">
-    <cfRule type="containsText" dxfId="109" priority="109" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="115" priority="115" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",A251)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M640:N640">
-    <cfRule type="containsText" dxfId="108" priority="60" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="114" priority="66" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",M640)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A261 H261:N261 C261:F261">
-    <cfRule type="containsText" dxfId="107" priority="107" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="113" priority="113" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",A261)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G447">
-    <cfRule type="containsText" dxfId="106" priority="105" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="112" priority="111" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G447)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G447">
-    <cfRule type="containsText" dxfId="105" priority="106" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="111" priority="112" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G447)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G448">
-    <cfRule type="containsText" dxfId="104" priority="103" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="110" priority="109" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G448)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G448">
-    <cfRule type="containsText" dxfId="103" priority="104" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="109" priority="110" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G448)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G449">
-    <cfRule type="containsText" dxfId="102" priority="101" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="108" priority="107" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G449)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G449">
-    <cfRule type="containsText" dxfId="101" priority="102" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="107" priority="108" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G449)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G450">
-    <cfRule type="containsText" dxfId="100" priority="99" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="106" priority="105" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G450)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G450">
-    <cfRule type="containsText" dxfId="99" priority="100" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="105" priority="106" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G450)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G451">
-    <cfRule type="containsText" dxfId="98" priority="97" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="104" priority="103" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G451)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G451">
-    <cfRule type="containsText" dxfId="97" priority="98" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="103" priority="104" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G451)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G452">
-    <cfRule type="containsText" dxfId="96" priority="95" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="102" priority="101" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G452)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G452">
-    <cfRule type="containsText" dxfId="95" priority="96" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="101" priority="102" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G452)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G453">
-    <cfRule type="containsText" dxfId="94" priority="93" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="100" priority="99" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G453)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G453">
-    <cfRule type="containsText" dxfId="93" priority="94" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="99" priority="100" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G453)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G454">
-    <cfRule type="containsText" dxfId="92" priority="91" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="98" priority="97" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G454)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G454">
-    <cfRule type="containsText" dxfId="91" priority="92" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="97" priority="98" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G454)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G455">
-    <cfRule type="containsText" dxfId="90" priority="89" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="96" priority="95" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G455)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G455">
-    <cfRule type="containsText" dxfId="89" priority="90" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="95" priority="96" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G455)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G466">
-    <cfRule type="containsText" dxfId="88" priority="87" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="94" priority="93" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G466)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G466">
-    <cfRule type="containsText" dxfId="87" priority="88" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="93" priority="94" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G466)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G467">
-    <cfRule type="containsText" dxfId="86" priority="85" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="92" priority="91" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G467)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G467">
-    <cfRule type="containsText" dxfId="85" priority="86" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="91" priority="92" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G467)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G468">
-    <cfRule type="containsText" dxfId="84" priority="83" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="90" priority="89" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G468)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G468">
-    <cfRule type="containsText" dxfId="83" priority="84" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="89" priority="90" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G468)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G469">
-    <cfRule type="containsText" dxfId="82" priority="81" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="88" priority="87" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G469)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G469">
-    <cfRule type="containsText" dxfId="81" priority="82" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="87" priority="88" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G469)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G470">
-    <cfRule type="containsText" dxfId="80" priority="79" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="86" priority="85" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G470)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G470">
-    <cfRule type="containsText" dxfId="79" priority="80" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="85" priority="86" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G470)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G471">
-    <cfRule type="containsText" dxfId="78" priority="77" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="84" priority="83" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G471)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G471">
-    <cfRule type="containsText" dxfId="77" priority="78" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="83" priority="84" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G471)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G472">
-    <cfRule type="containsText" dxfId="76" priority="75" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="82" priority="81" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G472)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G472">
-    <cfRule type="containsText" dxfId="75" priority="76" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="81" priority="82" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G472)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G473">
-    <cfRule type="containsText" dxfId="74" priority="73" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="80" priority="79" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G473)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G473">
-    <cfRule type="containsText" dxfId="73" priority="74" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="79" priority="80" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G473)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G474">
-    <cfRule type="containsText" dxfId="72" priority="71" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="78" priority="77" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G474)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G474">
-    <cfRule type="containsText" dxfId="71" priority="72" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="77" priority="78" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G474)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G475">
-    <cfRule type="containsText" dxfId="70" priority="69" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="76" priority="75" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G475)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G475">
-    <cfRule type="containsText" dxfId="69" priority="70" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="75" priority="76" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G475)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G476">
-    <cfRule type="containsText" dxfId="68" priority="67" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="74" priority="73" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G476)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G476">
-    <cfRule type="containsText" dxfId="67" priority="68" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="73" priority="74" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G476)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G477">
-    <cfRule type="containsText" dxfId="66" priority="65" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="72" priority="71" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G477)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G477">
-    <cfRule type="containsText" dxfId="65" priority="66" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="71" priority="72" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G477)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G478">
-    <cfRule type="containsText" dxfId="64" priority="63" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="70" priority="69" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G478)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G478">
-    <cfRule type="containsText" dxfId="63" priority="64" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="69" priority="70" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G478)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G479">
-    <cfRule type="containsText" dxfId="62" priority="61" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="68" priority="67" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G479)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G479">
-    <cfRule type="containsText" dxfId="61" priority="62" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="67" priority="68" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G479)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G31:G36 G25:G28 B25:C36 M25:N36">
-    <cfRule type="containsText" dxfId="60" priority="58" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="66" priority="64" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B25)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G29:G30">
-    <cfRule type="containsText" dxfId="59" priority="59" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="65" priority="65" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G29)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G4 M4:N4 A4:C4">
-    <cfRule type="containsText" dxfId="58" priority="55" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="64" priority="61" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",A4)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O2:O90 O92:O670">
-    <cfRule type="containsText" dxfId="57" priority="53" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="63" priority="59" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",O2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2:G3 B2:C3 M2:N3">
-    <cfRule type="containsText" dxfId="56" priority="54" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="62" priority="60" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G261">
-    <cfRule type="containsText" dxfId="55" priority="52" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="61" priority="58" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G261)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A91:G91 O91">
-    <cfRule type="containsText" dxfId="54" priority="51" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="60" priority="57" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",A91)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B261">
-    <cfRule type="containsText" dxfId="53" priority="50" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="59" priority="56" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B261)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B515">
-    <cfRule type="containsText" dxfId="52" priority="49" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="58" priority="55" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B515)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M515:N515 G515">
-    <cfRule type="containsText" dxfId="51" priority="48" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="57" priority="54" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G515)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B172:B196">
-    <cfRule type="containsText" dxfId="50" priority="45" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="56" priority="51" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B172)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B172:B196">
-    <cfRule type="containsText" dxfId="49" priority="46" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="55" priority="52" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B172)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A63:B63">
-    <cfRule type="containsText" dxfId="44" priority="44" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="50" priority="50" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",A63)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A108:B108">
-    <cfRule type="containsText" dxfId="42" priority="43" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="48" priority="49" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",A108)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B108:C108">
-    <cfRule type="containsText" dxfId="41" priority="42" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="47" priority="48" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B108)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B109">
-    <cfRule type="containsText" dxfId="40" priority="41" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="46" priority="47" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B109)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B110">
-    <cfRule type="containsText" dxfId="39" priority="40" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="45" priority="46" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B110)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B112">
-    <cfRule type="containsText" dxfId="38" priority="39" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="44" priority="45" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B112)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B113">
-    <cfRule type="containsText" dxfId="37" priority="38" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="43" priority="44" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B113)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B114">
-    <cfRule type="containsText" dxfId="36" priority="37" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="42" priority="43" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B114)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B115">
-    <cfRule type="containsText" dxfId="35" priority="36" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="41" priority="42" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B115)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B115">
-    <cfRule type="containsText" dxfId="34" priority="35" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="40" priority="41" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B115)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A119:B119">
-    <cfRule type="containsText" dxfId="33" priority="34" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="39" priority="40" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",A119)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B119">
-    <cfRule type="containsText" dxfId="32" priority="33" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="38" priority="39" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B119)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B122">
-    <cfRule type="containsText" dxfId="31" priority="32" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="37" priority="38" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B122)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B122">
-    <cfRule type="containsText" dxfId="30" priority="31" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="36" priority="37" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B122)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B124">
-    <cfRule type="containsText" dxfId="29" priority="30" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="35" priority="36" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B124)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B124">
-    <cfRule type="containsText" dxfId="28" priority="29" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="34" priority="35" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B124)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B125">
-    <cfRule type="containsText" dxfId="27" priority="28" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="33" priority="34" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B125)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B125">
-    <cfRule type="containsText" dxfId="26" priority="27" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="32" priority="33" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B125)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B125">
-    <cfRule type="containsText" dxfId="25" priority="26" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="31" priority="32" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B125)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B125">
-    <cfRule type="containsText" dxfId="24" priority="25" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="30" priority="31" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B125)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B126">
-    <cfRule type="containsText" dxfId="23" priority="24" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="29" priority="30" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B126)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B126">
-    <cfRule type="containsText" dxfId="22" priority="23" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="28" priority="29" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B126)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B126">
-    <cfRule type="containsText" dxfId="21" priority="22" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="27" priority="28" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B126)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B129">
-    <cfRule type="containsText" dxfId="20" priority="21" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="26" priority="27" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B129)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B129">
-    <cfRule type="containsText" dxfId="19" priority="20" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="25" priority="26" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B129)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B129">
-    <cfRule type="containsText" dxfId="18" priority="19" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="24" priority="25" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B129)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B130">
-    <cfRule type="containsText" dxfId="17" priority="18" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="23" priority="24" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B130)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B130">
-    <cfRule type="containsText" dxfId="16" priority="17" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="22" priority="23" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B130)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B130">
-    <cfRule type="containsText" dxfId="15" priority="16" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="21" priority="22" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B130)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B131">
-    <cfRule type="containsText" dxfId="14" priority="15" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="20" priority="21" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B131)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B131">
-    <cfRule type="containsText" dxfId="13" priority="14" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="19" priority="20" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B131)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B131">
-    <cfRule type="containsText" dxfId="12" priority="13" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="18" priority="19" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B131)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B132">
-    <cfRule type="containsText" dxfId="11" priority="12" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="17" priority="18" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B132)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B132">
-    <cfRule type="containsText" dxfId="10" priority="11" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="16" priority="17" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B132)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B132">
-    <cfRule type="containsText" dxfId="9" priority="10" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="15" priority="16" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B132)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B134">
-    <cfRule type="containsText" dxfId="8" priority="9" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="14" priority="15" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B134)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B134">
-    <cfRule type="containsText" dxfId="7" priority="8" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="13" priority="14" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B134)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B134">
-    <cfRule type="containsText" dxfId="6" priority="7" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="12" priority="13" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B134)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B135">
-    <cfRule type="containsText" dxfId="5" priority="6" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="11" priority="12" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B135)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B135">
-    <cfRule type="containsText" dxfId="4" priority="5" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="10" priority="11" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B135)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B135">
-    <cfRule type="containsText" dxfId="3" priority="4" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="9" priority="10" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B135)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B136">
-    <cfRule type="containsText" dxfId="2" priority="3" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="8" priority="9" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B136)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B136">
-    <cfRule type="containsText" dxfId="1" priority="2" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="7" priority="8" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B136)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B136">
+    <cfRule type="containsText" dxfId="6" priority="7" operator="containsText" text="&lt;?&gt;">
+      <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B136)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B137">
+    <cfRule type="containsText" dxfId="5" priority="6" operator="containsText" text="&lt;?&gt;">
+      <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B137)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B137">
+    <cfRule type="containsText" dxfId="4" priority="5" operator="containsText" text="&lt;?&gt;">
+      <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B137)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B137">
+    <cfRule type="containsText" dxfId="3" priority="4" operator="containsText" text="&lt;?&gt;">
+      <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B137)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B138">
+    <cfRule type="containsText" dxfId="2" priority="3" operator="containsText" text="&lt;?&gt;">
+      <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B138)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B138">
+    <cfRule type="containsText" dxfId="1" priority="2" operator="containsText" text="&lt;?&gt;">
+      <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B138)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B138">
     <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="&lt;?&gt;">
-      <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B136)))</formula>
+      <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B138)))</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -45900,7 +45990,7 @@
   </sheetData>
   <autoFilter ref="A1:B1" xr:uid="{AF62FD2E-052D-40DF-8032-68688A8C1623}"/>
   <conditionalFormatting sqref="A2:B479">
-    <cfRule type="containsText" dxfId="48" priority="2" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="54" priority="2" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",A2)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -46230,12 +46320,12 @@
     <mergeCell ref="A1:B1"/>
   </mergeCells>
   <conditionalFormatting sqref="A1 C1 A2:C37 A39:C1048576">
-    <cfRule type="containsText" dxfId="47" priority="31" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="53" priority="31" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",A1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A38:C38">
-    <cfRule type="containsText" dxfId="46" priority="6" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="52" priority="6" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",A38)))</formula>
     </cfRule>
   </conditionalFormatting>

--- a/1.0.4/matrix/Validatiematrix v1.2.xlsx
+++ b/1.0.4/matrix/Validatiematrix v1.2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Default.DESKTOP-NDDI22K\Documents\Geonovum\github\xml_validatietestcontent\1.0.4\matrix\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54DC6D90-BF03-4960-B6FF-BE9DA54B2313}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{697387D2-08D9-4CF4-AC98-B8F51905537C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="348" windowWidth="23256" windowHeight="12720" tabRatio="670" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9530" uniqueCount="1788">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9531" uniqueCount="1788">
   <si>
     <t>Is Opdracht.zip een geldige zip</t>
   </si>
@@ -6343,7 +6343,47 @@
     <cellStyle name="Standaard 3 2" xfId="3" xr:uid="{A1634239-92B9-4583-AB04-DEBDF9A9A44B}"/>
     <cellStyle name="Standaard 3 3" xfId="5" xr:uid="{C77AD319-D6C6-4ABD-AE5A-A2C0A40B68E7}"/>
   </cellStyles>
-  <dxfs count="262">
+  <dxfs count="266">
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FFFF0000"/>
@@ -9332,8 +9372,8 @@
   <dimension ref="A1:O670"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A115" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A139" sqref="A139"/>
+      <pane ySplit="1" topLeftCell="A121" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B139" sqref="B139"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -15996,11 +16036,11 @@
       </c>
     </row>
     <row r="139" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A139" s="70" t="s">
+      <c r="A139" s="84" t="s">
         <v>1169</v>
       </c>
-      <c r="B139" s="73">
-        <v>2</v>
+      <c r="B139" s="81" t="s">
+        <v>1779</v>
       </c>
       <c r="C139" s="38" t="s">
         <v>1284</v>
@@ -41603,1293 +41643,1313 @@
   </autoFilter>
   <phoneticPr fontId="5" type="noConversion"/>
   <conditionalFormatting sqref="F335:F339 C111:C115 F397:F408 F322:F333 F201 F269:F271 F267 F265 F259:F260 F223:F225 F219:F220 F214:F216 F203:F205 F291:G291 E450 H400:N408 G322:N339 E444:N445 M468:N475 B41:C53 B57:C62 B93:C95 B131:C138 M113:N116 G131:G138 M131:N138 B74:C81 M197:N197 G197 M41:N49 M51:N53 M57:N63 M74:N80 M88:N90 M93:N95 G51:G53 G57:G63 G74:G80 G88:G90 G93:G95 M577:N592 B66:C68 G66:G68 M66:N68 B109:C110 G108:G116 M108:N111 B148:C154 B83:C90 G84:G86 M84:N86 C116:D123 B144:C145 M144:N145 G144:G145 H155:N168 M148:N168 G148:G168 G201:N206 M451:N454 G505:G514 M504:N514 F208:N210 F212 F227:F230 G212:N230 G257:N260 F257 G118:G122 M118:N122 C126:D128 F370:F373 F346:G349 H346:N366 G370:G375 G385:G408 M596:N639 H370:N378 H385:N396 G39:G49 G37 A2:A3 B70:C70 M70:N70 G70 B1:O1 A140:B141 A144:B171 A197:B250 A255:B260 A262:B514 G262:N276 F262:F263 M641:N670 A37:B37 A25:A36 M5:N19 G5:G19 A516:B670 A515 M516:N575 G516:G670 A5:C24 A39:B62 A64:B68 A70:B90 A92:B107 A109:B118 A120:B124 A126:B138">
-    <cfRule type="containsText" dxfId="49" priority="416" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="53" priority="420" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",A1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B297:B305 B201:B206 B208:B250">
-    <cfRule type="containsText" dxfId="261" priority="511" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="265" priority="515" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B201)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F394:F396">
-    <cfRule type="containsText" dxfId="260" priority="501" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="264" priority="505" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",F394)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H290:N290">
-    <cfRule type="containsText" dxfId="259" priority="509" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="263" priority="513" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",H290)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M444:N445">
-    <cfRule type="containsText" dxfId="258" priority="500" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="262" priority="504" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",M444)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H445:L445">
-    <cfRule type="containsText" dxfId="257" priority="499" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="261" priority="503" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",H445)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G445:L445">
-    <cfRule type="containsText" dxfId="256" priority="498" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="260" priority="502" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G445)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M445:N445">
-    <cfRule type="containsText" dxfId="255" priority="496" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="259" priority="500" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",M445)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H444:L444">
-    <cfRule type="containsText" dxfId="254" priority="495" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="258" priority="499" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",H444)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G444:L444">
-    <cfRule type="containsText" dxfId="253" priority="494" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="257" priority="498" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G444)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M444:N444">
-    <cfRule type="containsText" dxfId="252" priority="492" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="256" priority="496" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",M444)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F334">
-    <cfRule type="containsText" dxfId="251" priority="491" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="255" priority="495" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",F334)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F374:F378 F385:F393">
-    <cfRule type="containsText" dxfId="250" priority="490" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="254" priority="494" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",F374)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H397:N398">
-    <cfRule type="containsText" dxfId="249" priority="489" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="253" priority="493" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",H397)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M455">
-    <cfRule type="containsText" dxfId="248" priority="458" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="252" priority="462" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",M455)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H450:N450">
-    <cfRule type="containsText" dxfId="247" priority="484" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="251" priority="488" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",H450)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N467">
-    <cfRule type="containsText" dxfId="246" priority="444" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="250" priority="448" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",N467)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H399:N399">
-    <cfRule type="containsText" dxfId="245" priority="427" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="249" priority="431" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",H399)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B466">
-    <cfRule type="containsText" dxfId="244" priority="475" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="248" priority="479" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B466)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M467">
-    <cfRule type="containsText" dxfId="243" priority="446" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="247" priority="450" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",M467)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G456">
-    <cfRule type="containsText" dxfId="242" priority="461" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="246" priority="465" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G456)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M466">
-    <cfRule type="containsText" dxfId="241" priority="450" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="245" priority="454" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",M466)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N455">
-    <cfRule type="containsText" dxfId="240" priority="456" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="244" priority="460" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",N455)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B455:B465">
-    <cfRule type="containsText" dxfId="239" priority="474" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="243" priority="478" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B455)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N466">
-    <cfRule type="containsText" dxfId="238" priority="448" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="242" priority="452" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",N466)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M456">
-    <cfRule type="containsText" dxfId="237" priority="454" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="241" priority="458" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",M456)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N456">
-    <cfRule type="containsText" dxfId="236" priority="452" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="240" priority="456" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",N456)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P342:X345">
-    <cfRule type="containsText" dxfId="235" priority="415" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="239" priority="419" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",P342)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E342:F342 E344:F345">
-    <cfRule type="containsText" dxfId="234" priority="414" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="238" priority="418" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",E342)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H344:H345">
-    <cfRule type="containsText" dxfId="233" priority="413" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="237" priority="417" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",H344)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I342 I344:I345">
-    <cfRule type="containsText" dxfId="232" priority="412" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="236" priority="416" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",I342)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J342 J344:J345">
-    <cfRule type="containsText" dxfId="231" priority="411" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="235" priority="415" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",J342)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K342 K344:K345">
-    <cfRule type="containsText" dxfId="230" priority="410" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="234" priority="414" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",K342)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L342 L344:L345">
-    <cfRule type="containsText" dxfId="229" priority="409" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="233" priority="413" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",L342)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M342 M344:M345">
-    <cfRule type="containsText" dxfId="228" priority="408" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="232" priority="412" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",M342)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N342 N344:N345">
-    <cfRule type="containsText" dxfId="227" priority="407" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="231" priority="411" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",N342)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P409:X409">
-    <cfRule type="containsText" dxfId="226" priority="406" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="230" priority="410" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",P409)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F409">
-    <cfRule type="containsText" dxfId="225" priority="405" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="229" priority="409" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",F409)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I409">
-    <cfRule type="containsText" dxfId="224" priority="403" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="228" priority="407" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",I409)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J409">
-    <cfRule type="containsText" dxfId="223" priority="402" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="227" priority="406" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",J409)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K409">
-    <cfRule type="containsText" dxfId="222" priority="401" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="226" priority="405" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",K409)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L409">
-    <cfRule type="containsText" dxfId="221" priority="400" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="225" priority="404" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",L409)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M409">
-    <cfRule type="containsText" dxfId="220" priority="399" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="224" priority="403" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",M409)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N409">
-    <cfRule type="containsText" dxfId="219" priority="398" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="223" priority="402" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",N409)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B505:B513">
-    <cfRule type="containsText" dxfId="218" priority="396" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="222" priority="400" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B505)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B514">
-    <cfRule type="containsText" dxfId="217" priority="375" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="221" priority="379" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B514)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B111:B114">
-    <cfRule type="containsText" dxfId="216" priority="363" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="220" priority="367" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B111)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B306 B296">
-    <cfRule type="containsText" dxfId="215" priority="364" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="219" priority="368" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B296)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B467:B475">
-    <cfRule type="containsText" dxfId="214" priority="361" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="218" priority="365" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B467)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B307:B321">
-    <cfRule type="containsText" dxfId="213" priority="362" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="217" priority="366" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B307)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B516">
-    <cfRule type="containsText" dxfId="212" priority="360" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="216" priority="364" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B516)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B450">
-    <cfRule type="containsText" dxfId="211" priority="358" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="215" priority="362" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B450)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B449">
-    <cfRule type="containsText" dxfId="210" priority="357" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="214" priority="361" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B449)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B322:B448">
-    <cfRule type="containsText" dxfId="209" priority="356" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="213" priority="360" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B322)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G504">
-    <cfRule type="containsText" dxfId="208" priority="336" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="212" priority="340" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G504)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C37 C39:C40">
-    <cfRule type="containsText" dxfId="207" priority="331" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="211" priority="335" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",C37)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E409">
-    <cfRule type="containsText" dxfId="206" priority="329" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="210" priority="333" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",E409)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M112:N112">
-    <cfRule type="containsText" dxfId="205" priority="322" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="209" priority="326" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",M112)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C71:D71">
-    <cfRule type="containsText" dxfId="204" priority="317" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="208" priority="321" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",C71)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C92:D92">
-    <cfRule type="containsText" dxfId="203" priority="315" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="207" priority="319" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",C92)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C129:D130">
-    <cfRule type="containsText" dxfId="202" priority="290" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="206" priority="294" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",C129)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G126:G130 M126:N130">
-    <cfRule type="containsText" dxfId="201" priority="289" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="205" priority="293" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G126)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B169:B171">
-    <cfRule type="containsText" dxfId="200" priority="288" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="204" priority="292" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B169)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G169:G170">
-    <cfRule type="containsText" dxfId="199" priority="287" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="203" priority="291" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G169)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H169:N170">
-    <cfRule type="containsText" dxfId="198" priority="286" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="202" priority="290" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",H169)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M446:N449 M438:N443 M420:N427 M92:N92 M87:N87 M71:N71 M54:N56 M50:N50 M37:N37 M39:N40">
-    <cfRule type="containsText" dxfId="197" priority="284" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="201" priority="288" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",M37)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M65:N65 G65">
-    <cfRule type="containsText" dxfId="196" priority="279" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="200" priority="283" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G65)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B64:B65">
-    <cfRule type="containsText" dxfId="195" priority="281" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="199" priority="285" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B64)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M64:N64 G64">
-    <cfRule type="containsText" dxfId="194" priority="280" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="198" priority="284" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G64)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B72:B73">
-    <cfRule type="containsText" dxfId="193" priority="275" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="197" priority="279" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B72)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M72:N72">
-    <cfRule type="containsText" dxfId="192" priority="277" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="196" priority="281" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",M72)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M73:N73">
-    <cfRule type="containsText" dxfId="191" priority="276" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="195" priority="280" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",M73)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B96:D107">
-    <cfRule type="containsText" dxfId="190" priority="272" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="194" priority="276" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B96)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M96:N107 G96:G107">
-    <cfRule type="containsText" dxfId="189" priority="273" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="193" priority="277" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G96)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M83:N83 G83">
-    <cfRule type="containsText" dxfId="188" priority="258" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="192" priority="262" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G83)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M82:N82 G82">
-    <cfRule type="containsText" dxfId="187" priority="257" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="191" priority="261" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G82)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G207:N207">
-    <cfRule type="containsText" dxfId="186" priority="265" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="190" priority="269" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G207)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B146:B147">
-    <cfRule type="containsText" dxfId="185" priority="267" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="189" priority="271" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B146)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G146:G147 M146:N147">
-    <cfRule type="containsText" dxfId="184" priority="266" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="188" priority="270" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G146)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B82">
-    <cfRule type="containsText" dxfId="183" priority="259" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="187" priority="263" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B82)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G123 M123:N123">
-    <cfRule type="containsText" dxfId="182" priority="256" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="186" priority="260" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G123)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B140:B141">
-    <cfRule type="containsText" dxfId="181" priority="253" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="185" priority="257" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B140)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G140:G141 M140:N141">
-    <cfRule type="containsText" dxfId="180" priority="252" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="184" priority="256" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G140)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B198:B200">
-    <cfRule type="containsText" dxfId="179" priority="203" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="183" priority="207" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B198)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M198:N200 G198:G200">
-    <cfRule type="containsText" dxfId="178" priority="202" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="182" priority="206" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G198)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B255:B258">
-    <cfRule type="containsText" dxfId="177" priority="192" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="181" priority="196" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B255)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B517:B546">
-    <cfRule type="containsText" dxfId="176" priority="189" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="180" priority="193" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B517)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G81">
-    <cfRule type="containsText" dxfId="175" priority="187" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="179" priority="191" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G81)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H171:N171">
-    <cfRule type="containsText" dxfId="174" priority="183" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="178" priority="187" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",H171)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F211:N211">
-    <cfRule type="containsText" dxfId="173" priority="181" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="177" priority="185" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",F211)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G171">
-    <cfRule type="containsText" dxfId="172" priority="184" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="176" priority="188" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G171)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F231:N249 F255:N256">
-    <cfRule type="containsText" dxfId="171" priority="178" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="175" priority="182" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",F231)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M117:N117 G117">
-    <cfRule type="containsText" dxfId="170" priority="177" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="174" priority="181" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G117)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B124:D124">
-    <cfRule type="containsText" dxfId="169" priority="176" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="173" priority="180" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B124)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G124 M124:N124">
-    <cfRule type="containsText" dxfId="168" priority="175" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="172" priority="179" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G124)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F250:N250">
-    <cfRule type="containsText" dxfId="167" priority="174" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="171" priority="178" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",F250)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1">
-    <cfRule type="containsText" dxfId="166" priority="173" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="170" priority="177" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",A1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G342">
-    <cfRule type="containsText" dxfId="165" priority="171" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="169" priority="175" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G342)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H342">
-    <cfRule type="containsText" dxfId="164" priority="170" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="168" priority="174" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",H342)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F340">
-    <cfRule type="containsText" dxfId="163" priority="169" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="167" priority="173" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",F340)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F350:F366">
-    <cfRule type="containsText" dxfId="162" priority="168" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="166" priority="172" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",F350)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I340">
-    <cfRule type="containsText" dxfId="161" priority="167" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="165" priority="171" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",I340)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J340">
-    <cfRule type="containsText" dxfId="160" priority="166" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="164" priority="170" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",J340)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K340">
-    <cfRule type="containsText" dxfId="159" priority="165" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="163" priority="169" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",K340)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L340">
-    <cfRule type="containsText" dxfId="158" priority="164" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="162" priority="168" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",L340)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M340">
-    <cfRule type="containsText" dxfId="157" priority="163" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="161" priority="167" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",M340)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N340">
-    <cfRule type="containsText" dxfId="156" priority="162" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="160" priority="166" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",N340)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H340">
-    <cfRule type="containsText" dxfId="155" priority="161" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="159" priority="165" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",H340)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G20:G24 M20:N24">
-    <cfRule type="containsText" dxfId="154" priority="157" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="158" priority="161" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G20)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G457:G465">
-    <cfRule type="containsText" dxfId="153" priority="156" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="157" priority="160" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G457)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M457:M465">
-    <cfRule type="containsText" dxfId="152" priority="155" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="156" priority="159" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",M457)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N457:N465">
-    <cfRule type="containsText" dxfId="151" priority="154" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="155" priority="158" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",N457)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M593:N593">
-    <cfRule type="containsText" dxfId="150" priority="153" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="154" priority="157" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",M593)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M594:N594">
-    <cfRule type="containsText" dxfId="149" priority="152" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="153" priority="156" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",M594)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F341">
-    <cfRule type="containsText" dxfId="148" priority="151" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="152" priority="155" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",F341)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I341">
-    <cfRule type="containsText" dxfId="147" priority="150" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="151" priority="154" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",I341)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J341">
-    <cfRule type="containsText" dxfId="146" priority="149" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="150" priority="153" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",J341)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K341">
-    <cfRule type="containsText" dxfId="145" priority="148" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="149" priority="152" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",K341)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L341">
-    <cfRule type="containsText" dxfId="144" priority="147" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="148" priority="151" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",L341)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M341">
-    <cfRule type="containsText" dxfId="143" priority="146" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="147" priority="150" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",M341)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N341">
-    <cfRule type="containsText" dxfId="142" priority="145" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="146" priority="149" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",N341)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H341">
-    <cfRule type="containsText" dxfId="141" priority="144" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="145" priority="148" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",H341)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E343:F343">
-    <cfRule type="containsText" dxfId="140" priority="143" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="144" priority="147" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",E343)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I343">
-    <cfRule type="containsText" dxfId="139" priority="142" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="143" priority="146" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",I343)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J343">
-    <cfRule type="containsText" dxfId="138" priority="141" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="142" priority="145" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",J343)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K343">
-    <cfRule type="containsText" dxfId="137" priority="140" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="141" priority="144" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",K343)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L343">
-    <cfRule type="containsText" dxfId="136" priority="139" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="140" priority="143" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",L343)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M343">
-    <cfRule type="containsText" dxfId="135" priority="138" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="139" priority="142" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",M343)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N343">
-    <cfRule type="containsText" dxfId="134" priority="137" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="138" priority="141" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",N343)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G343">
-    <cfRule type="containsText" dxfId="133" priority="136" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="137" priority="140" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G343)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H343">
-    <cfRule type="containsText" dxfId="132" priority="135" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="136" priority="139" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",H343)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H367:N367">
-    <cfRule type="containsText" dxfId="131" priority="134" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="135" priority="138" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",H367)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F367">
-    <cfRule type="containsText" dxfId="130" priority="133" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="134" priority="137" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",F367)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H368:N368">
-    <cfRule type="containsText" dxfId="129" priority="132" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="133" priority="136" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",H368)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F368">
-    <cfRule type="containsText" dxfId="128" priority="131" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="132" priority="135" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",F368)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H369:N369">
-    <cfRule type="containsText" dxfId="127" priority="130" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="131" priority="134" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",H369)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F369">
-    <cfRule type="containsText" dxfId="126" priority="129" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="130" priority="133" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",F369)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H379:N379">
-    <cfRule type="containsText" dxfId="125" priority="127" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="129" priority="131" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",H379)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F379">
-    <cfRule type="containsText" dxfId="124" priority="128" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="128" priority="132" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",F379)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H380:N384">
-    <cfRule type="containsText" dxfId="123" priority="125" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="127" priority="129" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",H380)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F380:F384">
-    <cfRule type="containsText" dxfId="122" priority="126" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="126" priority="130" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",F380)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M38:N38 G38 A38:C38">
-    <cfRule type="containsText" dxfId="121" priority="124" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="125" priority="128" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",A38)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A139:N139">
-    <cfRule type="containsText" dxfId="120" priority="119" operator="containsText" text="&lt;?&gt;">
+  <conditionalFormatting sqref="A139 C139:N139">
+    <cfRule type="containsText" dxfId="124" priority="123" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",A139)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A125 C125:N125">
-    <cfRule type="containsText" dxfId="119" priority="120" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="123" priority="124" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",A125)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A142:N143">
-    <cfRule type="containsText" dxfId="118" priority="118" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="122" priority="122" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",A142)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A172:A176 C172:N176">
-    <cfRule type="containsText" dxfId="117" priority="117" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="121" priority="121" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",A172)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A177:A196 C177:N196">
-    <cfRule type="containsText" dxfId="116" priority="116" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="120" priority="120" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",A177)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A251:N254">
-    <cfRule type="containsText" dxfId="115" priority="115" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="119" priority="119" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",A251)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M640:N640">
-    <cfRule type="containsText" dxfId="114" priority="66" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="118" priority="70" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",M640)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A261 H261:N261 C261:F261">
-    <cfRule type="containsText" dxfId="113" priority="113" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="117" priority="117" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",A261)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G447">
-    <cfRule type="containsText" dxfId="112" priority="111" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="116" priority="115" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G447)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G447">
-    <cfRule type="containsText" dxfId="111" priority="112" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="115" priority="116" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G447)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G448">
-    <cfRule type="containsText" dxfId="110" priority="109" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="114" priority="113" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G448)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G448">
-    <cfRule type="containsText" dxfId="109" priority="110" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="113" priority="114" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G448)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G449">
-    <cfRule type="containsText" dxfId="108" priority="107" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="112" priority="111" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G449)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G449">
-    <cfRule type="containsText" dxfId="107" priority="108" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="111" priority="112" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G449)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G450">
-    <cfRule type="containsText" dxfId="106" priority="105" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="110" priority="109" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G450)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G450">
-    <cfRule type="containsText" dxfId="105" priority="106" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="109" priority="110" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G450)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G451">
-    <cfRule type="containsText" dxfId="104" priority="103" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="108" priority="107" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G451)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G451">
-    <cfRule type="containsText" dxfId="103" priority="104" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="107" priority="108" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G451)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G452">
-    <cfRule type="containsText" dxfId="102" priority="101" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="106" priority="105" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G452)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G452">
-    <cfRule type="containsText" dxfId="101" priority="102" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="105" priority="106" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G452)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G453">
-    <cfRule type="containsText" dxfId="100" priority="99" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="104" priority="103" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G453)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G453">
-    <cfRule type="containsText" dxfId="99" priority="100" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="103" priority="104" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G453)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G454">
-    <cfRule type="containsText" dxfId="98" priority="97" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="102" priority="101" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G454)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G454">
-    <cfRule type="containsText" dxfId="97" priority="98" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="101" priority="102" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G454)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G455">
-    <cfRule type="containsText" dxfId="96" priority="95" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="100" priority="99" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G455)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G455">
-    <cfRule type="containsText" dxfId="95" priority="96" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="99" priority="100" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G455)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G466">
-    <cfRule type="containsText" dxfId="94" priority="93" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="98" priority="97" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G466)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G466">
-    <cfRule type="containsText" dxfId="93" priority="94" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="97" priority="98" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G466)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G467">
-    <cfRule type="containsText" dxfId="92" priority="91" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="96" priority="95" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G467)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G467">
-    <cfRule type="containsText" dxfId="91" priority="92" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="95" priority="96" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G467)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G468">
-    <cfRule type="containsText" dxfId="90" priority="89" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="94" priority="93" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G468)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G468">
-    <cfRule type="containsText" dxfId="89" priority="90" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="93" priority="94" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G468)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G469">
-    <cfRule type="containsText" dxfId="88" priority="87" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="92" priority="91" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G469)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G469">
-    <cfRule type="containsText" dxfId="87" priority="88" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="91" priority="92" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G469)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G470">
-    <cfRule type="containsText" dxfId="86" priority="85" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="90" priority="89" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G470)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G470">
-    <cfRule type="containsText" dxfId="85" priority="86" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="89" priority="90" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G470)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G471">
-    <cfRule type="containsText" dxfId="84" priority="83" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="88" priority="87" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G471)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G471">
-    <cfRule type="containsText" dxfId="83" priority="84" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="87" priority="88" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G471)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G472">
-    <cfRule type="containsText" dxfId="82" priority="81" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="86" priority="85" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G472)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G472">
-    <cfRule type="containsText" dxfId="81" priority="82" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="85" priority="86" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G472)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G473">
-    <cfRule type="containsText" dxfId="80" priority="79" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="84" priority="83" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G473)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G473">
-    <cfRule type="containsText" dxfId="79" priority="80" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="83" priority="84" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G473)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G474">
-    <cfRule type="containsText" dxfId="78" priority="77" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="82" priority="81" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G474)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G474">
-    <cfRule type="containsText" dxfId="77" priority="78" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="81" priority="82" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G474)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G475">
-    <cfRule type="containsText" dxfId="76" priority="75" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="80" priority="79" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G475)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G475">
-    <cfRule type="containsText" dxfId="75" priority="76" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="79" priority="80" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G475)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G476">
-    <cfRule type="containsText" dxfId="74" priority="73" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="78" priority="77" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G476)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G476">
-    <cfRule type="containsText" dxfId="73" priority="74" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="77" priority="78" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G476)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G477">
-    <cfRule type="containsText" dxfId="72" priority="71" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="76" priority="75" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G477)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G477">
-    <cfRule type="containsText" dxfId="71" priority="72" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="75" priority="76" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G477)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G478">
-    <cfRule type="containsText" dxfId="70" priority="69" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="74" priority="73" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G478)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G478">
-    <cfRule type="containsText" dxfId="69" priority="70" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="73" priority="74" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G478)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G479">
-    <cfRule type="containsText" dxfId="68" priority="67" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="72" priority="71" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G479)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G479">
-    <cfRule type="containsText" dxfId="67" priority="68" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="71" priority="72" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G479)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G31:G36 G25:G28 B25:C36 M25:N36">
-    <cfRule type="containsText" dxfId="66" priority="64" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="70" priority="68" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B25)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G29:G30">
-    <cfRule type="containsText" dxfId="65" priority="65" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="69" priority="69" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G29)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G4 M4:N4 A4:C4">
-    <cfRule type="containsText" dxfId="64" priority="61" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="68" priority="65" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",A4)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O2:O90 O92:O670">
-    <cfRule type="containsText" dxfId="63" priority="59" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="67" priority="63" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",O2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2:G3 B2:C3 M2:N3">
-    <cfRule type="containsText" dxfId="62" priority="60" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="66" priority="64" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G261">
-    <cfRule type="containsText" dxfId="61" priority="58" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="65" priority="62" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G261)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A91:G91 O91">
-    <cfRule type="containsText" dxfId="60" priority="57" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="64" priority="61" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",A91)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B261">
-    <cfRule type="containsText" dxfId="59" priority="56" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="63" priority="60" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B261)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B515">
-    <cfRule type="containsText" dxfId="58" priority="55" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="62" priority="59" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B515)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M515:N515 G515">
-    <cfRule type="containsText" dxfId="57" priority="54" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="61" priority="58" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G515)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B172:B196">
-    <cfRule type="containsText" dxfId="56" priority="51" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="60" priority="55" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B172)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B172:B196">
-    <cfRule type="containsText" dxfId="55" priority="52" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="59" priority="56" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B172)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A63:B63">
-    <cfRule type="containsText" dxfId="50" priority="50" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="54" priority="54" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",A63)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A108:B108">
-    <cfRule type="containsText" dxfId="48" priority="49" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="52" priority="53" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",A108)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B108:C108">
-    <cfRule type="containsText" dxfId="47" priority="48" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="51" priority="52" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B108)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B109">
-    <cfRule type="containsText" dxfId="46" priority="47" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="50" priority="51" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B109)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B110">
-    <cfRule type="containsText" dxfId="45" priority="46" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="49" priority="50" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B110)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B112">
-    <cfRule type="containsText" dxfId="44" priority="45" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="48" priority="49" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B112)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B113">
-    <cfRule type="containsText" dxfId="43" priority="44" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="47" priority="48" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B113)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B114">
-    <cfRule type="containsText" dxfId="42" priority="43" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="46" priority="47" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B114)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B115">
-    <cfRule type="containsText" dxfId="41" priority="42" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="45" priority="46" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B115)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B115">
-    <cfRule type="containsText" dxfId="40" priority="41" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="44" priority="45" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B115)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A119:B119">
-    <cfRule type="containsText" dxfId="39" priority="40" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="43" priority="44" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",A119)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B119">
-    <cfRule type="containsText" dxfId="38" priority="39" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="42" priority="43" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B119)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B122">
-    <cfRule type="containsText" dxfId="37" priority="38" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="41" priority="42" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B122)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B122">
-    <cfRule type="containsText" dxfId="36" priority="37" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="40" priority="41" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B122)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B124">
-    <cfRule type="containsText" dxfId="35" priority="36" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="39" priority="40" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B124)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B124">
-    <cfRule type="containsText" dxfId="34" priority="35" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="38" priority="39" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B124)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B125">
-    <cfRule type="containsText" dxfId="33" priority="34" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="37" priority="38" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B125)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B125">
-    <cfRule type="containsText" dxfId="32" priority="33" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="36" priority="37" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B125)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B125">
-    <cfRule type="containsText" dxfId="31" priority="32" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="35" priority="36" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B125)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B125">
-    <cfRule type="containsText" dxfId="30" priority="31" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="34" priority="35" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B125)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B126">
-    <cfRule type="containsText" dxfId="29" priority="30" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="33" priority="34" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B126)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B126">
-    <cfRule type="containsText" dxfId="28" priority="29" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="32" priority="33" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B126)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B126">
-    <cfRule type="containsText" dxfId="27" priority="28" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="31" priority="32" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B126)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B129">
-    <cfRule type="containsText" dxfId="26" priority="27" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="30" priority="31" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B129)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B129">
-    <cfRule type="containsText" dxfId="25" priority="26" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="29" priority="30" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B129)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B129">
-    <cfRule type="containsText" dxfId="24" priority="25" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="28" priority="29" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B129)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B130">
-    <cfRule type="containsText" dxfId="23" priority="24" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="27" priority="28" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B130)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B130">
-    <cfRule type="containsText" dxfId="22" priority="23" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="26" priority="27" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B130)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B130">
-    <cfRule type="containsText" dxfId="21" priority="22" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="25" priority="26" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B130)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B131">
-    <cfRule type="containsText" dxfId="20" priority="21" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="24" priority="25" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B131)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B131">
-    <cfRule type="containsText" dxfId="19" priority="20" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="23" priority="24" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B131)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B131">
-    <cfRule type="containsText" dxfId="18" priority="19" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="22" priority="23" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B131)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B132">
-    <cfRule type="containsText" dxfId="17" priority="18" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="21" priority="22" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B132)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B132">
-    <cfRule type="containsText" dxfId="16" priority="17" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="20" priority="21" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B132)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B132">
-    <cfRule type="containsText" dxfId="15" priority="16" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="19" priority="20" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B132)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B134">
-    <cfRule type="containsText" dxfId="14" priority="15" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="18" priority="19" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B134)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B134">
-    <cfRule type="containsText" dxfId="13" priority="14" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="17" priority="18" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B134)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B134">
-    <cfRule type="containsText" dxfId="12" priority="13" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="16" priority="17" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B134)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B135">
-    <cfRule type="containsText" dxfId="11" priority="12" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="15" priority="16" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B135)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B135">
-    <cfRule type="containsText" dxfId="10" priority="11" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="14" priority="15" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B135)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B135">
-    <cfRule type="containsText" dxfId="9" priority="10" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="13" priority="14" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B135)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B136">
-    <cfRule type="containsText" dxfId="8" priority="9" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="12" priority="13" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B136)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B136">
-    <cfRule type="containsText" dxfId="7" priority="8" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="11" priority="12" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B136)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B136">
-    <cfRule type="containsText" dxfId="6" priority="7" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="10" priority="11" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B136)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B137">
-    <cfRule type="containsText" dxfId="5" priority="6" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="9" priority="10" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B137)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B137">
-    <cfRule type="containsText" dxfId="4" priority="5" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="8" priority="9" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B137)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B137">
-    <cfRule type="containsText" dxfId="3" priority="4" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="7" priority="8" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B137)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B138">
-    <cfRule type="containsText" dxfId="2" priority="3" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="6" priority="7" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B138)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B138">
-    <cfRule type="containsText" dxfId="1" priority="2" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="5" priority="6" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B138)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B138">
+    <cfRule type="containsText" dxfId="4" priority="5" operator="containsText" text="&lt;?&gt;">
+      <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B138)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B139">
+    <cfRule type="containsText" dxfId="3" priority="4" operator="containsText" text="&lt;?&gt;">
+      <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B139)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B139">
+    <cfRule type="containsText" dxfId="2" priority="3" operator="containsText" text="&lt;?&gt;">
+      <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B139)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B139">
+    <cfRule type="containsText" dxfId="1" priority="2" operator="containsText" text="&lt;?&gt;">
+      <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B139)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B139">
     <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="&lt;?&gt;">
-      <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B138)))</formula>
+      <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B139)))</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -45990,7 +46050,7 @@
   </sheetData>
   <autoFilter ref="A1:B1" xr:uid="{AF62FD2E-052D-40DF-8032-68688A8C1623}"/>
   <conditionalFormatting sqref="A2:B479">
-    <cfRule type="containsText" dxfId="54" priority="2" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="58" priority="2" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",A2)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -46320,12 +46380,12 @@
     <mergeCell ref="A1:B1"/>
   </mergeCells>
   <conditionalFormatting sqref="A1 C1 A2:C37 A39:C1048576">
-    <cfRule type="containsText" dxfId="53" priority="31" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="57" priority="31" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",A1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A38:C38">
-    <cfRule type="containsText" dxfId="52" priority="6" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="56" priority="6" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",A38)))</formula>
     </cfRule>
   </conditionalFormatting>

--- a/1.0.4/matrix/Validatiematrix v1.2.xlsx
+++ b/1.0.4/matrix/Validatiematrix v1.2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Default.DESKTOP-NDDI22K\Documents\Geonovum\github\xml_validatietestcontent\1.0.4\matrix\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{697387D2-08D9-4CF4-AC98-B8F51905537C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E088C358-B36F-4E8D-BB75-4DB6E5ECB279}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="348" windowWidth="23256" windowHeight="12720" tabRatio="670" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9531" uniqueCount="1788">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9533" uniqueCount="1788">
   <si>
     <t>Is Opdracht.zip een geldige zip</t>
   </si>
@@ -6343,7 +6343,107 @@
     <cellStyle name="Standaard 3 2" xfId="3" xr:uid="{A1634239-92B9-4583-AB04-DEBDF9A9A44B}"/>
     <cellStyle name="Standaard 3 3" xfId="5" xr:uid="{C77AD319-D6C6-4ABD-AE5A-A2C0A40B68E7}"/>
   </cellStyles>
-  <dxfs count="266">
+  <dxfs count="276">
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FFFF0000"/>
@@ -9373,7 +9473,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A121" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B139" sqref="B139"/>
+      <selection pane="bottomLeft" activeCell="A143" sqref="A143:B143"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -16180,11 +16280,11 @@
       </c>
     </row>
     <row r="142" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A142" s="70" t="s">
+      <c r="A142" s="84" t="s">
         <v>1169</v>
       </c>
-      <c r="B142" s="73">
-        <v>2</v>
+      <c r="B142" s="81" t="s">
+        <v>1779</v>
       </c>
       <c r="C142" s="38" t="s">
         <v>1291</v>
@@ -16228,11 +16328,11 @@
       </c>
     </row>
     <row r="143" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A143" s="70" t="s">
+      <c r="A143" s="84" t="s">
         <v>1169</v>
       </c>
-      <c r="B143" s="73">
-        <v>2</v>
+      <c r="B143" s="81" t="s">
+        <v>1779</v>
       </c>
       <c r="C143" s="38" t="s">
         <v>1293</v>
@@ -41643,1313 +41743,1363 @@
   </autoFilter>
   <phoneticPr fontId="5" type="noConversion"/>
   <conditionalFormatting sqref="F335:F339 C111:C115 F397:F408 F322:F333 F201 F269:F271 F267 F265 F259:F260 F223:F225 F219:F220 F214:F216 F203:F205 F291:G291 E450 H400:N408 G322:N339 E444:N445 M468:N475 B41:C53 B57:C62 B93:C95 B131:C138 M113:N116 G131:G138 M131:N138 B74:C81 M197:N197 G197 M41:N49 M51:N53 M57:N63 M74:N80 M88:N90 M93:N95 G51:G53 G57:G63 G74:G80 G88:G90 G93:G95 M577:N592 B66:C68 G66:G68 M66:N68 B109:C110 G108:G116 M108:N111 B148:C154 B83:C90 G84:G86 M84:N86 C116:D123 B144:C145 M144:N145 G144:G145 H155:N168 M148:N168 G148:G168 G201:N206 M451:N454 G505:G514 M504:N514 F208:N210 F212 F227:F230 G212:N230 G257:N260 F257 G118:G122 M118:N122 C126:D128 F370:F373 F346:G349 H346:N366 G370:G375 G385:G408 M596:N639 H370:N378 H385:N396 G39:G49 G37 A2:A3 B70:C70 M70:N70 G70 B1:O1 A140:B141 A144:B171 A197:B250 A255:B260 A262:B514 G262:N276 F262:F263 M641:N670 A37:B37 A25:A36 M5:N19 G5:G19 A516:B670 A515 M516:N575 G516:G670 A5:C24 A39:B62 A64:B68 A70:B90 A92:B107 A109:B118 A120:B124 A126:B138">
-    <cfRule type="containsText" dxfId="53" priority="420" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="63" priority="430" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",A1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B297:B305 B201:B206 B208:B250">
-    <cfRule type="containsText" dxfId="265" priority="515" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="275" priority="525" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B201)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F394:F396">
-    <cfRule type="containsText" dxfId="264" priority="505" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="274" priority="515" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",F394)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H290:N290">
-    <cfRule type="containsText" dxfId="263" priority="513" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="273" priority="523" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",H290)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M444:N445">
-    <cfRule type="containsText" dxfId="262" priority="504" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="272" priority="514" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",M444)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H445:L445">
-    <cfRule type="containsText" dxfId="261" priority="503" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="271" priority="513" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",H445)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G445:L445">
-    <cfRule type="containsText" dxfId="260" priority="502" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="270" priority="512" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G445)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M445:N445">
-    <cfRule type="containsText" dxfId="259" priority="500" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="269" priority="510" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",M445)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H444:L444">
-    <cfRule type="containsText" dxfId="258" priority="499" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="268" priority="509" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",H444)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G444:L444">
-    <cfRule type="containsText" dxfId="257" priority="498" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="267" priority="508" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G444)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M444:N444">
-    <cfRule type="containsText" dxfId="256" priority="496" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="266" priority="506" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",M444)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F334">
-    <cfRule type="containsText" dxfId="255" priority="495" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="265" priority="505" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",F334)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F374:F378 F385:F393">
-    <cfRule type="containsText" dxfId="254" priority="494" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="264" priority="504" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",F374)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H397:N398">
-    <cfRule type="containsText" dxfId="253" priority="493" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="263" priority="503" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",H397)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M455">
-    <cfRule type="containsText" dxfId="252" priority="462" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="262" priority="472" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",M455)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H450:N450">
-    <cfRule type="containsText" dxfId="251" priority="488" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="261" priority="498" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",H450)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N467">
-    <cfRule type="containsText" dxfId="250" priority="448" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="260" priority="458" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",N467)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H399:N399">
-    <cfRule type="containsText" dxfId="249" priority="431" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="259" priority="441" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",H399)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B466">
-    <cfRule type="containsText" dxfId="248" priority="479" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="258" priority="489" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B466)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M467">
-    <cfRule type="containsText" dxfId="247" priority="450" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="257" priority="460" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",M467)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G456">
-    <cfRule type="containsText" dxfId="246" priority="465" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="256" priority="475" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G456)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M466">
-    <cfRule type="containsText" dxfId="245" priority="454" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="255" priority="464" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",M466)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N455">
-    <cfRule type="containsText" dxfId="244" priority="460" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="254" priority="470" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",N455)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B455:B465">
-    <cfRule type="containsText" dxfId="243" priority="478" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="253" priority="488" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B455)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N466">
-    <cfRule type="containsText" dxfId="242" priority="452" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="252" priority="462" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",N466)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M456">
-    <cfRule type="containsText" dxfId="241" priority="458" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="251" priority="468" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",M456)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N456">
-    <cfRule type="containsText" dxfId="240" priority="456" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="250" priority="466" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",N456)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P342:X345">
-    <cfRule type="containsText" dxfId="239" priority="419" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="249" priority="429" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",P342)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E342:F342 E344:F345">
-    <cfRule type="containsText" dxfId="238" priority="418" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="248" priority="428" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",E342)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H344:H345">
-    <cfRule type="containsText" dxfId="237" priority="417" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="247" priority="427" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",H344)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I342 I344:I345">
-    <cfRule type="containsText" dxfId="236" priority="416" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="246" priority="426" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",I342)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J342 J344:J345">
-    <cfRule type="containsText" dxfId="235" priority="415" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="245" priority="425" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",J342)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K342 K344:K345">
-    <cfRule type="containsText" dxfId="234" priority="414" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="244" priority="424" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",K342)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L342 L344:L345">
-    <cfRule type="containsText" dxfId="233" priority="413" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="243" priority="423" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",L342)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M342 M344:M345">
-    <cfRule type="containsText" dxfId="232" priority="412" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="242" priority="422" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",M342)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N342 N344:N345">
-    <cfRule type="containsText" dxfId="231" priority="411" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="241" priority="421" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",N342)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P409:X409">
-    <cfRule type="containsText" dxfId="230" priority="410" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="240" priority="420" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",P409)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F409">
-    <cfRule type="containsText" dxfId="229" priority="409" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="239" priority="419" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",F409)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I409">
-    <cfRule type="containsText" dxfId="228" priority="407" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="238" priority="417" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",I409)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J409">
-    <cfRule type="containsText" dxfId="227" priority="406" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="237" priority="416" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",J409)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K409">
-    <cfRule type="containsText" dxfId="226" priority="405" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="236" priority="415" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",K409)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L409">
-    <cfRule type="containsText" dxfId="225" priority="404" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="235" priority="414" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",L409)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M409">
-    <cfRule type="containsText" dxfId="224" priority="403" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="234" priority="413" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",M409)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N409">
-    <cfRule type="containsText" dxfId="223" priority="402" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="233" priority="412" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",N409)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B505:B513">
-    <cfRule type="containsText" dxfId="222" priority="400" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="232" priority="410" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B505)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B514">
-    <cfRule type="containsText" dxfId="221" priority="379" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="231" priority="389" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B514)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B111:B114">
-    <cfRule type="containsText" dxfId="220" priority="367" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="230" priority="377" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B111)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B306 B296">
-    <cfRule type="containsText" dxfId="219" priority="368" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="229" priority="378" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B296)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B467:B475">
-    <cfRule type="containsText" dxfId="218" priority="365" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="228" priority="375" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B467)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B307:B321">
-    <cfRule type="containsText" dxfId="217" priority="366" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="227" priority="376" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B307)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B516">
-    <cfRule type="containsText" dxfId="216" priority="364" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="226" priority="374" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B516)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B450">
-    <cfRule type="containsText" dxfId="215" priority="362" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="225" priority="372" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B450)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B449">
-    <cfRule type="containsText" dxfId="214" priority="361" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="224" priority="371" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B449)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B322:B448">
-    <cfRule type="containsText" dxfId="213" priority="360" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="223" priority="370" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B322)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G504">
-    <cfRule type="containsText" dxfId="212" priority="340" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="222" priority="350" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G504)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C37 C39:C40">
-    <cfRule type="containsText" dxfId="211" priority="335" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="221" priority="345" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",C37)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E409">
-    <cfRule type="containsText" dxfId="210" priority="333" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="220" priority="343" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",E409)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M112:N112">
-    <cfRule type="containsText" dxfId="209" priority="326" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="219" priority="336" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",M112)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C71:D71">
-    <cfRule type="containsText" dxfId="208" priority="321" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="218" priority="331" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",C71)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C92:D92">
-    <cfRule type="containsText" dxfId="207" priority="319" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="217" priority="329" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",C92)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C129:D130">
-    <cfRule type="containsText" dxfId="206" priority="294" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="216" priority="304" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",C129)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G126:G130 M126:N130">
-    <cfRule type="containsText" dxfId="205" priority="293" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="215" priority="303" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G126)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B169:B171">
-    <cfRule type="containsText" dxfId="204" priority="292" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="214" priority="302" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B169)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G169:G170">
-    <cfRule type="containsText" dxfId="203" priority="291" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="213" priority="301" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G169)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H169:N170">
-    <cfRule type="containsText" dxfId="202" priority="290" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="212" priority="300" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",H169)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M446:N449 M438:N443 M420:N427 M92:N92 M87:N87 M71:N71 M54:N56 M50:N50 M37:N37 M39:N40">
-    <cfRule type="containsText" dxfId="201" priority="288" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="211" priority="298" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",M37)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M65:N65 G65">
-    <cfRule type="containsText" dxfId="200" priority="283" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="210" priority="293" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G65)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B64:B65">
-    <cfRule type="containsText" dxfId="199" priority="285" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="209" priority="295" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B64)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M64:N64 G64">
-    <cfRule type="containsText" dxfId="198" priority="284" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="208" priority="294" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G64)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B72:B73">
-    <cfRule type="containsText" dxfId="197" priority="279" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="207" priority="289" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B72)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M72:N72">
-    <cfRule type="containsText" dxfId="196" priority="281" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="206" priority="291" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",M72)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M73:N73">
-    <cfRule type="containsText" dxfId="195" priority="280" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="205" priority="290" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",M73)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B96:D107">
-    <cfRule type="containsText" dxfId="194" priority="276" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="204" priority="286" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B96)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M96:N107 G96:G107">
-    <cfRule type="containsText" dxfId="193" priority="277" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="203" priority="287" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G96)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M83:N83 G83">
-    <cfRule type="containsText" dxfId="192" priority="262" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="202" priority="272" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G83)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M82:N82 G82">
-    <cfRule type="containsText" dxfId="191" priority="261" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="201" priority="271" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G82)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G207:N207">
-    <cfRule type="containsText" dxfId="190" priority="269" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="200" priority="279" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G207)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B146:B147">
-    <cfRule type="containsText" dxfId="189" priority="271" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="199" priority="281" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B146)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G146:G147 M146:N147">
-    <cfRule type="containsText" dxfId="188" priority="270" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="198" priority="280" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G146)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B82">
-    <cfRule type="containsText" dxfId="187" priority="263" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="197" priority="273" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B82)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G123 M123:N123">
-    <cfRule type="containsText" dxfId="186" priority="260" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="196" priority="270" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G123)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B140:B141">
-    <cfRule type="containsText" dxfId="185" priority="257" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="195" priority="267" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B140)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G140:G141 M140:N141">
-    <cfRule type="containsText" dxfId="184" priority="256" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="194" priority="266" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G140)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B198:B200">
-    <cfRule type="containsText" dxfId="183" priority="207" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="193" priority="217" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B198)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M198:N200 G198:G200">
-    <cfRule type="containsText" dxfId="182" priority="206" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="192" priority="216" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G198)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B255:B258">
-    <cfRule type="containsText" dxfId="181" priority="196" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="191" priority="206" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B255)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B517:B546">
-    <cfRule type="containsText" dxfId="180" priority="193" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="190" priority="203" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B517)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G81">
-    <cfRule type="containsText" dxfId="179" priority="191" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="189" priority="201" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G81)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H171:N171">
-    <cfRule type="containsText" dxfId="178" priority="187" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="188" priority="197" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",H171)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F211:N211">
-    <cfRule type="containsText" dxfId="177" priority="185" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="187" priority="195" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",F211)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G171">
-    <cfRule type="containsText" dxfId="176" priority="188" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="186" priority="198" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G171)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F231:N249 F255:N256">
-    <cfRule type="containsText" dxfId="175" priority="182" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="185" priority="192" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",F231)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M117:N117 G117">
-    <cfRule type="containsText" dxfId="174" priority="181" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="184" priority="191" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G117)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B124:D124">
-    <cfRule type="containsText" dxfId="173" priority="180" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="183" priority="190" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B124)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G124 M124:N124">
-    <cfRule type="containsText" dxfId="172" priority="179" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="182" priority="189" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G124)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F250:N250">
-    <cfRule type="containsText" dxfId="171" priority="178" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="181" priority="188" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",F250)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1">
-    <cfRule type="containsText" dxfId="170" priority="177" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="180" priority="187" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",A1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G342">
-    <cfRule type="containsText" dxfId="169" priority="175" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="179" priority="185" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G342)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H342">
-    <cfRule type="containsText" dxfId="168" priority="174" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="178" priority="184" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",H342)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F340">
-    <cfRule type="containsText" dxfId="167" priority="173" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="177" priority="183" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",F340)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F350:F366">
-    <cfRule type="containsText" dxfId="166" priority="172" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="176" priority="182" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",F350)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I340">
-    <cfRule type="containsText" dxfId="165" priority="171" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="175" priority="181" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",I340)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J340">
-    <cfRule type="containsText" dxfId="164" priority="170" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="174" priority="180" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",J340)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K340">
-    <cfRule type="containsText" dxfId="163" priority="169" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="173" priority="179" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",K340)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L340">
-    <cfRule type="containsText" dxfId="162" priority="168" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="172" priority="178" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",L340)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M340">
-    <cfRule type="containsText" dxfId="161" priority="167" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="171" priority="177" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",M340)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N340">
-    <cfRule type="containsText" dxfId="160" priority="166" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="170" priority="176" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",N340)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H340">
-    <cfRule type="containsText" dxfId="159" priority="165" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="169" priority="175" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",H340)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G20:G24 M20:N24">
-    <cfRule type="containsText" dxfId="158" priority="161" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="168" priority="171" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G20)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G457:G465">
-    <cfRule type="containsText" dxfId="157" priority="160" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="167" priority="170" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G457)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M457:M465">
-    <cfRule type="containsText" dxfId="156" priority="159" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="166" priority="169" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",M457)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N457:N465">
-    <cfRule type="containsText" dxfId="155" priority="158" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="165" priority="168" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",N457)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M593:N593">
-    <cfRule type="containsText" dxfId="154" priority="157" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="164" priority="167" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",M593)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M594:N594">
-    <cfRule type="containsText" dxfId="153" priority="156" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="163" priority="166" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",M594)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F341">
-    <cfRule type="containsText" dxfId="152" priority="155" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="162" priority="165" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",F341)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I341">
-    <cfRule type="containsText" dxfId="151" priority="154" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="161" priority="164" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",I341)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J341">
-    <cfRule type="containsText" dxfId="150" priority="153" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="160" priority="163" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",J341)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K341">
-    <cfRule type="containsText" dxfId="149" priority="152" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="159" priority="162" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",K341)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L341">
-    <cfRule type="containsText" dxfId="148" priority="151" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="158" priority="161" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",L341)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormat